--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -398,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -579,7 +585,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -836,6 +842,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,9 +1172,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD145"/>
+  <dimension ref="A1:AD146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
@@ -5865,28 +5898,28 @@
       <c r="AD74" s="3"/>
     </row>
     <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="88"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="91"/>
+      <c r="M75" s="92"/>
+      <c r="N75" s="92"/>
+      <c r="O75" s="93"/>
+      <c r="P75" s="93"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="95"/>
+      <c r="T75" s="95"/>
+      <c r="U75" s="95"/>
+      <c r="V75" s="95"/>
+      <c r="W75" s="96"/>
+      <c r="X75" s="96"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -5898,33 +5931,14 @@
       <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B76" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="16">
-        <v>4000</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E76" s="16">
-        <v>20000</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" s="13">
-        <v>200000</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I76" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
@@ -6005,22 +6019,22 @@
       <c r="B78" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="16">
         <v>4000</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="16">
         <v>20000</v>
       </c>
-      <c r="F78" s="45" t="s">
+      <c r="F78" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G78" s="37">
+      <c r="G78" s="13">
         <v>200000</v>
       </c>
-      <c r="H78" s="37" t="s">
+      <c r="H78" s="13" t="s">
         <v>69</v>
       </c>
       <c r="I78" s="9">
@@ -6109,28 +6123,28 @@
       <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="11">
         <v>4000</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E80" s="47">
+      <c r="E80" s="45">
         <v>20000</v>
       </c>
-      <c r="F80" s="47" t="s">
+      <c r="F80" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="37">
         <v>200000</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="9">
         <v>1500000</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="9" t="s">
         <v>87</v>
       </c>
       <c r="K80" s="4"/>
@@ -6161,42 +6175,34 @@
       <c r="B81" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="20">
-        <v>400</v>
-      </c>
-      <c r="D81" s="20" t="s">
+      <c r="C81" s="7">
+        <v>4000</v>
+      </c>
+      <c r="D81" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E81" s="20">
-        <v>1000</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G81" s="16">
-        <v>10000</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I81" s="13">
-        <v>100000</v>
-      </c>
-      <c r="J81" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="K81" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="L81" s="11" t="s">
+      <c r="E81" s="47">
+        <v>20000</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="12">
+        <v>200000</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="J81" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M81" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -6281,16 +6287,16 @@
       <c r="B83" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="20">
         <v>400</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="20">
         <v>1000</v>
       </c>
-      <c r="F83" s="51" t="s">
+      <c r="F83" s="20" t="s">
         <v>85</v>
       </c>
       <c r="G83" s="16">
@@ -6401,22 +6407,22 @@
       <c r="B85" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C85" s="16">
         <v>400</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="51">
         <v>1000</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G85" s="44">
+      <c r="G85" s="16">
         <v>10000</v>
       </c>
-      <c r="H85" s="44" t="s">
+      <c r="H85" s="16" t="s">
         <v>68</v>
       </c>
       <c r="I85" s="13">
@@ -6521,34 +6527,42 @@
       <c r="B87" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="15">
-        <v>12500</v>
-      </c>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="13">
+        <v>400</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="15">
-        <v>75000</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G87" s="11">
-        <v>750000</v>
-      </c>
-      <c r="H87" s="11" t="s">
+      <c r="E87" s="31">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" s="44">
+        <v>10000</v>
+      </c>
+      <c r="H87" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87" s="13">
+        <v>100000</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K87" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="L87" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="I87" s="7">
-        <v>2500000</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+      <c r="M87" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
@@ -6573,16 +6587,16 @@
       <c r="B88" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C88" s="15">
         <v>12500</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="15">
         <v>75000</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="15" t="s">
         <v>63</v>
       </c>
       <c r="G88" s="11">
@@ -6625,16 +6639,16 @@
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="13">
         <v>12500</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E89" s="36">
+      <c r="E89" s="17">
         <v>75000</v>
       </c>
-      <c r="F89" s="36" t="s">
+      <c r="F89" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G89" s="11">
@@ -6677,22 +6691,22 @@
       <c r="B90" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="11">
         <v>12500</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="36">
         <v>75000</v>
       </c>
-      <c r="F90" s="41" t="s">
+      <c r="F90" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G90" s="43">
+      <c r="G90" s="11">
         <v>750000</v>
       </c>
-      <c r="H90" s="43" t="s">
+      <c r="H90" s="11" t="s">
         <v>87</v>
       </c>
       <c r="I90" s="7">
@@ -6729,22 +6743,22 @@
       <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="9">
         <v>12500</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="41">
         <v>75000</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="43">
         <v>750000</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="43" t="s">
         <v>87</v>
       </c>
       <c r="I91" s="7">
@@ -6781,26 +6795,30 @@
       <c r="B92" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="13">
-        <v>15000</v>
-      </c>
-      <c r="D92" s="13" t="s">
+      <c r="C92" s="7">
+        <v>12500</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="14">
+        <v>75000</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="10">
+        <v>750000</v>
+      </c>
+      <c r="H92" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G92" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="H92" s="7" t="s">
+      <c r="I92" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -6829,10 +6847,10 @@
       <c r="B93" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="13">
         <v>15000</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E93" s="9">
@@ -6877,10 +6895,10 @@
       <c r="B94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="11">
         <v>15000</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E94" s="9">
@@ -6973,16 +6991,16 @@
       <c r="B96" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="9">
         <v>15000</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="9">
         <v>2000000</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>87</v>
       </c>
       <c r="G96" s="7">
@@ -7021,23 +7039,23 @@
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="11">
-        <v>6000</v>
-      </c>
-      <c r="D97" s="11" t="s">
+      <c r="C97" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E97" s="11">
-        <v>600000</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>63</v>
+      <c r="E97" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="G97" s="7">
-        <v>1300000</v>
+        <v>4000000</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7117,16 +7135,16 @@
       <c r="B99" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="11">
         <v>6000</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="11">
         <v>600000</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="11" t="s">
         <v>63</v>
       </c>
       <c r="G99" s="7">
@@ -7165,16 +7183,24 @@
       <c r="B100" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="19">
-        <v>2000</v>
-      </c>
-      <c r="D100" s="19" t="s">
+      <c r="C100" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="E100" s="10">
+        <v>600000</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G100" s="7">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -7245,10 +7271,10 @@
       <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="19">
         <v>2000</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E102" s="4"/>
@@ -7325,10 +7351,10 @@
       <c r="B104" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="15">
         <v>2000</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E104" s="4"/>
@@ -7402,8 +7428,15 @@
       <c r="A106" t="s">
         <v>19</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="B106" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -7435,57 +7468,22 @@
       <c r="A107" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B107" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="6">
-        <v>250</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" s="22">
-        <v>2500</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G107" s="20">
-        <v>10000</v>
-      </c>
-      <c r="H107" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I107" s="19">
-        <v>100000</v>
-      </c>
-      <c r="J107" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K107" s="16">
-        <v>250000</v>
-      </c>
-      <c r="L107" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M107" s="15">
-        <v>750000</v>
-      </c>
-      <c r="N107" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O107" s="9">
-        <v>2250000</v>
-      </c>
-      <c r="P107" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q107" s="7">
-        <v>6750000</v>
-      </c>
-      <c r="R107" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
@@ -7506,16 +7504,16 @@
       <c r="B108" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="20">
+      <c r="C108" s="6">
         <v>250</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="21">
+      <c r="E108" s="22">
         <v>2500</v>
       </c>
-      <c r="F108" s="21" t="s">
+      <c r="F108" s="22" t="s">
         <v>67</v>
       </c>
       <c r="G108" s="20">
@@ -7574,28 +7572,28 @@
       <c r="B109" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="20">
         <v>250</v>
       </c>
-      <c r="D109" s="16" t="s">
+      <c r="D109" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E109" s="50">
+      <c r="E109" s="21">
         <v>2500</v>
       </c>
-      <c r="F109" s="50" t="s">
+      <c r="F109" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G109" s="51">
+      <c r="G109" s="20">
         <v>10000</v>
       </c>
-      <c r="H109" s="51" t="s">
+      <c r="H109" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I109" s="52">
+      <c r="I109" s="19">
         <v>100000</v>
       </c>
-      <c r="J109" s="52" t="s">
+      <c r="J109" s="19" t="s">
         <v>88</v>
       </c>
       <c r="K109" s="16">
@@ -7642,40 +7640,40 @@
       <c r="B110" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="13">
+      <c r="C110" s="16">
         <v>250</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E110" s="50">
         <v>2500</v>
       </c>
-      <c r="F110" s="30" t="s">
+      <c r="F110" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="G110" s="31">
+      <c r="G110" s="51">
         <v>10000</v>
       </c>
-      <c r="H110" s="31" t="s">
+      <c r="H110" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="I110" s="32">
+      <c r="I110" s="52">
         <v>100000</v>
       </c>
-      <c r="J110" s="32" t="s">
+      <c r="J110" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="K110" s="44">
+      <c r="K110" s="16">
         <v>250000</v>
       </c>
-      <c r="L110" s="44" t="s">
+      <c r="L110" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="M110" s="17">
+      <c r="M110" s="15">
         <v>750000</v>
       </c>
-      <c r="N110" s="17" t="s">
+      <c r="N110" s="15" t="s">
         <v>77</v>
       </c>
       <c r="O110" s="9">
@@ -7710,66 +7708,58 @@
       <c r="B111" t="s">
         <v>54</v>
       </c>
-      <c r="C111" s="6">
-        <v>200</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G111" s="6">
+      <c r="C111" s="13">
+        <v>250</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="30">
         <v>2500</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I111" s="22">
-        <v>5000</v>
-      </c>
-      <c r="J111" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K111" s="20">
+      <c r="F111" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111" s="31">
         <v>10000</v>
       </c>
-      <c r="L111" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="M111" s="19">
-        <v>80000</v>
-      </c>
-      <c r="N111" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="O111" s="16">
-        <v>240000</v>
-      </c>
-      <c r="P111" s="16" t="s">
+      <c r="H111" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I111" s="32">
+        <v>100000</v>
+      </c>
+      <c r="J111" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K111" s="44">
+        <v>250000</v>
+      </c>
+      <c r="L111" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="Q111" s="15">
-        <v>700000</v>
-      </c>
-      <c r="R111" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S111" s="13">
-        <v>1500000</v>
-      </c>
-      <c r="T111" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="U111" s="11">
-        <v>2000000</v>
-      </c>
-      <c r="V111" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="M111" s="17">
+        <v>750000</v>
+      </c>
+      <c r="N111" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O111" s="9">
+        <v>2250000</v>
+      </c>
+      <c r="P111" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>6750000</v>
+      </c>
+      <c r="R111" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
@@ -7786,22 +7776,22 @@
       <c r="B112" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="22">
+      <c r="C112" s="6">
         <v>200</v>
       </c>
-      <c r="D112" s="22" t="s">
+      <c r="D112" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E112" s="57">
+      <c r="E112" s="6">
         <v>1000</v>
       </c>
-      <c r="F112" s="57" t="s">
+      <c r="F112" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G112" s="57">
+      <c r="G112" s="6">
         <v>2500</v>
       </c>
-      <c r="H112" s="57" t="s">
+      <c r="H112" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I112" s="22">
@@ -7862,34 +7852,34 @@
       <c r="B113" t="s">
         <v>54</v>
       </c>
-      <c r="C113" s="19">
+      <c r="C113" s="22">
         <v>200</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="56">
+      <c r="E113" s="57">
         <v>1000</v>
       </c>
-      <c r="F113" s="56" t="s">
+      <c r="F113" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G113" s="56">
+      <c r="G113" s="57">
         <v>2500</v>
       </c>
-      <c r="H113" s="56" t="s">
+      <c r="H113" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="I113" s="23">
+      <c r="I113" s="22">
         <v>5000</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K113" s="24">
+      <c r="K113" s="20">
         <v>10000</v>
       </c>
-      <c r="L113" s="24" t="s">
+      <c r="L113" s="20" t="s">
         <v>89</v>
       </c>
       <c r="M113" s="19">
@@ -7938,52 +7928,52 @@
       <c r="B114" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="13">
+      <c r="C114" s="19">
         <v>200</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="56">
         <v>1000</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="56">
         <v>2500</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="I114" s="30">
+      <c r="I114" s="23">
         <v>5000</v>
       </c>
-      <c r="J114" s="30" t="s">
+      <c r="J114" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K114" s="31">
+      <c r="K114" s="24">
         <v>10000</v>
       </c>
-      <c r="L114" s="31" t="s">
+      <c r="L114" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="M114" s="32">
+      <c r="M114" s="19">
         <v>80000</v>
       </c>
-      <c r="N114" s="32" t="s">
+      <c r="N114" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="O114" s="44">
+      <c r="O114" s="16">
         <v>240000</v>
       </c>
-      <c r="P114" s="44" t="s">
+      <c r="P114" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="Q114" s="17">
+      <c r="Q114" s="15">
         <v>700000</v>
       </c>
-      <c r="R114" s="17" t="s">
+      <c r="R114" s="15" t="s">
         <v>70</v>
       </c>
       <c r="S114" s="13">
@@ -8012,52 +8002,68 @@
         <v>21</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C115" s="13">
-        <v>750000</v>
+        <v>200</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E115" s="13">
-        <v>1250000</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G115" s="11">
-        <v>1750000</v>
-      </c>
-      <c r="H115" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G115" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115" s="30">
+        <v>5000</v>
+      </c>
+      <c r="J115" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K115" s="31">
+        <v>10000</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="M115" s="32">
+        <v>80000</v>
+      </c>
+      <c r="N115" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="O115" s="44">
+        <v>240000</v>
+      </c>
+      <c r="P115" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q115" s="17">
+        <v>700000</v>
+      </c>
+      <c r="R115" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="S115" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="T115" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="U115" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="V115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I115" s="11">
-        <v>2250000</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K115" s="9">
-        <v>2750000</v>
-      </c>
-      <c r="L115" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M115" s="9">
-        <v>3500000</v>
-      </c>
-      <c r="N115" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
@@ -8074,16 +8080,16 @@
       <c r="B116" t="s">
         <v>55</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C116" s="13">
         <v>750000</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E116" s="37">
+      <c r="E116" s="13">
         <v>1250000</v>
       </c>
-      <c r="F116" s="37" t="s">
+      <c r="F116" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G116" s="11">
@@ -8131,18 +8137,45 @@
       <c r="A117" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="11">
+        <v>750000</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" s="37">
+        <v>1250000</v>
+      </c>
+      <c r="F117" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G117" s="11">
+        <v>1750000</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117" s="11">
+        <v>2250000</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K117" s="9">
+        <v>2750000</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M117" s="9">
+        <v>3500000</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
@@ -8164,81 +8197,30 @@
       <c r="A118" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B118" t="s">
-        <v>54</v>
-      </c>
-      <c r="C118" s="6">
-        <v>150</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E118" s="6">
-        <v>300</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="22">
-        <v>700</v>
-      </c>
-      <c r="H118" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I118" s="22">
-        <v>1400</v>
-      </c>
-      <c r="J118" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K118" s="20">
-        <v>3000</v>
-      </c>
-      <c r="L118" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="M118" s="20">
-        <v>7000</v>
-      </c>
-      <c r="N118" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="O118" s="19">
-        <v>14000</v>
-      </c>
-      <c r="P118" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q118" s="19">
-        <v>28000</v>
-      </c>
-      <c r="R118" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="S118" s="16">
-        <v>56000</v>
-      </c>
-      <c r="T118" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="U118" s="16">
-        <v>84000</v>
-      </c>
-      <c r="V118" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W118" s="13">
-        <v>168000</v>
-      </c>
-      <c r="X118" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y118" s="11">
-        <v>336000</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
       <c r="AA118" s="4"/>
       <c r="AB118" s="4"/>
       <c r="AC118" s="3"/>
@@ -8251,16 +8233,16 @@
       <c r="B119" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="22">
+      <c r="C119" s="6">
         <v>150</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D119" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E119" s="57">
+      <c r="E119" s="6">
         <v>300</v>
       </c>
-      <c r="F119" s="57" t="s">
+      <c r="F119" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G119" s="22">
@@ -8335,28 +8317,28 @@
       <c r="B120" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="20">
+      <c r="C120" s="22">
         <v>150</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="D120" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E120" s="58">
+      <c r="E120" s="57">
         <v>300</v>
       </c>
-      <c r="F120" s="58" t="s">
+      <c r="F120" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="G120" s="21">
+      <c r="G120" s="22">
         <v>700</v>
       </c>
-      <c r="H120" s="21" t="s">
+      <c r="H120" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I120" s="21">
+      <c r="I120" s="22">
         <v>1400</v>
       </c>
-      <c r="J120" s="21" t="s">
+      <c r="J120" s="22" t="s">
         <v>67</v>
       </c>
       <c r="K120" s="20">
@@ -8419,40 +8401,40 @@
       <c r="B121" t="s">
         <v>54</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C121" s="20">
         <v>150</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E121" s="56">
+      <c r="E121" s="58">
         <v>300</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G121" s="23">
+      <c r="G121" s="21">
         <v>700</v>
       </c>
-      <c r="H121" s="23" t="s">
+      <c r="H121" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I121" s="23">
+      <c r="I121" s="21">
         <v>1400</v>
       </c>
-      <c r="J121" s="23" t="s">
+      <c r="J121" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K121" s="24">
+      <c r="K121" s="20">
         <v>3000</v>
       </c>
-      <c r="L121" s="24" t="s">
+      <c r="L121" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M121" s="24">
+      <c r="M121" s="20">
         <v>7000</v>
       </c>
-      <c r="N121" s="24" t="s">
+      <c r="N121" s="20" t="s">
         <v>63</v>
       </c>
       <c r="O121" s="19">
@@ -8503,52 +8485,52 @@
       <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="16">
+      <c r="C122" s="19">
         <v>150</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E122" s="49">
+      <c r="E122" s="56">
         <v>300</v>
       </c>
-      <c r="F122" s="49" t="s">
+      <c r="F122" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="G122" s="50">
+      <c r="G122" s="23">
         <v>700</v>
       </c>
-      <c r="H122" s="50" t="s">
+      <c r="H122" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I122" s="50">
+      <c r="I122" s="23">
         <v>1400</v>
       </c>
-      <c r="J122" s="50" t="s">
+      <c r="J122" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K122" s="51">
+      <c r="K122" s="24">
         <v>3000</v>
       </c>
-      <c r="L122" s="51" t="s">
+      <c r="L122" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M122" s="51">
+      <c r="M122" s="24">
         <v>7000</v>
       </c>
-      <c r="N122" s="51" t="s">
+      <c r="N122" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O122" s="52">
+      <c r="O122" s="19">
         <v>14000</v>
       </c>
-      <c r="P122" s="52" t="s">
+      <c r="P122" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Q122" s="52">
+      <c r="Q122" s="19">
         <v>28000</v>
       </c>
-      <c r="R122" s="52" t="s">
+      <c r="R122" s="19" t="s">
         <v>87</v>
       </c>
       <c r="S122" s="16">
@@ -8587,64 +8569,64 @@
       <c r="B123" t="s">
         <v>54</v>
       </c>
-      <c r="C123" s="15">
+      <c r="C123" s="16">
         <v>150</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D123" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E123" s="75">
+      <c r="E123" s="49">
         <v>300</v>
       </c>
-      <c r="F123" s="75" t="s">
+      <c r="F123" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G123" s="76">
+      <c r="G123" s="50">
         <v>700</v>
       </c>
-      <c r="H123" s="76" t="s">
+      <c r="H123" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I123" s="76">
+      <c r="I123" s="50">
         <v>1400</v>
       </c>
-      <c r="J123" s="76" t="s">
+      <c r="J123" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="K123" s="77">
+      <c r="K123" s="51">
         <v>3000</v>
       </c>
-      <c r="L123" s="77" t="s">
+      <c r="L123" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M123" s="77">
+      <c r="M123" s="51">
         <v>7000</v>
       </c>
-      <c r="N123" s="77" t="s">
+      <c r="N123" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O123" s="78">
+      <c r="O123" s="52">
         <v>14000</v>
       </c>
-      <c r="P123" s="78" t="s">
+      <c r="P123" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="Q123" s="78">
+      <c r="Q123" s="52">
         <v>28000</v>
       </c>
-      <c r="R123" s="78" t="s">
+      <c r="R123" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="S123" s="55">
+      <c r="S123" s="16">
         <v>56000</v>
       </c>
-      <c r="T123" s="55" t="s">
+      <c r="T123" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="U123" s="55">
+      <c r="U123" s="16">
         <v>84000</v>
       </c>
-      <c r="V123" s="55" t="s">
+      <c r="V123" s="16" t="s">
         <v>77</v>
       </c>
       <c r="W123" s="13">
@@ -8671,76 +8653,76 @@
       <c r="B124" t="s">
         <v>54</v>
       </c>
-      <c r="C124" s="7">
+      <c r="C124" s="15">
         <v>150</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E124" s="59">
+      <c r="E124" s="75">
         <v>300</v>
       </c>
-      <c r="F124" s="59" t="s">
+      <c r="F124" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="G124" s="60">
+      <c r="G124" s="76">
         <v>700</v>
       </c>
-      <c r="H124" s="60" t="s">
+      <c r="H124" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="I124" s="60">
+      <c r="I124" s="76">
         <v>1400</v>
       </c>
-      <c r="J124" s="60" t="s">
+      <c r="J124" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="K124" s="61">
+      <c r="K124" s="77">
         <v>3000</v>
       </c>
-      <c r="L124" s="61" t="s">
+      <c r="L124" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M124" s="61">
+      <c r="M124" s="77">
         <v>7000</v>
       </c>
-      <c r="N124" s="61" t="s">
+      <c r="N124" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="O124" s="62">
+      <c r="O124" s="78">
         <v>14000</v>
       </c>
-      <c r="P124" s="62" t="s">
+      <c r="P124" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="Q124" s="62">
+      <c r="Q124" s="78">
         <v>28000</v>
       </c>
-      <c r="R124" s="62" t="s">
+      <c r="R124" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S124" s="47">
+      <c r="S124" s="55">
         <v>56000</v>
       </c>
-      <c r="T124" s="47" t="s">
+      <c r="T124" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="U124" s="47">
+      <c r="U124" s="55">
         <v>84000</v>
       </c>
-      <c r="V124" s="47" t="s">
+      <c r="V124" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="W124" s="63">
+      <c r="W124" s="13">
         <v>168000</v>
       </c>
-      <c r="X124" s="63" t="s">
+      <c r="X124" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Y124" s="64">
+      <c r="Y124" s="11">
         <v>336000</v>
       </c>
-      <c r="Z124" s="64" t="s">
+      <c r="Z124" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AA124" s="4"/>
@@ -8755,74 +8737,78 @@
       <c r="B125" t="s">
         <v>54</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="7">
+        <v>150</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E125" s="59">
         <v>300</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E125" s="22">
-        <v>750</v>
-      </c>
-      <c r="F125" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G125" s="22">
-        <v>1500</v>
-      </c>
-      <c r="H125" s="22" t="s">
+      <c r="F125" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" s="60">
+        <v>700</v>
+      </c>
+      <c r="H125" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I125" s="60">
+        <v>1400</v>
+      </c>
+      <c r="J125" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="I125" s="20">
+      <c r="K125" s="61">
         <v>3000</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="L125" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="K125" s="20">
-        <v>6000</v>
-      </c>
-      <c r="L125" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M125" s="20">
-        <v>12000</v>
-      </c>
-      <c r="N125" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O125" s="19">
-        <v>25000</v>
-      </c>
-      <c r="P125" s="19" t="s">
+      <c r="M125" s="61">
+        <v>7000</v>
+      </c>
+      <c r="N125" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="Q125" s="19">
-        <v>50000</v>
-      </c>
-      <c r="R125" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="S125" s="16">
-        <v>100000</v>
-      </c>
-      <c r="T125" s="16" t="s">
+      <c r="O125" s="62">
+        <v>14000</v>
+      </c>
+      <c r="P125" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="U125" s="15">
-        <v>250000</v>
-      </c>
-      <c r="V125" s="15" t="s">
+      <c r="Q125" s="62">
+        <v>28000</v>
+      </c>
+      <c r="R125" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="W125" s="13">
-        <v>500000</v>
-      </c>
-      <c r="X125" s="13" t="s">
+      <c r="S125" s="47">
+        <v>56000</v>
+      </c>
+      <c r="T125" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
+      <c r="U125" s="47">
+        <v>84000</v>
+      </c>
+      <c r="V125" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="W125" s="63">
+        <v>168000</v>
+      </c>
+      <c r="X125" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y125" s="64">
+        <v>336000</v>
+      </c>
+      <c r="Z125" s="64" t="s">
+        <v>58</v>
+      </c>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
       <c r="AC125" s="3"/>
@@ -8835,22 +8821,22 @@
       <c r="B126" t="s">
         <v>54</v>
       </c>
-      <c r="C126" s="20">
+      <c r="C126" s="6">
         <v>300</v>
       </c>
-      <c r="D126" s="20" t="s">
+      <c r="D126" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E126" s="21">
+      <c r="E126" s="22">
         <v>750</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G126" s="22">
         <v>1500</v>
       </c>
-      <c r="H126" s="21" t="s">
+      <c r="H126" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I126" s="20">
@@ -8915,70 +8901,70 @@
       <c r="B127" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="11">
+      <c r="C127" s="20">
         <v>300</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D127" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="65">
+      <c r="E127" s="21">
         <v>750</v>
       </c>
-      <c r="F127" s="65" t="s">
+      <c r="F127" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G127" s="65">
+      <c r="G127" s="21">
         <v>1500</v>
       </c>
-      <c r="H127" s="65" t="s">
+      <c r="H127" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I127" s="66">
+      <c r="I127" s="20">
         <v>3000</v>
       </c>
-      <c r="J127" s="66" t="s">
+      <c r="J127" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K127" s="66">
+      <c r="K127" s="20">
         <v>6000</v>
       </c>
-      <c r="L127" s="66" t="s">
+      <c r="L127" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M127" s="66">
+      <c r="M127" s="20">
         <v>12000</v>
       </c>
-      <c r="N127" s="66" t="s">
+      <c r="N127" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O127" s="67">
+      <c r="O127" s="19">
         <v>25000</v>
       </c>
-      <c r="P127" s="67" t="s">
+      <c r="P127" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Q127" s="67">
+      <c r="Q127" s="19">
         <v>50000</v>
       </c>
-      <c r="R127" s="67" t="s">
+      <c r="R127" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="S127" s="45">
+      <c r="S127" s="16">
         <v>100000</v>
       </c>
-      <c r="T127" s="45" t="s">
+      <c r="T127" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="U127" s="68">
+      <c r="U127" s="15">
         <v>250000</v>
       </c>
-      <c r="V127" s="68" t="s">
+      <c r="V127" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="W127" s="69">
+      <c r="W127" s="13">
         <v>500000</v>
       </c>
-      <c r="X127" s="69" t="s">
+      <c r="X127" s="13" t="s">
         <v>70</v>
       </c>
       <c r="Y127" s="4"/>
@@ -8995,70 +8981,70 @@
       <c r="B128" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="11">
         <v>300</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E128" s="70">
+      <c r="E128" s="65">
         <v>750</v>
       </c>
-      <c r="F128" s="70" t="s">
+      <c r="F128" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G128" s="70">
+      <c r="G128" s="65">
         <v>1500</v>
       </c>
-      <c r="H128" s="70" t="s">
+      <c r="H128" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="I128" s="71">
+      <c r="I128" s="66">
         <v>3000</v>
       </c>
-      <c r="J128" s="71" t="s">
+      <c r="J128" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="K128" s="71">
+      <c r="K128" s="66">
         <v>6000</v>
       </c>
-      <c r="L128" s="71" t="s">
+      <c r="L128" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="M128" s="71">
+      <c r="M128" s="66">
         <v>12000</v>
       </c>
-      <c r="N128" s="71" t="s">
+      <c r="N128" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="O128" s="72">
+      <c r="O128" s="67">
         <v>25000</v>
       </c>
-      <c r="P128" s="72" t="s">
+      <c r="P128" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="Q128" s="72">
+      <c r="Q128" s="67">
         <v>50000</v>
       </c>
-      <c r="R128" s="72" t="s">
+      <c r="R128" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="S128" s="46">
+      <c r="S128" s="45">
         <v>100000</v>
       </c>
-      <c r="T128" s="46" t="s">
+      <c r="T128" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="U128" s="73">
+      <c r="U128" s="68">
         <v>250000</v>
       </c>
-      <c r="V128" s="73" t="s">
+      <c r="V128" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="W128" s="74">
+      <c r="W128" s="69">
         <v>500000</v>
       </c>
-      <c r="X128" s="74" t="s">
+      <c r="X128" s="69" t="s">
         <v>70</v>
       </c>
       <c r="Y128" s="4"/>
@@ -9073,80 +9059,76 @@
         <v>46</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="6">
-        <v>150</v>
-      </c>
-      <c r="D129" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="9">
+        <v>300</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="6">
-        <v>300</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G129" s="22">
-        <v>700</v>
-      </c>
-      <c r="H129" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I129" s="22">
-        <v>1400</v>
-      </c>
-      <c r="J129" s="22" t="s">
+      <c r="E129" s="70">
+        <v>750</v>
+      </c>
+      <c r="F129" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G129" s="70">
+        <v>1500</v>
+      </c>
+      <c r="H129" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="K129" s="20">
-        <v>3500</v>
-      </c>
-      <c r="L129" s="20" t="s">
+      <c r="I129" s="71">
+        <v>3000</v>
+      </c>
+      <c r="J129" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M129" s="20">
-        <v>7000</v>
-      </c>
-      <c r="N129" s="20" t="s">
+      <c r="K129" s="71">
+        <v>6000</v>
+      </c>
+      <c r="L129" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="M129" s="71">
+        <v>12000</v>
+      </c>
+      <c r="N129" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O129" s="72">
+        <v>25000</v>
+      </c>
+      <c r="P129" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="O129" s="19">
-        <v>14000</v>
-      </c>
-      <c r="P129" s="19" t="s">
+      <c r="Q129" s="72">
+        <v>50000</v>
+      </c>
+      <c r="R129" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="S129" s="46">
+        <v>100000</v>
+      </c>
+      <c r="T129" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="Q129" s="19">
-        <v>28000</v>
-      </c>
-      <c r="R129" s="19" t="s">
+      <c r="U129" s="73">
+        <v>250000</v>
+      </c>
+      <c r="V129" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="S129" s="16">
-        <v>56000</v>
-      </c>
-      <c r="T129" s="16" t="s">
+      <c r="W129" s="74">
+        <v>500000</v>
+      </c>
+      <c r="X129" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="U129" s="16">
-        <v>84000</v>
-      </c>
-      <c r="V129" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="W129" s="13">
-        <v>168000</v>
-      </c>
-      <c r="X129" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y129" s="11">
-        <v>336000</v>
-      </c>
-      <c r="Z129" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
       <c r="AA129" s="4"/>
       <c r="AB129" s="4"/>
       <c r="AC129" s="3"/>
@@ -9159,16 +9141,16 @@
       <c r="B130" t="s">
         <v>53</v>
       </c>
-      <c r="C130" s="22">
+      <c r="C130" s="6">
         <v>150</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E130" s="57">
+      <c r="E130" s="6">
         <v>300</v>
       </c>
-      <c r="F130" s="57" t="s">
+      <c r="F130" s="6" t="s">
         <v>60</v>
       </c>
       <c r="G130" s="22">
@@ -9243,28 +9225,28 @@
       <c r="B131" t="s">
         <v>53</v>
       </c>
-      <c r="C131" s="20">
+      <c r="C131" s="22">
         <v>150</v>
       </c>
-      <c r="D131" s="20" t="s">
+      <c r="D131" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E131" s="58">
+      <c r="E131" s="57">
         <v>300</v>
       </c>
-      <c r="F131" s="58" t="s">
+      <c r="F131" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G131" s="22">
         <v>700</v>
       </c>
-      <c r="H131" s="21" t="s">
+      <c r="H131" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I131" s="21">
+      <c r="I131" s="22">
         <v>1400</v>
       </c>
-      <c r="J131" s="21" t="s">
+      <c r="J131" s="22" t="s">
         <v>67</v>
       </c>
       <c r="K131" s="20">
@@ -9327,40 +9309,40 @@
       <c r="B132" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="19">
+      <c r="C132" s="20">
         <v>150</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E132" s="56">
+      <c r="E132" s="58">
         <v>300</v>
       </c>
-      <c r="F132" s="56" t="s">
+      <c r="F132" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G132" s="23">
+      <c r="G132" s="21">
         <v>700</v>
       </c>
-      <c r="H132" s="23" t="s">
+      <c r="H132" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I132" s="23">
+      <c r="I132" s="21">
         <v>1400</v>
       </c>
-      <c r="J132" s="23" t="s">
+      <c r="J132" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K132" s="24">
+      <c r="K132" s="20">
         <v>3500</v>
       </c>
-      <c r="L132" s="24" t="s">
+      <c r="L132" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="M132" s="24">
+      <c r="M132" s="20">
         <v>7000</v>
       </c>
-      <c r="N132" s="24" t="s">
+      <c r="N132" s="20" t="s">
         <v>63</v>
       </c>
       <c r="O132" s="19">
@@ -9411,52 +9393,52 @@
       <c r="B133" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="16">
+      <c r="C133" s="19">
         <v>150</v>
       </c>
-      <c r="D133" s="16" t="s">
+      <c r="D133" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="49">
+      <c r="E133" s="56">
         <v>300</v>
       </c>
-      <c r="F133" s="49" t="s">
+      <c r="F133" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="G133" s="50">
+      <c r="G133" s="23">
         <v>700</v>
       </c>
-      <c r="H133" s="50" t="s">
+      <c r="H133" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I133" s="50">
+      <c r="I133" s="23">
         <v>1400</v>
       </c>
-      <c r="J133" s="50" t="s">
+      <c r="J133" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K133" s="51">
+      <c r="K133" s="24">
         <v>3500</v>
       </c>
-      <c r="L133" s="51" t="s">
+      <c r="L133" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="M133" s="51">
+      <c r="M133" s="24">
         <v>7000</v>
       </c>
-      <c r="N133" s="51" t="s">
+      <c r="N133" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="O133" s="52">
+      <c r="O133" s="19">
         <v>14000</v>
       </c>
-      <c r="P133" s="52" t="s">
+      <c r="P133" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="Q133" s="52">
+      <c r="Q133" s="19">
         <v>28000</v>
       </c>
-      <c r="R133" s="52" t="s">
+      <c r="R133" s="19" t="s">
         <v>87</v>
       </c>
       <c r="S133" s="16">
@@ -9495,64 +9477,64 @@
       <c r="B134" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="15">
+      <c r="C134" s="16">
         <v>150</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="D134" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E134" s="75">
+      <c r="E134" s="49">
         <v>300</v>
       </c>
-      <c r="F134" s="75" t="s">
+      <c r="F134" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="G134" s="76">
+      <c r="G134" s="50">
         <v>700</v>
       </c>
-      <c r="H134" s="76" t="s">
+      <c r="H134" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I134" s="76">
+      <c r="I134" s="50">
         <v>1400</v>
       </c>
-      <c r="J134" s="76" t="s">
+      <c r="J134" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="K134" s="77">
+      <c r="K134" s="51">
         <v>3500</v>
       </c>
-      <c r="L134" s="77" t="s">
+      <c r="L134" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="M134" s="77">
+      <c r="M134" s="51">
         <v>7000</v>
       </c>
-      <c r="N134" s="77" t="s">
+      <c r="N134" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="O134" s="78">
+      <c r="O134" s="52">
         <v>14000</v>
       </c>
-      <c r="P134" s="78" t="s">
+      <c r="P134" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="Q134" s="78">
+      <c r="Q134" s="52">
         <v>28000</v>
       </c>
-      <c r="R134" s="78" t="s">
+      <c r="R134" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="S134" s="55">
+      <c r="S134" s="16">
         <v>56000</v>
       </c>
-      <c r="T134" s="55" t="s">
+      <c r="T134" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="U134" s="55">
+      <c r="U134" s="16">
         <v>84000</v>
       </c>
-      <c r="V134" s="55" t="s">
+      <c r="V134" s="16" t="s">
         <v>77</v>
       </c>
       <c r="W134" s="13">
@@ -9579,76 +9561,76 @@
       <c r="B135" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="15">
         <v>150</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E135" s="53">
+      <c r="E135" s="75">
         <v>300</v>
       </c>
-      <c r="F135" s="53" t="s">
+      <c r="F135" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="G135" s="28">
+      <c r="G135" s="76">
         <v>700</v>
       </c>
-      <c r="H135" s="28" t="s">
+      <c r="H135" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="I135" s="28">
+      <c r="I135" s="76">
         <v>1400</v>
       </c>
-      <c r="J135" s="28" t="s">
+      <c r="J135" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="K135" s="29">
+      <c r="K135" s="77">
         <v>3500</v>
       </c>
-      <c r="L135" s="29" t="s">
+      <c r="L135" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="M135" s="29">
+      <c r="M135" s="77">
         <v>7000</v>
       </c>
-      <c r="N135" s="29" t="s">
+      <c r="N135" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="O135" s="18">
+      <c r="O135" s="78">
         <v>14000</v>
       </c>
-      <c r="P135" s="18" t="s">
+      <c r="P135" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="Q135" s="18">
+      <c r="Q135" s="78">
         <v>28000</v>
       </c>
-      <c r="R135" s="18" t="s">
+      <c r="R135" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S135" s="47">
+      <c r="S135" s="55">
         <v>56000</v>
       </c>
-      <c r="T135" s="47" t="s">
+      <c r="T135" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="U135" s="47">
+      <c r="U135" s="55">
         <v>84000</v>
       </c>
-      <c r="V135" s="47" t="s">
+      <c r="V135" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="W135" s="12">
+      <c r="W135" s="13">
         <v>168000</v>
       </c>
-      <c r="X135" s="12" t="s">
+      <c r="X135" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Y135" s="10">
+      <c r="Y135" s="11">
         <v>336000</v>
       </c>
-      <c r="Z135" s="10" t="s">
+      <c r="Z135" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AA135" s="4"/>
@@ -9663,74 +9645,78 @@
       <c r="B136" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="7">
+        <v>150</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="53">
         <v>300</v>
       </c>
-      <c r="D136" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="22">
-        <v>750</v>
-      </c>
-      <c r="F136" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G136" s="22">
-        <v>1500</v>
-      </c>
-      <c r="H136" s="22" t="s">
+      <c r="F136" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G136" s="28">
+        <v>700</v>
+      </c>
+      <c r="H136" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136" s="28">
+        <v>1400</v>
+      </c>
+      <c r="J136" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="I136" s="20">
-        <v>3000</v>
-      </c>
-      <c r="J136" s="20" t="s">
+      <c r="K136" s="29">
+        <v>3500</v>
+      </c>
+      <c r="L136" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K136" s="20">
-        <v>6000</v>
-      </c>
-      <c r="L136" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M136" s="20">
-        <v>12000</v>
-      </c>
-      <c r="N136" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O136" s="19">
-        <v>25000</v>
-      </c>
-      <c r="P136" s="19" t="s">
+      <c r="M136" s="29">
+        <v>7000</v>
+      </c>
+      <c r="N136" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Q136" s="19">
-        <v>50000</v>
-      </c>
-      <c r="R136" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="S136" s="16">
-        <v>100000</v>
-      </c>
-      <c r="T136" s="16" t="s">
+      <c r="O136" s="18">
+        <v>14000</v>
+      </c>
+      <c r="P136" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="15">
-        <v>250000</v>
-      </c>
-      <c r="V136" s="15" t="s">
+      <c r="Q136" s="18">
+        <v>28000</v>
+      </c>
+      <c r="R136" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="W136" s="13">
-        <v>500000</v>
-      </c>
-      <c r="X136" s="13" t="s">
+      <c r="S136" s="47">
+        <v>56000</v>
+      </c>
+      <c r="T136" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="Y136" s="4"/>
-      <c r="Z136" s="4"/>
+      <c r="U136" s="47">
+        <v>84000</v>
+      </c>
+      <c r="V136" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="W136" s="12">
+        <v>168000</v>
+      </c>
+      <c r="X136" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y136" s="10">
+        <v>336000</v>
+      </c>
+      <c r="Z136" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
       <c r="AC136" s="3"/>
@@ -9743,22 +9729,22 @@
       <c r="B137" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="20">
+      <c r="C137" s="6">
         <v>300</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D137" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E137" s="21">
+      <c r="E137" s="22">
         <v>750</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F137" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G137" s="21">
+      <c r="G137" s="22">
         <v>1500</v>
       </c>
-      <c r="H137" s="21" t="s">
+      <c r="H137" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I137" s="20">
@@ -9823,70 +9809,70 @@
       <c r="B138" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="20">
         <v>300</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E138" s="65">
+      <c r="E138" s="21">
         <v>750</v>
       </c>
-      <c r="F138" s="65" t="s">
+      <c r="F138" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G138" s="65">
+      <c r="G138" s="21">
         <v>1500</v>
       </c>
-      <c r="H138" s="65" t="s">
+      <c r="H138" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I138" s="66">
+      <c r="I138" s="20">
         <v>3000</v>
       </c>
-      <c r="J138" s="66" t="s">
+      <c r="J138" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K138" s="66">
+      <c r="K138" s="20">
         <v>6000</v>
       </c>
-      <c r="L138" s="66" t="s">
+      <c r="L138" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="M138" s="66">
+      <c r="M138" s="20">
         <v>12000</v>
       </c>
-      <c r="N138" s="66" t="s">
+      <c r="N138" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="O138" s="67">
+      <c r="O138" s="19">
         <v>25000</v>
       </c>
-      <c r="P138" s="67" t="s">
+      <c r="P138" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Q138" s="67">
+      <c r="Q138" s="19">
         <v>50000</v>
       </c>
-      <c r="R138" s="67" t="s">
+      <c r="R138" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="S138" s="45">
+      <c r="S138" s="16">
         <v>100000</v>
       </c>
-      <c r="T138" s="45" t="s">
+      <c r="T138" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="U138" s="68">
+      <c r="U138" s="15">
         <v>250000</v>
       </c>
-      <c r="V138" s="68" t="s">
+      <c r="V138" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="W138" s="69">
+      <c r="W138" s="13">
         <v>500000</v>
       </c>
-      <c r="X138" s="69" t="s">
+      <c r="X138" s="13" t="s">
         <v>70</v>
       </c>
       <c r="Y138" s="4"/>
@@ -9903,70 +9889,70 @@
       <c r="B139" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C139" s="11">
         <v>300</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E139" s="70">
+      <c r="E139" s="65">
         <v>750</v>
       </c>
-      <c r="F139" s="70" t="s">
+      <c r="F139" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="G139" s="70">
+      <c r="G139" s="65">
         <v>1500</v>
       </c>
-      <c r="H139" s="70" t="s">
+      <c r="H139" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="I139" s="71">
+      <c r="I139" s="66">
         <v>3000</v>
       </c>
-      <c r="J139" s="71" t="s">
+      <c r="J139" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="K139" s="71">
+      <c r="K139" s="66">
         <v>6000</v>
       </c>
-      <c r="L139" s="71" t="s">
+      <c r="L139" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="M139" s="71">
+      <c r="M139" s="66">
         <v>12000</v>
       </c>
-      <c r="N139" s="71" t="s">
+      <c r="N139" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="O139" s="72">
+      <c r="O139" s="67">
         <v>25000</v>
       </c>
-      <c r="P139" s="72" t="s">
+      <c r="P139" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="Q139" s="72">
+      <c r="Q139" s="67">
         <v>50000</v>
       </c>
-      <c r="R139" s="72" t="s">
+      <c r="R139" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="S139" s="46">
+      <c r="S139" s="45">
         <v>100000</v>
       </c>
-      <c r="T139" s="46" t="s">
+      <c r="T139" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="U139" s="73">
+      <c r="U139" s="68">
         <v>250000</v>
       </c>
-      <c r="V139" s="73" t="s">
+      <c r="V139" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="W139" s="74">
+      <c r="W139" s="69">
         <v>500000</v>
       </c>
-      <c r="X139" s="74" t="s">
+      <c r="X139" s="69" t="s">
         <v>70</v>
       </c>
       <c r="Y139" s="4"/>
@@ -9981,54 +9967,74 @@
         <v>48</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
-      </c>
-      <c r="C140" s="13">
-        <v>1000000</v>
-      </c>
-      <c r="D140" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="9">
+        <v>300</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140" s="70">
+        <v>750</v>
+      </c>
+      <c r="F140" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" s="70">
+        <v>1500</v>
+      </c>
+      <c r="H140" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="I140" s="71">
+        <v>3000</v>
+      </c>
+      <c r="J140" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="K140" s="71">
+        <v>6000</v>
+      </c>
+      <c r="L140" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="M140" s="71">
+        <v>12000</v>
+      </c>
+      <c r="N140" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="O140" s="72">
+        <v>25000</v>
+      </c>
+      <c r="P140" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q140" s="72">
+        <v>50000</v>
+      </c>
+      <c r="R140" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="S140" s="46">
+        <v>100000</v>
+      </c>
+      <c r="T140" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="U140" s="73">
+        <v>250000</v>
+      </c>
+      <c r="V140" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="E140" s="13">
-        <v>1500000</v>
-      </c>
-      <c r="F140" s="13" t="s">
+      <c r="W140" s="74">
+        <v>500000</v>
+      </c>
+      <c r="X140" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G140" s="13">
-        <v>2000000</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I140" s="9">
-        <v>3000000</v>
-      </c>
-      <c r="J140" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K140" s="9">
-        <v>4000000</v>
-      </c>
-      <c r="L140" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="M140" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="N140" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
       <c r="AA140" s="4"/>
@@ -10043,22 +10049,22 @@
       <c r="B141" t="s">
         <v>54</v>
       </c>
-      <c r="C141" s="11">
+      <c r="C141" s="13">
         <v>1000000</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E141" s="37">
+      <c r="E141" s="13">
         <v>1500000</v>
       </c>
-      <c r="F141" s="37" t="s">
+      <c r="F141" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G141" s="37">
+      <c r="G141" s="13">
         <v>2000000</v>
       </c>
-      <c r="H141" s="37" t="s">
+      <c r="H141" s="13" t="s">
         <v>77</v>
       </c>
       <c r="I141" s="9">
@@ -10103,40 +10109,40 @@
       <c r="B142" t="s">
         <v>54</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="11">
         <v>1000000</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E142" s="37">
         <v>1500000</v>
       </c>
-      <c r="F142" s="12" t="s">
+      <c r="F142" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="G142" s="12">
+      <c r="G142" s="37">
         <v>2000000</v>
       </c>
-      <c r="H142" s="12" t="s">
+      <c r="H142" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="I142" s="8">
+      <c r="I142" s="9">
         <v>3000000</v>
       </c>
-      <c r="J142" s="8" t="s">
+      <c r="J142" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="K142" s="8">
+      <c r="K142" s="9">
         <v>4000000</v>
       </c>
-      <c r="L142" s="8" t="s">
+      <c r="L142" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M142" s="8">
+      <c r="M142" s="9">
         <v>5000000</v>
       </c>
-      <c r="N142" s="8" t="s">
+      <c r="N142" s="9" t="s">
         <v>73</v>
       </c>
       <c r="O142" s="4"/>
@@ -10163,41 +10169,41 @@
       <c r="B143" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="79">
-        <v>600000</v>
-      </c>
-      <c r="D143" s="79" t="s">
+      <c r="C143" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E143" s="13">
-        <v>1200000</v>
-      </c>
-      <c r="F143" s="13" t="s">
+      <c r="E143" s="12">
+        <v>1500000</v>
+      </c>
+      <c r="F143" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="11">
-        <v>1800000</v>
-      </c>
-      <c r="H143" s="11" t="s">
+      <c r="G143" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="H143" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I143" s="11">
-        <v>2400000</v>
-      </c>
-      <c r="J143" s="11" t="s">
+      <c r="I143" s="8">
+        <v>3000000</v>
+      </c>
+      <c r="J143" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K143" s="9">
-        <v>3000000</v>
-      </c>
-      <c r="L143" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M143" s="9">
-        <v>3600000</v>
-      </c>
-      <c r="N143" s="9" t="s">
+      <c r="K143" s="8">
+        <v>4000000</v>
+      </c>
+      <c r="L143" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="M143" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
@@ -10220,18 +10226,45 @@
       <c r="A144" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
+      <c r="B144" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="79">
+        <v>600000</v>
+      </c>
+      <c r="D144" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E144" s="13">
+        <v>1200000</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G144" s="11">
+        <v>1800000</v>
+      </c>
+      <c r="H144" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I144" s="11">
+        <v>2400000</v>
+      </c>
+      <c r="J144" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K144" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M144" s="9">
+        <v>3600000</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
       <c r="Q144" s="4"/>
@@ -10249,14 +10282,50 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="27:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
       <c r="AB145" s="4"/>
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
+    <row r="146" spans="3:30" x14ac:dyDescent="0.25">
+      <c r="AA146" s="4"/>
+      <c r="AB146" s="4"/>
+      <c r="AC146" s="3"/>
+      <c r="AD146" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10264,12 +10333,6 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="104">
   <si>
     <t>Town Hall</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Dark Elixir</t>
   </si>
   <si>
-    <t>…. -&gt; More</t>
-  </si>
-  <si>
     <t>Mortar</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>4.5 days</t>
   </si>
   <si>
-    <t>5.5 days</t>
-  </si>
-  <si>
     <t>15min</t>
   </si>
   <si>
@@ -339,6 +333,12 @@
   </si>
   <si>
     <t>Hog Rider</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Level 40</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -841,9 +841,6 @@
     <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,6 +866,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:AD146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,58 +1202,58 @@
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="87">
+      <c r="C1" s="99">
         <v>1</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99">
         <v>2</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99">
         <v>3</v>
       </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87">
+      <c r="H1" s="99"/>
+      <c r="I1" s="99">
         <v>4</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99">
         <v>5</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87">
+      <c r="L1" s="99"/>
+      <c r="M1" s="99">
         <v>6</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87">
+      <c r="N1" s="99"/>
+      <c r="O1" s="99">
         <v>7</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99">
         <v>8</v>
       </c>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99">
         <v>9</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87">
+      <c r="T1" s="99"/>
+      <c r="U1" s="99">
         <v>10</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87">
+      <c r="V1" s="99"/>
+      <c r="W1" s="99">
         <v>11</v>
       </c>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87">
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99">
         <v>12</v>
       </c>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99">
         <v>13</v>
       </c>
-      <c r="AB1" s="87"/>
+      <c r="AB1" s="99"/>
     </row>
     <row r="2" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1288,61 +1297,61 @@
         <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="22">
         <v>1000</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="20">
         <v>4000</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="19">
         <v>25000</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K3" s="16">
         <v>150000</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="15">
         <v>750000</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O3" s="13">
         <v>1200000</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="11">
         <v>2000000</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S3" s="9">
         <v>3000000</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U3" s="7">
         <v>4000000</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -1364,37 +1373,37 @@
         <v>10000</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="19">
         <v>100000</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="15">
         <v>800000</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" s="11">
         <v>1800000</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="9">
         <v>5000000</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
         <v>7000000</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -1424,49 +1433,49 @@
         <v>25000</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="19">
         <v>50000</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="16">
         <v>90000</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="15">
         <v>270000</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K5" s="13">
         <v>500000</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="11">
         <v>1000000</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5" s="9">
         <v>2500000</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="7">
         <v>4000000</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -1492,31 +1501,31 @@
         <v>200000</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="15">
         <v>400000</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="13">
         <v>800000</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="9">
         <v>1600000</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="7">
         <v>3200000</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1537,7 +1546,7 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -1546,19 +1555,19 @@
         <v>1500000</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="36">
         <v>2500000</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="42">
         <v>3500000</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="81"/>
       <c r="J7" s="81"/>
@@ -1627,43 +1636,43 @@
         <v>51</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="20">
         <v>50000</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="16">
         <v>150000</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="13">
         <v>500000</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="11">
         <v>1500000</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="9">
         <v>4500000</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O9" s="7">
         <v>6000000</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1691,43 +1700,43 @@
         <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="20">
         <v>50000</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="16">
         <v>250000</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="13">
         <v>750000</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="11">
         <v>2250000</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M10" s="9">
         <v>6000000</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O10" s="7">
         <v>7500000</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1755,43 +1764,43 @@
         <v>51</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="19">
         <v>100000</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" s="15">
         <v>250000</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="13">
         <v>750000</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="11">
         <v>2250000</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" s="9">
         <v>6000000</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O11" s="7">
         <v>7000000</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1819,37 +1828,37 @@
         <v>51</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="20">
         <v>50000</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="16">
         <v>250000</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="13">
         <v>750000</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="11">
         <v>2250000</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="9">
         <v>4500000</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1879,37 +1888,37 @@
         <v>51</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="19">
         <v>100000</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="15">
         <v>250000</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="13">
         <v>750000</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="11">
         <v>2250000</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>6750000</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1937,37 +1946,37 @@
         <v>51</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="19">
         <v>150000</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G14" s="15">
         <v>450000</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="13">
         <v>1350000</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="11">
         <v>2500000</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M14" s="9">
         <v>6000000</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1997,37 +2006,37 @@
         <v>51</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="16">
         <v>150000</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G15" s="15">
         <v>450000</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="13">
         <v>1350000</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K15" s="11">
         <v>2500000</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>7500000</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2057,25 +2066,25 @@
         <v>51</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="13">
         <v>750000</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="11">
         <v>1500000</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="9">
         <v>3000000</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2109,31 +2118,31 @@
         <v>51</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="13">
         <v>2000000</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="11">
         <v>3000000</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="83">
         <v>7000000</v>
       </c>
       <c r="J17" s="83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7">
         <v>8000000</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2165,31 +2174,31 @@
         <v>51</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="11">
         <v>3000000</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="11">
         <v>6000000</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="7">
         <v>7000000</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7">
         <v>8000000</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2221,37 +2230,37 @@
         <v>51</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="13">
         <v>10000</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="11">
         <v>20000</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I19" s="11">
         <v>30000</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="9">
         <v>40000</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>100000</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2272,7 +2281,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -2281,31 +2290,31 @@
         <v>51</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="13">
         <v>20000</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11">
         <v>30000</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="11">
         <v>40000</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" s="9">
         <v>50000</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2337,25 +2346,25 @@
         <v>51</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11">
         <v>50000</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="9">
         <v>60000</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="9">
         <v>70000</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2387,31 +2396,31 @@
         <v>51</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11">
         <v>60000</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="9">
         <v>70000</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="9">
         <v>80000</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7">
         <v>90000</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2443,13 +2452,13 @@
         <v>51</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="9">
         <v>75000</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2487,19 +2496,19 @@
         <v>51</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="9">
         <v>60000</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G24" s="7">
         <v>70000</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2526,12 +2535,12 @@
     </row>
     <row r="25" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>54</v>
@@ -2540,37 +2549,37 @@
         <v>51</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="16">
         <v>200000</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="16">
         <v>500000</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="16">
         <v>1000000</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K26" s="11">
         <v>2000000</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="7">
         <v>8000000</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2591,7 +2600,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
@@ -2600,37 +2609,37 @@
         <v>51</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="15">
         <v>300000</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="15">
         <v>600000</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="13">
         <v>1200000</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" s="11">
         <v>2400000</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="9">
         <v>4800000</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -2660,31 +2669,31 @@
         <v>51</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="13">
         <v>450000</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="13">
         <v>900000</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="13">
         <v>1800000</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" s="11">
         <v>3000000</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2707,7 +2716,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -2716,19 +2725,19 @@
         <v>51</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="9">
         <v>3000000</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7">
         <v>6000000</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2755,7 +2764,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -2764,31 +2773,31 @@
         <v>51</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="7">
         <v>4000000</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="7">
         <v>5000000</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I30" s="7">
         <v>6500000</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K30" s="7">
         <v>8000000</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2811,7 +2820,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
@@ -2820,25 +2829,25 @@
         <v>51</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="84">
         <v>25000</v>
       </c>
       <c r="F31" s="84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="83">
         <v>50000</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I31" s="7">
         <v>75000</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K31" s="82"/>
       <c r="L31" s="82"/>
@@ -2863,7 +2872,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
@@ -2872,25 +2881,25 @@
         <v>51</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="84">
         <v>30000</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="83">
         <v>60000</v>
       </c>
       <c r="H32" s="83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I32" s="7">
         <v>90000</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="82"/>
       <c r="L32" s="82"/>
@@ -2915,7 +2924,7 @@
     </row>
     <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -2924,25 +2933,25 @@
         <v>51</v>
       </c>
       <c r="D33" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="7">
         <v>40000</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="7">
         <v>80000</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I33" s="7">
         <v>120000</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" s="82"/>
       <c r="L33" s="82"/>
@@ -2993,7 +3002,9 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
+      <c r="AA34" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
@@ -3009,83 +3020,81 @@
         <v>10000</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="13">
         <v>12500</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="13">
         <v>15000</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I35" s="13">
         <v>17500</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" s="13">
         <v>20000</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M35" s="11">
         <v>22500</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O35" s="11">
         <v>25000</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q35" s="11">
         <v>30000</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S35" s="11">
         <v>35000</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U35" s="11">
         <v>40000</v>
       </c>
       <c r="V35" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W35" s="9">
         <v>45000</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y35" s="9">
-        <v>50000</v>
-      </c>
-      <c r="Z35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>55000</v>
-      </c>
-      <c r="AB35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC35" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="Y35" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z35" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA35" s="98">
+        <v>190000</v>
+      </c>
+      <c r="AB35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC35" s="96"/>
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3099,83 +3108,81 @@
         <v>40000</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="9">
         <v>22500</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" s="9">
         <v>25000</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I36" s="9">
         <v>27500</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K36" s="9">
         <v>30000</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M36" s="9">
         <v>32500</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O36" s="9">
         <v>35000</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="9">
         <v>40000</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S36" s="9">
         <v>45000</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U36" s="9">
         <v>50000</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W36" s="9">
         <v>55000</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y36" s="9">
-        <v>60000</v>
-      </c>
-      <c r="Z36" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA36" s="9">
-        <v>65000</v>
-      </c>
-      <c r="AB36" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC36" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="Y36" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z36" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA36" s="8">
+        <v>200000</v>
+      </c>
+      <c r="AB36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC36" s="96"/>
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3222,49 +3229,49 @@
         <v>22500</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="19">
         <v>90000</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="16">
         <v>270000</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I38" s="15">
         <v>540000</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38" s="13">
         <v>1080000</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M38" s="11">
         <v>2160000</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O38" s="9">
         <v>4320000</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="7">
         <v>7560000</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -3290,49 +3297,49 @@
         <v>22500</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="13">
         <v>90000</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G39" s="13">
         <v>270000</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I39" s="13">
         <v>540000</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="13">
         <v>1080000</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M39" s="11">
         <v>2160000</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O39" s="9">
         <v>4320000</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="7">
         <v>7560000</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -3358,49 +3365,49 @@
         <v>22500</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="11">
         <v>90000</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G40" s="11">
         <v>270000</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I40" s="11">
         <v>540000</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40" s="11">
         <v>1080000</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M40" s="11">
         <v>2160000</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O40" s="9">
         <v>4320000</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q40" s="7">
         <v>7560000</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -3426,49 +3433,49 @@
         <v>22500</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="9">
         <v>90000</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G41" s="9">
         <v>270000</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9">
         <v>540000</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41" s="9">
         <v>1080000</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M41" s="9">
         <v>2160000</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O41" s="9">
         <v>4320000</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="7">
         <v>7560000</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -3480,14 +3487,14 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
@@ -3496,37 +3503,37 @@
         <v>500000</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E42" s="15">
         <v>750000</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" s="13">
         <v>1250000</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" s="11">
         <v>2400000</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K42" s="9">
         <v>4800000</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M42" s="7">
         <v>7200000</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O42" s="81"/>
       <c r="P42" s="81"/>
@@ -3547,7 +3554,7 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
@@ -3556,37 +3563,37 @@
         <v>500000</v>
       </c>
       <c r="D43" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E43" s="73">
         <v>750000</v>
       </c>
       <c r="F43" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="74">
         <v>1250000</v>
       </c>
       <c r="H43" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="86">
         <v>2400000</v>
       </c>
       <c r="J43" s="86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43" s="9">
         <v>4800000</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M43" s="7">
         <v>7200000</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O43" s="81"/>
       <c r="P43" s="81"/>
@@ -3616,79 +3623,79 @@
         <v>1000</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" s="22">
         <v>2000</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="20">
         <v>5000</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I44" s="19">
         <v>20000</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K44" s="16">
         <v>80000</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M44" s="16">
         <v>180000</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O44" s="15">
         <v>360000</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q44" s="13">
         <v>720000</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S44" s="11">
         <v>1500000</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U44" s="11">
         <v>2500000</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W44" s="9">
         <v>4500000</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y44" s="7">
         <v>6500000</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA44" s="7">
         <v>7500000</v>
       </c>
       <c r="AB44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
@@ -3704,79 +3711,79 @@
         <v>1000</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="23">
         <v>2000</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="24">
         <v>5000</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I45" s="19">
         <v>20000</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K45" s="16">
         <v>80000</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M45" s="16">
         <v>180000</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O45" s="15">
         <v>360000</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="13">
         <v>720000</v>
       </c>
       <c r="R45" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S45" s="11">
         <v>1500000</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U45" s="11">
         <v>2500000</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W45" s="9">
         <v>4500000</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y45" s="7">
         <v>6500000</v>
       </c>
       <c r="Z45" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA45" s="7">
         <v>7500000</v>
       </c>
       <c r="AB45" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
@@ -3792,79 +3799,79 @@
         <v>1000</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="25">
         <v>2000</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="26">
         <v>5000</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I46" s="27">
         <v>20000</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="16">
         <v>80000</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M46" s="16">
         <v>180000</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O46" s="15">
         <v>360000</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q46" s="13">
         <v>720000</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S46" s="11">
         <v>1500000</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U46" s="11">
         <v>2500000</v>
       </c>
       <c r="V46" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W46" s="9">
         <v>4500000</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y46" s="7">
         <v>6500000</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA46" s="7">
         <v>7500000</v>
       </c>
       <c r="AB46" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
@@ -3880,79 +3887,79 @@
         <v>1000</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="30">
         <v>2000</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="31">
         <v>5000</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I47" s="32">
         <v>20000</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K47" s="44">
         <v>80000</v>
       </c>
       <c r="L47" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M47" s="44">
         <v>180000</v>
       </c>
       <c r="N47" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O47" s="17">
         <v>360000</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q47" s="13">
         <v>720000</v>
       </c>
       <c r="R47" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S47" s="11">
         <v>1500000</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U47" s="11">
         <v>2500000</v>
       </c>
       <c r="V47" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W47" s="9">
         <v>4500000</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y47" s="7">
         <v>6500000</v>
       </c>
       <c r="Z47" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA47" s="7">
         <v>7500000</v>
       </c>
       <c r="AB47" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
@@ -3968,79 +3975,79 @@
         <v>1000</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E48" s="33">
         <v>2000</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="34">
         <v>5000</v>
       </c>
       <c r="H48" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I48" s="35">
         <v>20000</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K48" s="45">
         <v>80000</v>
       </c>
       <c r="L48" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M48" s="45">
         <v>180000</v>
       </c>
       <c r="N48" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O48" s="36">
         <v>360000</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q48" s="37">
         <v>720000</v>
       </c>
       <c r="R48" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S48" s="11">
         <v>1500000</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U48" s="11">
         <v>2500000</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W48" s="9">
         <v>4500000</v>
       </c>
       <c r="X48" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y48" s="7">
         <v>6500000</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA48" s="7">
         <v>7500000</v>
       </c>
       <c r="AB48" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
@@ -4056,79 +4063,79 @@
         <v>1000</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E49" s="38">
         <v>2000</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="39">
         <v>5000</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I49" s="40">
         <v>20000</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K49" s="46">
         <v>80000</v>
       </c>
       <c r="L49" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M49" s="46">
         <v>180000</v>
       </c>
       <c r="N49" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O49" s="41">
         <v>360000</v>
       </c>
       <c r="P49" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q49" s="42">
         <v>720000</v>
       </c>
       <c r="R49" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S49" s="43">
         <v>1500000</v>
       </c>
       <c r="T49" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U49" s="43">
         <v>2500000</v>
       </c>
       <c r="V49" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W49" s="9">
         <v>4500000</v>
       </c>
       <c r="X49" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y49" s="7">
         <v>6500000</v>
       </c>
       <c r="Z49" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA49" s="7">
         <v>7500000</v>
       </c>
       <c r="AB49" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
@@ -4144,79 +4151,79 @@
         <v>1000</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E50" s="28">
         <v>2000</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="29">
         <v>5000</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I50" s="18">
         <v>20000</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50" s="47">
         <v>80000</v>
       </c>
       <c r="L50" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M50" s="47">
         <v>180000</v>
       </c>
       <c r="N50" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O50" s="14">
         <v>360000</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q50" s="12">
         <v>720000</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S50" s="10">
         <v>1500000</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U50" s="10">
         <v>2500000</v>
       </c>
       <c r="V50" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W50" s="8">
         <v>4500000</v>
       </c>
       <c r="X50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y50" s="48">
         <v>6500000</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA50" s="7">
         <v>7500000</v>
       </c>
       <c r="AB50" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
@@ -4232,79 +4239,79 @@
         <v>250</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E51" s="6">
         <v>1000</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G51" s="22">
         <v>4000</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I51" s="20">
         <v>16000</v>
       </c>
       <c r="J51" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51" s="19">
         <v>50000</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M51" s="16">
         <v>100000</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O51" s="15">
         <v>200000</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q51" s="13">
         <v>400000</v>
       </c>
       <c r="R51" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S51" s="11">
         <v>800000</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U51" s="11">
         <v>1600000</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W51" s="9">
         <v>3200000</v>
       </c>
       <c r="X51" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y51" s="7">
         <v>6400000</v>
       </c>
       <c r="Z51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA51" s="7">
         <v>7500000</v>
       </c>
       <c r="AB51" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
@@ -4320,79 +4327,79 @@
         <v>250</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="6">
         <v>1000</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G52" s="22">
         <v>4000</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I52" s="20">
         <v>16000</v>
       </c>
       <c r="J52" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K52" s="19">
         <v>50000</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M52" s="16">
         <v>100000</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O52" s="15">
         <v>200000</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q52" s="13">
         <v>400000</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S52" s="11">
         <v>800000</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U52" s="11">
         <v>1600000</v>
       </c>
       <c r="V52" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W52" s="9">
         <v>3200000</v>
       </c>
       <c r="X52" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y52" s="7">
         <v>6400000</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA52" s="7">
         <v>7500000</v>
       </c>
       <c r="AB52" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
@@ -4408,79 +4415,79 @@
         <v>250</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="49">
         <v>1000</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" s="50">
         <v>4000</v>
       </c>
       <c r="H53" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I53" s="51">
         <v>16000</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K53" s="52">
         <v>50000</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M53" s="16">
         <v>100000</v>
       </c>
       <c r="N53" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O53" s="15">
         <v>200000</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q53" s="13">
         <v>400000</v>
       </c>
       <c r="R53" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S53" s="11">
         <v>800000</v>
       </c>
       <c r="T53" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U53" s="11">
         <v>1600000</v>
       </c>
       <c r="V53" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W53" s="9">
         <v>3200000</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y53" s="7">
         <v>6400000</v>
       </c>
       <c r="Z53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA53" s="7">
         <v>7500000</v>
       </c>
       <c r="AB53" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
@@ -4496,79 +4503,79 @@
         <v>250</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" s="5">
         <v>1000</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G54" s="30">
         <v>4000</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I54" s="31">
         <v>16000</v>
       </c>
       <c r="J54" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K54" s="32">
         <v>50000</v>
       </c>
       <c r="L54" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M54" s="44">
         <v>100000</v>
       </c>
       <c r="N54" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O54" s="17">
         <v>200000</v>
       </c>
       <c r="P54" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="13">
         <v>400000</v>
       </c>
       <c r="R54" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S54" s="11">
         <v>800000</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U54" s="11">
         <v>1600000</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W54" s="9">
         <v>3200000</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y54" s="7">
         <v>6400000</v>
       </c>
       <c r="Z54" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA54" s="7">
         <v>7500000</v>
       </c>
       <c r="AB54" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
@@ -4584,79 +4591,79 @@
         <v>250</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="5">
         <v>1000</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G55" s="30">
         <v>4000</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I55" s="31">
         <v>16000</v>
       </c>
       <c r="J55" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K55" s="32">
         <v>50000</v>
       </c>
       <c r="L55" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M55" s="44">
         <v>100000</v>
       </c>
       <c r="N55" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O55" s="17">
         <v>200000</v>
       </c>
       <c r="P55" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="13">
         <v>400000</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S55" s="11">
         <v>800000</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U55" s="11">
         <v>1600000</v>
       </c>
       <c r="V55" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W55" s="9">
         <v>3200000</v>
       </c>
       <c r="X55" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y55" s="7">
         <v>6400000</v>
       </c>
       <c r="Z55" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA55" s="7">
         <v>7500000</v>
       </c>
       <c r="AB55" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
@@ -4672,86 +4679,86 @@
         <v>250</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" s="53">
         <v>1000</v>
       </c>
       <c r="F56" s="53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G56" s="28">
         <v>4000</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I56" s="29">
         <v>16000</v>
       </c>
       <c r="J56" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K56" s="18">
         <v>50000</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M56" s="47">
         <v>100000</v>
       </c>
       <c r="N56" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O56" s="14">
         <v>200000</v>
       </c>
       <c r="P56" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q56" s="12">
         <v>400000</v>
       </c>
       <c r="R56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S56" s="10">
         <v>800000</v>
       </c>
       <c r="T56" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U56" s="10">
         <v>1600000</v>
       </c>
       <c r="V56" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W56" s="8">
         <v>3200000</v>
       </c>
       <c r="X56" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y56" s="7">
         <v>6400000</v>
       </c>
       <c r="Z56" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA56" s="7">
         <v>7500000</v>
       </c>
       <c r="AB56" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
@@ -4760,49 +4767,49 @@
         <v>8000</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E57" s="19">
         <v>32000</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G57" s="16">
         <v>120000</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I57" s="15">
         <v>400000</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K57" s="13">
         <v>800000</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M57" s="11">
         <v>1600000</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O57" s="9">
         <v>3200000</v>
       </c>
       <c r="P57" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q57" s="7">
         <v>6400000</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -4819,7 +4826,7 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
@@ -4828,49 +4835,49 @@
         <v>8000</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E58" s="54">
         <v>32000</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="55">
         <v>120000</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I58" s="15">
         <v>400000</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K58" s="13">
         <v>800000</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M58" s="11">
         <v>1600000</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O58" s="9">
         <v>3200000</v>
       </c>
       <c r="P58" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q58" s="48">
         <v>6400000</v>
       </c>
       <c r="R58" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -4887,7 +4894,7 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
@@ -4896,49 +4903,49 @@
         <v>8000</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E59" s="32">
         <v>32000</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="44">
         <v>120000</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I59" s="17">
         <v>400000</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K59" s="13">
         <v>800000</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M59" s="11">
         <v>1600000</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O59" s="9">
         <v>3200000</v>
       </c>
       <c r="P59" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q59" s="48">
         <v>6400000</v>
       </c>
       <c r="R59" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
@@ -4955,7 +4962,7 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
@@ -4964,49 +4971,49 @@
         <v>8000</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E60" s="35">
         <v>32000</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G60" s="45">
         <v>120000</v>
       </c>
       <c r="H60" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I60" s="36">
         <v>400000</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K60" s="37">
         <v>800000</v>
       </c>
       <c r="L60" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M60" s="11">
         <v>1600000</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O60" s="9">
         <v>3200000</v>
       </c>
       <c r="P60" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q60" s="48">
         <v>6400000</v>
       </c>
       <c r="R60" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
@@ -5032,49 +5039,49 @@
         <v>180000</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E61" s="16">
         <v>360000</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G61" s="15">
         <v>720000</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I61" s="13">
         <v>1280000</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K61" s="11">
         <v>1960000</v>
       </c>
       <c r="L61" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M61" s="11">
         <v>2680000</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O61" s="9">
         <v>5360000</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q61" s="48">
         <v>6480000</v>
       </c>
       <c r="R61" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -5100,49 +5107,49 @@
         <v>180000</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="55">
         <v>360000</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G62" s="15">
         <v>720000</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I62" s="13">
         <v>1280000</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K62" s="11">
         <v>1960000</v>
       </c>
       <c r="L62" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M62" s="11">
         <v>2680000</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O62" s="9">
         <v>5360000</v>
       </c>
       <c r="P62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q62" s="48">
         <v>6480000</v>
       </c>
       <c r="R62" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -5168,49 +5175,49 @@
         <v>180000</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="45">
         <v>360000</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G63" s="36">
         <v>720000</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I63" s="37">
         <v>1280000</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" s="11">
         <v>1960000</v>
       </c>
       <c r="L63" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M63" s="11">
         <v>2680000</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O63" s="9">
         <v>5360000</v>
       </c>
       <c r="P63" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q63" s="48">
         <v>6480000</v>
       </c>
       <c r="R63" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -5236,49 +5243,49 @@
         <v>180000</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" s="46">
         <v>360000</v>
       </c>
       <c r="F64" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G64" s="41">
         <v>720000</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I64" s="42">
         <v>1280000</v>
       </c>
       <c r="J64" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64" s="43">
         <v>1960000</v>
       </c>
       <c r="L64" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M64" s="43">
         <v>2680000</v>
       </c>
       <c r="N64" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O64" s="9">
         <v>5360000</v>
       </c>
       <c r="P64" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q64" s="7">
         <v>6480000</v>
       </c>
       <c r="R64" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
@@ -5304,49 +5311,49 @@
         <v>1000000</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E65" s="13">
         <v>1250000</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G65" s="13">
         <v>1500000</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I65" s="11">
         <v>2000000</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K65" s="11">
         <v>2500000</v>
       </c>
       <c r="L65" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M65" s="11">
         <v>3000000</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O65" s="9">
         <v>3500000</v>
       </c>
       <c r="P65" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q65" s="7">
         <v>5000000</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -5372,49 +5379,49 @@
         <v>1000000</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E66" s="13">
         <v>1250000</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G66" s="13">
         <v>1500000</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I66" s="11">
         <v>2000000</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K66" s="11">
         <v>2500000</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M66" s="11">
         <v>3000000</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O66" s="9">
         <v>3500000</v>
       </c>
       <c r="P66" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q66" s="7">
         <v>5000000</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -5440,49 +5447,49 @@
         <v>1000000</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E67" s="37">
         <v>1250000</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G67" s="37">
         <v>1500000</v>
       </c>
       <c r="H67" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I67" s="11">
         <v>2000000</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K67" s="11">
         <v>2500000</v>
       </c>
       <c r="L67" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M67" s="11">
         <v>3000000</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O67" s="9">
         <v>3500000</v>
       </c>
       <c r="P67" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q67" s="7">
         <v>5000000</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -5508,49 +5515,49 @@
         <v>1000000</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E68" s="12">
         <v>1250000</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="12">
         <v>1500000</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I68" s="10">
         <v>2000000</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K68" s="10">
         <v>2500000</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10">
         <v>3000000</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O68" s="8">
         <v>3500000</v>
       </c>
       <c r="P68" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q68" s="7">
         <v>5000000</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -5576,25 +5583,25 @@
         <v>3000000</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E69" s="9">
         <v>5000000</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G69" s="9">
         <v>7000000</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I69" s="7">
         <v>8000000</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -5628,25 +5635,25 @@
         <v>3000000</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E70" s="9">
         <v>5000000</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G70" s="9">
         <v>7000000</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I70" s="7">
         <v>8000000</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -5680,25 +5687,25 @@
         <v>3000000</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E71" s="8">
         <v>5000000</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G71" s="8">
         <v>7000000</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I71" s="48">
         <v>8000000</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -5732,19 +5739,19 @@
         <v>5000000</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E72" s="7">
         <v>6500000</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G72" s="7">
         <v>8000000</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
@@ -5780,19 +5787,19 @@
         <v>5000000</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E73" s="7">
         <v>6500000</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G73" s="7">
         <v>8000000</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -5822,73 +5829,73 @@
         <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="22">
         <v>200</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E74" s="22">
         <v>1000</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G74" s="20">
         <v>5000</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I74" s="19">
         <v>10000</v>
       </c>
       <c r="J74" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K74" s="16">
         <v>30000</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M74" s="15">
         <v>75000</v>
       </c>
       <c r="N74" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O74" s="13">
         <v>200000</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q74" s="11">
         <v>500000</v>
       </c>
       <c r="R74" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S74" s="9">
         <v>1000000</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U74" s="9">
         <v>3000000</v>
       </c>
       <c r="V74" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W74" s="7">
         <v>4000000</v>
       </c>
       <c r="X74" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
@@ -5898,28 +5905,28 @@
       <c r="AD74" s="3"/>
     </row>
     <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="88"/>
-      <c r="D75" s="88"/>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="91"/>
-      <c r="L75" s="91"/>
-      <c r="M75" s="92"/>
-      <c r="N75" s="92"/>
-      <c r="O75" s="93"/>
-      <c r="P75" s="93"/>
-      <c r="Q75" s="94"/>
-      <c r="R75" s="94"/>
-      <c r="S75" s="95"/>
-      <c r="T75" s="95"/>
-      <c r="U75" s="95"/>
-      <c r="V75" s="95"/>
-      <c r="W75" s="96"/>
-      <c r="X75" s="96"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="88"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="91"/>
+      <c r="N75" s="91"/>
+      <c r="O75" s="92"/>
+      <c r="P75" s="92"/>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="93"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="94"/>
+      <c r="U75" s="94"/>
+      <c r="V75" s="94"/>
+      <c r="W75" s="95"/>
+      <c r="X75" s="95"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -5971,25 +5978,25 @@
         <v>4000</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E77" s="16">
         <v>20000</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G77" s="13">
         <v>200000</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I77" s="9">
         <v>1500000</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -6023,25 +6030,25 @@
         <v>4000</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E78" s="16">
         <v>20000</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G78" s="13">
         <v>200000</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I78" s="9">
         <v>1500000</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6075,25 +6082,25 @@
         <v>4000</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E79" s="45">
         <v>20000</v>
       </c>
       <c r="F79" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G79" s="37">
         <v>200000</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I79" s="9">
         <v>1500000</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -6127,25 +6134,25 @@
         <v>4000</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E80" s="45">
         <v>20000</v>
       </c>
       <c r="F80" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G80" s="37">
         <v>200000</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9">
         <v>1500000</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -6179,25 +6186,25 @@
         <v>4000</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E81" s="47">
         <v>20000</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G81" s="12">
         <v>200000</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I81" s="8">
         <v>1500000</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6231,37 +6238,37 @@
         <v>400</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E82" s="20">
         <v>1000</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G82" s="16">
         <v>10000</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I82" s="13">
         <v>100000</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K82" s="11">
         <v>1000000</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M82" s="9">
         <v>1500000</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -6291,37 +6298,37 @@
         <v>400</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E83" s="20">
         <v>1000</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G83" s="16">
         <v>10000</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I83" s="13">
         <v>100000</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K83" s="11">
         <v>1000000</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M83" s="9">
         <v>1500000</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -6351,37 +6358,37 @@
         <v>400</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E84" s="51">
         <v>1000</v>
       </c>
       <c r="F84" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G84" s="16">
         <v>10000</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I84" s="13">
         <v>100000</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K84" s="11">
         <v>1000000</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M84" s="9">
         <v>1500000</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -6411,37 +6418,37 @@
         <v>400</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E85" s="51">
         <v>1000</v>
       </c>
       <c r="F85" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G85" s="16">
         <v>10000</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I85" s="13">
         <v>100000</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K85" s="11">
         <v>1000000</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M85" s="9">
         <v>1500000</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -6471,37 +6478,37 @@
         <v>400</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E86" s="31">
         <v>1000</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G86" s="44">
         <v>10000</v>
       </c>
       <c r="H86" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I86" s="13">
         <v>100000</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K86" s="11">
         <v>1000000</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M86" s="9">
         <v>1500000</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6531,37 +6538,37 @@
         <v>400</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E87" s="31">
         <v>1000</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G87" s="44">
         <v>10000</v>
       </c>
       <c r="H87" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I87" s="13">
         <v>100000</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K87" s="11">
         <v>1000000</v>
       </c>
       <c r="L87" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M87" s="9">
         <v>1500000</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6591,25 +6598,25 @@
         <v>12500</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E88" s="15">
         <v>75000</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G88" s="11">
         <v>750000</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I88" s="7">
         <v>2500000</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -6643,25 +6650,25 @@
         <v>12500</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89" s="17">
         <v>75000</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G89" s="11">
         <v>750000</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I89" s="7">
         <v>2500000</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -6695,25 +6702,25 @@
         <v>12500</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" s="36">
         <v>75000</v>
       </c>
       <c r="F90" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G90" s="11">
         <v>750000</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I90" s="7">
         <v>2500000</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -6747,25 +6754,25 @@
         <v>12500</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E91" s="41">
         <v>75000</v>
       </c>
       <c r="F91" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G91" s="43">
         <v>750000</v>
       </c>
       <c r="H91" s="43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I91" s="7">
         <v>2500000</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -6799,25 +6806,25 @@
         <v>12500</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E92" s="14">
         <v>75000</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G92" s="10">
         <v>750000</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I92" s="7">
         <v>2500000</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -6851,19 +6858,19 @@
         <v>15000</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E93" s="9">
         <v>2000000</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G93" s="7">
         <v>4000000</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -6899,19 +6906,19 @@
         <v>15000</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E94" s="9">
         <v>2000000</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G94" s="7">
         <v>4000000</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -6947,19 +6954,19 @@
         <v>15000</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E95" s="9">
         <v>2000000</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G95" s="7">
         <v>4000000</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
@@ -6995,19 +7002,19 @@
         <v>15000</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E96" s="9">
         <v>2000000</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G96" s="7">
         <v>4000000</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
@@ -7043,19 +7050,19 @@
         <v>15000</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E97" s="8">
         <v>2000000</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G97" s="7">
         <v>4000000</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -7091,19 +7098,19 @@
         <v>6000</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E98" s="11">
         <v>600000</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G98" s="7">
         <v>1300000</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7139,19 +7146,19 @@
         <v>6000</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E99" s="11">
         <v>600000</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G99" s="7">
         <v>1300000</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7187,19 +7194,19 @@
         <v>6000</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E100" s="10">
         <v>600000</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G100" s="7">
         <v>1300000</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -7235,7 +7242,7 @@
         <v>2000</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7275,7 +7282,7 @@
         <v>2000</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -7315,7 +7322,7 @@
         <v>2000</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -7355,7 +7362,7 @@
         <v>2000</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -7395,7 +7402,7 @@
         <v>2000</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -7435,7 +7442,7 @@
         <v>2000</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7508,49 +7515,49 @@
         <v>250</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E108" s="22">
         <v>2500</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G108" s="20">
         <v>10000</v>
       </c>
       <c r="H108" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I108" s="19">
         <v>100000</v>
       </c>
       <c r="J108" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K108" s="16">
         <v>250000</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M108" s="15">
         <v>750000</v>
       </c>
       <c r="N108" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O108" s="9">
         <v>2250000</v>
       </c>
       <c r="P108" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q108" s="7">
         <v>6750000</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
@@ -7576,49 +7583,49 @@
         <v>250</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E109" s="21">
         <v>2500</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G109" s="20">
         <v>10000</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I109" s="19">
         <v>100000</v>
       </c>
       <c r="J109" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K109" s="16">
         <v>250000</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M109" s="15">
         <v>750000</v>
       </c>
       <c r="N109" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O109" s="9">
         <v>2250000</v>
       </c>
       <c r="P109" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q109" s="7">
         <v>6750000</v>
       </c>
       <c r="R109" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
@@ -7644,49 +7651,49 @@
         <v>250</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E110" s="50">
         <v>2500</v>
       </c>
       <c r="F110" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G110" s="51">
         <v>10000</v>
       </c>
       <c r="H110" s="51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I110" s="52">
         <v>100000</v>
       </c>
       <c r="J110" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K110" s="16">
         <v>250000</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M110" s="15">
         <v>750000</v>
       </c>
       <c r="N110" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O110" s="9">
         <v>2250000</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q110" s="7">
         <v>6750000</v>
       </c>
       <c r="R110" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
@@ -7712,49 +7719,49 @@
         <v>250</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="30">
         <v>2500</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G111" s="31">
         <v>10000</v>
       </c>
       <c r="H111" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I111" s="32">
         <v>100000</v>
       </c>
       <c r="J111" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K111" s="44">
         <v>250000</v>
       </c>
       <c r="L111" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M111" s="17">
         <v>750000</v>
       </c>
       <c r="N111" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O111" s="9">
         <v>2250000</v>
       </c>
       <c r="P111" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q111" s="7">
         <v>6750000</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
@@ -7780,61 +7787,61 @@
         <v>200</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E112" s="6">
         <v>1000</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G112" s="6">
         <v>2500</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I112" s="22">
         <v>5000</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K112" s="20">
         <v>10000</v>
       </c>
       <c r="L112" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M112" s="19">
         <v>80000</v>
       </c>
       <c r="N112" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O112" s="16">
         <v>240000</v>
       </c>
       <c r="P112" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q112" s="15">
         <v>700000</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S112" s="13">
         <v>1500000</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U112" s="11">
         <v>2000000</v>
       </c>
       <c r="V112" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
@@ -7856,61 +7863,61 @@
         <v>200</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E113" s="57">
         <v>1000</v>
       </c>
       <c r="F113" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G113" s="57">
         <v>2500</v>
       </c>
       <c r="H113" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I113" s="22">
         <v>5000</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K113" s="20">
         <v>10000</v>
       </c>
       <c r="L113" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M113" s="19">
         <v>80000</v>
       </c>
       <c r="N113" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O113" s="16">
         <v>240000</v>
       </c>
       <c r="P113" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q113" s="15">
         <v>700000</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S113" s="13">
         <v>1500000</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U113" s="11">
         <v>2000000</v>
       </c>
       <c r="V113" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
@@ -7932,61 +7939,61 @@
         <v>200</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E114" s="56">
         <v>1000</v>
       </c>
       <c r="F114" s="56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G114" s="56">
         <v>2500</v>
       </c>
       <c r="H114" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I114" s="23">
         <v>5000</v>
       </c>
       <c r="J114" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K114" s="24">
         <v>10000</v>
       </c>
       <c r="L114" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M114" s="19">
         <v>80000</v>
       </c>
       <c r="N114" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O114" s="16">
         <v>240000</v>
       </c>
       <c r="P114" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q114" s="15">
         <v>700000</v>
       </c>
       <c r="R114" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S114" s="13">
         <v>1500000</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U114" s="11">
         <v>2000000</v>
       </c>
       <c r="V114" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
@@ -8008,61 +8015,61 @@
         <v>200</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E115" s="5">
         <v>1000</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G115" s="5">
         <v>2500</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I115" s="30">
         <v>5000</v>
       </c>
       <c r="J115" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K115" s="31">
         <v>10000</v>
       </c>
       <c r="L115" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M115" s="32">
         <v>80000</v>
       </c>
       <c r="N115" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O115" s="44">
         <v>240000</v>
       </c>
       <c r="P115" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q115" s="17">
         <v>700000</v>
       </c>
       <c r="R115" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S115" s="13">
         <v>1500000</v>
       </c>
       <c r="T115" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U115" s="11">
         <v>2000000</v>
       </c>
       <c r="V115" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
@@ -8078,43 +8085,43 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="13">
         <v>750000</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E116" s="13">
         <v>1250000</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G116" s="11">
         <v>1750000</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I116" s="11">
         <v>2250000</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K116" s="9">
         <v>2750000</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M116" s="9">
         <v>3500000</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -8138,43 +8145,43 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C117" s="11">
         <v>750000</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E117" s="37">
         <v>1250000</v>
       </c>
       <c r="F117" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G117" s="11">
         <v>1750000</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I117" s="11">
         <v>2250000</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K117" s="9">
         <v>2750000</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M117" s="9">
         <v>3500000</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -8237,73 +8244,73 @@
         <v>150</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E119" s="6">
         <v>300</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G119" s="22">
         <v>700</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I119" s="22">
         <v>1400</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K119" s="20">
         <v>3000</v>
       </c>
       <c r="L119" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M119" s="20">
         <v>7000</v>
       </c>
       <c r="N119" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O119" s="19">
         <v>14000</v>
       </c>
       <c r="P119" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q119" s="19">
         <v>28000</v>
       </c>
       <c r="R119" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S119" s="16">
         <v>56000</v>
       </c>
       <c r="T119" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U119" s="16">
         <v>84000</v>
       </c>
       <c r="V119" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W119" s="13">
         <v>168000</v>
       </c>
       <c r="X119" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y119" s="11">
         <v>336000</v>
       </c>
       <c r="Z119" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
@@ -8321,73 +8328,73 @@
         <v>150</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E120" s="57">
         <v>300</v>
       </c>
       <c r="F120" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G120" s="22">
         <v>700</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I120" s="22">
         <v>1400</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K120" s="20">
         <v>3000</v>
       </c>
       <c r="L120" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M120" s="20">
         <v>7000</v>
       </c>
       <c r="N120" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O120" s="19">
         <v>14000</v>
       </c>
       <c r="P120" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q120" s="19">
         <v>28000</v>
       </c>
       <c r="R120" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S120" s="16">
         <v>56000</v>
       </c>
       <c r="T120" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U120" s="16">
         <v>84000</v>
       </c>
       <c r="V120" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W120" s="13">
         <v>168000</v>
       </c>
       <c r="X120" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y120" s="11">
         <v>336000</v>
       </c>
       <c r="Z120" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
@@ -8405,73 +8412,73 @@
         <v>150</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E121" s="58">
         <v>300</v>
       </c>
       <c r="F121" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G121" s="21">
         <v>700</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I121" s="21">
         <v>1400</v>
       </c>
       <c r="J121" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K121" s="20">
         <v>3000</v>
       </c>
       <c r="L121" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M121" s="20">
         <v>7000</v>
       </c>
       <c r="N121" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O121" s="19">
         <v>14000</v>
       </c>
       <c r="P121" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q121" s="19">
         <v>28000</v>
       </c>
       <c r="R121" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S121" s="16">
         <v>56000</v>
       </c>
       <c r="T121" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U121" s="16">
         <v>84000</v>
       </c>
       <c r="V121" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W121" s="13">
         <v>168000</v>
       </c>
       <c r="X121" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y121" s="11">
         <v>336000</v>
       </c>
       <c r="Z121" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
@@ -8489,73 +8496,73 @@
         <v>150</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E122" s="56">
         <v>300</v>
       </c>
       <c r="F122" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G122" s="23">
         <v>700</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I122" s="23">
         <v>1400</v>
       </c>
       <c r="J122" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K122" s="24">
         <v>3000</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M122" s="24">
         <v>7000</v>
       </c>
       <c r="N122" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O122" s="19">
         <v>14000</v>
       </c>
       <c r="P122" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q122" s="19">
         <v>28000</v>
       </c>
       <c r="R122" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S122" s="16">
         <v>56000</v>
       </c>
       <c r="T122" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U122" s="16">
         <v>84000</v>
       </c>
       <c r="V122" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W122" s="13">
         <v>168000</v>
       </c>
       <c r="X122" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y122" s="11">
         <v>336000</v>
       </c>
       <c r="Z122" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
@@ -8573,73 +8580,73 @@
         <v>150</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E123" s="49">
         <v>300</v>
       </c>
       <c r="F123" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G123" s="50">
         <v>700</v>
       </c>
       <c r="H123" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I123" s="50">
         <v>1400</v>
       </c>
       <c r="J123" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K123" s="51">
         <v>3000</v>
       </c>
       <c r="L123" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M123" s="51">
         <v>7000</v>
       </c>
       <c r="N123" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O123" s="52">
         <v>14000</v>
       </c>
       <c r="P123" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q123" s="52">
         <v>28000</v>
       </c>
       <c r="R123" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S123" s="16">
         <v>56000</v>
       </c>
       <c r="T123" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U123" s="16">
         <v>84000</v>
       </c>
       <c r="V123" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W123" s="13">
         <v>168000</v>
       </c>
       <c r="X123" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y123" s="11">
         <v>336000</v>
       </c>
       <c r="Z123" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
@@ -8657,73 +8664,73 @@
         <v>150</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E124" s="75">
         <v>300</v>
       </c>
       <c r="F124" s="75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G124" s="76">
         <v>700</v>
       </c>
       <c r="H124" s="76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I124" s="76">
         <v>1400</v>
       </c>
       <c r="J124" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K124" s="77">
         <v>3000</v>
       </c>
       <c r="L124" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M124" s="77">
         <v>7000</v>
       </c>
       <c r="N124" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O124" s="78">
         <v>14000</v>
       </c>
       <c r="P124" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q124" s="78">
         <v>28000</v>
       </c>
       <c r="R124" s="78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S124" s="55">
         <v>56000</v>
       </c>
       <c r="T124" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U124" s="55">
         <v>84000</v>
       </c>
       <c r="V124" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W124" s="13">
         <v>168000</v>
       </c>
       <c r="X124" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y124" s="11">
         <v>336000</v>
       </c>
       <c r="Z124" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
@@ -8741,73 +8748,73 @@
         <v>150</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E125" s="59">
         <v>300</v>
       </c>
       <c r="F125" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G125" s="60">
         <v>700</v>
       </c>
       <c r="H125" s="60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I125" s="60">
         <v>1400</v>
       </c>
       <c r="J125" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K125" s="61">
         <v>3000</v>
       </c>
       <c r="L125" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M125" s="61">
         <v>7000</v>
       </c>
       <c r="N125" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O125" s="62">
         <v>14000</v>
       </c>
       <c r="P125" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q125" s="62">
         <v>28000</v>
       </c>
       <c r="R125" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S125" s="47">
         <v>56000</v>
       </c>
       <c r="T125" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U125" s="47">
         <v>84000</v>
       </c>
       <c r="V125" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W125" s="63">
         <v>168000</v>
       </c>
       <c r="X125" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y125" s="64">
         <v>336000</v>
       </c>
       <c r="Z125" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA125" s="4"/>
       <c r="AB125" s="4"/>
@@ -8825,67 +8832,67 @@
         <v>300</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E126" s="22">
         <v>750</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G126" s="22">
         <v>1500</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I126" s="20">
         <v>3000</v>
       </c>
       <c r="J126" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K126" s="20">
         <v>6000</v>
       </c>
       <c r="L126" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M126" s="20">
         <v>12000</v>
       </c>
       <c r="N126" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O126" s="19">
         <v>25000</v>
       </c>
       <c r="P126" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q126" s="19">
         <v>50000</v>
       </c>
       <c r="R126" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S126" s="16">
         <v>100000</v>
       </c>
       <c r="T126" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U126" s="15">
         <v>250000</v>
       </c>
       <c r="V126" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W126" s="13">
         <v>500000</v>
       </c>
       <c r="X126" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
@@ -8905,67 +8912,67 @@
         <v>300</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E127" s="21">
         <v>750</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G127" s="21">
         <v>1500</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I127" s="20">
         <v>3000</v>
       </c>
       <c r="J127" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K127" s="20">
         <v>6000</v>
       </c>
       <c r="L127" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M127" s="20">
         <v>12000</v>
       </c>
       <c r="N127" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O127" s="19">
         <v>25000</v>
       </c>
       <c r="P127" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q127" s="19">
         <v>50000</v>
       </c>
       <c r="R127" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S127" s="16">
         <v>100000</v>
       </c>
       <c r="T127" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U127" s="15">
         <v>250000</v>
       </c>
       <c r="V127" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W127" s="13">
         <v>500000</v>
       </c>
       <c r="X127" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
@@ -8985,67 +8992,67 @@
         <v>300</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E128" s="65">
         <v>750</v>
       </c>
       <c r="F128" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G128" s="65">
         <v>1500</v>
       </c>
       <c r="H128" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I128" s="66">
         <v>3000</v>
       </c>
       <c r="J128" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K128" s="66">
         <v>6000</v>
       </c>
       <c r="L128" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M128" s="66">
         <v>12000</v>
       </c>
       <c r="N128" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O128" s="67">
         <v>25000</v>
       </c>
       <c r="P128" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q128" s="67">
         <v>50000</v>
       </c>
       <c r="R128" s="67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S128" s="45">
         <v>100000</v>
       </c>
       <c r="T128" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U128" s="68">
         <v>250000</v>
       </c>
       <c r="V128" s="68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W128" s="69">
         <v>500000</v>
       </c>
       <c r="X128" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
@@ -9065,67 +9072,67 @@
         <v>300</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E129" s="70">
         <v>750</v>
       </c>
       <c r="F129" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G129" s="70">
         <v>1500</v>
       </c>
       <c r="H129" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I129" s="71">
         <v>3000</v>
       </c>
       <c r="J129" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K129" s="71">
         <v>6000</v>
       </c>
       <c r="L129" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M129" s="71">
         <v>12000</v>
       </c>
       <c r="N129" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O129" s="72">
         <v>25000</v>
       </c>
       <c r="P129" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q129" s="72">
         <v>50000</v>
       </c>
       <c r="R129" s="72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S129" s="46">
         <v>100000</v>
       </c>
       <c r="T129" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U129" s="73">
         <v>250000</v>
       </c>
       <c r="V129" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W129" s="74">
         <v>500000</v>
       </c>
       <c r="X129" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
@@ -9145,73 +9152,73 @@
         <v>150</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E130" s="6">
         <v>300</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G130" s="22">
         <v>700</v>
       </c>
       <c r="H130" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I130" s="22">
         <v>1400</v>
       </c>
       <c r="J130" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K130" s="20">
         <v>3500</v>
       </c>
       <c r="L130" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M130" s="20">
         <v>7000</v>
       </c>
       <c r="N130" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O130" s="19">
         <v>14000</v>
       </c>
       <c r="P130" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q130" s="19">
         <v>28000</v>
       </c>
       <c r="R130" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S130" s="16">
         <v>56000</v>
       </c>
       <c r="T130" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U130" s="16">
         <v>84000</v>
       </c>
       <c r="V130" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W130" s="13">
         <v>168000</v>
       </c>
       <c r="X130" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y130" s="11">
         <v>336000</v>
       </c>
       <c r="Z130" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA130" s="4"/>
       <c r="AB130" s="4"/>
@@ -9229,73 +9236,73 @@
         <v>150</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E131" s="57">
         <v>300</v>
       </c>
       <c r="F131" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G131" s="22">
         <v>700</v>
       </c>
       <c r="H131" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I131" s="22">
         <v>1400</v>
       </c>
       <c r="J131" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K131" s="20">
         <v>3500</v>
       </c>
       <c r="L131" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M131" s="20">
         <v>7000</v>
       </c>
       <c r="N131" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O131" s="19">
         <v>14000</v>
       </c>
       <c r="P131" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q131" s="19">
         <v>28000</v>
       </c>
       <c r="R131" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S131" s="16">
         <v>56000</v>
       </c>
       <c r="T131" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U131" s="16">
         <v>84000</v>
       </c>
       <c r="V131" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W131" s="13">
         <v>168000</v>
       </c>
       <c r="X131" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y131" s="11">
         <v>336000</v>
       </c>
       <c r="Z131" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -9313,73 +9320,73 @@
         <v>150</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E132" s="58">
         <v>300</v>
       </c>
       <c r="F132" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G132" s="21">
         <v>700</v>
       </c>
       <c r="H132" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I132" s="21">
         <v>1400</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K132" s="20">
         <v>3500</v>
       </c>
       <c r="L132" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M132" s="20">
         <v>7000</v>
       </c>
       <c r="N132" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O132" s="19">
         <v>14000</v>
       </c>
       <c r="P132" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q132" s="19">
         <v>28000</v>
       </c>
       <c r="R132" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S132" s="16">
         <v>56000</v>
       </c>
       <c r="T132" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U132" s="16">
         <v>84000</v>
       </c>
       <c r="V132" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W132" s="13">
         <v>168000</v>
       </c>
       <c r="X132" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y132" s="11">
         <v>336000</v>
       </c>
       <c r="Z132" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA132" s="4"/>
       <c r="AB132" s="4"/>
@@ -9397,73 +9404,73 @@
         <v>150</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E133" s="56">
         <v>300</v>
       </c>
       <c r="F133" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G133" s="23">
         <v>700</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I133" s="23">
         <v>1400</v>
       </c>
       <c r="J133" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K133" s="24">
         <v>3500</v>
       </c>
       <c r="L133" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M133" s="24">
         <v>7000</v>
       </c>
       <c r="N133" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O133" s="19">
         <v>14000</v>
       </c>
       <c r="P133" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q133" s="19">
         <v>28000</v>
       </c>
       <c r="R133" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S133" s="16">
         <v>56000</v>
       </c>
       <c r="T133" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U133" s="16">
         <v>84000</v>
       </c>
       <c r="V133" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W133" s="13">
         <v>168000</v>
       </c>
       <c r="X133" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y133" s="11">
         <v>336000</v>
       </c>
       <c r="Z133" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA133" s="4"/>
       <c r="AB133" s="4"/>
@@ -9481,73 +9488,73 @@
         <v>150</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E134" s="49">
         <v>300</v>
       </c>
       <c r="F134" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G134" s="50">
         <v>700</v>
       </c>
       <c r="H134" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I134" s="50">
         <v>1400</v>
       </c>
       <c r="J134" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K134" s="51">
         <v>3500</v>
       </c>
       <c r="L134" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M134" s="51">
         <v>7000</v>
       </c>
       <c r="N134" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O134" s="52">
         <v>14000</v>
       </c>
       <c r="P134" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q134" s="52">
         <v>28000</v>
       </c>
       <c r="R134" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S134" s="16">
         <v>56000</v>
       </c>
       <c r="T134" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U134" s="16">
         <v>84000</v>
       </c>
       <c r="V134" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W134" s="13">
         <v>168000</v>
       </c>
       <c r="X134" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y134" s="11">
         <v>336000</v>
       </c>
       <c r="Z134" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA134" s="4"/>
       <c r="AB134" s="4"/>
@@ -9565,73 +9572,73 @@
         <v>150</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E135" s="75">
         <v>300</v>
       </c>
       <c r="F135" s="75" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G135" s="76">
         <v>700</v>
       </c>
       <c r="H135" s="76" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I135" s="76">
         <v>1400</v>
       </c>
       <c r="J135" s="76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K135" s="77">
         <v>3500</v>
       </c>
       <c r="L135" s="77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M135" s="77">
         <v>7000</v>
       </c>
       <c r="N135" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O135" s="78">
         <v>14000</v>
       </c>
       <c r="P135" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q135" s="78">
         <v>28000</v>
       </c>
       <c r="R135" s="78" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S135" s="55">
         <v>56000</v>
       </c>
       <c r="T135" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U135" s="55">
         <v>84000</v>
       </c>
       <c r="V135" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W135" s="13">
         <v>168000</v>
       </c>
       <c r="X135" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y135" s="11">
         <v>336000</v>
       </c>
       <c r="Z135" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA135" s="4"/>
       <c r="AB135" s="4"/>
@@ -9649,73 +9656,73 @@
         <v>150</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E136" s="53">
         <v>300</v>
       </c>
       <c r="F136" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G136" s="28">
         <v>700</v>
       </c>
       <c r="H136" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I136" s="28">
         <v>1400</v>
       </c>
       <c r="J136" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K136" s="29">
         <v>3500</v>
       </c>
       <c r="L136" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M136" s="29">
         <v>7000</v>
       </c>
       <c r="N136" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O136" s="18">
         <v>14000</v>
       </c>
       <c r="P136" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q136" s="18">
         <v>28000</v>
       </c>
       <c r="R136" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S136" s="47">
         <v>56000</v>
       </c>
       <c r="T136" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U136" s="47">
         <v>84000</v>
       </c>
       <c r="V136" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W136" s="12">
         <v>168000</v>
       </c>
       <c r="X136" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y136" s="10">
         <v>336000</v>
       </c>
       <c r="Z136" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA136" s="4"/>
       <c r="AB136" s="4"/>
@@ -9733,67 +9740,67 @@
         <v>300</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E137" s="22">
         <v>750</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G137" s="22">
         <v>1500</v>
       </c>
       <c r="H137" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I137" s="20">
         <v>3000</v>
       </c>
       <c r="J137" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K137" s="20">
         <v>6000</v>
       </c>
       <c r="L137" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M137" s="20">
         <v>12000</v>
       </c>
       <c r="N137" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O137" s="19">
         <v>25000</v>
       </c>
       <c r="P137" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q137" s="19">
         <v>50000</v>
       </c>
       <c r="R137" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S137" s="16">
         <v>100000</v>
       </c>
       <c r="T137" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U137" s="15">
         <v>250000</v>
       </c>
       <c r="V137" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W137" s="13">
         <v>500000</v>
       </c>
       <c r="X137" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
@@ -9813,67 +9820,67 @@
         <v>300</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E138" s="21">
         <v>750</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G138" s="21">
         <v>1500</v>
       </c>
       <c r="H138" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I138" s="20">
         <v>3000</v>
       </c>
       <c r="J138" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K138" s="20">
         <v>6000</v>
       </c>
       <c r="L138" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M138" s="20">
         <v>12000</v>
       </c>
       <c r="N138" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O138" s="19">
         <v>25000</v>
       </c>
       <c r="P138" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q138" s="19">
         <v>50000</v>
       </c>
       <c r="R138" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S138" s="16">
         <v>100000</v>
       </c>
       <c r="T138" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U138" s="15">
         <v>250000</v>
       </c>
       <c r="V138" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W138" s="13">
         <v>500000</v>
       </c>
       <c r="X138" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
@@ -9893,67 +9900,67 @@
         <v>300</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E139" s="65">
         <v>750</v>
       </c>
       <c r="F139" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G139" s="65">
         <v>1500</v>
       </c>
       <c r="H139" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I139" s="66">
         <v>3000</v>
       </c>
       <c r="J139" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K139" s="66">
         <v>6000</v>
       </c>
       <c r="L139" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M139" s="66">
         <v>12000</v>
       </c>
       <c r="N139" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O139" s="67">
         <v>25000</v>
       </c>
       <c r="P139" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q139" s="67">
         <v>50000</v>
       </c>
       <c r="R139" s="67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S139" s="45">
         <v>100000</v>
       </c>
       <c r="T139" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U139" s="68">
         <v>250000</v>
       </c>
       <c r="V139" s="68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W139" s="69">
         <v>500000</v>
       </c>
       <c r="X139" s="69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
@@ -9973,67 +9980,67 @@
         <v>300</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E140" s="70">
         <v>750</v>
       </c>
       <c r="F140" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G140" s="70">
         <v>1500</v>
       </c>
       <c r="H140" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I140" s="71">
         <v>3000</v>
       </c>
       <c r="J140" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K140" s="71">
         <v>6000</v>
       </c>
       <c r="L140" s="71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M140" s="71">
         <v>12000</v>
       </c>
       <c r="N140" s="71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O140" s="72">
         <v>25000</v>
       </c>
       <c r="P140" s="72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q140" s="72">
         <v>50000</v>
       </c>
       <c r="R140" s="72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S140" s="46">
         <v>100000</v>
       </c>
       <c r="T140" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U140" s="73">
         <v>250000</v>
       </c>
       <c r="V140" s="73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W140" s="74">
         <v>500000</v>
       </c>
       <c r="X140" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
@@ -10053,37 +10060,37 @@
         <v>1000000</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E141" s="13">
         <v>1500000</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G141" s="13">
         <v>2000000</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I141" s="9">
         <v>3000000</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K141" s="9">
         <v>4000000</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M141" s="9">
         <v>5000000</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O141" s="4"/>
       <c r="P141" s="4"/>
@@ -10113,37 +10120,37 @@
         <v>1000000</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E142" s="37">
         <v>1500000</v>
       </c>
       <c r="F142" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G142" s="37">
         <v>2000000</v>
       </c>
       <c r="H142" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I142" s="9">
         <v>3000000</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K142" s="9">
         <v>4000000</v>
       </c>
       <c r="L142" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M142" s="9">
         <v>5000000</v>
       </c>
       <c r="N142" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O142" s="4"/>
       <c r="P142" s="4"/>
@@ -10173,37 +10180,37 @@
         <v>1000000</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E143" s="12">
         <v>1500000</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G143" s="12">
         <v>2000000</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I143" s="8">
         <v>3000000</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K143" s="8">
         <v>4000000</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M143" s="8">
         <v>5000000</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O143" s="4"/>
       <c r="P143" s="4"/>
@@ -10233,37 +10240,37 @@
         <v>600000</v>
       </c>
       <c r="D144" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E144" s="13">
         <v>1200000</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G144" s="11">
         <v>1800000</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I144" s="11">
         <v>2400000</v>
       </c>
       <c r="J144" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K144" s="9">
         <v>3000000</v>
       </c>
       <c r="L144" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M144" s="9">
         <v>3600000</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O144" s="4"/>
       <c r="P144" s="4"/>
@@ -10335,9 +10342,9 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="45" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;CVersion 2.3</oddFooter>
+    <oddFooter>&amp;CVersion 3.0</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="104">
   <si>
     <t>Town Hall</t>
   </si>
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:AD146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,14 +2575,18 @@
       <c r="L26" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="83">
+        <v>6000000</v>
+      </c>
+      <c r="N26" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="7">
         <v>8000000</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -10327,12 +10331,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10340,11 +10338,17 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;CVersion 3.0</oddFooter>
+    <oddFooter>&amp;CVersion 3.1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1183,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:AD146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,7 +2579,7 @@
         <v>6000000</v>
       </c>
       <c r="N26" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O26" s="7">
         <v>8000000</v>
@@ -10331,6 +10331,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10338,12 +10344,6 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -398,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,19 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAB274F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,34 +597,19 @@
     <xf numFmtId="3" fontId="3" fillId="15" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="14" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -639,37 +618,28 @@
     <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="20" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="20" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="20" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="20" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="16" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -696,22 +666,22 @@
     <xf numFmtId="3" fontId="3" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -720,61 +690,34 @@
     <xf numFmtId="3" fontId="3" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="20" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -792,6 +735,24 @@
     <xf numFmtId="3" fontId="3" fillId="14" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,24 +760,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="21" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="13" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -831,41 +774,41 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="14" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="19" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="17" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="22" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="22" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -874,10 +817,61 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="18" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,6 +894,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFAB274F"/>
+      <color rgb="FFFF0090"/>
+      <color rgb="FFCC0099"/>
       <color rgb="FFFF9900"/>
       <color rgb="FFFF66CC"/>
     </mruColors>
@@ -1183,8 +1180,8 @@
   </sheetPr>
   <dimension ref="A1:AD146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N143" sqref="C143:N143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,58 +1199,58 @@
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="99">
+      <c r="C1" s="81">
         <v>1</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81">
         <v>2</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99">
+      <c r="F1" s="81"/>
+      <c r="G1" s="81">
         <v>3</v>
       </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81">
         <v>4</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99">
+      <c r="J1" s="81"/>
+      <c r="K1" s="81">
         <v>5</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99">
+      <c r="L1" s="81"/>
+      <c r="M1" s="81">
         <v>6</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99">
+      <c r="N1" s="81"/>
+      <c r="O1" s="81">
         <v>7</v>
       </c>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99">
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81">
         <v>8</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99">
+      <c r="R1" s="81"/>
+      <c r="S1" s="81">
         <v>9</v>
       </c>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99">
+      <c r="T1" s="81"/>
+      <c r="U1" s="81">
         <v>10</v>
       </c>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99">
+      <c r="V1" s="81"/>
+      <c r="W1" s="81">
         <v>11</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99">
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81">
         <v>12</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99">
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81">
         <v>13</v>
       </c>
-      <c r="AB1" s="99"/>
+      <c r="AB1" s="81"/>
     </row>
     <row r="2" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1261,24 +1258,24 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -1299,58 +1296,58 @@
       <c r="D3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="16">
         <v>1000</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="14">
         <v>4000</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="13">
         <v>25000</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="11">
         <v>150000</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="10">
         <v>750000</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="9">
         <v>1200000</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="8">
         <v>2000000</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="7">
         <v>3000000</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="83">
         <v>4000000</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="83" t="s">
         <v>74</v>
       </c>
       <c r="W3" s="4"/>
@@ -1369,40 +1366,40 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>10000</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="13">
         <v>100000</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="10">
         <v>800000</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>1800000</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>5000000</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="83">
         <v>7000000</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="83" t="s">
         <v>74</v>
       </c>
       <c r="O4" s="4"/>
@@ -1429,52 +1426,52 @@
       <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="14">
         <v>25000</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="13">
         <v>50000</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>90000</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <v>270000</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>500000</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="8">
         <v>1000000</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>2500000</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="83">
         <v>4000000</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="83" t="s">
         <v>71</v>
       </c>
       <c r="S5" s="4"/>
@@ -1497,34 +1494,34 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>200000</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>400000</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>800000</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>1600000</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="83">
         <v>3200000</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="83" t="s">
         <v>71</v>
       </c>
       <c r="O6" s="4"/>
@@ -1551,30 +1548,30 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="37">
         <v>1500000</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="28">
         <v>2500000</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="34">
         <v>3500000</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1638,40 +1635,40 @@
       <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="14">
         <v>50000</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>150000</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>500000</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>1500000</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>4500000</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="83">
         <v>6000000</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="83" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="4"/>
@@ -1702,40 +1699,40 @@
       <c r="D10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <v>50000</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>250000</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>750000</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>2250000</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>6000000</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="83">
         <v>7500000</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="83" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="4"/>
@@ -1766,40 +1763,40 @@
       <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="13">
         <v>100000</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <v>250000</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>750000</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <v>2250000</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="7">
         <v>6000000</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="83">
         <v>7000000</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="83" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="4"/>
@@ -1824,40 +1821,40 @@
       <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="14">
         <v>50000</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>250000</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>750000</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>2250000</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>4500000</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O12" s="4"/>
@@ -1884,40 +1881,40 @@
       <c r="B13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="13">
         <v>100000</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="10">
         <v>250000</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>750000</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="8">
         <v>2250000</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="83">
         <v>6750000</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="83" t="s">
         <v>73</v>
       </c>
       <c r="Q13" s="4"/>
@@ -1942,40 +1939,40 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="13">
         <v>150000</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <v>450000</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>1350000</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>2500000</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>6000000</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="O14" s="4"/>
@@ -1983,7 +1980,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="T14" s="79"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -2002,40 +1999,40 @@
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>150000</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="10">
         <v>450000</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>1350000</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <v>2500000</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="83">
         <v>7500000</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="83" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="4"/>
@@ -2062,28 +2059,28 @@
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <v>750000</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>1500000</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>3000000</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="K16" s="4"/>
@@ -2114,34 +2111,34 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <v>2000000</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>3000000</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="66">
         <v>7000000</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="83">
         <v>8000000</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="83" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="4"/>
@@ -2170,34 +2167,34 @@
       <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>3000000</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>6000000</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="83">
         <v>7000000</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="83">
         <v>8000000</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="83" t="s">
         <v>74</v>
       </c>
       <c r="M18" s="4"/>
@@ -2226,40 +2223,40 @@
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <v>10000</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>20000</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>30000</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="7">
         <v>40000</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="83">
         <v>100000</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="83" t="s">
         <v>74</v>
       </c>
       <c r="O19" s="4"/>
@@ -2286,34 +2283,34 @@
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="9">
         <v>20000</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>30000</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>40000</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <v>50000</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M20" s="4"/>
@@ -2342,28 +2339,28 @@
       <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>50000</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>60000</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>70000</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M21" s="4"/>
@@ -2392,34 +2389,34 @@
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>60000</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>70000</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>80000</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="83">
         <v>90000</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="83" t="s">
         <v>74</v>
       </c>
       <c r="M22" s="4"/>
@@ -2448,16 +2445,16 @@
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>75000</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="4"/>
@@ -2492,22 +2489,22 @@
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>60000</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="83">
         <v>70000</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="83" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="4"/>
@@ -2545,46 +2542,46 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="11">
         <v>200000</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="11">
         <v>500000</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="11">
         <v>1000000</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <v>2000000</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M26" s="83">
+      <c r="M26" s="66">
         <v>6000000</v>
       </c>
-      <c r="N26" s="83" t="s">
+      <c r="N26" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="83">
         <v>8000000</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="83" t="s">
         <v>74</v>
       </c>
       <c r="Q26" s="4"/>
@@ -2609,40 +2606,40 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="10">
         <v>300000</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="10">
         <v>600000</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="9">
         <v>1200000</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="8">
         <v>2400000</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="7">
         <v>4800000</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="7" t="s">
         <v>75</v>
       </c>
       <c r="O27" s="4"/>
@@ -2669,34 +2666,34 @@
       <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="9">
         <v>450000</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>900000</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="9">
         <v>1800000</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="8">
         <v>3000000</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="M28" s="4"/>
@@ -2725,22 +2722,22 @@
       <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>3000000</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="83">
         <v>6000000</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="83" t="s">
         <v>75</v>
       </c>
       <c r="I29" s="4"/>
@@ -2773,34 +2770,34 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="83">
         <v>4000000</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="83">
         <v>5000000</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="83">
         <v>6500000</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="83">
         <v>8000000</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="83" t="s">
         <v>74</v>
       </c>
       <c r="M30" s="4"/>
@@ -2829,32 +2826,32 @@
       <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="67">
         <v>25000</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="66">
         <v>50000</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="83">
         <v>75000</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -2881,32 +2878,32 @@
       <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="67">
         <v>30000</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="66">
         <v>60000</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="83">
         <v>90000</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2933,32 +2930,32 @@
       <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="83">
         <v>40000</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="83">
         <v>80000</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="83">
         <v>120000</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -3020,85 +3017,85 @@
       <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>10000</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="9">
         <v>12500</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="9">
         <v>15000</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="9">
         <v>17500</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="9">
         <v>20000</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="8">
         <v>22500</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="8">
         <v>25000</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="8">
         <v>30000</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="S35" s="11">
+      <c r="S35" s="8">
         <v>35000</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U35" s="11">
+      <c r="U35" s="8">
         <v>40000</v>
       </c>
-      <c r="V35" s="11" t="s">
+      <c r="V35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="7">
         <v>45000</v>
       </c>
-      <c r="X35" s="9" t="s">
+      <c r="X35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y35" s="97" t="s">
+      <c r="Y35" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Z35" s="97" t="s">
+      <c r="Z35" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="AA35" s="98">
+      <c r="AA35" s="84">
         <v>190000</v>
       </c>
-      <c r="AB35" s="8" t="s">
+      <c r="AB35" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AC35" s="96"/>
+      <c r="AC35" s="79"/>
       <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3108,85 +3105,85 @@
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>40000</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>22500</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>25000</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>27500</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="7">
         <v>30000</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="7">
         <v>32500</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="7">
         <v>35000</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="P36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="7">
         <v>40000</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="R36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="7">
         <v>45000</v>
       </c>
-      <c r="T36" s="9" t="s">
+      <c r="T36" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="7">
         <v>50000</v>
       </c>
-      <c r="V36" s="9" t="s">
+      <c r="V36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="7">
         <v>55000</v>
       </c>
-      <c r="X36" s="9" t="s">
+      <c r="X36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="97" t="s">
+      <c r="Y36" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Z36" s="97" t="s">
+      <c r="Z36" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="AA36" s="8">
+      <c r="AA36" s="85">
         <v>200000</v>
       </c>
-      <c r="AB36" s="8" t="s">
+      <c r="AB36" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="AC36" s="96"/>
+      <c r="AC36" s="79"/>
       <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3229,52 +3226,52 @@
       <c r="B38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="13">
         <v>22500</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="13">
         <v>90000</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="11">
         <v>270000</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="10">
         <v>540000</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="9">
         <v>1080000</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="8">
         <v>2160000</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="7">
         <v>4320000</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="83">
         <v>7560000</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="83" t="s">
         <v>78</v>
       </c>
       <c r="S38" s="4"/>
@@ -3297,52 +3294,52 @@
       <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>22500</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="9">
         <v>90000</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="9">
         <v>270000</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="9">
         <v>540000</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="9">
         <v>1080000</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="8">
         <v>2160000</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="7">
         <v>4320000</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="83">
         <v>7560000</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="R39" s="83" t="s">
         <v>78</v>
       </c>
       <c r="S39" s="4"/>
@@ -3365,52 +3362,52 @@
       <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>22500</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="8">
         <v>90000</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="8">
         <v>270000</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="8">
         <v>540000</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="8">
         <v>1080000</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="8">
         <v>2160000</v>
       </c>
-      <c r="N40" s="11" t="s">
+      <c r="N40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="7">
         <v>4320000</v>
       </c>
-      <c r="P40" s="9" t="s">
+      <c r="P40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="83">
         <v>7560000</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" s="83" t="s">
         <v>78</v>
       </c>
       <c r="S40" s="4"/>
@@ -3433,52 +3430,52 @@
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>22500</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <v>90000</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>270000</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>540000</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="7">
         <v>1080000</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="7">
         <v>2160000</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="7">
         <v>4320000</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="83">
         <v>7560000</v>
       </c>
-      <c r="R41" s="7" t="s">
+      <c r="R41" s="83" t="s">
         <v>78</v>
       </c>
       <c r="S41" s="4"/>
@@ -3490,7 +3487,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="80" t="s">
+      <c r="AB41" s="63" t="s">
         <v>72</v>
       </c>
       <c r="AC41" s="3"/>
@@ -3503,46 +3500,46 @@
       <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="10">
         <v>500000</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="10">
         <v>750000</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="9">
         <v>1250000</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="8">
         <v>2400000</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="7">
         <v>4800000</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="83">
         <v>7200000</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -3552,7 +3549,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="80"/>
+      <c r="AB42" s="63"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
@@ -3563,46 +3560,46 @@
       <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="56">
         <v>500000</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="D43" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="73">
+      <c r="E43" s="56">
         <v>750000</v>
       </c>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="74">
+      <c r="G43" s="57">
         <v>1250000</v>
       </c>
-      <c r="H43" s="74" t="s">
+      <c r="H43" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="86">
+      <c r="I43" s="69">
         <v>2400000</v>
       </c>
-      <c r="J43" s="86" t="s">
+      <c r="J43" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="7">
         <v>4800000</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="83">
         <v>7200000</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
@@ -3612,7 +3609,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="80"/>
+      <c r="AB43" s="63"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
@@ -3623,82 +3620,82 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="16">
         <v>1000</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="16">
         <v>2000</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="14">
         <v>5000</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="13">
         <v>20000</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="11">
         <v>80000</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="11">
         <v>180000</v>
       </c>
-      <c r="N44" s="16" t="s">
+      <c r="N44" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O44" s="10">
         <v>360000</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="9">
         <v>720000</v>
       </c>
-      <c r="R44" s="13" t="s">
+      <c r="R44" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S44" s="11">
+      <c r="S44" s="8">
         <v>1500000</v>
       </c>
-      <c r="T44" s="11" t="s">
+      <c r="T44" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U44" s="11">
+      <c r="U44" s="8">
         <v>2500000</v>
       </c>
-      <c r="V44" s="11" t="s">
+      <c r="V44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="9">
+      <c r="W44" s="7">
         <v>4500000</v>
       </c>
-      <c r="X44" s="9" t="s">
+      <c r="X44" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y44" s="7">
+      <c r="Y44" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z44" s="7" t="s">
+      <c r="Z44" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA44" s="7">
+      <c r="AA44" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB44" s="7" t="s">
+      <c r="AB44" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC44" s="3"/>
@@ -3711,82 +3708,82 @@
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="13">
         <v>1000</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="17">
         <v>2000</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="18">
         <v>5000</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="13">
         <v>20000</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="11">
         <v>80000</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M45" s="11">
         <v>180000</v>
       </c>
-      <c r="N45" s="16" t="s">
+      <c r="N45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O45" s="10">
         <v>360000</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="9">
         <v>720000</v>
       </c>
-      <c r="R45" s="13" t="s">
+      <c r="R45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S45" s="8">
         <v>1500000</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U45" s="11">
+      <c r="U45" s="8">
         <v>2500000</v>
       </c>
-      <c r="V45" s="11" t="s">
+      <c r="V45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W45" s="9">
+      <c r="W45" s="7">
         <v>4500000</v>
       </c>
-      <c r="X45" s="9" t="s">
+      <c r="X45" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y45" s="7">
+      <c r="Y45" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z45" s="7" t="s">
+      <c r="Z45" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="7">
+      <c r="AA45" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB45" s="7" t="s">
+      <c r="AB45" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC45" s="3"/>
@@ -3799,82 +3796,82 @@
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="11">
         <v>1000</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="19">
         <v>2000</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="20">
         <v>5000</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="21">
         <v>20000</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J46" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="11">
         <v>80000</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="11">
         <v>180000</v>
       </c>
-      <c r="N46" s="16" t="s">
+      <c r="N46" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O46" s="10">
         <v>360000</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="P46" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q46" s="9">
         <v>720000</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="R46" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S46" s="11">
+      <c r="S46" s="8">
         <v>1500000</v>
       </c>
-      <c r="T46" s="11" t="s">
+      <c r="T46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U46" s="11">
+      <c r="U46" s="8">
         <v>2500000</v>
       </c>
-      <c r="V46" s="11" t="s">
+      <c r="V46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W46" s="9">
+      <c r="W46" s="7">
         <v>4500000</v>
       </c>
-      <c r="X46" s="9" t="s">
+      <c r="X46" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y46" s="7">
+      <c r="Y46" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z46" s="7" t="s">
+      <c r="Z46" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA46" s="7">
+      <c r="AA46" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB46" s="7" t="s">
+      <c r="AB46" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC46" s="3"/>
@@ -3887,82 +3884,82 @@
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>1000</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="22">
         <v>2000</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="23">
         <v>5000</v>
       </c>
-      <c r="H47" s="31" t="s">
+      <c r="H47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="32">
+      <c r="I47" s="24">
         <v>20000</v>
       </c>
-      <c r="J47" s="32" t="s">
+      <c r="J47" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K47" s="44">
+      <c r="K47" s="36">
         <v>80000</v>
       </c>
-      <c r="L47" s="44" t="s">
+      <c r="L47" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="M47" s="44">
+      <c r="M47" s="36">
         <v>180000</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O47" s="12">
         <v>360000</v>
       </c>
-      <c r="P47" s="17" t="s">
+      <c r="P47" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="Q47" s="9">
         <v>720000</v>
       </c>
-      <c r="R47" s="13" t="s">
+      <c r="R47" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="8">
         <v>1500000</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="T47" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="8">
         <v>2500000</v>
       </c>
-      <c r="V47" s="11" t="s">
+      <c r="V47" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W47" s="9">
+      <c r="W47" s="7">
         <v>4500000</v>
       </c>
-      <c r="X47" s="9" t="s">
+      <c r="X47" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y47" s="7">
+      <c r="Y47" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z47" s="7" t="s">
+      <c r="Z47" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA47" s="7">
+      <c r="AA47" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB47" s="7" t="s">
+      <c r="AB47" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC47" s="3"/>
@@ -3975,82 +3972,82 @@
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>1000</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="25">
         <v>2000</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="26">
         <v>5000</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="27">
         <v>20000</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K48" s="45">
+      <c r="K48" s="37">
         <v>80000</v>
       </c>
-      <c r="L48" s="45" t="s">
+      <c r="L48" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="37">
         <v>180000</v>
       </c>
-      <c r="N48" s="45" t="s">
+      <c r="N48" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48" s="28">
         <v>360000</v>
       </c>
-      <c r="P48" s="36" t="s">
+      <c r="P48" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="29">
         <v>720000</v>
       </c>
-      <c r="R48" s="37" t="s">
+      <c r="R48" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="8">
         <v>1500000</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U48" s="11">
+      <c r="U48" s="8">
         <v>2500000</v>
       </c>
-      <c r="V48" s="11" t="s">
+      <c r="V48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W48" s="7">
         <v>4500000</v>
       </c>
-      <c r="X48" s="9" t="s">
+      <c r="X48" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y48" s="7">
+      <c r="Y48" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z48" s="7" t="s">
+      <c r="Z48" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA48" s="7">
+      <c r="AA48" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB48" s="7" t="s">
+      <c r="AB48" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC48" s="3"/>
@@ -4063,82 +4060,82 @@
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="7">
         <v>1000</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="30">
         <v>2000</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="31">
         <v>5000</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="32">
         <v>20000</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J49" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="38">
         <v>80000</v>
       </c>
-      <c r="L49" s="46" t="s">
+      <c r="L49" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="38">
         <v>180000</v>
       </c>
-      <c r="N49" s="46" t="s">
+      <c r="N49" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="33">
         <v>360000</v>
       </c>
-      <c r="P49" s="41" t="s">
+      <c r="P49" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q49" s="42">
+      <c r="Q49" s="34">
         <v>720000</v>
       </c>
-      <c r="R49" s="42" t="s">
+      <c r="R49" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="S49" s="43">
+      <c r="S49" s="35">
         <v>1500000</v>
       </c>
-      <c r="T49" s="43" t="s">
+      <c r="T49" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U49" s="43">
+      <c r="U49" s="35">
         <v>2500000</v>
       </c>
-      <c r="V49" s="43" t="s">
+      <c r="V49" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W49" s="7">
         <v>4500000</v>
       </c>
-      <c r="X49" s="9" t="s">
+      <c r="X49" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y49" s="7">
+      <c r="Y49" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z49" s="7" t="s">
+      <c r="Z49" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA49" s="7">
+      <c r="AA49" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB49" s="7" t="s">
+      <c r="AB49" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC49" s="3"/>
@@ -4151,82 +4148,82 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="83">
         <v>1000</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="86">
         <v>2000</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="87">
         <v>5000</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="88">
         <v>20000</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="47">
+      <c r="K50" s="89">
         <v>80000</v>
       </c>
-      <c r="L50" s="47" t="s">
+      <c r="L50" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="47">
+      <c r="M50" s="89">
         <v>180000</v>
       </c>
-      <c r="N50" s="47" t="s">
+      <c r="N50" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="O50" s="14">
+      <c r="O50" s="90">
         <v>360000</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="P50" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q50" s="91">
         <v>720000</v>
       </c>
-      <c r="R50" s="12" t="s">
+      <c r="R50" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="S50" s="10">
+      <c r="S50" s="92">
         <v>1500000</v>
       </c>
-      <c r="T50" s="10" t="s">
+      <c r="T50" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="10">
+      <c r="U50" s="92">
         <v>2500000</v>
       </c>
-      <c r="V50" s="10" t="s">
+      <c r="V50" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="8">
+      <c r="W50" s="85">
         <v>4500000</v>
       </c>
-      <c r="X50" s="8" t="s">
+      <c r="X50" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="Y50" s="48">
+      <c r="Y50" s="83">
         <v>6500000</v>
       </c>
-      <c r="Z50" s="7" t="s">
+      <c r="Z50" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA50" s="7">
+      <c r="AA50" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB50" s="7" t="s">
+      <c r="AB50" s="83" t="s">
         <v>72</v>
       </c>
       <c r="AC50" s="3"/>
@@ -4251,70 +4248,70 @@
       <c r="F51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="22">
+      <c r="G51" s="16">
         <v>4000</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="14">
         <v>16000</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K51" s="13">
         <v>50000</v>
       </c>
-      <c r="L51" s="19" t="s">
+      <c r="L51" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M51" s="11">
         <v>100000</v>
       </c>
-      <c r="N51" s="16" t="s">
+      <c r="N51" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O51" s="10">
         <v>200000</v>
       </c>
-      <c r="P51" s="15" t="s">
+      <c r="P51" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="Q51" s="9">
         <v>400000</v>
       </c>
-      <c r="R51" s="13" t="s">
+      <c r="R51" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S51" s="8">
         <v>800000</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U51" s="11">
+      <c r="U51" s="8">
         <v>1600000</v>
       </c>
-      <c r="V51" s="11" t="s">
+      <c r="V51" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W51" s="9">
+      <c r="W51" s="7">
         <v>3200000</v>
       </c>
-      <c r="X51" s="9" t="s">
+      <c r="X51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="7">
+      <c r="Y51" s="83">
         <v>6400000</v>
       </c>
-      <c r="Z51" s="7" t="s">
+      <c r="Z51" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="AA51" s="7">
+      <c r="AA51" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB51" s="7" t="s">
+      <c r="AB51" s="83" t="s">
         <v>75</v>
       </c>
       <c r="AC51" s="3"/>
@@ -4339,70 +4336,70 @@
       <c r="F52" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="16">
         <v>4000</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="14">
         <v>16000</v>
       </c>
-      <c r="J52" s="20" t="s">
+      <c r="J52" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K52" s="13">
         <v>50000</v>
       </c>
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="11">
         <v>100000</v>
       </c>
-      <c r="N52" s="16" t="s">
+      <c r="N52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O52" s="10">
         <v>200000</v>
       </c>
-      <c r="P52" s="15" t="s">
+      <c r="P52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="Q52" s="9">
         <v>400000</v>
       </c>
-      <c r="R52" s="13" t="s">
+      <c r="R52" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S52" s="11">
+      <c r="S52" s="8">
         <v>800000</v>
       </c>
-      <c r="T52" s="11" t="s">
+      <c r="T52" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="8">
         <v>1600000</v>
       </c>
-      <c r="V52" s="11" t="s">
+      <c r="V52" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W52" s="9">
+      <c r="W52" s="7">
         <v>3200000</v>
       </c>
-      <c r="X52" s="9" t="s">
+      <c r="X52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y52" s="7">
+      <c r="Y52" s="83">
         <v>6400000</v>
       </c>
-      <c r="Z52" s="7" t="s">
+      <c r="Z52" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="AA52" s="7">
+      <c r="AA52" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB52" s="7" t="s">
+      <c r="AB52" s="83" t="s">
         <v>75</v>
       </c>
       <c r="AC52" s="3"/>
@@ -4415,82 +4412,82 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="11">
         <v>250</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="49">
+      <c r="E53" s="39">
         <v>1000</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53" s="40">
         <v>4000</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="51">
+      <c r="I53" s="41">
         <v>16000</v>
       </c>
-      <c r="J53" s="51" t="s">
+      <c r="J53" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="42">
         <v>50000</v>
       </c>
-      <c r="L53" s="52" t="s">
+      <c r="L53" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="11">
         <v>100000</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N53" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O53" s="10">
         <v>200000</v>
       </c>
-      <c r="P53" s="15" t="s">
+      <c r="P53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="Q53" s="9">
         <v>400000</v>
       </c>
-      <c r="R53" s="13" t="s">
+      <c r="R53" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S53" s="11">
+      <c r="S53" s="8">
         <v>800000</v>
       </c>
-      <c r="T53" s="11" t="s">
+      <c r="T53" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U53" s="11">
+      <c r="U53" s="8">
         <v>1600000</v>
       </c>
-      <c r="V53" s="11" t="s">
+      <c r="V53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W53" s="7">
         <v>3200000</v>
       </c>
-      <c r="X53" s="9" t="s">
+      <c r="X53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y53" s="7">
+      <c r="Y53" s="83">
         <v>6400000</v>
       </c>
-      <c r="Z53" s="7" t="s">
+      <c r="Z53" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="AA53" s="7">
+      <c r="AA53" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB53" s="7" t="s">
+      <c r="AB53" s="83" t="s">
         <v>75</v>
       </c>
       <c r="AC53" s="3"/>
@@ -4503,10 +4500,10 @@
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>250</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E54" s="5">
@@ -4515,70 +4512,70 @@
       <c r="F54" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="22">
         <v>4000</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="23">
         <v>16000</v>
       </c>
-      <c r="J54" s="31" t="s">
+      <c r="J54" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="32">
+      <c r="K54" s="24">
         <v>50000</v>
       </c>
-      <c r="L54" s="32" t="s">
+      <c r="L54" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M54" s="44">
+      <c r="M54" s="36">
         <v>100000</v>
       </c>
-      <c r="N54" s="44" t="s">
+      <c r="N54" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O54" s="12">
         <v>200000</v>
       </c>
-      <c r="P54" s="17" t="s">
+      <c r="P54" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="Q54" s="9">
         <v>400000</v>
       </c>
-      <c r="R54" s="13" t="s">
+      <c r="R54" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S54" s="11">
+      <c r="S54" s="8">
         <v>800000</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U54" s="11">
+      <c r="U54" s="8">
         <v>1600000</v>
       </c>
-      <c r="V54" s="11" t="s">
+      <c r="V54" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W54" s="9">
+      <c r="W54" s="7">
         <v>3200000</v>
       </c>
-      <c r="X54" s="9" t="s">
+      <c r="X54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y54" s="7">
+      <c r="Y54" s="83">
         <v>6400000</v>
       </c>
-      <c r="Z54" s="7" t="s">
+      <c r="Z54" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="AA54" s="7">
+      <c r="AA54" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB54" s="7" t="s">
+      <c r="AB54" s="83" t="s">
         <v>75</v>
       </c>
       <c r="AC54" s="3"/>
@@ -4591,10 +4588,10 @@
       <c r="B55" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="9">
         <v>250</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="5">
@@ -4603,70 +4600,70 @@
       <c r="F55" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="22">
         <v>4000</v>
       </c>
-      <c r="H55" s="30" t="s">
+      <c r="H55" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="23">
         <v>16000</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K55" s="32">
+      <c r="K55" s="24">
         <v>50000</v>
       </c>
-      <c r="L55" s="32" t="s">
+      <c r="L55" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M55" s="44">
+      <c r="M55" s="36">
         <v>100000</v>
       </c>
-      <c r="N55" s="44" t="s">
+      <c r="N55" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O55" s="12">
         <v>200000</v>
       </c>
-      <c r="P55" s="17" t="s">
+      <c r="P55" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="9">
         <v>400000</v>
       </c>
-      <c r="R55" s="13" t="s">
+      <c r="R55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S55" s="11">
+      <c r="S55" s="8">
         <v>800000</v>
       </c>
-      <c r="T55" s="11" t="s">
+      <c r="T55" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U55" s="11">
+      <c r="U55" s="8">
         <v>1600000</v>
       </c>
-      <c r="V55" s="11" t="s">
+      <c r="V55" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W55" s="9">
+      <c r="W55" s="7">
         <v>3200000</v>
       </c>
-      <c r="X55" s="9" t="s">
+      <c r="X55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y55" s="7">
+      <c r="Y55" s="83">
         <v>6400000</v>
       </c>
-      <c r="Z55" s="7" t="s">
+      <c r="Z55" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="AA55" s="7">
+      <c r="AA55" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB55" s="7" t="s">
+      <c r="AB55" s="83" t="s">
         <v>75</v>
       </c>
       <c r="AC55" s="3"/>
@@ -4679,82 +4676,82 @@
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="83">
         <v>250</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="93">
         <v>1000</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="86">
         <v>4000</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="87">
         <v>16000</v>
       </c>
-      <c r="J56" s="29" t="s">
+      <c r="J56" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="88">
         <v>50000</v>
       </c>
-      <c r="L56" s="18" t="s">
+      <c r="L56" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="47">
+      <c r="M56" s="89">
         <v>100000</v>
       </c>
-      <c r="N56" s="47" t="s">
+      <c r="N56" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="O56" s="14">
+      <c r="O56" s="90">
         <v>200000</v>
       </c>
-      <c r="P56" s="14" t="s">
+      <c r="P56" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="Q56" s="12">
+      <c r="Q56" s="91">
         <v>400000</v>
       </c>
-      <c r="R56" s="12" t="s">
+      <c r="R56" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="S56" s="10">
+      <c r="S56" s="92">
         <v>800000</v>
       </c>
-      <c r="T56" s="10" t="s">
+      <c r="T56" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="U56" s="10">
+      <c r="U56" s="92">
         <v>1600000</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="V56" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="W56" s="8">
+      <c r="W56" s="85">
         <v>3200000</v>
       </c>
-      <c r="X56" s="8" t="s">
+      <c r="X56" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="Y56" s="7">
+      <c r="Y56" s="83">
         <v>6400000</v>
       </c>
-      <c r="Z56" s="7" t="s">
+      <c r="Z56" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="AA56" s="7">
+      <c r="AA56" s="83">
         <v>7500000</v>
       </c>
-      <c r="AB56" s="7" t="s">
+      <c r="AB56" s="83" t="s">
         <v>75</v>
       </c>
       <c r="AC56" s="3"/>
@@ -4767,52 +4764,52 @@
       <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="14">
         <v>8000</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="13">
         <v>32000</v>
       </c>
-      <c r="F57" s="19" t="s">
+      <c r="F57" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="11">
         <v>120000</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="10">
         <v>400000</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="J57" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="9">
         <v>800000</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="8">
         <v>1600000</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="9">
+      <c r="O57" s="7">
         <v>3200000</v>
       </c>
-      <c r="P57" s="9" t="s">
+      <c r="P57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="83">
         <v>6400000</v>
       </c>
-      <c r="R57" s="7" t="s">
+      <c r="R57" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S57" s="4"/>
@@ -4835,52 +4832,52 @@
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="10">
         <v>8000</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="54">
+      <c r="E58" s="43">
         <v>32000</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="55">
+      <c r="G58" s="44">
         <v>120000</v>
       </c>
-      <c r="H58" s="55" t="s">
+      <c r="H58" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="10">
         <v>400000</v>
       </c>
-      <c r="J58" s="15" t="s">
+      <c r="J58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="9">
         <v>800000</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="8">
         <v>1600000</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="9">
+      <c r="O58" s="7">
         <v>3200000</v>
       </c>
-      <c r="P58" s="9" t="s">
+      <c r="P58" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q58" s="48">
+      <c r="Q58" s="83">
         <v>6400000</v>
       </c>
-      <c r="R58" s="48" t="s">
+      <c r="R58" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S58" s="4"/>
@@ -4903,52 +4900,52 @@
       <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="9">
         <v>8000</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="24">
         <v>32000</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="44">
+      <c r="G59" s="36">
         <v>120000</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="H59" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="12">
         <v>400000</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="9">
         <v>800000</v>
       </c>
-      <c r="L59" s="13" t="s">
+      <c r="L59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="8">
         <v>1600000</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="9">
+      <c r="O59" s="7">
         <v>3200000</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q59" s="48">
+      <c r="Q59" s="83">
         <v>6400000</v>
       </c>
-      <c r="R59" s="48" t="s">
+      <c r="R59" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S59" s="4"/>
@@ -4971,52 +4968,52 @@
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="8">
         <v>8000</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="27">
         <v>32000</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="45">
+      <c r="G60" s="37">
         <v>120000</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="H60" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="36">
+      <c r="I60" s="28">
         <v>400000</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="37">
+      <c r="K60" s="29">
         <v>800000</v>
       </c>
-      <c r="L60" s="37" t="s">
+      <c r="L60" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="8">
         <v>1600000</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O60" s="7">
         <v>3200000</v>
       </c>
-      <c r="P60" s="9" t="s">
+      <c r="P60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q60" s="48">
+      <c r="Q60" s="83">
         <v>6400000</v>
       </c>
-      <c r="R60" s="48" t="s">
+      <c r="R60" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S60" s="4"/>
@@ -5039,52 +5036,52 @@
       <c r="B61" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="11">
         <v>180000</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="11">
         <v>360000</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="10">
         <v>720000</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="9">
         <v>1280000</v>
       </c>
-      <c r="J61" s="13" t="s">
+      <c r="J61" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="8">
         <v>1960000</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="8">
         <v>2680000</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="7">
         <v>5360000</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q61" s="48">
+      <c r="Q61" s="83">
         <v>6480000</v>
       </c>
-      <c r="R61" s="48" t="s">
+      <c r="R61" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S61" s="4"/>
@@ -5107,52 +5104,52 @@
       <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="10">
         <v>180000</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="44">
         <v>360000</v>
       </c>
-      <c r="F62" s="55" t="s">
+      <c r="F62" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="10">
         <v>720000</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H62" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="9">
         <v>1280000</v>
       </c>
-      <c r="J62" s="13" t="s">
+      <c r="J62" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="8">
         <v>1960000</v>
       </c>
-      <c r="L62" s="37" t="s">
+      <c r="L62" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="8">
         <v>2680000</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="7">
         <v>5360000</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q62" s="48">
+      <c r="Q62" s="83">
         <v>6480000</v>
       </c>
-      <c r="R62" s="48" t="s">
+      <c r="R62" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S62" s="4"/>
@@ -5175,52 +5172,52 @@
       <c r="B63" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="8">
         <v>180000</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="37">
         <v>360000</v>
       </c>
-      <c r="F63" s="45" t="s">
+      <c r="F63" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="28">
         <v>720000</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H63" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="29">
         <v>1280000</v>
       </c>
-      <c r="J63" s="37" t="s">
+      <c r="J63" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="8">
         <v>1960000</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M63" s="8">
         <v>2680000</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63" s="7">
         <v>5360000</v>
       </c>
-      <c r="P63" s="9" t="s">
+      <c r="P63" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q63" s="48">
+      <c r="Q63" s="83">
         <v>6480000</v>
       </c>
-      <c r="R63" s="48" t="s">
+      <c r="R63" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S63" s="4"/>
@@ -5243,52 +5240,52 @@
       <c r="B64" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="7">
         <v>180000</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="38">
         <v>360000</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64" s="33">
         <v>720000</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="H64" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="42">
+      <c r="I64" s="34">
         <v>1280000</v>
       </c>
-      <c r="J64" s="42" t="s">
+      <c r="J64" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K64" s="35">
         <v>1960000</v>
       </c>
-      <c r="L64" s="42" t="s">
+      <c r="L64" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="35">
         <v>2680000</v>
       </c>
-      <c r="N64" s="43" t="s">
+      <c r="N64" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O64" s="7">
         <v>5360000</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="P64" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64" s="83">
         <v>6480000</v>
       </c>
-      <c r="R64" s="48" t="s">
+      <c r="R64" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S64" s="4"/>
@@ -5311,52 +5308,52 @@
       <c r="B65" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="9">
         <v>1000000</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="9">
         <v>1250000</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="9">
         <v>1500000</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="8">
         <v>2000000</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="8">
         <v>2500000</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M65" s="11">
+      <c r="M65" s="8">
         <v>3000000</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O65" s="9">
+      <c r="O65" s="7">
         <v>3500000</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="83">
         <v>5000000</v>
       </c>
-      <c r="R65" s="7" t="s">
+      <c r="R65" s="83" t="s">
         <v>74</v>
       </c>
       <c r="S65" s="4"/>
@@ -5379,52 +5376,52 @@
       <c r="B66" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="9">
         <v>1000000</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="9">
         <v>1250000</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="9">
         <v>1500000</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="8">
         <v>2000000</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="8">
         <v>2500000</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="L66" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="8">
         <v>3000000</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="7">
         <v>3500000</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="Q66" s="83">
         <v>5000000</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="R66" s="83" t="s">
         <v>74</v>
       </c>
       <c r="S66" s="4"/>
@@ -5447,52 +5444,52 @@
       <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="8">
         <v>1000000</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="29">
         <v>1250000</v>
       </c>
-      <c r="F67" s="37" t="s">
+      <c r="F67" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="37">
+      <c r="G67" s="29">
         <v>1500000</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="8">
         <v>2000000</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="8">
         <v>2500000</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="8">
         <v>3000000</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O67" s="7">
         <v>3500000</v>
       </c>
-      <c r="P67" s="9" t="s">
+      <c r="P67" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="Q67" s="83">
         <v>5000000</v>
       </c>
-      <c r="R67" s="7" t="s">
+      <c r="R67" s="83" t="s">
         <v>74</v>
       </c>
       <c r="S67" s="4"/>
@@ -5515,52 +5512,52 @@
       <c r="B68" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="34">
         <v>1000000</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="34">
         <v>1250000</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="34">
         <v>1500000</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H68" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="34">
         <v>2000000</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="34">
         <v>2500000</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="M68" s="10">
+      <c r="M68" s="34">
         <v>3000000</v>
       </c>
-      <c r="N68" s="10" t="s">
+      <c r="N68" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="34">
         <v>3500000</v>
       </c>
-      <c r="P68" s="8" t="s">
+      <c r="P68" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68" s="83">
         <v>5000000</v>
       </c>
-      <c r="R68" s="7" t="s">
+      <c r="R68" s="83" t="s">
         <v>74</v>
       </c>
       <c r="S68" s="4"/>
@@ -5583,28 +5580,28 @@
       <c r="B69" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="7">
         <v>3000000</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="7">
         <v>5000000</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="7">
         <v>7000000</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="83">
         <v>8000000</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="83" t="s">
         <v>74</v>
       </c>
       <c r="K69" s="4"/>
@@ -5635,28 +5632,28 @@
       <c r="B70" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="7">
         <v>3000000</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="7">
         <v>5000000</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="7">
         <v>7000000</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="83">
         <v>8000000</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="83" t="s">
         <v>74</v>
       </c>
       <c r="K70" s="4"/>
@@ -5687,28 +5684,28 @@
       <c r="B71" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="83">
         <v>3000000</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="85">
         <v>5000000</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="85">
         <v>7000000</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="I71" s="48">
+      <c r="I71" s="83">
         <v>8000000</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="83" t="s">
         <v>74</v>
       </c>
       <c r="K71" s="4"/>
@@ -5739,22 +5736,22 @@
       <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="83">
         <v>5000000</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="83">
         <v>6500000</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="83">
         <v>8000000</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="83" t="s">
         <v>74</v>
       </c>
       <c r="I72" s="4"/>
@@ -5787,22 +5784,22 @@
       <c r="B73" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="83">
         <v>5000000</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="83">
         <v>6500000</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="83">
         <v>8000000</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="83" t="s">
         <v>74</v>
       </c>
       <c r="I73" s="4"/>
@@ -5835,70 +5832,70 @@
       <c r="B74" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="16">
         <v>200</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E74" s="16">
         <v>1000</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="F74" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="20">
+      <c r="G74" s="14">
         <v>5000</v>
       </c>
-      <c r="H74" s="20" t="s">
+      <c r="H74" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="13">
         <v>10000</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="J74" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="11">
         <v>30000</v>
       </c>
-      <c r="L74" s="16" t="s">
+      <c r="L74" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="10">
         <v>75000</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="N74" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O74" s="13">
+      <c r="O74" s="9">
         <v>200000</v>
       </c>
-      <c r="P74" s="13" t="s">
+      <c r="P74" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q74" s="8">
         <v>500000</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="S74" s="9">
+      <c r="S74" s="7">
         <v>1000000</v>
       </c>
-      <c r="T74" s="9" t="s">
+      <c r="T74" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="U74" s="9">
+      <c r="U74" s="7">
         <v>3000000</v>
       </c>
-      <c r="V74" s="9" t="s">
+      <c r="V74" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W74" s="7">
+      <c r="W74" s="83">
         <v>4000000</v>
       </c>
-      <c r="X74" s="7" t="s">
+      <c r="X74" s="83" t="s">
         <v>61</v>
       </c>
       <c r="Y74" s="4"/>
@@ -5909,28 +5906,28 @@
       <c r="AD74" s="3"/>
     </row>
     <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="88"/>
-      <c r="H75" s="88"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
-      <c r="O75" s="92"/>
-      <c r="P75" s="92"/>
-      <c r="Q75" s="93"/>
-      <c r="R75" s="93"/>
-      <c r="S75" s="94"/>
-      <c r="T75" s="94"/>
-      <c r="U75" s="94"/>
-      <c r="V75" s="94"/>
-      <c r="W75" s="95"/>
-      <c r="X75" s="95"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
+      <c r="K75" s="73"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="75"/>
+      <c r="P75" s="75"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="76"/>
+      <c r="S75" s="77"/>
+      <c r="T75" s="77"/>
+      <c r="U75" s="77"/>
+      <c r="V75" s="77"/>
+      <c r="W75" s="78"/>
+      <c r="X75" s="78"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -5978,28 +5975,28 @@
       <c r="B77" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="11">
         <v>4000</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="11">
         <v>20000</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="9">
         <v>200000</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="7">
         <v>1500000</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K77" s="4"/>
@@ -6030,28 +6027,28 @@
       <c r="B78" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="11">
         <v>4000</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="11">
         <v>20000</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="9">
         <v>200000</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I78" s="7">
         <v>1500000</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K78" s="4"/>
@@ -6082,28 +6079,28 @@
       <c r="B79" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="8">
         <v>4000</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="45">
+      <c r="E79" s="37">
         <v>20000</v>
       </c>
-      <c r="F79" s="45" t="s">
+      <c r="F79" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G79" s="37">
+      <c r="G79" s="29">
         <v>200000</v>
       </c>
-      <c r="H79" s="37" t="s">
+      <c r="H79" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="7">
         <v>1500000</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K79" s="4"/>
@@ -6134,28 +6131,28 @@
       <c r="B80" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="8">
         <v>4000</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="45">
+      <c r="E80" s="37">
         <v>20000</v>
       </c>
-      <c r="F80" s="45" t="s">
+      <c r="F80" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G80" s="37">
+      <c r="G80" s="29">
         <v>200000</v>
       </c>
-      <c r="H80" s="37" t="s">
+      <c r="H80" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="7">
         <v>1500000</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K80" s="4"/>
@@ -6186,28 +6183,28 @@
       <c r="B81" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="83">
         <v>4000</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="47">
+      <c r="E81" s="89">
         <v>20000</v>
       </c>
-      <c r="F81" s="47" t="s">
+      <c r="F81" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G81" s="91">
         <v>200000</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="85">
         <v>1500000</v>
       </c>
-      <c r="J81" s="8" t="s">
+      <c r="J81" s="85" t="s">
         <v>85</v>
       </c>
       <c r="K81" s="4"/>
@@ -6238,40 +6235,40 @@
       <c r="B82" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="20">
+      <c r="C82" s="14">
         <v>400</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="14">
         <v>1000</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G82" s="11">
         <v>10000</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="9">
         <v>100000</v>
       </c>
-      <c r="J82" s="13" t="s">
+      <c r="J82" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="8">
         <v>1000000</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="7">
         <v>1500000</v>
       </c>
-      <c r="N82" s="9" t="s">
+      <c r="N82" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O82" s="4"/>
@@ -6298,40 +6295,40 @@
       <c r="B83" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="20">
+      <c r="C83" s="14">
         <v>400</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="14">
         <v>1000</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="11">
         <v>10000</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="9">
         <v>100000</v>
       </c>
-      <c r="J83" s="13" t="s">
+      <c r="J83" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="8">
         <v>1000000</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M83" s="9">
+      <c r="M83" s="7">
         <v>1500000</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="N83" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O83" s="4"/>
@@ -6358,40 +6355,40 @@
       <c r="B84" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="11">
         <v>400</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="51">
+      <c r="E84" s="41">
         <v>1000</v>
       </c>
-      <c r="F84" s="51" t="s">
+      <c r="F84" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G84" s="11">
         <v>10000</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="9">
         <v>100000</v>
       </c>
-      <c r="J84" s="13" t="s">
+      <c r="J84" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="8">
         <v>1000000</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="7">
         <v>1500000</v>
       </c>
-      <c r="N84" s="9" t="s">
+      <c r="N84" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O84" s="4"/>
@@ -6418,40 +6415,40 @@
       <c r="B85" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="11">
         <v>400</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="51">
+      <c r="E85" s="41">
         <v>1000</v>
       </c>
-      <c r="F85" s="51" t="s">
+      <c r="F85" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G85" s="11">
         <v>10000</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="9">
         <v>100000</v>
       </c>
-      <c r="J85" s="13" t="s">
+      <c r="J85" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="8">
         <v>1000000</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="L85" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="7">
         <v>1500000</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="N85" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O85" s="4"/>
@@ -6478,40 +6475,40 @@
       <c r="B86" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="13">
+      <c r="C86" s="9">
         <v>400</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="23">
         <v>1000</v>
       </c>
-      <c r="F86" s="31" t="s">
+      <c r="F86" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G86" s="44">
+      <c r="G86" s="36">
         <v>10000</v>
       </c>
-      <c r="H86" s="44" t="s">
+      <c r="H86" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="9">
         <v>100000</v>
       </c>
-      <c r="J86" s="13" t="s">
+      <c r="J86" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="8">
         <v>1000000</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="L86" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="7">
         <v>1500000</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O86" s="4"/>
@@ -6538,40 +6535,40 @@
       <c r="B87" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="9">
         <v>400</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="31">
+      <c r="E87" s="23">
         <v>1000</v>
       </c>
-      <c r="F87" s="31" t="s">
+      <c r="F87" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G87" s="44">
+      <c r="G87" s="36">
         <v>10000</v>
       </c>
-      <c r="H87" s="44" t="s">
+      <c r="H87" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="9">
         <v>100000</v>
       </c>
-      <c r="J87" s="13" t="s">
+      <c r="J87" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="8">
         <v>1000000</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="L87" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="7">
         <v>1500000</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N87" s="7" t="s">
         <v>69</v>
       </c>
       <c r="O87" s="4"/>
@@ -6598,28 +6595,28 @@
       <c r="B88" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="10">
         <v>12500</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D88" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="10">
         <v>75000</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F88" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="8">
         <v>750000</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="H88" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="83">
         <v>2500000</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="83" t="s">
         <v>76</v>
       </c>
       <c r="K88" s="4"/>
@@ -6650,28 +6647,28 @@
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C89" s="9">
         <v>12500</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="12">
         <v>75000</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="8">
         <v>750000</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="H89" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="83">
         <v>2500000</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="83" t="s">
         <v>76</v>
       </c>
       <c r="K89" s="4"/>
@@ -6702,28 +6699,28 @@
       <c r="B90" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="8">
         <v>12500</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E90" s="36">
+      <c r="E90" s="28">
         <v>75000</v>
       </c>
-      <c r="F90" s="36" t="s">
+      <c r="F90" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="8">
         <v>750000</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="83">
         <v>2500000</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="83" t="s">
         <v>76</v>
       </c>
       <c r="K90" s="4"/>
@@ -6754,28 +6751,28 @@
       <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="7">
         <v>12500</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="33">
         <v>75000</v>
       </c>
-      <c r="F91" s="41" t="s">
+      <c r="F91" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G91" s="43">
+      <c r="G91" s="35">
         <v>750000</v>
       </c>
-      <c r="H91" s="43" t="s">
+      <c r="H91" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="83">
         <v>2500000</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="83" t="s">
         <v>76</v>
       </c>
       <c r="K91" s="4"/>
@@ -6806,28 +6803,28 @@
       <c r="B92" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="83">
         <v>12500</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="90">
         <v>75000</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="92">
         <v>750000</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="83">
         <v>2500000</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="83" t="s">
         <v>76</v>
       </c>
       <c r="K92" s="4"/>
@@ -6858,22 +6855,22 @@
       <c r="B93" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="9">
         <v>15000</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="7">
         <v>2000000</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="83">
         <v>4000000</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="83" t="s">
         <v>76</v>
       </c>
       <c r="I93" s="4"/>
@@ -6906,22 +6903,22 @@
       <c r="B94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="8">
         <v>15000</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="7">
         <v>2000000</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="83">
         <v>4000000</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" s="83" t="s">
         <v>76</v>
       </c>
       <c r="I94" s="4"/>
@@ -6954,22 +6951,22 @@
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="7">
         <v>15000</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="7">
         <v>2000000</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="83">
         <v>4000000</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="83" t="s">
         <v>76</v>
       </c>
       <c r="I95" s="4"/>
@@ -7002,22 +6999,22 @@
       <c r="B96" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="7">
         <v>15000</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="7">
         <v>2000000</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="83">
         <v>4000000</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="83" t="s">
         <v>76</v>
       </c>
       <c r="I96" s="4"/>
@@ -7050,22 +7047,22 @@
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="83">
         <v>15000</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="85">
         <v>2000000</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="83">
         <v>4000000</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="83" t="s">
         <v>76</v>
       </c>
       <c r="I97" s="4"/>
@@ -7098,22 +7095,22 @@
       <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="8">
         <v>6000</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="8">
         <v>600000</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="83">
         <v>1300000</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="83" t="s">
         <v>85</v>
       </c>
       <c r="I98" s="4"/>
@@ -7146,22 +7143,22 @@
       <c r="B99" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="8">
         <v>6000</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="8">
         <v>600000</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="83">
         <v>1300000</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="83" t="s">
         <v>85</v>
       </c>
       <c r="I99" s="4"/>
@@ -7194,22 +7191,22 @@
       <c r="B100" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="83">
         <v>6000</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="92">
         <v>600000</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="83">
         <v>1300000</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="83" t="s">
         <v>85</v>
       </c>
       <c r="I100" s="4"/>
@@ -7242,10 +7239,10 @@
       <c r="B101" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="19">
+      <c r="C101" s="13">
         <v>2000</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E101" s="4"/>
@@ -7282,10 +7279,10 @@
       <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="19">
+      <c r="C102" s="13">
         <v>2000</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E102" s="4"/>
@@ -7322,10 +7319,10 @@
       <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="10">
         <v>2000</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="4"/>
@@ -7362,10 +7359,10 @@
       <c r="B104" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="15">
+      <c r="C104" s="10">
         <v>2000</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E104" s="4"/>
@@ -7402,10 +7399,10 @@
       <c r="B105" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="8">
         <v>2000</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E105" s="4"/>
@@ -7442,10 +7439,10 @@
       <c r="B106" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="8">
         <v>2000</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E106" s="4"/>
@@ -7521,46 +7518,46 @@
       <c r="D108" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E108" s="22">
+      <c r="E108" s="16">
         <v>2500</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="F108" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G108" s="20">
+      <c r="G108" s="14">
         <v>10000</v>
       </c>
-      <c r="H108" s="20" t="s">
+      <c r="H108" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I108" s="19">
+      <c r="I108" s="13">
         <v>100000</v>
       </c>
-      <c r="J108" s="19" t="s">
+      <c r="J108" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="11">
         <v>250000</v>
       </c>
-      <c r="L108" s="16" t="s">
+      <c r="L108" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M108" s="15">
+      <c r="M108" s="10">
         <v>750000</v>
       </c>
-      <c r="N108" s="15" t="s">
+      <c r="N108" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O108" s="9">
+      <c r="O108" s="7">
         <v>2250000</v>
       </c>
-      <c r="P108" s="9" t="s">
+      <c r="P108" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q108" s="7">
+      <c r="Q108" s="83">
         <v>6750000</v>
       </c>
-      <c r="R108" s="7" t="s">
+      <c r="R108" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S108" s="4"/>
@@ -7583,52 +7580,52 @@
       <c r="B109" t="s">
         <v>54</v>
       </c>
-      <c r="C109" s="20">
+      <c r="C109" s="14">
         <v>250</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E109" s="21">
+      <c r="E109" s="15">
         <v>2500</v>
       </c>
-      <c r="F109" s="21" t="s">
+      <c r="F109" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G109" s="20">
+      <c r="G109" s="14">
         <v>10000</v>
       </c>
-      <c r="H109" s="20" t="s">
+      <c r="H109" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I109" s="19">
+      <c r="I109" s="13">
         <v>100000</v>
       </c>
-      <c r="J109" s="19" t="s">
+      <c r="J109" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="11">
         <v>250000</v>
       </c>
-      <c r="L109" s="16" t="s">
+      <c r="L109" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M109" s="15">
+      <c r="M109" s="10">
         <v>750000</v>
       </c>
-      <c r="N109" s="15" t="s">
+      <c r="N109" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O109" s="9">
+      <c r="O109" s="7">
         <v>2250000</v>
       </c>
-      <c r="P109" s="9" t="s">
+      <c r="P109" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q109" s="7">
+      <c r="Q109" s="83">
         <v>6750000</v>
       </c>
-      <c r="R109" s="7" t="s">
+      <c r="R109" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S109" s="4"/>
@@ -7651,52 +7648,52 @@
       <c r="B110" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="16">
+      <c r="C110" s="11">
         <v>250</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="50">
+      <c r="E110" s="40">
         <v>2500</v>
       </c>
-      <c r="F110" s="50" t="s">
+      <c r="F110" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G110" s="51">
+      <c r="G110" s="41">
         <v>10000</v>
       </c>
-      <c r="H110" s="51" t="s">
+      <c r="H110" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I110" s="52">
+      <c r="I110" s="42">
         <v>100000</v>
       </c>
-      <c r="J110" s="52" t="s">
+      <c r="J110" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K110" s="16">
+      <c r="K110" s="11">
         <v>250000</v>
       </c>
-      <c r="L110" s="16" t="s">
+      <c r="L110" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M110" s="15">
+      <c r="M110" s="10">
         <v>750000</v>
       </c>
-      <c r="N110" s="15" t="s">
+      <c r="N110" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O110" s="9">
+      <c r="O110" s="7">
         <v>2250000</v>
       </c>
-      <c r="P110" s="9" t="s">
+      <c r="P110" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q110" s="7">
+      <c r="Q110" s="83">
         <v>6750000</v>
       </c>
-      <c r="R110" s="7" t="s">
+      <c r="R110" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S110" s="4"/>
@@ -7719,52 +7716,52 @@
       <c r="B111" t="s">
         <v>54</v>
       </c>
-      <c r="C111" s="13">
+      <c r="C111" s="9">
         <v>250</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="30">
+      <c r="E111" s="22">
         <v>2500</v>
       </c>
-      <c r="F111" s="30" t="s">
+      <c r="F111" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G111" s="31">
+      <c r="G111" s="23">
         <v>10000</v>
       </c>
-      <c r="H111" s="31" t="s">
+      <c r="H111" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I111" s="32">
+      <c r="I111" s="24">
         <v>100000</v>
       </c>
-      <c r="J111" s="32" t="s">
+      <c r="J111" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="K111" s="44">
+      <c r="K111" s="36">
         <v>250000</v>
       </c>
-      <c r="L111" s="44" t="s">
+      <c r="L111" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="M111" s="17">
+      <c r="M111" s="12">
         <v>750000</v>
       </c>
-      <c r="N111" s="17" t="s">
+      <c r="N111" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O111" s="9">
+      <c r="O111" s="7">
         <v>2250000</v>
       </c>
-      <c r="P111" s="9" t="s">
+      <c r="P111" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q111" s="7">
+      <c r="Q111" s="83">
         <v>6750000</v>
       </c>
-      <c r="R111" s="7" t="s">
+      <c r="R111" s="83" t="s">
         <v>73</v>
       </c>
       <c r="S111" s="4"/>
@@ -7805,46 +7802,46 @@
       <c r="H112" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I112" s="22">
+      <c r="I112" s="16">
         <v>5000</v>
       </c>
-      <c r="J112" s="22" t="s">
+      <c r="J112" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K112" s="20">
+      <c r="K112" s="14">
         <v>10000</v>
       </c>
-      <c r="L112" s="20" t="s">
+      <c r="L112" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M112" s="19">
+      <c r="M112" s="13">
         <v>80000</v>
       </c>
-      <c r="N112" s="19" t="s">
+      <c r="N112" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O112" s="16">
+      <c r="O112" s="11">
         <v>240000</v>
       </c>
-      <c r="P112" s="16" t="s">
+      <c r="P112" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q112" s="15">
+      <c r="Q112" s="10">
         <v>700000</v>
       </c>
-      <c r="R112" s="15" t="s">
+      <c r="R112" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S112" s="13">
+      <c r="S112" s="9">
         <v>1500000</v>
       </c>
-      <c r="T112" s="13" t="s">
+      <c r="T112" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U112" s="11">
+      <c r="U112" s="8">
         <v>2000000</v>
       </c>
-      <c r="V112" s="11" t="s">
+      <c r="V112" s="8" t="s">
         <v>71</v>
       </c>
       <c r="W112" s="4"/>
@@ -7863,64 +7860,64 @@
       <c r="B113" t="s">
         <v>54</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113" s="16">
         <v>200</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E113" s="57">
+      <c r="E113" s="46">
         <v>1000</v>
       </c>
-      <c r="F113" s="57" t="s">
+      <c r="F113" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G113" s="57">
+      <c r="G113" s="46">
         <v>2500</v>
       </c>
-      <c r="H113" s="57" t="s">
+      <c r="H113" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="16">
         <v>5000</v>
       </c>
-      <c r="J113" s="22" t="s">
+      <c r="J113" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K113" s="20">
+      <c r="K113" s="14">
         <v>10000</v>
       </c>
-      <c r="L113" s="20" t="s">
+      <c r="L113" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="M113" s="19">
+      <c r="M113" s="13">
         <v>80000</v>
       </c>
-      <c r="N113" s="19" t="s">
+      <c r="N113" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O113" s="16">
+      <c r="O113" s="11">
         <v>240000</v>
       </c>
-      <c r="P113" s="16" t="s">
+      <c r="P113" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q113" s="15">
+      <c r="Q113" s="10">
         <v>700000</v>
       </c>
-      <c r="R113" s="15" t="s">
+      <c r="R113" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S113" s="13">
+      <c r="S113" s="9">
         <v>1500000</v>
       </c>
-      <c r="T113" s="13" t="s">
+      <c r="T113" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U113" s="11">
+      <c r="U113" s="8">
         <v>2000000</v>
       </c>
-      <c r="V113" s="11" t="s">
+      <c r="V113" s="8" t="s">
         <v>71</v>
       </c>
       <c r="W113" s="4"/>
@@ -7939,64 +7936,64 @@
       <c r="B114" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="19">
+      <c r="C114" s="13">
         <v>200</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E114" s="56">
+      <c r="E114" s="45">
         <v>1000</v>
       </c>
-      <c r="F114" s="56" t="s">
+      <c r="F114" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="G114" s="56">
+      <c r="G114" s="45">
         <v>2500</v>
       </c>
-      <c r="H114" s="56" t="s">
+      <c r="H114" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="I114" s="23">
+      <c r="I114" s="17">
         <v>5000</v>
       </c>
-      <c r="J114" s="23" t="s">
+      <c r="J114" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K114" s="24">
+      <c r="K114" s="18">
         <v>10000</v>
       </c>
-      <c r="L114" s="24" t="s">
+      <c r="L114" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M114" s="19">
+      <c r="M114" s="13">
         <v>80000</v>
       </c>
-      <c r="N114" s="19" t="s">
+      <c r="N114" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O114" s="16">
+      <c r="O114" s="11">
         <v>240000</v>
       </c>
-      <c r="P114" s="16" t="s">
+      <c r="P114" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q114" s="15">
+      <c r="Q114" s="10">
         <v>700000</v>
       </c>
-      <c r="R114" s="15" t="s">
+      <c r="R114" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="S114" s="13">
+      <c r="S114" s="9">
         <v>1500000</v>
       </c>
-      <c r="T114" s="13" t="s">
+      <c r="T114" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U114" s="11">
+      <c r="U114" s="8">
         <v>2000000</v>
       </c>
-      <c r="V114" s="11" t="s">
+      <c r="V114" s="8" t="s">
         <v>71</v>
       </c>
       <c r="W114" s="4"/>
@@ -8015,10 +8012,10 @@
       <c r="B115" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="13">
+      <c r="C115" s="9">
         <v>200</v>
       </c>
-      <c r="D115" s="13" t="s">
+      <c r="D115" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E115" s="5">
@@ -8033,46 +8030,46 @@
       <c r="H115" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I115" s="30">
+      <c r="I115" s="22">
         <v>5000</v>
       </c>
-      <c r="J115" s="30" t="s">
+      <c r="J115" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K115" s="31">
+      <c r="K115" s="23">
         <v>10000</v>
       </c>
-      <c r="L115" s="31" t="s">
+      <c r="L115" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M115" s="32">
+      <c r="M115" s="24">
         <v>80000</v>
       </c>
-      <c r="N115" s="32" t="s">
+      <c r="N115" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="O115" s="44">
+      <c r="O115" s="36">
         <v>240000</v>
       </c>
-      <c r="P115" s="44" t="s">
+      <c r="P115" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Q115" s="17">
+      <c r="Q115" s="12">
         <v>700000</v>
       </c>
-      <c r="R115" s="17" t="s">
+      <c r="R115" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="S115" s="13">
+      <c r="S115" s="9">
         <v>1500000</v>
       </c>
-      <c r="T115" s="13" t="s">
+      <c r="T115" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U115" s="11">
+      <c r="U115" s="8">
         <v>2000000</v>
       </c>
-      <c r="V115" s="11" t="s">
+      <c r="V115" s="8" t="s">
         <v>71</v>
       </c>
       <c r="W115" s="4"/>
@@ -8091,40 +8088,40 @@
       <c r="B116" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="13">
+      <c r="C116" s="9">
         <v>750000</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="9">
         <v>1250000</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G116" s="11">
+      <c r="G116" s="8">
         <v>1750000</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="H116" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="8">
         <v>2250000</v>
       </c>
-      <c r="J116" s="11" t="s">
+      <c r="J116" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K116" s="9">
+      <c r="K116" s="7">
         <v>2750000</v>
       </c>
-      <c r="L116" s="9" t="s">
+      <c r="L116" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M116" s="9">
+      <c r="M116" s="7">
         <v>3500000</v>
       </c>
-      <c r="N116" s="9" t="s">
+      <c r="N116" s="7" t="s">
         <v>77</v>
       </c>
       <c r="O116" s="4"/>
@@ -8151,40 +8148,40 @@
       <c r="B117" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C117" s="8">
         <v>750000</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E117" s="37">
+      <c r="E117" s="29">
         <v>1250000</v>
       </c>
-      <c r="F117" s="37" t="s">
+      <c r="F117" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="11">
+      <c r="G117" s="8">
         <v>1750000</v>
       </c>
-      <c r="H117" s="11" t="s">
+      <c r="H117" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="11">
+      <c r="I117" s="8">
         <v>2250000</v>
       </c>
-      <c r="J117" s="11" t="s">
+      <c r="J117" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K117" s="9">
+      <c r="K117" s="7">
         <v>2750000</v>
       </c>
-      <c r="L117" s="9" t="s">
+      <c r="L117" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M117" s="9">
+      <c r="M117" s="7">
         <v>3500000</v>
       </c>
-      <c r="N117" s="9" t="s">
+      <c r="N117" s="7" t="s">
         <v>77</v>
       </c>
       <c r="O117" s="4"/>
@@ -8256,64 +8253,64 @@
       <c r="F119" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G119" s="22">
+      <c r="G119" s="16">
         <v>700</v>
       </c>
-      <c r="H119" s="22" t="s">
+      <c r="H119" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I119" s="22">
+      <c r="I119" s="16">
         <v>1400</v>
       </c>
-      <c r="J119" s="22" t="s">
+      <c r="J119" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K119" s="20">
+      <c r="K119" s="14">
         <v>3000</v>
       </c>
-      <c r="L119" s="20" t="s">
+      <c r="L119" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M119" s="20">
+      <c r="M119" s="14">
         <v>7000</v>
       </c>
-      <c r="N119" s="20" t="s">
+      <c r="N119" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O119" s="19">
+      <c r="O119" s="13">
         <v>14000</v>
       </c>
-      <c r="P119" s="19" t="s">
+      <c r="P119" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q119" s="19">
+      <c r="Q119" s="13">
         <v>28000</v>
       </c>
-      <c r="R119" s="19" t="s">
+      <c r="R119" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S119" s="16">
+      <c r="S119" s="11">
         <v>56000</v>
       </c>
-      <c r="T119" s="16" t="s">
+      <c r="T119" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U119" s="16">
+      <c r="U119" s="11">
         <v>84000</v>
       </c>
-      <c r="V119" s="16" t="s">
+      <c r="V119" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W119" s="13">
+      <c r="W119" s="9">
         <v>168000</v>
       </c>
-      <c r="X119" s="13" t="s">
+      <c r="X119" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y119" s="11">
+      <c r="Y119" s="8">
         <v>336000</v>
       </c>
-      <c r="Z119" s="11" t="s">
+      <c r="Z119" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA119" s="4"/>
@@ -8328,76 +8325,76 @@
       <c r="B120" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="22">
+      <c r="C120" s="16">
         <v>150</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="57">
+      <c r="E120" s="46">
         <v>300</v>
       </c>
-      <c r="F120" s="57" t="s">
+      <c r="F120" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G120" s="22">
+      <c r="G120" s="16">
         <v>700</v>
       </c>
-      <c r="H120" s="22" t="s">
+      <c r="H120" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I120" s="22">
+      <c r="I120" s="16">
         <v>1400</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K120" s="20">
+      <c r="K120" s="14">
         <v>3000</v>
       </c>
-      <c r="L120" s="20" t="s">
+      <c r="L120" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M120" s="20">
+      <c r="M120" s="14">
         <v>7000</v>
       </c>
-      <c r="N120" s="20" t="s">
+      <c r="N120" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O120" s="19">
+      <c r="O120" s="13">
         <v>14000</v>
       </c>
-      <c r="P120" s="19" t="s">
+      <c r="P120" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q120" s="19">
+      <c r="Q120" s="13">
         <v>28000</v>
       </c>
-      <c r="R120" s="19" t="s">
+      <c r="R120" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S120" s="16">
+      <c r="S120" s="11">
         <v>56000</v>
       </c>
-      <c r="T120" s="16" t="s">
+      <c r="T120" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U120" s="16">
+      <c r="U120" s="11">
         <v>84000</v>
       </c>
-      <c r="V120" s="16" t="s">
+      <c r="V120" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W120" s="13">
+      <c r="W120" s="9">
         <v>168000</v>
       </c>
-      <c r="X120" s="13" t="s">
+      <c r="X120" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y120" s="11">
+      <c r="Y120" s="8">
         <v>336000</v>
       </c>
-      <c r="Z120" s="11" t="s">
+      <c r="Z120" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA120" s="4"/>
@@ -8412,76 +8409,76 @@
       <c r="B121" t="s">
         <v>54</v>
       </c>
-      <c r="C121" s="20">
+      <c r="C121" s="14">
         <v>150</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E121" s="58">
+      <c r="E121" s="47">
         <v>300</v>
       </c>
-      <c r="F121" s="58" t="s">
+      <c r="F121" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G121" s="15">
         <v>700</v>
       </c>
-      <c r="H121" s="21" t="s">
+      <c r="H121" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I121" s="21">
+      <c r="I121" s="15">
         <v>1400</v>
       </c>
-      <c r="J121" s="21" t="s">
+      <c r="J121" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K121" s="20">
+      <c r="K121" s="14">
         <v>3000</v>
       </c>
-      <c r="L121" s="20" t="s">
+      <c r="L121" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M121" s="20">
+      <c r="M121" s="14">
         <v>7000</v>
       </c>
-      <c r="N121" s="20" t="s">
+      <c r="N121" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O121" s="19">
+      <c r="O121" s="13">
         <v>14000</v>
       </c>
-      <c r="P121" s="19" t="s">
+      <c r="P121" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q121" s="19">
+      <c r="Q121" s="13">
         <v>28000</v>
       </c>
-      <c r="R121" s="19" t="s">
+      <c r="R121" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S121" s="16">
+      <c r="S121" s="11">
         <v>56000</v>
       </c>
-      <c r="T121" s="16" t="s">
+      <c r="T121" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U121" s="16">
+      <c r="U121" s="11">
         <v>84000</v>
       </c>
-      <c r="V121" s="16" t="s">
+      <c r="V121" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W121" s="13">
+      <c r="W121" s="9">
         <v>168000</v>
       </c>
-      <c r="X121" s="13" t="s">
+      <c r="X121" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y121" s="11">
+      <c r="Y121" s="8">
         <v>336000</v>
       </c>
-      <c r="Z121" s="11" t="s">
+      <c r="Z121" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA121" s="4"/>
@@ -8496,76 +8493,76 @@
       <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="13">
         <v>150</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E122" s="56">
+      <c r="E122" s="45">
         <v>300</v>
       </c>
-      <c r="F122" s="56" t="s">
+      <c r="F122" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G122" s="23">
+      <c r="G122" s="17">
         <v>700</v>
       </c>
-      <c r="H122" s="23" t="s">
+      <c r="H122" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I122" s="23">
+      <c r="I122" s="17">
         <v>1400</v>
       </c>
-      <c r="J122" s="23" t="s">
+      <c r="J122" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K122" s="24">
+      <c r="K122" s="18">
         <v>3000</v>
       </c>
-      <c r="L122" s="24" t="s">
+      <c r="L122" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M122" s="24">
+      <c r="M122" s="18">
         <v>7000</v>
       </c>
-      <c r="N122" s="24" t="s">
+      <c r="N122" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O122" s="19">
+      <c r="O122" s="13">
         <v>14000</v>
       </c>
-      <c r="P122" s="19" t="s">
+      <c r="P122" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q122" s="19">
+      <c r="Q122" s="13">
         <v>28000</v>
       </c>
-      <c r="R122" s="19" t="s">
+      <c r="R122" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S122" s="16">
+      <c r="S122" s="11">
         <v>56000</v>
       </c>
-      <c r="T122" s="16" t="s">
+      <c r="T122" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U122" s="16">
+      <c r="U122" s="11">
         <v>84000</v>
       </c>
-      <c r="V122" s="16" t="s">
+      <c r="V122" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W122" s="13">
+      <c r="W122" s="9">
         <v>168000</v>
       </c>
-      <c r="X122" s="13" t="s">
+      <c r="X122" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y122" s="11">
+      <c r="Y122" s="8">
         <v>336000</v>
       </c>
-      <c r="Z122" s="11" t="s">
+      <c r="Z122" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA122" s="4"/>
@@ -8580,76 +8577,76 @@
       <c r="B123" t="s">
         <v>54</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="11">
         <v>150</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="39">
         <v>300</v>
       </c>
-      <c r="F123" s="49" t="s">
+      <c r="F123" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G123" s="50">
+      <c r="G123" s="40">
         <v>700</v>
       </c>
-      <c r="H123" s="50" t="s">
+      <c r="H123" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I123" s="50">
+      <c r="I123" s="40">
         <v>1400</v>
       </c>
-      <c r="J123" s="50" t="s">
+      <c r="J123" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K123" s="51">
+      <c r="K123" s="41">
         <v>3000</v>
       </c>
-      <c r="L123" s="51" t="s">
+      <c r="L123" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="M123" s="51">
+      <c r="M123" s="41">
         <v>7000</v>
       </c>
-      <c r="N123" s="51" t="s">
+      <c r="N123" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O123" s="52">
+      <c r="O123" s="42">
         <v>14000</v>
       </c>
-      <c r="P123" s="52" t="s">
+      <c r="P123" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q123" s="52">
+      <c r="Q123" s="42">
         <v>28000</v>
       </c>
-      <c r="R123" s="52" t="s">
+      <c r="R123" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="S123" s="16">
+      <c r="S123" s="11">
         <v>56000</v>
       </c>
-      <c r="T123" s="16" t="s">
+      <c r="T123" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U123" s="16">
+      <c r="U123" s="11">
         <v>84000</v>
       </c>
-      <c r="V123" s="16" t="s">
+      <c r="V123" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W123" s="13">
+      <c r="W123" s="9">
         <v>168000</v>
       </c>
-      <c r="X123" s="13" t="s">
+      <c r="X123" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y123" s="11">
+      <c r="Y123" s="8">
         <v>336000</v>
       </c>
-      <c r="Z123" s="11" t="s">
+      <c r="Z123" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA123" s="4"/>
@@ -8664,76 +8661,76 @@
       <c r="B124" t="s">
         <v>54</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="10">
         <v>150</v>
       </c>
-      <c r="D124" s="15" t="s">
+      <c r="D124" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E124" s="75">
+      <c r="E124" s="58">
         <v>300</v>
       </c>
-      <c r="F124" s="75" t="s">
+      <c r="F124" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G124" s="76">
+      <c r="G124" s="59">
         <v>700</v>
       </c>
-      <c r="H124" s="76" t="s">
+      <c r="H124" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I124" s="76">
+      <c r="I124" s="59">
         <v>1400</v>
       </c>
-      <c r="J124" s="76" t="s">
+      <c r="J124" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K124" s="77">
+      <c r="K124" s="60">
         <v>3000</v>
       </c>
-      <c r="L124" s="77" t="s">
+      <c r="L124" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="M124" s="77">
+      <c r="M124" s="60">
         <v>7000</v>
       </c>
-      <c r="N124" s="77" t="s">
+      <c r="N124" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O124" s="78">
+      <c r="O124" s="61">
         <v>14000</v>
       </c>
-      <c r="P124" s="78" t="s">
+      <c r="P124" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="Q124" s="78">
+      <c r="Q124" s="61">
         <v>28000</v>
       </c>
-      <c r="R124" s="78" t="s">
+      <c r="R124" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="S124" s="55">
+      <c r="S124" s="44">
         <v>56000</v>
       </c>
-      <c r="T124" s="55" t="s">
+      <c r="T124" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="U124" s="55">
+      <c r="U124" s="44">
         <v>84000</v>
       </c>
-      <c r="V124" s="55" t="s">
+      <c r="V124" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="W124" s="13">
+      <c r="W124" s="9">
         <v>168000</v>
       </c>
-      <c r="X124" s="13" t="s">
+      <c r="X124" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y124" s="11">
+      <c r="Y124" s="8">
         <v>336000</v>
       </c>
-      <c r="Z124" s="11" t="s">
+      <c r="Z124" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA124" s="4"/>
@@ -8748,76 +8745,76 @@
       <c r="B125" t="s">
         <v>54</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C125" s="83">
         <v>150</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E125" s="59">
+      <c r="E125" s="94">
         <v>300</v>
       </c>
-      <c r="F125" s="59" t="s">
+      <c r="F125" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="G125" s="60">
+      <c r="G125" s="95">
         <v>700</v>
       </c>
-      <c r="H125" s="60" t="s">
+      <c r="H125" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="60">
+      <c r="I125" s="95">
         <v>1400</v>
       </c>
-      <c r="J125" s="60" t="s">
+      <c r="J125" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="K125" s="61">
+      <c r="K125" s="96">
         <v>3000</v>
       </c>
-      <c r="L125" s="61" t="s">
+      <c r="L125" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="M125" s="61">
+      <c r="M125" s="96">
         <v>7000</v>
       </c>
-      <c r="N125" s="61" t="s">
+      <c r="N125" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="O125" s="62">
+      <c r="O125" s="97">
         <v>14000</v>
       </c>
-      <c r="P125" s="62" t="s">
+      <c r="P125" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="Q125" s="62">
+      <c r="Q125" s="97">
         <v>28000</v>
       </c>
-      <c r="R125" s="62" t="s">
+      <c r="R125" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="S125" s="47">
+      <c r="S125" s="89">
         <v>56000</v>
       </c>
-      <c r="T125" s="47" t="s">
+      <c r="T125" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="U125" s="47">
+      <c r="U125" s="89">
         <v>84000</v>
       </c>
-      <c r="V125" s="47" t="s">
+      <c r="V125" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="W125" s="63">
+      <c r="W125" s="98">
         <v>168000</v>
       </c>
-      <c r="X125" s="63" t="s">
+      <c r="X125" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="Y125" s="64">
+      <c r="Y125" s="99">
         <v>336000</v>
       </c>
-      <c r="Z125" s="64" t="s">
+      <c r="Z125" s="99" t="s">
         <v>57</v>
       </c>
       <c r="AA125" s="4"/>
@@ -8838,64 +8835,64 @@
       <c r="D126" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="22">
+      <c r="E126" s="16">
         <v>750</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="F126" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G126" s="22">
+      <c r="G126" s="16">
         <v>1500</v>
       </c>
-      <c r="H126" s="22" t="s">
+      <c r="H126" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I126" s="20">
+      <c r="I126" s="14">
         <v>3000</v>
       </c>
-      <c r="J126" s="20" t="s">
+      <c r="J126" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K126" s="20">
+      <c r="K126" s="14">
         <v>6000</v>
       </c>
-      <c r="L126" s="20" t="s">
+      <c r="L126" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M126" s="20">
+      <c r="M126" s="14">
         <v>12000</v>
       </c>
-      <c r="N126" s="20" t="s">
+      <c r="N126" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O126" s="19">
+      <c r="O126" s="13">
         <v>25000</v>
       </c>
-      <c r="P126" s="19" t="s">
+      <c r="P126" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q126" s="19">
+      <c r="Q126" s="13">
         <v>50000</v>
       </c>
-      <c r="R126" s="19" t="s">
+      <c r="R126" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S126" s="16">
+      <c r="S126" s="11">
         <v>100000</v>
       </c>
-      <c r="T126" s="16" t="s">
+      <c r="T126" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U126" s="15">
+      <c r="U126" s="10">
         <v>250000</v>
       </c>
-      <c r="V126" s="15" t="s">
+      <c r="V126" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="W126" s="13">
+      <c r="W126" s="9">
         <v>500000</v>
       </c>
-      <c r="X126" s="13" t="s">
+      <c r="X126" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y126" s="4"/>
@@ -8912,70 +8909,70 @@
       <c r="B127" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="20">
+      <c r="C127" s="14">
         <v>300</v>
       </c>
-      <c r="D127" s="20" t="s">
+      <c r="D127" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E127" s="21">
+      <c r="E127" s="15">
         <v>750</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="F127" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G127" s="21">
+      <c r="G127" s="15">
         <v>1500</v>
       </c>
-      <c r="H127" s="21" t="s">
+      <c r="H127" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I127" s="20">
+      <c r="I127" s="14">
         <v>3000</v>
       </c>
-      <c r="J127" s="20" t="s">
+      <c r="J127" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K127" s="20">
+      <c r="K127" s="14">
         <v>6000</v>
       </c>
-      <c r="L127" s="20" t="s">
+      <c r="L127" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M127" s="20">
+      <c r="M127" s="14">
         <v>12000</v>
       </c>
-      <c r="N127" s="20" t="s">
+      <c r="N127" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O127" s="19">
+      <c r="O127" s="13">
         <v>25000</v>
       </c>
-      <c r="P127" s="19" t="s">
+      <c r="P127" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q127" s="19">
+      <c r="Q127" s="13">
         <v>50000</v>
       </c>
-      <c r="R127" s="19" t="s">
+      <c r="R127" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S127" s="16">
+      <c r="S127" s="11">
         <v>100000</v>
       </c>
-      <c r="T127" s="16" t="s">
+      <c r="T127" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U127" s="15">
+      <c r="U127" s="10">
         <v>250000</v>
       </c>
-      <c r="V127" s="15" t="s">
+      <c r="V127" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="W127" s="13">
+      <c r="W127" s="9">
         <v>500000</v>
       </c>
-      <c r="X127" s="13" t="s">
+      <c r="X127" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y127" s="4"/>
@@ -8992,70 +8989,70 @@
       <c r="B128" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="8">
         <v>300</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E128" s="65">
+      <c r="E128" s="48">
         <v>750</v>
       </c>
-      <c r="F128" s="65" t="s">
+      <c r="F128" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G128" s="65">
+      <c r="G128" s="48">
         <v>1500</v>
       </c>
-      <c r="H128" s="65" t="s">
+      <c r="H128" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I128" s="66">
+      <c r="I128" s="49">
         <v>3000</v>
       </c>
-      <c r="J128" s="66" t="s">
+      <c r="J128" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="K128" s="66">
+      <c r="K128" s="49">
         <v>6000</v>
       </c>
-      <c r="L128" s="66" t="s">
+      <c r="L128" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M128" s="66">
+      <c r="M128" s="49">
         <v>12000</v>
       </c>
-      <c r="N128" s="66" t="s">
+      <c r="N128" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O128" s="67">
+      <c r="O128" s="50">
         <v>25000</v>
       </c>
-      <c r="P128" s="67" t="s">
+      <c r="P128" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="Q128" s="67">
+      <c r="Q128" s="50">
         <v>50000</v>
       </c>
-      <c r="R128" s="67" t="s">
+      <c r="R128" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S128" s="45">
+      <c r="S128" s="37">
         <v>100000</v>
       </c>
-      <c r="T128" s="45" t="s">
+      <c r="T128" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="U128" s="68">
+      <c r="U128" s="51">
         <v>250000</v>
       </c>
-      <c r="V128" s="68" t="s">
+      <c r="V128" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="W128" s="69">
+      <c r="W128" s="52">
         <v>500000</v>
       </c>
-      <c r="X128" s="69" t="s">
+      <c r="X128" s="52" t="s">
         <v>69</v>
       </c>
       <c r="Y128" s="4"/>
@@ -9072,70 +9069,70 @@
       <c r="B129" t="s">
         <v>54</v>
       </c>
-      <c r="C129" s="9">
+      <c r="C129" s="7">
         <v>300</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E129" s="70">
+      <c r="E129" s="53">
         <v>750</v>
       </c>
-      <c r="F129" s="70" t="s">
+      <c r="F129" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G129" s="70">
+      <c r="G129" s="53">
         <v>1500</v>
       </c>
-      <c r="H129" s="70" t="s">
+      <c r="H129" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I129" s="71">
+      <c r="I129" s="54">
         <v>3000</v>
       </c>
-      <c r="J129" s="71" t="s">
+      <c r="J129" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="K129" s="71">
+      <c r="K129" s="54">
         <v>6000</v>
       </c>
-      <c r="L129" s="71" t="s">
+      <c r="L129" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M129" s="71">
+      <c r="M129" s="54">
         <v>12000</v>
       </c>
-      <c r="N129" s="71" t="s">
+      <c r="N129" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="O129" s="72">
+      <c r="O129" s="55">
         <v>25000</v>
       </c>
-      <c r="P129" s="72" t="s">
+      <c r="P129" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="Q129" s="72">
+      <c r="Q129" s="55">
         <v>50000</v>
       </c>
-      <c r="R129" s="72" t="s">
+      <c r="R129" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="S129" s="46">
+      <c r="S129" s="38">
         <v>100000</v>
       </c>
-      <c r="T129" s="46" t="s">
+      <c r="T129" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="U129" s="73">
+      <c r="U129" s="56">
         <v>250000</v>
       </c>
-      <c r="V129" s="73" t="s">
+      <c r="V129" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="W129" s="74">
+      <c r="W129" s="57">
         <v>500000</v>
       </c>
-      <c r="X129" s="74" t="s">
+      <c r="X129" s="57" t="s">
         <v>69</v>
       </c>
       <c r="Y129" s="4"/>
@@ -9164,64 +9161,64 @@
       <c r="F130" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G130" s="22">
+      <c r="G130" s="16">
         <v>700</v>
       </c>
-      <c r="H130" s="22" t="s">
+      <c r="H130" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I130" s="22">
+      <c r="I130" s="16">
         <v>1400</v>
       </c>
-      <c r="J130" s="22" t="s">
+      <c r="J130" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K130" s="20">
+      <c r="K130" s="14">
         <v>3500</v>
       </c>
-      <c r="L130" s="20" t="s">
+      <c r="L130" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M130" s="20">
+      <c r="M130" s="14">
         <v>7000</v>
       </c>
-      <c r="N130" s="20" t="s">
+      <c r="N130" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O130" s="19">
+      <c r="O130" s="13">
         <v>14000</v>
       </c>
-      <c r="P130" s="19" t="s">
+      <c r="P130" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q130" s="19">
+      <c r="Q130" s="13">
         <v>28000</v>
       </c>
-      <c r="R130" s="19" t="s">
+      <c r="R130" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S130" s="16">
+      <c r="S130" s="11">
         <v>56000</v>
       </c>
-      <c r="T130" s="16" t="s">
+      <c r="T130" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U130" s="16">
+      <c r="U130" s="11">
         <v>84000</v>
       </c>
-      <c r="V130" s="16" t="s">
+      <c r="V130" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W130" s="13">
+      <c r="W130" s="9">
         <v>168000</v>
       </c>
-      <c r="X130" s="13" t="s">
+      <c r="X130" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y130" s="11">
+      <c r="Y130" s="8">
         <v>336000</v>
       </c>
-      <c r="Z130" s="11" t="s">
+      <c r="Z130" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA130" s="4"/>
@@ -9236,76 +9233,76 @@
       <c r="B131" t="s">
         <v>53</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="16">
         <v>150</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E131" s="57">
+      <c r="E131" s="46">
         <v>300</v>
       </c>
-      <c r="F131" s="57" t="s">
+      <c r="F131" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G131" s="22">
+      <c r="G131" s="16">
         <v>700</v>
       </c>
-      <c r="H131" s="22" t="s">
+      <c r="H131" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I131" s="22">
+      <c r="I131" s="16">
         <v>1400</v>
       </c>
-      <c r="J131" s="22" t="s">
+      <c r="J131" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K131" s="20">
+      <c r="K131" s="14">
         <v>3500</v>
       </c>
-      <c r="L131" s="20" t="s">
+      <c r="L131" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M131" s="20">
+      <c r="M131" s="14">
         <v>7000</v>
       </c>
-      <c r="N131" s="20" t="s">
+      <c r="N131" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O131" s="19">
+      <c r="O131" s="13">
         <v>14000</v>
       </c>
-      <c r="P131" s="19" t="s">
+      <c r="P131" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q131" s="19">
+      <c r="Q131" s="13">
         <v>28000</v>
       </c>
-      <c r="R131" s="19" t="s">
+      <c r="R131" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S131" s="16">
+      <c r="S131" s="11">
         <v>56000</v>
       </c>
-      <c r="T131" s="16" t="s">
+      <c r="T131" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U131" s="16">
+      <c r="U131" s="11">
         <v>84000</v>
       </c>
-      <c r="V131" s="16" t="s">
+      <c r="V131" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W131" s="13">
+      <c r="W131" s="9">
         <v>168000</v>
       </c>
-      <c r="X131" s="13" t="s">
+      <c r="X131" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y131" s="11">
+      <c r="Y131" s="8">
         <v>336000</v>
       </c>
-      <c r="Z131" s="11" t="s">
+      <c r="Z131" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA131" s="4"/>
@@ -9320,76 +9317,76 @@
       <c r="B132" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="20">
+      <c r="C132" s="14">
         <v>150</v>
       </c>
-      <c r="D132" s="20" t="s">
+      <c r="D132" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="58">
+      <c r="E132" s="47">
         <v>300</v>
       </c>
-      <c r="F132" s="58" t="s">
+      <c r="F132" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G132" s="21">
+      <c r="G132" s="15">
         <v>700</v>
       </c>
-      <c r="H132" s="21" t="s">
+      <c r="H132" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I132" s="21">
+      <c r="I132" s="15">
         <v>1400</v>
       </c>
-      <c r="J132" s="21" t="s">
+      <c r="J132" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K132" s="20">
+      <c r="K132" s="14">
         <v>3500</v>
       </c>
-      <c r="L132" s="20" t="s">
+      <c r="L132" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M132" s="20">
+      <c r="M132" s="14">
         <v>7000</v>
       </c>
-      <c r="N132" s="20" t="s">
+      <c r="N132" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O132" s="19">
+      <c r="O132" s="13">
         <v>14000</v>
       </c>
-      <c r="P132" s="19" t="s">
+      <c r="P132" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q132" s="19">
+      <c r="Q132" s="13">
         <v>28000</v>
       </c>
-      <c r="R132" s="19" t="s">
+      <c r="R132" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S132" s="16">
+      <c r="S132" s="11">
         <v>56000</v>
       </c>
-      <c r="T132" s="16" t="s">
+      <c r="T132" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U132" s="16">
+      <c r="U132" s="11">
         <v>84000</v>
       </c>
-      <c r="V132" s="16" t="s">
+      <c r="V132" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W132" s="13">
+      <c r="W132" s="9">
         <v>168000</v>
       </c>
-      <c r="X132" s="13" t="s">
+      <c r="X132" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y132" s="11">
+      <c r="Y132" s="8">
         <v>336000</v>
       </c>
-      <c r="Z132" s="11" t="s">
+      <c r="Z132" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA132" s="4"/>
@@ -9404,76 +9401,76 @@
       <c r="B133" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="19">
+      <c r="C133" s="13">
         <v>150</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E133" s="56">
+      <c r="E133" s="45">
         <v>300</v>
       </c>
-      <c r="F133" s="56" t="s">
+      <c r="F133" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G133" s="23">
+      <c r="G133" s="17">
         <v>700</v>
       </c>
-      <c r="H133" s="23" t="s">
+      <c r="H133" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I133" s="23">
+      <c r="I133" s="17">
         <v>1400</v>
       </c>
-      <c r="J133" s="23" t="s">
+      <c r="J133" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K133" s="24">
+      <c r="K133" s="18">
         <v>3500</v>
       </c>
-      <c r="L133" s="24" t="s">
+      <c r="L133" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M133" s="24">
+      <c r="M133" s="18">
         <v>7000</v>
       </c>
-      <c r="N133" s="24" t="s">
+      <c r="N133" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="19">
+      <c r="O133" s="13">
         <v>14000</v>
       </c>
-      <c r="P133" s="19" t="s">
+      <c r="P133" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q133" s="19">
+      <c r="Q133" s="13">
         <v>28000</v>
       </c>
-      <c r="R133" s="19" t="s">
+      <c r="R133" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S133" s="16">
+      <c r="S133" s="11">
         <v>56000</v>
       </c>
-      <c r="T133" s="16" t="s">
+      <c r="T133" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U133" s="16">
+      <c r="U133" s="11">
         <v>84000</v>
       </c>
-      <c r="V133" s="16" t="s">
+      <c r="V133" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W133" s="13">
+      <c r="W133" s="9">
         <v>168000</v>
       </c>
-      <c r="X133" s="13" t="s">
+      <c r="X133" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y133" s="11">
+      <c r="Y133" s="8">
         <v>336000</v>
       </c>
-      <c r="Z133" s="11" t="s">
+      <c r="Z133" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA133" s="4"/>
@@ -9488,76 +9485,76 @@
       <c r="B134" t="s">
         <v>53</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="11">
         <v>150</v>
       </c>
-      <c r="D134" s="16" t="s">
+      <c r="D134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E134" s="49">
+      <c r="E134" s="39">
         <v>300</v>
       </c>
-      <c r="F134" s="49" t="s">
+      <c r="F134" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G134" s="50">
+      <c r="G134" s="40">
         <v>700</v>
       </c>
-      <c r="H134" s="50" t="s">
+      <c r="H134" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I134" s="50">
+      <c r="I134" s="40">
         <v>1400</v>
       </c>
-      <c r="J134" s="50" t="s">
+      <c r="J134" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K134" s="51">
+      <c r="K134" s="41">
         <v>3500</v>
       </c>
-      <c r="L134" s="51" t="s">
+      <c r="L134" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="M134" s="51">
+      <c r="M134" s="41">
         <v>7000</v>
       </c>
-      <c r="N134" s="51" t="s">
+      <c r="N134" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="52">
+      <c r="O134" s="42">
         <v>14000</v>
       </c>
-      <c r="P134" s="52" t="s">
+      <c r="P134" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q134" s="52">
+      <c r="Q134" s="42">
         <v>28000</v>
       </c>
-      <c r="R134" s="52" t="s">
+      <c r="R134" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="S134" s="16">
+      <c r="S134" s="11">
         <v>56000</v>
       </c>
-      <c r="T134" s="16" t="s">
+      <c r="T134" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U134" s="16">
+      <c r="U134" s="11">
         <v>84000</v>
       </c>
-      <c r="V134" s="16" t="s">
+      <c r="V134" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W134" s="13">
+      <c r="W134" s="9">
         <v>168000</v>
       </c>
-      <c r="X134" s="13" t="s">
+      <c r="X134" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y134" s="11">
+      <c r="Y134" s="8">
         <v>336000</v>
       </c>
-      <c r="Z134" s="11" t="s">
+      <c r="Z134" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA134" s="4"/>
@@ -9572,76 +9569,76 @@
       <c r="B135" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="15">
+      <c r="C135" s="10">
         <v>150</v>
       </c>
-      <c r="D135" s="15" t="s">
+      <c r="D135" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E135" s="75">
+      <c r="E135" s="58">
         <v>300</v>
       </c>
-      <c r="F135" s="75" t="s">
+      <c r="F135" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G135" s="76">
+      <c r="G135" s="59">
         <v>700</v>
       </c>
-      <c r="H135" s="76" t="s">
+      <c r="H135" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I135" s="76">
+      <c r="I135" s="59">
         <v>1400</v>
       </c>
-      <c r="J135" s="76" t="s">
+      <c r="J135" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K135" s="77">
+      <c r="K135" s="60">
         <v>3500</v>
       </c>
-      <c r="L135" s="77" t="s">
+      <c r="L135" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="M135" s="77">
+      <c r="M135" s="60">
         <v>7000</v>
       </c>
-      <c r="N135" s="77" t="s">
+      <c r="N135" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O135" s="78">
+      <c r="O135" s="61">
         <v>14000</v>
       </c>
-      <c r="P135" s="78" t="s">
+      <c r="P135" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="Q135" s="78">
+      <c r="Q135" s="61">
         <v>28000</v>
       </c>
-      <c r="R135" s="78" t="s">
+      <c r="R135" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="S135" s="55">
+      <c r="S135" s="44">
         <v>56000</v>
       </c>
-      <c r="T135" s="55" t="s">
+      <c r="T135" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="U135" s="55">
+      <c r="U135" s="44">
         <v>84000</v>
       </c>
-      <c r="V135" s="55" t="s">
+      <c r="V135" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="W135" s="13">
+      <c r="W135" s="9">
         <v>168000</v>
       </c>
-      <c r="X135" s="13" t="s">
+      <c r="X135" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y135" s="11">
+      <c r="Y135" s="8">
         <v>336000</v>
       </c>
-      <c r="Z135" s="11" t="s">
+      <c r="Z135" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA135" s="4"/>
@@ -9656,76 +9653,76 @@
       <c r="B136" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="83">
         <v>150</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="53">
+      <c r="E136" s="93">
         <v>300</v>
       </c>
-      <c r="F136" s="53" t="s">
+      <c r="F136" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="G136" s="28">
+      <c r="G136" s="86">
         <v>700</v>
       </c>
-      <c r="H136" s="28" t="s">
+      <c r="H136" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="I136" s="28">
+      <c r="I136" s="86">
         <v>1400</v>
       </c>
-      <c r="J136" s="28" t="s">
+      <c r="J136" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="K136" s="29">
+      <c r="K136" s="87">
         <v>3500</v>
       </c>
-      <c r="L136" s="29" t="s">
+      <c r="L136" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="M136" s="29">
+      <c r="M136" s="87">
         <v>7000</v>
       </c>
-      <c r="N136" s="29" t="s">
+      <c r="N136" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="O136" s="18">
+      <c r="O136" s="88">
         <v>14000</v>
       </c>
-      <c r="P136" s="18" t="s">
+      <c r="P136" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="Q136" s="18">
+      <c r="Q136" s="88">
         <v>28000</v>
       </c>
-      <c r="R136" s="18" t="s">
+      <c r="R136" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="S136" s="47">
+      <c r="S136" s="89">
         <v>56000</v>
       </c>
-      <c r="T136" s="47" t="s">
+      <c r="T136" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="47">
+      <c r="U136" s="89">
         <v>84000</v>
       </c>
-      <c r="V136" s="47" t="s">
+      <c r="V136" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="W136" s="12">
+      <c r="W136" s="91">
         <v>168000</v>
       </c>
-      <c r="X136" s="12" t="s">
+      <c r="X136" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="Y136" s="10">
+      <c r="Y136" s="92">
         <v>336000</v>
       </c>
-      <c r="Z136" s="10" t="s">
+      <c r="Z136" s="92" t="s">
         <v>57</v>
       </c>
       <c r="AA136" s="4"/>
@@ -9746,64 +9743,64 @@
       <c r="D137" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E137" s="22">
+      <c r="E137" s="16">
         <v>750</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="F137" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G137" s="22">
+      <c r="G137" s="16">
         <v>1500</v>
       </c>
-      <c r="H137" s="22" t="s">
+      <c r="H137" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I137" s="20">
+      <c r="I137" s="14">
         <v>3000</v>
       </c>
-      <c r="J137" s="20" t="s">
+      <c r="J137" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K137" s="20">
+      <c r="K137" s="14">
         <v>6000</v>
       </c>
-      <c r="L137" s="20" t="s">
+      <c r="L137" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M137" s="20">
+      <c r="M137" s="14">
         <v>12000</v>
       </c>
-      <c r="N137" s="20" t="s">
+      <c r="N137" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O137" s="19">
+      <c r="O137" s="13">
         <v>25000</v>
       </c>
-      <c r="P137" s="19" t="s">
+      <c r="P137" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q137" s="19">
+      <c r="Q137" s="13">
         <v>50000</v>
       </c>
-      <c r="R137" s="19" t="s">
+      <c r="R137" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S137" s="16">
+      <c r="S137" s="11">
         <v>100000</v>
       </c>
-      <c r="T137" s="16" t="s">
+      <c r="T137" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U137" s="15">
+      <c r="U137" s="10">
         <v>250000</v>
       </c>
-      <c r="V137" s="15" t="s">
+      <c r="V137" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="W137" s="13">
+      <c r="W137" s="9">
         <v>500000</v>
       </c>
-      <c r="X137" s="13" t="s">
+      <c r="X137" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y137" s="4"/>
@@ -9820,70 +9817,70 @@
       <c r="B138" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="20">
+      <c r="C138" s="14">
         <v>300</v>
       </c>
-      <c r="D138" s="20" t="s">
+      <c r="D138" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E138" s="21">
+      <c r="E138" s="15">
         <v>750</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G138" s="21">
+      <c r="G138" s="15">
         <v>1500</v>
       </c>
-      <c r="H138" s="21" t="s">
+      <c r="H138" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I138" s="20">
+      <c r="I138" s="14">
         <v>3000</v>
       </c>
-      <c r="J138" s="20" t="s">
+      <c r="J138" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K138" s="20">
+      <c r="K138" s="14">
         <v>6000</v>
       </c>
-      <c r="L138" s="20" t="s">
+      <c r="L138" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M138" s="20">
+      <c r="M138" s="14">
         <v>12000</v>
       </c>
-      <c r="N138" s="20" t="s">
+      <c r="N138" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O138" s="19">
+      <c r="O138" s="13">
         <v>25000</v>
       </c>
-      <c r="P138" s="19" t="s">
+      <c r="P138" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q138" s="19">
+      <c r="Q138" s="13">
         <v>50000</v>
       </c>
-      <c r="R138" s="19" t="s">
+      <c r="R138" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S138" s="16">
+      <c r="S138" s="11">
         <v>100000</v>
       </c>
-      <c r="T138" s="16" t="s">
+      <c r="T138" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U138" s="15">
+      <c r="U138" s="10">
         <v>250000</v>
       </c>
-      <c r="V138" s="15" t="s">
+      <c r="V138" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="W138" s="13">
+      <c r="W138" s="9">
         <v>500000</v>
       </c>
-      <c r="X138" s="13" t="s">
+      <c r="X138" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y138" s="4"/>
@@ -9900,70 +9897,70 @@
       <c r="B139" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="8">
         <v>300</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E139" s="65">
+      <c r="E139" s="48">
         <v>750</v>
       </c>
-      <c r="F139" s="65" t="s">
+      <c r="F139" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G139" s="65">
+      <c r="G139" s="48">
         <v>1500</v>
       </c>
-      <c r="H139" s="65" t="s">
+      <c r="H139" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I139" s="66">
+      <c r="I139" s="49">
         <v>3000</v>
       </c>
-      <c r="J139" s="66" t="s">
+      <c r="J139" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="K139" s="66">
+      <c r="K139" s="49">
         <v>6000</v>
       </c>
-      <c r="L139" s="66" t="s">
+      <c r="L139" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M139" s="66">
+      <c r="M139" s="49">
         <v>12000</v>
       </c>
-      <c r="N139" s="66" t="s">
+      <c r="N139" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O139" s="67">
+      <c r="O139" s="50">
         <v>25000</v>
       </c>
-      <c r="P139" s="67" t="s">
+      <c r="P139" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="Q139" s="67">
+      <c r="Q139" s="50">
         <v>50000</v>
       </c>
-      <c r="R139" s="67" t="s">
+      <c r="R139" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S139" s="45">
+      <c r="S139" s="37">
         <v>100000</v>
       </c>
-      <c r="T139" s="45" t="s">
+      <c r="T139" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="U139" s="68">
+      <c r="U139" s="51">
         <v>250000</v>
       </c>
-      <c r="V139" s="68" t="s">
+      <c r="V139" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="W139" s="69">
+      <c r="W139" s="52">
         <v>500000</v>
       </c>
-      <c r="X139" s="69" t="s">
+      <c r="X139" s="52" t="s">
         <v>69</v>
       </c>
       <c r="Y139" s="4"/>
@@ -9980,70 +9977,70 @@
       <c r="B140" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C140" s="7">
         <v>300</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E140" s="70">
+      <c r="E140" s="53">
         <v>750</v>
       </c>
-      <c r="F140" s="70" t="s">
+      <c r="F140" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G140" s="70">
+      <c r="G140" s="53">
         <v>1500</v>
       </c>
-      <c r="H140" s="70" t="s">
+      <c r="H140" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I140" s="71">
+      <c r="I140" s="54">
         <v>3000</v>
       </c>
-      <c r="J140" s="71" t="s">
+      <c r="J140" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="K140" s="71">
+      <c r="K140" s="54">
         <v>6000</v>
       </c>
-      <c r="L140" s="71" t="s">
+      <c r="L140" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="M140" s="71">
+      <c r="M140" s="54">
         <v>12000</v>
       </c>
-      <c r="N140" s="71" t="s">
+      <c r="N140" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="O140" s="72">
+      <c r="O140" s="55">
         <v>25000</v>
       </c>
-      <c r="P140" s="72" t="s">
+      <c r="P140" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="Q140" s="72">
+      <c r="Q140" s="55">
         <v>50000</v>
       </c>
-      <c r="R140" s="72" t="s">
+      <c r="R140" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="S140" s="46">
+      <c r="S140" s="38">
         <v>100000</v>
       </c>
-      <c r="T140" s="46" t="s">
+      <c r="T140" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="U140" s="73">
+      <c r="U140" s="56">
         <v>250000</v>
       </c>
-      <c r="V140" s="73" t="s">
+      <c r="V140" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="W140" s="74">
+      <c r="W140" s="57">
         <v>500000</v>
       </c>
-      <c r="X140" s="74" t="s">
+      <c r="X140" s="57" t="s">
         <v>69</v>
       </c>
       <c r="Y140" s="4"/>
@@ -10060,40 +10057,40 @@
       <c r="B141" t="s">
         <v>54</v>
       </c>
-      <c r="C141" s="13">
+      <c r="C141" s="9">
         <v>1000000</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D141" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E141" s="13">
+      <c r="E141" s="9">
         <v>1500000</v>
       </c>
-      <c r="F141" s="13" t="s">
+      <c r="F141" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G141" s="13">
+      <c r="G141" s="9">
         <v>2000000</v>
       </c>
-      <c r="H141" s="13" t="s">
+      <c r="H141" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I141" s="9">
+      <c r="I141" s="7">
         <v>3000000</v>
       </c>
-      <c r="J141" s="9" t="s">
+      <c r="J141" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K141" s="9">
+      <c r="K141" s="7">
         <v>4000000</v>
       </c>
-      <c r="L141" s="9" t="s">
+      <c r="L141" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M141" s="9">
+      <c r="M141" s="7">
         <v>5000000</v>
       </c>
-      <c r="N141" s="9" t="s">
+      <c r="N141" s="7" t="s">
         <v>72</v>
       </c>
       <c r="O141" s="4"/>
@@ -10120,40 +10117,40 @@
       <c r="B142" t="s">
         <v>54</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="8">
         <v>1000000</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E142" s="37">
+      <c r="E142" s="29">
         <v>1500000</v>
       </c>
-      <c r="F142" s="37" t="s">
+      <c r="F142" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G142" s="37">
+      <c r="G142" s="29">
         <v>2000000</v>
       </c>
-      <c r="H142" s="37" t="s">
+      <c r="H142" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I142" s="9">
+      <c r="I142" s="7">
         <v>3000000</v>
       </c>
-      <c r="J142" s="9" t="s">
+      <c r="J142" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K142" s="9">
+      <c r="K142" s="7">
         <v>4000000</v>
       </c>
-      <c r="L142" s="9" t="s">
+      <c r="L142" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M142" s="9">
+      <c r="M142" s="7">
         <v>5000000</v>
       </c>
-      <c r="N142" s="9" t="s">
+      <c r="N142" s="7" t="s">
         <v>72</v>
       </c>
       <c r="O142" s="4"/>
@@ -10180,40 +10177,40 @@
       <c r="B143" t="s">
         <v>54</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="83">
         <v>1000000</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E143" s="91">
         <v>1500000</v>
       </c>
-      <c r="F143" s="12" t="s">
+      <c r="F143" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="12">
+      <c r="G143" s="91">
         <v>2000000</v>
       </c>
-      <c r="H143" s="12" t="s">
+      <c r="H143" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="I143" s="8">
+      <c r="I143" s="85">
         <v>3000000</v>
       </c>
-      <c r="J143" s="8" t="s">
+      <c r="J143" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="K143" s="8">
+      <c r="K143" s="85">
         <v>4000000</v>
       </c>
-      <c r="L143" s="8" t="s">
+      <c r="L143" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="M143" s="8">
+      <c r="M143" s="85">
         <v>5000000</v>
       </c>
-      <c r="N143" s="8" t="s">
+      <c r="N143" s="85" t="s">
         <v>72</v>
       </c>
       <c r="O143" s="4"/>
@@ -10240,40 +10237,40 @@
       <c r="B144" t="s">
         <v>54</v>
       </c>
-      <c r="C144" s="79">
+      <c r="C144" s="62">
         <v>600000</v>
       </c>
-      <c r="D144" s="79" t="s">
+      <c r="D144" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="9">
         <v>1200000</v>
       </c>
-      <c r="F144" s="13" t="s">
+      <c r="F144" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144" s="8">
         <v>1800000</v>
       </c>
-      <c r="H144" s="11" t="s">
+      <c r="H144" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I144" s="11">
+      <c r="I144" s="8">
         <v>2400000</v>
       </c>
-      <c r="J144" s="11" t="s">
+      <c r="J144" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="K144" s="9">
+      <c r="K144" s="7">
         <v>3000000</v>
       </c>
-      <c r="L144" s="9" t="s">
+      <c r="L144" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M144" s="9">
+      <c r="M144" s="7">
         <v>3600000</v>
       </c>
-      <c r="N144" s="9" t="s">
+      <c r="N144" s="7" t="s">
         <v>71</v>
       </c>
       <c r="O144" s="4"/>
@@ -10331,12 +10328,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10344,6 +10335,12 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="105">
   <si>
     <t>Town Hall</t>
   </si>
@@ -340,6 +340,9 @@
   <si>
     <t>Level 40</t>
   </si>
+  <si>
+    <t>Level 31</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,7 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAB274F"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +588,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -817,61 +826,70 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="23" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="24" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,11 +912,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFAB274F"/>
-      <color rgb="FFFF0090"/>
-      <color rgb="FFCC0099"/>
+      <color rgb="FFFF66CC"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1178,19 +1193,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD146"/>
+  <dimension ref="A1:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N143" sqref="C143:N143"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.140625" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10" customWidth="1"/>
     <col min="29" max="29" width="11.140625" customWidth="1"/>
   </cols>
@@ -1199,58 +1224,58 @@
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="81">
+      <c r="C1" s="102">
         <v>1</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102">
         <v>2</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102">
         <v>3</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81">
+      <c r="H1" s="102"/>
+      <c r="I1" s="102">
         <v>4</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81">
+      <c r="J1" s="102"/>
+      <c r="K1" s="102">
         <v>5</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81">
+      <c r="L1" s="102"/>
+      <c r="M1" s="102">
         <v>6</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81">
+      <c r="N1" s="102"/>
+      <c r="O1" s="102">
         <v>7</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102">
         <v>8</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81">
+      <c r="R1" s="102"/>
+      <c r="S1" s="102">
         <v>9</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81">
+      <c r="T1" s="102"/>
+      <c r="U1" s="102">
         <v>10</v>
       </c>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81">
+      <c r="V1" s="102"/>
+      <c r="W1" s="102">
         <v>11</v>
       </c>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81">
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102">
         <v>12</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102">
         <v>13</v>
       </c>
-      <c r="AB1" s="81"/>
+      <c r="AB1" s="102"/>
     </row>
     <row r="2" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -1276,8 +1301,8 @@
       <c r="T2" s="7"/>
       <c r="U2" s="82"/>
       <c r="V2" s="82"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AC2" s="2"/>
@@ -1344,14 +1369,14 @@
       <c r="T3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="83">
+      <c r="U3" s="82">
         <v>4000000</v>
       </c>
-      <c r="V3" s="83" t="s">
+      <c r="V3" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="2"/>
@@ -1396,10 +1421,10 @@
       <c r="L4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="83">
+      <c r="M4" s="85">
         <v>7000000</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>74</v>
       </c>
       <c r="O4" s="4"/>
@@ -1468,10 +1493,10 @@
       <c r="P5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="85">
         <v>4000000</v>
       </c>
-      <c r="R5" s="83" t="s">
+      <c r="R5" s="85" t="s">
         <v>71</v>
       </c>
       <c r="S5" s="4"/>
@@ -1518,10 +1543,10 @@
       <c r="J6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="83">
+      <c r="K6" s="85">
         <v>3200000</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="85" t="s">
         <v>71</v>
       </c>
       <c r="O6" s="4"/>
@@ -1576,13 +1601,13 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
@@ -1609,13 +1634,13 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="79"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -1665,10 +1690,10 @@
       <c r="N9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="85">
         <v>6000000</v>
       </c>
-      <c r="P9" s="83" t="s">
+      <c r="P9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="4"/>
@@ -1729,10 +1754,10 @@
       <c r="N10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="83">
+      <c r="O10" s="85">
         <v>7500000</v>
       </c>
-      <c r="P10" s="83" t="s">
+      <c r="P10" s="85" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="4"/>
@@ -1793,10 +1818,10 @@
       <c r="N11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="83">
+      <c r="O11" s="85">
         <v>7000000</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="4"/>
@@ -1911,10 +1936,10 @@
       <c r="L13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="85">
         <v>6750000</v>
       </c>
-      <c r="N13" s="83" t="s">
+      <c r="N13" s="85" t="s">
         <v>73</v>
       </c>
       <c r="Q13" s="4"/>
@@ -1980,7 +2005,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="79"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -2029,10 +2054,10 @@
       <c r="L15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="83">
+      <c r="M15" s="82">
         <v>7500000</v>
       </c>
-      <c r="N15" s="83" t="s">
+      <c r="N15" s="82" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="4"/>
@@ -2135,10 +2160,10 @@
       <c r="J17" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="82">
         <v>8000000</v>
       </c>
-      <c r="L17" s="83" t="s">
+      <c r="L17" s="82" t="s">
         <v>74</v>
       </c>
       <c r="M17" s="4"/>
@@ -2185,16 +2210,16 @@
       <c r="H18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="82">
         <v>7000000</v>
       </c>
-      <c r="J18" s="83" t="s">
+      <c r="J18" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="82">
         <v>8000000</v>
       </c>
-      <c r="L18" s="83" t="s">
+      <c r="L18" s="82" t="s">
         <v>74</v>
       </c>
       <c r="M18" s="4"/>
@@ -2253,10 +2278,10 @@
       <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="83">
+      <c r="M19" s="82">
         <v>100000</v>
       </c>
-      <c r="N19" s="83" t="s">
+      <c r="N19" s="82" t="s">
         <v>74</v>
       </c>
       <c r="O19" s="4"/>
@@ -2413,10 +2438,10 @@
       <c r="J22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="83">
+      <c r="K22" s="82">
         <v>90000</v>
       </c>
-      <c r="L22" s="83" t="s">
+      <c r="L22" s="82" t="s">
         <v>74</v>
       </c>
       <c r="M22" s="4"/>
@@ -2501,10 +2526,10 @@
       <c r="F24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="82">
         <v>70000</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="82" t="s">
         <v>78</v>
       </c>
       <c r="I24" s="4"/>
@@ -2578,10 +2603,10 @@
       <c r="N26" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="83">
+      <c r="O26" s="82">
         <v>8000000</v>
       </c>
-      <c r="P26" s="83" t="s">
+      <c r="P26" s="82" t="s">
         <v>74</v>
       </c>
       <c r="Q26" s="4"/>
@@ -2734,10 +2759,10 @@
       <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="82">
         <v>6000000</v>
       </c>
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="82" t="s">
         <v>75</v>
       </c>
       <c r="I29" s="4"/>
@@ -2770,34 +2795,34 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="82">
         <v>4000000</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="82">
         <v>5000000</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="82">
         <v>6500000</v>
       </c>
-      <c r="J30" s="83" t="s">
+      <c r="J30" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="83">
+      <c r="K30" s="82">
         <v>8000000</v>
       </c>
-      <c r="L30" s="83" t="s">
+      <c r="L30" s="82" t="s">
         <v>74</v>
       </c>
       <c r="M30" s="4"/>
@@ -2844,10 +2869,10 @@
       <c r="H31" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="83">
+      <c r="I31" s="82">
         <v>75000</v>
       </c>
-      <c r="J31" s="83" t="s">
+      <c r="J31" s="82" t="s">
         <v>73</v>
       </c>
       <c r="K31" s="65"/>
@@ -2896,10 +2921,10 @@
       <c r="H32" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="83">
+      <c r="I32" s="82">
         <v>90000</v>
       </c>
-      <c r="J32" s="83" t="s">
+      <c r="J32" s="82" t="s">
         <v>78</v>
       </c>
       <c r="K32" s="65"/>
@@ -2936,22 +2961,22 @@
       <c r="D33" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="66">
         <v>40000</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="83">
+      <c r="G33" s="82">
         <v>80000</v>
       </c>
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="I33" s="83">
+      <c r="I33" s="82">
         <v>120000</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="82" t="s">
         <v>73</v>
       </c>
       <c r="K33" s="65"/>
@@ -3002,13 +3027,13 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4" t="s">
+      <c r="Z34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
+      <c r="AD34" s="4"/>
     </row>
     <row r="35" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3086,17 +3111,21 @@
       <c r="Y35" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Z35" s="80" t="s">
+      <c r="Z35" s="86">
+        <v>145000</v>
+      </c>
+      <c r="AA35" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB35" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="AA35" s="84">
+      <c r="AC35" s="86">
         <v>190000</v>
       </c>
-      <c r="AB35" s="85" t="s">
+      <c r="AD35" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="3"/>
     </row>
     <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -3174,17 +3203,21 @@
       <c r="Y36" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="Z36" s="80" t="s">
+      <c r="Z36" s="87">
+        <v>155000</v>
+      </c>
+      <c r="AA36" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB36" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="AA36" s="85">
+      <c r="AC36" s="87">
         <v>200000</v>
       </c>
-      <c r="AB36" s="85" t="s">
+      <c r="AD36" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="3"/>
     </row>
     <row r="37" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
@@ -3268,10 +3301,10 @@
       <c r="P38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q38" s="83">
+      <c r="Q38" s="82">
         <v>7560000</v>
       </c>
-      <c r="R38" s="83" t="s">
+      <c r="R38" s="82" t="s">
         <v>78</v>
       </c>
       <c r="S38" s="4"/>
@@ -3336,14 +3369,13 @@
       <c r="P39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q39" s="83">
+      <c r="Q39" s="82">
         <v>7560000</v>
       </c>
-      <c r="R39" s="83" t="s">
+      <c r="R39" s="82" t="s">
         <v>78</v>
       </c>
       <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -3404,10 +3436,10 @@
       <c r="P40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q40" s="83">
+      <c r="Q40" s="82">
         <v>7560000</v>
       </c>
-      <c r="R40" s="83" t="s">
+      <c r="R40" s="82" t="s">
         <v>78</v>
       </c>
       <c r="S40" s="4"/>
@@ -3472,10 +3504,10 @@
       <c r="P41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Q41" s="83">
+      <c r="Q41" s="82">
         <v>7560000</v>
       </c>
-      <c r="R41" s="83" t="s">
+      <c r="R41" s="82" t="s">
         <v>78</v>
       </c>
       <c r="S41" s="4"/>
@@ -3530,10 +3562,10 @@
       <c r="L42" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M42" s="83">
+      <c r="M42" s="82">
         <v>7200000</v>
       </c>
-      <c r="N42" s="83" t="s">
+      <c r="N42" s="82" t="s">
         <v>77</v>
       </c>
       <c r="O42" s="64"/>
@@ -3590,10 +3622,10 @@
       <c r="L43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M43" s="83">
+      <c r="M43" s="82">
         <v>7200000</v>
       </c>
-      <c r="N43" s="83" t="s">
+      <c r="N43" s="82" t="s">
         <v>77</v>
       </c>
       <c r="O43" s="64"/>
@@ -3686,16 +3718,16 @@
       <c r="X44" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y44" s="83">
+      <c r="Y44" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z44" s="83" t="s">
+      <c r="Z44" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA44" s="83">
+      <c r="AA44" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB44" s="83" t="s">
+      <c r="AB44" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC44" s="3"/>
@@ -3774,16 +3806,16 @@
       <c r="X45" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y45" s="83">
+      <c r="Y45" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z45" s="83" t="s">
+      <c r="Z45" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA45" s="83">
+      <c r="AA45" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB45" s="83" t="s">
+      <c r="AB45" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC45" s="3"/>
@@ -3862,16 +3894,16 @@
       <c r="X46" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y46" s="83">
+      <c r="Y46" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z46" s="83" t="s">
+      <c r="Z46" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA46" s="83">
+      <c r="AA46" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB46" s="83" t="s">
+      <c r="AB46" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC46" s="3"/>
@@ -3950,16 +3982,16 @@
       <c r="X47" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y47" s="83">
+      <c r="Y47" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z47" s="83" t="s">
+      <c r="Z47" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA47" s="83">
+      <c r="AA47" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB47" s="83" t="s">
+      <c r="AB47" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC47" s="3"/>
@@ -4038,16 +4070,16 @@
       <c r="X48" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y48" s="83">
+      <c r="Y48" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z48" s="83" t="s">
+      <c r="Z48" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA48" s="83">
+      <c r="AA48" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB48" s="83" t="s">
+      <c r="AB48" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC48" s="3"/>
@@ -4126,16 +4158,16 @@
       <c r="X49" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Y49" s="83">
+      <c r="Y49" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z49" s="83" t="s">
+      <c r="Z49" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA49" s="83">
+      <c r="AA49" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB49" s="83" t="s">
+      <c r="AB49" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC49" s="3"/>
@@ -4148,82 +4180,82 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="83">
+      <c r="C50" s="82">
         <v>1000</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="86">
+      <c r="E50" s="88">
         <v>2000</v>
       </c>
-      <c r="F50" s="86" t="s">
+      <c r="F50" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="87">
+      <c r="G50" s="89">
         <v>5000</v>
       </c>
-      <c r="H50" s="87" t="s">
+      <c r="H50" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="I50" s="88">
+      <c r="I50" s="90">
         <v>20000</v>
       </c>
-      <c r="J50" s="88" t="s">
+      <c r="J50" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="89">
+      <c r="K50" s="91">
         <v>80000</v>
       </c>
-      <c r="L50" s="89" t="s">
+      <c r="L50" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="89">
+      <c r="M50" s="91">
         <v>180000</v>
       </c>
-      <c r="N50" s="89" t="s">
+      <c r="N50" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="O50" s="90">
+      <c r="O50" s="92">
         <v>360000</v>
       </c>
-      <c r="P50" s="90" t="s">
+      <c r="P50" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="91">
+      <c r="Q50" s="93">
         <v>720000</v>
       </c>
-      <c r="R50" s="91" t="s">
+      <c r="R50" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="S50" s="92">
+      <c r="S50" s="94">
         <v>1500000</v>
       </c>
-      <c r="T50" s="92" t="s">
+      <c r="T50" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="92">
+      <c r="U50" s="94">
         <v>2500000</v>
       </c>
-      <c r="V50" s="92" t="s">
+      <c r="V50" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="85">
+      <c r="W50" s="87">
         <v>4500000</v>
       </c>
-      <c r="X50" s="85" t="s">
+      <c r="X50" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="Y50" s="83">
+      <c r="Y50" s="82">
         <v>6500000</v>
       </c>
-      <c r="Z50" s="83" t="s">
+      <c r="Z50" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA50" s="83">
+      <c r="AA50" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB50" s="83" t="s">
+      <c r="AB50" s="82" t="s">
         <v>72</v>
       </c>
       <c r="AC50" s="3"/>
@@ -4302,16 +4334,16 @@
       <c r="X51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="83">
+      <c r="Y51" s="82">
         <v>6400000</v>
       </c>
-      <c r="Z51" s="83" t="s">
+      <c r="Z51" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="AA51" s="83">
+      <c r="AA51" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB51" s="83" t="s">
+      <c r="AB51" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC51" s="3"/>
@@ -4390,16 +4422,16 @@
       <c r="X52" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y52" s="83">
+      <c r="Y52" s="82">
         <v>6400000</v>
       </c>
-      <c r="Z52" s="83" t="s">
+      <c r="Z52" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="AA52" s="83">
+      <c r="AA52" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB52" s="83" t="s">
+      <c r="AB52" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC52" s="3"/>
@@ -4478,16 +4510,16 @@
       <c r="X53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y53" s="83">
+      <c r="Y53" s="82">
         <v>6400000</v>
       </c>
-      <c r="Z53" s="83" t="s">
+      <c r="Z53" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="AA53" s="83">
+      <c r="AA53" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB53" s="83" t="s">
+      <c r="AB53" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC53" s="3"/>
@@ -4566,16 +4598,16 @@
       <c r="X54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y54" s="83">
+      <c r="Y54" s="82">
         <v>6400000</v>
       </c>
-      <c r="Z54" s="83" t="s">
+      <c r="Z54" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="AA54" s="83">
+      <c r="AA54" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB54" s="83" t="s">
+      <c r="AB54" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC54" s="3"/>
@@ -4654,16 +4686,16 @@
       <c r="X55" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y55" s="83">
+      <c r="Y55" s="82">
         <v>6400000</v>
       </c>
-      <c r="Z55" s="83" t="s">
+      <c r="Z55" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="AA55" s="83">
+      <c r="AA55" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB55" s="83" t="s">
+      <c r="AB55" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC55" s="3"/>
@@ -4676,82 +4708,82 @@
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="83">
+      <c r="C56" s="82">
         <v>250</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="93">
+      <c r="E56" s="95">
         <v>1000</v>
       </c>
-      <c r="F56" s="93" t="s">
+      <c r="F56" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="86">
+      <c r="G56" s="88">
         <v>4000</v>
       </c>
-      <c r="H56" s="86" t="s">
+      <c r="H56" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="87">
+      <c r="I56" s="89">
         <v>16000</v>
       </c>
-      <c r="J56" s="87" t="s">
+      <c r="J56" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="88">
+      <c r="K56" s="90">
         <v>50000</v>
       </c>
-      <c r="L56" s="88" t="s">
+      <c r="L56" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="89">
+      <c r="M56" s="91">
         <v>100000</v>
       </c>
-      <c r="N56" s="89" t="s">
+      <c r="N56" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="O56" s="90">
+      <c r="O56" s="92">
         <v>200000</v>
       </c>
-      <c r="P56" s="90" t="s">
+      <c r="P56" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="Q56" s="91">
+      <c r="Q56" s="93">
         <v>400000</v>
       </c>
-      <c r="R56" s="91" t="s">
+      <c r="R56" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="S56" s="92">
+      <c r="S56" s="94">
         <v>800000</v>
       </c>
-      <c r="T56" s="92" t="s">
+      <c r="T56" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="U56" s="92">
+      <c r="U56" s="94">
         <v>1600000</v>
       </c>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="W56" s="85">
+      <c r="W56" s="87">
         <v>3200000</v>
       </c>
-      <c r="X56" s="85" t="s">
+      <c r="X56" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="Y56" s="83">
+      <c r="Y56" s="82">
         <v>6400000</v>
       </c>
-      <c r="Z56" s="83" t="s">
+      <c r="Z56" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="AA56" s="83">
+      <c r="AA56" s="82">
         <v>7500000</v>
       </c>
-      <c r="AB56" s="83" t="s">
+      <c r="AB56" s="82" t="s">
         <v>75</v>
       </c>
       <c r="AC56" s="3"/>
@@ -4806,10 +4838,10 @@
       <c r="P57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q57" s="83">
+      <c r="Q57" s="82">
         <v>6400000</v>
       </c>
-      <c r="R57" s="83" t="s">
+      <c r="R57" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S57" s="4"/>
@@ -4874,10 +4906,10 @@
       <c r="P58" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q58" s="83">
+      <c r="Q58" s="82">
         <v>6400000</v>
       </c>
-      <c r="R58" s="83" t="s">
+      <c r="R58" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S58" s="4"/>
@@ -4942,10 +4974,10 @@
       <c r="P59" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q59" s="83">
+      <c r="Q59" s="82">
         <v>6400000</v>
       </c>
-      <c r="R59" s="83" t="s">
+      <c r="R59" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S59" s="4"/>
@@ -5010,10 +5042,10 @@
       <c r="P60" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q60" s="83">
+      <c r="Q60" s="82">
         <v>6400000</v>
       </c>
-      <c r="R60" s="83" t="s">
+      <c r="R60" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S60" s="4"/>
@@ -5078,10 +5110,10 @@
       <c r="P61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q61" s="83">
+      <c r="Q61" s="82">
         <v>6480000</v>
       </c>
-      <c r="R61" s="83" t="s">
+      <c r="R61" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S61" s="4"/>
@@ -5146,10 +5178,10 @@
       <c r="P62" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q62" s="83">
+      <c r="Q62" s="82">
         <v>6480000</v>
       </c>
-      <c r="R62" s="83" t="s">
+      <c r="R62" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S62" s="4"/>
@@ -5214,10 +5246,10 @@
       <c r="P63" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q63" s="83">
+      <c r="Q63" s="82">
         <v>6480000</v>
       </c>
-      <c r="R63" s="83" t="s">
+      <c r="R63" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S63" s="4"/>
@@ -5282,10 +5314,10 @@
       <c r="P64" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Q64" s="83">
+      <c r="Q64" s="82">
         <v>6480000</v>
       </c>
-      <c r="R64" s="83" t="s">
+      <c r="R64" s="82" t="s">
         <v>73</v>
       </c>
       <c r="S64" s="4"/>
@@ -5350,10 +5382,10 @@
       <c r="P65" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q65" s="83">
+      <c r="Q65" s="82">
         <v>5000000</v>
       </c>
-      <c r="R65" s="83" t="s">
+      <c r="R65" s="82" t="s">
         <v>74</v>
       </c>
       <c r="S65" s="4"/>
@@ -5418,10 +5450,10 @@
       <c r="P66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q66" s="83">
+      <c r="Q66" s="82">
         <v>5000000</v>
       </c>
-      <c r="R66" s="83" t="s">
+      <c r="R66" s="82" t="s">
         <v>74</v>
       </c>
       <c r="S66" s="4"/>
@@ -5486,10 +5518,10 @@
       <c r="P67" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="Q67" s="83">
+      <c r="Q67" s="82">
         <v>5000000</v>
       </c>
-      <c r="R67" s="83" t="s">
+      <c r="R67" s="82" t="s">
         <v>74</v>
       </c>
       <c r="S67" s="4"/>
@@ -5512,52 +5544,52 @@
       <c r="B68" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="34">
+      <c r="C68" s="82">
         <v>1000000</v>
       </c>
-      <c r="D68" s="34" t="s">
+      <c r="D68" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="34">
+      <c r="E68" s="93">
         <v>1250000</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="34">
+      <c r="G68" s="93">
         <v>1500000</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="I68" s="34">
+      <c r="I68" s="94">
         <v>2000000</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="K68" s="34">
+      <c r="K68" s="94">
         <v>2500000</v>
       </c>
-      <c r="L68" s="34" t="s">
+      <c r="L68" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="M68" s="34">
+      <c r="M68" s="94">
         <v>3000000</v>
       </c>
-      <c r="N68" s="34" t="s">
+      <c r="N68" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="O68" s="34">
+      <c r="O68" s="87">
         <v>3500000</v>
       </c>
-      <c r="P68" s="34" t="s">
+      <c r="P68" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="Q68" s="83">
+      <c r="Q68" s="82">
         <v>5000000</v>
       </c>
-      <c r="R68" s="83" t="s">
+      <c r="R68" s="82" t="s">
         <v>74</v>
       </c>
       <c r="S68" s="4"/>
@@ -5598,10 +5630,10 @@
       <c r="H69" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="83">
+      <c r="I69" s="82">
         <v>8000000</v>
       </c>
-      <c r="J69" s="83" t="s">
+      <c r="J69" s="82" t="s">
         <v>74</v>
       </c>
       <c r="K69" s="4"/>
@@ -5650,10 +5682,10 @@
       <c r="H70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I70" s="83">
+      <c r="I70" s="82">
         <v>8000000</v>
       </c>
-      <c r="J70" s="83" t="s">
+      <c r="J70" s="82" t="s">
         <v>74</v>
       </c>
       <c r="K70" s="4"/>
@@ -5684,28 +5716,28 @@
       <c r="B71" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="83">
+      <c r="C71" s="82">
         <v>3000000</v>
       </c>
-      <c r="D71" s="83" t="s">
+      <c r="D71" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="85">
+      <c r="E71" s="87">
         <v>5000000</v>
       </c>
-      <c r="F71" s="85" t="s">
+      <c r="F71" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="85">
+      <c r="G71" s="87">
         <v>7000000</v>
       </c>
-      <c r="H71" s="85" t="s">
+      <c r="H71" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="I71" s="83">
+      <c r="I71" s="82">
         <v>8000000</v>
       </c>
-      <c r="J71" s="83" t="s">
+      <c r="J71" s="82" t="s">
         <v>74</v>
       </c>
       <c r="K71" s="4"/>
@@ -5736,22 +5768,22 @@
       <c r="B72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="83">
+      <c r="C72" s="82">
         <v>5000000</v>
       </c>
-      <c r="D72" s="83" t="s">
+      <c r="D72" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="83">
+      <c r="E72" s="82">
         <v>6500000</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G72" s="83">
+      <c r="G72" s="82">
         <v>8000000</v>
       </c>
-      <c r="H72" s="83" t="s">
+      <c r="H72" s="82" t="s">
         <v>74</v>
       </c>
       <c r="I72" s="4"/>
@@ -5784,22 +5816,22 @@
       <c r="B73" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="83">
+      <c r="C73" s="82">
         <v>5000000</v>
       </c>
-      <c r="D73" s="83" t="s">
+      <c r="D73" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="83">
+      <c r="E73" s="82">
         <v>6500000</v>
       </c>
-      <c r="F73" s="83" t="s">
+      <c r="F73" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="83">
+      <c r="G73" s="82">
         <v>8000000</v>
       </c>
-      <c r="H73" s="83" t="s">
+      <c r="H73" s="82" t="s">
         <v>74</v>
       </c>
       <c r="I73" s="4"/>
@@ -5892,10 +5924,10 @@
       <c r="V74" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="W74" s="83">
+      <c r="W74" s="82">
         <v>4000000</v>
       </c>
-      <c r="X74" s="83" t="s">
+      <c r="X74" s="82" t="s">
         <v>61</v>
       </c>
       <c r="Y74" s="4"/>
@@ -5905,29 +5937,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="72"/>
-      <c r="J75" s="72"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="74"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="76"/>
-      <c r="S75" s="77"/>
-      <c r="T75" s="77"/>
-      <c r="U75" s="77"/>
-      <c r="V75" s="77"/>
-      <c r="W75" s="78"/>
-      <c r="X75" s="78"/>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -5935,32 +5945,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -5968,51 +5953,7 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
     </row>
-    <row r="77" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" t="s">
-        <v>53</v>
-      </c>
-      <c r="C77" s="11">
-        <v>4000</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E77" s="11">
-        <v>20000</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G77" s="9">
-        <v>200000</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
@@ -6021,50 +5962,6 @@
       <c r="AD77" s="3"/>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="11">
-        <v>4000</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" s="11">
-        <v>20000</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G78" s="9">
-        <v>200000</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I78" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
@@ -6073,50 +5970,6 @@
       <c r="AD78" s="3"/>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="8">
-        <v>4000</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" s="37">
-        <v>20000</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G79" s="29">
-        <v>200000</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I79" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -6124,51 +5977,29 @@
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="8">
-        <v>4000</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" s="37">
-        <v>20000</v>
-      </c>
-      <c r="F80" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G80" s="29">
-        <v>200000</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="I80" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
+    <row r="80" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="75"/>
+      <c r="P80" s="75"/>
+      <c r="Q80" s="76"/>
+      <c r="R80" s="76"/>
+      <c r="S80" s="77"/>
+      <c r="T80" s="77"/>
+      <c r="U80" s="77"/>
+      <c r="V80" s="77"/>
+      <c r="W80" s="78"/>
+      <c r="X80" s="78"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
@@ -6176,37 +6007,18 @@
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>14</v>
-      </c>
-      <c r="B81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="83">
-        <v>4000</v>
-      </c>
-      <c r="D81" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E81" s="89">
-        <v>20000</v>
-      </c>
-      <c r="F81" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G81" s="91">
-        <v>200000</v>
-      </c>
-      <c r="H81" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="I81" s="85">
-        <v>1500000</v>
-      </c>
-      <c r="J81" s="85" t="s">
-        <v>85</v>
-      </c>
+    <row r="81" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
@@ -6228,49 +6040,41 @@
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="14">
-        <v>400</v>
-      </c>
-      <c r="D82" s="14" t="s">
+      <c r="C82" s="11">
+        <v>4000</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E82" s="14">
-        <v>1000</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I82" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K82" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L82" s="8" t="s">
+      <c r="E82" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="9">
+        <v>200000</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M82" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="N82" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -6290,47 +6094,39 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="14">
-        <v>400</v>
-      </c>
-      <c r="D83" s="14" t="s">
+      <c r="C83" s="11">
+        <v>4000</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E83" s="14">
-        <v>1000</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G83" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I83" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K83" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L83" s="8" t="s">
+      <c r="E83" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="9">
+        <v>200000</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M83" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="N83" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
@@ -6350,47 +6146,39 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="11">
-        <v>400</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="C84" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="41">
-        <v>1000</v>
-      </c>
-      <c r="F84" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I84" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K84" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L84" s="8" t="s">
+      <c r="E84" s="37">
+        <v>20000</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="29">
+        <v>200000</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M84" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="N84" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
@@ -6410,47 +6198,39 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="11">
-        <v>400</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="C85" s="8">
+        <v>4000</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="41">
-        <v>1000</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G85" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I85" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K85" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L85" s="8" t="s">
+      <c r="E85" s="37">
+        <v>20000</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="29">
+        <v>200000</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I85" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M85" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="N85" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
@@ -6470,47 +6250,39 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="9">
-        <v>400</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="C86" s="82">
+        <v>4000</v>
+      </c>
+      <c r="D86" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="23">
-        <v>1000</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G86" s="36">
-        <v>10000</v>
-      </c>
-      <c r="H86" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I86" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K86" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L86" s="8" t="s">
+      <c r="E86" s="91">
+        <v>20000</v>
+      </c>
+      <c r="F86" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="93">
+        <v>200000</v>
+      </c>
+      <c r="H86" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86" s="87">
+        <v>1500000</v>
+      </c>
+      <c r="J86" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="M86" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="N86" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
@@ -6535,22 +6307,22 @@
       <c r="B87" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="14">
         <v>400</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="14">
         <v>1000</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G87" s="36">
+      <c r="G87" s="11">
         <v>10000</v>
       </c>
-      <c r="H87" s="36" t="s">
+      <c r="H87" s="11" t="s">
         <v>67</v>
       </c>
       <c r="I87" s="9">
@@ -6590,39 +6362,47 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>53</v>
       </c>
-      <c r="C88" s="10">
-        <v>12500</v>
-      </c>
-      <c r="D88" s="10" t="s">
+      <c r="C88" s="14">
+        <v>400</v>
+      </c>
+      <c r="D88" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="10">
-        <v>75000</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="8">
-        <v>750000</v>
-      </c>
-      <c r="H88" s="8" t="s">
+      <c r="E88" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G88" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K88" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L88" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I88" s="83">
-        <v>2500000</v>
-      </c>
-      <c r="J88" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
+      <c r="M88" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
@@ -6642,39 +6422,47 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="9">
-        <v>12500</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="C89" s="11">
+        <v>400</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E89" s="12">
-        <v>75000</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G89" s="8">
-        <v>750000</v>
-      </c>
-      <c r="H89" s="8" t="s">
+      <c r="E89" s="41">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G89" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K89" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L89" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I89" s="83">
-        <v>2500000</v>
-      </c>
-      <c r="J89" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
+      <c r="M89" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
@@ -6694,39 +6482,47 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
       </c>
-      <c r="C90" s="8">
-        <v>12500</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="C90" s="11">
+        <v>400</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E90" s="28">
-        <v>75000</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="G90" s="8">
-        <v>750000</v>
-      </c>
-      <c r="H90" s="8" t="s">
+      <c r="E90" s="41">
+        <v>1000</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="11">
+        <v>10000</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K90" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L90" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="83">
-        <v>2500000</v>
-      </c>
-      <c r="J90" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
+      <c r="M90" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -6746,39 +6542,47 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="7">
-        <v>12500</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="C91" s="9">
+        <v>400</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E91" s="33">
-        <v>75000</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G91" s="35">
-        <v>750000</v>
-      </c>
-      <c r="H91" s="35" t="s">
+      <c r="E91" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="36">
+        <v>10000</v>
+      </c>
+      <c r="H91" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I91" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K91" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L91" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I91" s="83">
-        <v>2500000</v>
-      </c>
-      <c r="J91" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
+      <c r="M91" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
@@ -6798,39 +6602,47 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="83">
-        <v>12500</v>
-      </c>
-      <c r="D92" s="83" t="s">
+      <c r="C92" s="9">
+        <v>400</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E92" s="90">
-        <v>75000</v>
-      </c>
-      <c r="F92" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G92" s="92">
-        <v>750000</v>
-      </c>
-      <c r="H92" s="92" t="s">
+      <c r="E92" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G92" s="36">
+        <v>10000</v>
+      </c>
+      <c r="H92" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I92" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K92" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L92" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I92" s="83">
-        <v>2500000</v>
-      </c>
-      <c r="J92" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
+      <c r="M92" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
@@ -6850,31 +6662,35 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="9">
-        <v>15000</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="C93" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="F93" s="7" t="s">
+      <c r="E93" s="10">
+        <v>75000</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G93" s="8">
+        <v>750000</v>
+      </c>
+      <c r="H93" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G93" s="83">
-        <v>4000000</v>
-      </c>
-      <c r="H93" s="83" t="s">
+      <c r="I93" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="J93" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -6898,31 +6714,35 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="8">
-        <v>15000</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="9">
+        <v>12500</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="F94" s="7" t="s">
+      <c r="E94" s="12">
+        <v>75000</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G94" s="8">
+        <v>750000</v>
+      </c>
+      <c r="H94" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G94" s="83">
-        <v>4000000</v>
-      </c>
-      <c r="H94" s="83" t="s">
+      <c r="I94" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="J94" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -6946,31 +6766,35 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="C95" s="8">
+        <v>12500</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="F95" s="7" t="s">
+      <c r="E95" s="28">
+        <v>75000</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G95" s="8">
+        <v>750000</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G95" s="83">
-        <v>4000000</v>
-      </c>
-      <c r="H95" s="83" t="s">
+      <c r="I95" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="J95" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
@@ -6994,31 +6818,35 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
       </c>
       <c r="C96" s="7">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E96" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="F96" s="7" t="s">
+      <c r="E96" s="33">
+        <v>75000</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G96" s="35">
+        <v>750000</v>
+      </c>
+      <c r="H96" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="G96" s="83">
-        <v>4000000</v>
-      </c>
-      <c r="H96" s="83" t="s">
+      <c r="I96" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="J96" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
@@ -7042,31 +6870,35 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="83">
-        <v>15000</v>
-      </c>
-      <c r="D97" s="83" t="s">
+      <c r="C97" s="82">
+        <v>12500</v>
+      </c>
+      <c r="D97" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="85">
-        <v>2000000</v>
-      </c>
-      <c r="F97" s="85" t="s">
+      <c r="E97" s="92">
+        <v>75000</v>
+      </c>
+      <c r="F97" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="G97" s="94">
+        <v>750000</v>
+      </c>
+      <c r="H97" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="G97" s="83">
-        <v>4000000</v>
-      </c>
-      <c r="H97" s="83" t="s">
+      <c r="I97" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="J97" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -7090,28 +6922,28 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="8">
-        <v>6000</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="9">
+        <v>15000</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="8">
-        <v>600000</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G98" s="83">
-        <v>1300000</v>
-      </c>
-      <c r="H98" s="83" t="s">
+      <c r="E98" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="G98" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="H98" s="82" t="s">
+        <v>76</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -7138,28 +6970,28 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
       </c>
       <c r="C99" s="8">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="8">
-        <v>600000</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G99" s="83">
-        <v>1300000</v>
-      </c>
-      <c r="H99" s="83" t="s">
+      <c r="E99" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="G99" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="H99" s="82" t="s">
+        <v>76</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7186,28 +7018,28 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="83">
-        <v>6000</v>
-      </c>
-      <c r="D100" s="83" t="s">
+      <c r="C100" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E100" s="92">
-        <v>600000</v>
-      </c>
-      <c r="F100" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="G100" s="83">
-        <v>1300000</v>
-      </c>
-      <c r="H100" s="83" t="s">
+      <c r="E100" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="G100" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="H100" s="82" t="s">
+        <v>76</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -7234,21 +7066,29 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B101" t="s">
         <v>53</v>
       </c>
-      <c r="C101" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="C101" s="7">
+        <v>15000</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="E101" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="H101" s="82" t="s">
+        <v>76</v>
+      </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
@@ -7274,21 +7114,29 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="C102" s="82">
+        <v>15000</v>
+      </c>
+      <c r="D102" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="E102" s="87">
+        <v>2000000</v>
+      </c>
+      <c r="F102" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="G102" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="H102" s="82" t="s">
+        <v>76</v>
+      </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
@@ -7314,21 +7162,29 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D103" s="10" t="s">
+      <c r="C103" s="8">
+        <v>6000</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="E103" s="8">
+        <v>600000</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G103" s="82">
+        <v>1300000</v>
+      </c>
+      <c r="H103" s="82" t="s">
+        <v>85</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -7354,21 +7210,29 @@
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
         <v>53</v>
       </c>
-      <c r="C104" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D104" s="10" t="s">
+      <c r="C104" s="8">
+        <v>6000</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="E104" s="8">
+        <v>600000</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G104" s="82">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="82" t="s">
+        <v>85</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -7394,21 +7258,29 @@
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="82">
+        <v>6000</v>
+      </c>
+      <c r="D105" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="E105" s="94">
+        <v>600000</v>
+      </c>
+      <c r="F105" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G105" s="82">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="82" t="s">
+        <v>85</v>
+      </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -7432,17 +7304,17 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
       <c r="B106" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="13">
         <v>2000</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E106" s="4"/>
@@ -7472,12 +7344,19 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -7505,61 +7384,33 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
-      </c>
-      <c r="C108" s="6">
-        <v>250</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E108" s="16">
-        <v>2500</v>
-      </c>
-      <c r="F108" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G108" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I108" s="13">
-        <v>100000</v>
-      </c>
-      <c r="J108" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K108" s="11">
-        <v>250000</v>
-      </c>
-      <c r="L108" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M108" s="10">
-        <v>750000</v>
-      </c>
-      <c r="N108" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O108" s="7">
-        <v>2250000</v>
-      </c>
-      <c r="P108" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q108" s="83">
-        <v>6750000</v>
-      </c>
-      <c r="R108" s="83" t="s">
-        <v>73</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C108" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
@@ -7575,59 +7426,31 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
-      </c>
-      <c r="C109" s="14">
-        <v>250</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E109" s="15">
-        <v>2500</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G109" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I109" s="13">
-        <v>100000</v>
-      </c>
-      <c r="J109" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K109" s="11">
-        <v>250000</v>
-      </c>
-      <c r="L109" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M109" s="10">
-        <v>750000</v>
-      </c>
-      <c r="N109" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O109" s="7">
-        <v>2250000</v>
-      </c>
-      <c r="P109" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q109" s="83">
-        <v>6750000</v>
-      </c>
-      <c r="R109" s="83" t="s">
-        <v>73</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C109" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
@@ -7643,59 +7466,31 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" s="11">
-        <v>250</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110" s="40">
-        <v>2500</v>
-      </c>
-      <c r="F110" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G110" s="41">
-        <v>10000</v>
-      </c>
-      <c r="H110" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I110" s="42">
-        <v>100000</v>
-      </c>
-      <c r="J110" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="K110" s="11">
-        <v>250000</v>
-      </c>
-      <c r="L110" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M110" s="10">
-        <v>750000</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O110" s="7">
-        <v>2250000</v>
-      </c>
-      <c r="P110" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q110" s="83">
-        <v>6750000</v>
-      </c>
-      <c r="R110" s="83" t="s">
-        <v>73</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C110" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
@@ -7709,61 +7504,33 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C111" s="9">
-        <v>250</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="22">
-        <v>2500</v>
-      </c>
-      <c r="F111" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G111" s="23">
-        <v>10000</v>
-      </c>
-      <c r="H111" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I111" s="24">
-        <v>100000</v>
-      </c>
-      <c r="J111" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K111" s="36">
-        <v>250000</v>
-      </c>
-      <c r="L111" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="M111" s="12">
-        <v>750000</v>
-      </c>
-      <c r="N111" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O111" s="7">
-        <v>2250000</v>
-      </c>
-      <c r="P111" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q111" s="83">
-        <v>6750000</v>
-      </c>
-      <c r="R111" s="83" t="s">
-        <v>73</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C111" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
@@ -7777,73 +7544,30 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="6">
-        <v>200</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G112" s="6">
-        <v>2500</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I112" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K112" s="14">
-        <v>10000</v>
-      </c>
-      <c r="L112" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M112" s="13">
-        <v>80000</v>
-      </c>
-      <c r="N112" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O112" s="11">
-        <v>240000</v>
-      </c>
-      <c r="P112" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q112" s="10">
-        <v>700000</v>
-      </c>
-      <c r="R112" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S112" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="T112" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="U112" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="V112" s="8" t="s">
-        <v>71</v>
-      </c>
+    <row r="112" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
@@ -7853,73 +7577,65 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
         <v>54</v>
       </c>
-      <c r="C113" s="16">
-        <v>200</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E113" s="46">
-        <v>1000</v>
-      </c>
-      <c r="F113" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" s="46">
+      <c r="C113" s="6">
+        <v>250</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="16">
         <v>2500</v>
       </c>
-      <c r="H113" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="I113" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K113" s="14">
+      <c r="F113" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G113" s="14">
         <v>10000</v>
       </c>
-      <c r="L113" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M113" s="13">
-        <v>80000</v>
-      </c>
-      <c r="N113" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O113" s="11">
-        <v>240000</v>
-      </c>
-      <c r="P113" s="11" t="s">
+      <c r="H113" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I113" s="13">
+        <v>100000</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K113" s="11">
+        <v>250000</v>
+      </c>
+      <c r="L113" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q113" s="10">
-        <v>700000</v>
-      </c>
-      <c r="R113" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S113" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="T113" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="U113" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="V113" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M113" s="10">
+        <v>750000</v>
+      </c>
+      <c r="N113" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O113" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="P113" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q113" s="82">
+        <v>6750000</v>
+      </c>
+      <c r="R113" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
@@ -7931,71 +7647,63 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="13">
-        <v>200</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E114" s="45">
-        <v>1000</v>
-      </c>
-      <c r="F114" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G114" s="45">
+      <c r="C114" s="14">
+        <v>250</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="15">
         <v>2500</v>
       </c>
-      <c r="H114" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="I114" s="17">
-        <v>5000</v>
-      </c>
-      <c r="J114" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K114" s="18">
+      <c r="F114" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G114" s="14">
         <v>10000</v>
       </c>
-      <c r="L114" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M114" s="13">
-        <v>80000</v>
-      </c>
-      <c r="N114" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O114" s="11">
-        <v>240000</v>
-      </c>
-      <c r="P114" s="11" t="s">
+      <c r="H114" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I114" s="13">
+        <v>100000</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="11">
+        <v>250000</v>
+      </c>
+      <c r="L114" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q114" s="10">
-        <v>700000</v>
-      </c>
-      <c r="R114" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S114" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="T114" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="U114" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="V114" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M114" s="10">
+        <v>750000</v>
+      </c>
+      <c r="N114" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O114" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="P114" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q114" s="82">
+        <v>6750000</v>
+      </c>
+      <c r="R114" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
@@ -8007,71 +7715,63 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="9">
-        <v>200</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E115" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G115" s="5">
+      <c r="C115" s="11">
+        <v>250</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="40">
         <v>2500</v>
       </c>
-      <c r="H115" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I115" s="22">
-        <v>5000</v>
-      </c>
-      <c r="J115" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K115" s="23">
+      <c r="F115" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G115" s="41">
         <v>10000</v>
       </c>
-      <c r="L115" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M115" s="24">
-        <v>80000</v>
-      </c>
-      <c r="N115" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O115" s="36">
-        <v>240000</v>
-      </c>
-      <c r="P115" s="36" t="s">
+      <c r="H115" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I115" s="42">
+        <v>100000</v>
+      </c>
+      <c r="J115" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="K115" s="11">
+        <v>250000</v>
+      </c>
+      <c r="L115" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q115" s="12">
-        <v>700000</v>
-      </c>
-      <c r="R115" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="S115" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="T115" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="U115" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="V115" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M115" s="10">
+        <v>750000</v>
+      </c>
+      <c r="N115" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O115" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="P115" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q115" s="82">
+        <v>6750000</v>
+      </c>
+      <c r="R115" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
@@ -8083,51 +7783,59 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
         <v>54</v>
       </c>
       <c r="C116" s="9">
+        <v>250</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="22">
+        <v>2500</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116" s="23">
+        <v>10000</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I116" s="24">
+        <v>100000</v>
+      </c>
+      <c r="J116" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K116" s="36">
+        <v>250000</v>
+      </c>
+      <c r="L116" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="M116" s="12">
         <v>750000</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="N116" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E116" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="F116" s="9" t="s">
+      <c r="O116" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="P116" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G116" s="8">
-        <v>1750000</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I116" s="8">
-        <v>2250000</v>
-      </c>
-      <c r="J116" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K116" s="7">
-        <v>2750000</v>
-      </c>
-      <c r="L116" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M116" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="N116" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
+      <c r="Q116" s="82">
+        <v>6750000</v>
+      </c>
+      <c r="R116" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
@@ -8141,57 +7849,73 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="8">
-        <v>750000</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E117" s="29">
-        <v>1250000</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G117" s="8">
-        <v>1750000</v>
-      </c>
-      <c r="H117" s="8" t="s">
+      <c r="C117" s="6">
+        <v>200</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117" s="6">
+        <v>2500</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I117" s="16">
+        <v>5000</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K117" s="14">
+        <v>10000</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M117" s="13">
+        <v>80000</v>
+      </c>
+      <c r="N117" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O117" s="11">
+        <v>240000</v>
+      </c>
+      <c r="P117" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q117" s="10">
+        <v>700000</v>
+      </c>
+      <c r="R117" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S117" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="T117" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U117" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="V117" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I117" s="8">
-        <v>2250000</v>
-      </c>
-      <c r="J117" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K117" s="7">
-        <v>2750000</v>
-      </c>
-      <c r="L117" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M117" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="N117" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O117" s="4"/>
-      <c r="P117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
@@ -8201,30 +7925,73 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="16">
+        <v>200</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="46">
+        <v>1000</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G118" s="46">
+        <v>2500</v>
+      </c>
+      <c r="H118" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I118" s="16">
+        <v>5000</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K118" s="14">
+        <v>10000</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M118" s="13">
+        <v>80000</v>
+      </c>
+      <c r="N118" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O118" s="11">
+        <v>240000</v>
+      </c>
+      <c r="P118" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q118" s="10">
+        <v>700000</v>
+      </c>
+      <c r="R118" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S118" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="T118" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U118" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="V118" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
@@ -8234,85 +8001,77 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B119" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="6">
-        <v>150</v>
-      </c>
-      <c r="D119" s="6" t="s">
+      <c r="C119" s="13">
+        <v>200</v>
+      </c>
+      <c r="D119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E119" s="6">
-        <v>300</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G119" s="16">
-        <v>700</v>
-      </c>
-      <c r="H119" s="16" t="s">
+      <c r="E119" s="45">
+        <v>1000</v>
+      </c>
+      <c r="F119" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I119" s="16">
-        <v>1400</v>
-      </c>
-      <c r="J119" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K119" s="14">
-        <v>3000</v>
-      </c>
-      <c r="L119" s="14" t="s">
+      <c r="G119" s="45">
+        <v>2500</v>
+      </c>
+      <c r="H119" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="M119" s="14">
-        <v>7000</v>
-      </c>
-      <c r="N119" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O119" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P119" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q119" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R119" s="13" t="s">
+      <c r="I119" s="17">
+        <v>5000</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K119" s="18">
+        <v>10000</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M119" s="13">
+        <v>80000</v>
+      </c>
+      <c r="N119" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O119" s="11">
+        <v>240000</v>
+      </c>
+      <c r="P119" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="S119" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T119" s="11" t="s">
+      <c r="Q119" s="10">
+        <v>700000</v>
+      </c>
+      <c r="R119" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="U119" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V119" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W119" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X119" s="9" t="s">
+      <c r="S119" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="T119" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y119" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z119" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="U119" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="V119" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
       <c r="AA119" s="4"/>
       <c r="AB119" s="4"/>
       <c r="AC119" s="3"/>
@@ -8320,83 +8079,75 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="16">
-        <v>150</v>
-      </c>
-      <c r="D120" s="16" t="s">
+      <c r="C120" s="9">
+        <v>200</v>
+      </c>
+      <c r="D120" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="46">
-        <v>300</v>
-      </c>
-      <c r="F120" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G120" s="16">
-        <v>700</v>
-      </c>
-      <c r="H120" s="16" t="s">
+      <c r="E120" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I120" s="16">
-        <v>1400</v>
-      </c>
-      <c r="J120" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K120" s="14">
-        <v>3000</v>
-      </c>
-      <c r="L120" s="14" t="s">
+      <c r="G120" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M120" s="14">
-        <v>7000</v>
-      </c>
-      <c r="N120" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O120" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P120" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q120" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R120" s="13" t="s">
+      <c r="I120" s="22">
+        <v>5000</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K120" s="23">
+        <v>10000</v>
+      </c>
+      <c r="L120" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M120" s="24">
+        <v>80000</v>
+      </c>
+      <c r="N120" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O120" s="36">
+        <v>240000</v>
+      </c>
+      <c r="P120" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="S120" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T120" s="11" t="s">
+      <c r="Q120" s="12">
+        <v>700000</v>
+      </c>
+      <c r="R120" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U120" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V120" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W120" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X120" s="9" t="s">
+      <c r="S120" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="T120" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y120" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z120" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="U120" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="V120" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
       <c r="AB120" s="4"/>
       <c r="AC120" s="3"/>
@@ -8404,321 +8155,222 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
         <v>54</v>
       </c>
-      <c r="C121" s="14">
-        <v>150</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="47">
-        <v>300</v>
-      </c>
-      <c r="F121" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G121" s="15">
-        <v>700</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I121" s="15">
-        <v>1400</v>
-      </c>
-      <c r="J121" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K121" s="14">
-        <v>3000</v>
-      </c>
-      <c r="L121" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M121" s="14">
-        <v>7000</v>
-      </c>
-      <c r="N121" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O121" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P121" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q121" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R121" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S121" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T121" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U121" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V121" s="11" t="s">
+      <c r="C121" s="9">
+        <v>750000</v>
+      </c>
+      <c r="D121" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="W121" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X121" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y121" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z121" s="8" t="s">
+      <c r="E121" s="9">
+        <v>1250000</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="G121" s="8">
+        <v>1750000</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I121" s="8">
+        <v>2250000</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K121" s="7">
+        <v>2750000</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M121" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="N121" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
       <c r="AA121" s="4"/>
       <c r="AB121" s="4"/>
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="13">
-        <v>150</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" s="45">
-        <v>300</v>
-      </c>
-      <c r="F122" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G122" s="17">
-        <v>700</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I122" s="17">
-        <v>1400</v>
-      </c>
-      <c r="J122" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="K122" s="18">
-        <v>3000</v>
-      </c>
-      <c r="L122" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="M122" s="18">
-        <v>7000</v>
-      </c>
-      <c r="N122" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="O122" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P122" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q122" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R122" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S122" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T122" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U122" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V122" s="11" t="s">
+      <c r="C122" s="8">
+        <v>750000</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="W122" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X122" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y122" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z122" s="8" t="s">
+      <c r="E122" s="29">
+        <v>1250000</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>57</v>
       </c>
+      <c r="G122" s="8">
+        <v>1750000</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I122" s="8">
+        <v>2250000</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K122" s="7">
+        <v>2750000</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M122" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="N122" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
       <c r="AA122" s="4"/>
       <c r="AB122" s="4"/>
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" t="s">
-        <v>54</v>
-      </c>
-      <c r="C123" s="11">
-        <v>150</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E123" s="39">
-        <v>300</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G123" s="40">
-        <v>700</v>
-      </c>
-      <c r="H123" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I123" s="40">
-        <v>1400</v>
-      </c>
-      <c r="J123" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="K123" s="41">
-        <v>3000</v>
-      </c>
-      <c r="L123" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="M123" s="41">
-        <v>7000</v>
-      </c>
-      <c r="N123" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="O123" s="42">
-        <v>14000</v>
-      </c>
-      <c r="P123" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q123" s="42">
-        <v>28000</v>
-      </c>
-      <c r="R123" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="S123" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T123" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U123" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V123" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W123" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X123" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y123" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z123" s="8" t="s">
-        <v>57</v>
-      </c>
+    <row r="123" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
       <c r="B124" t="s">
         <v>54</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="6">
         <v>150</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E124" s="58">
+      <c r="E124" s="6">
         <v>300</v>
       </c>
-      <c r="F124" s="58" t="s">
+      <c r="F124" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G124" s="59">
+      <c r="G124" s="16">
         <v>700</v>
       </c>
-      <c r="H124" s="59" t="s">
+      <c r="H124" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I124" s="59">
+      <c r="I124" s="16">
         <v>1400</v>
       </c>
-      <c r="J124" s="59" t="s">
+      <c r="J124" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K124" s="60">
+      <c r="K124" s="14">
         <v>3000</v>
       </c>
-      <c r="L124" s="60" t="s">
+      <c r="L124" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M124" s="60">
+      <c r="M124" s="14">
         <v>7000</v>
       </c>
-      <c r="N124" s="60" t="s">
+      <c r="N124" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O124" s="61">
+      <c r="O124" s="13">
         <v>14000</v>
       </c>
-      <c r="P124" s="61" t="s">
+      <c r="P124" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q124" s="61">
+      <c r="Q124" s="13">
         <v>28000</v>
       </c>
-      <c r="R124" s="61" t="s">
+      <c r="R124" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S124" s="44">
+      <c r="S124" s="11">
         <v>56000</v>
       </c>
-      <c r="T124" s="44" t="s">
+      <c r="T124" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U124" s="44">
+      <c r="U124" s="11">
         <v>84000</v>
       </c>
-      <c r="V124" s="44" t="s">
+      <c r="V124" s="11" t="s">
         <v>76</v>
       </c>
       <c r="W124" s="9">
@@ -8745,76 +8397,76 @@
       <c r="B125" t="s">
         <v>54</v>
       </c>
-      <c r="C125" s="83">
+      <c r="C125" s="16">
         <v>150</v>
       </c>
-      <c r="D125" s="83" t="s">
+      <c r="D125" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E125" s="94">
+      <c r="E125" s="46">
         <v>300</v>
       </c>
-      <c r="F125" s="94" t="s">
+      <c r="F125" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G125" s="95">
+      <c r="G125" s="16">
         <v>700</v>
       </c>
-      <c r="H125" s="95" t="s">
+      <c r="H125" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I125" s="95">
+      <c r="I125" s="16">
         <v>1400</v>
       </c>
-      <c r="J125" s="95" t="s">
+      <c r="J125" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K125" s="96">
+      <c r="K125" s="14">
         <v>3000</v>
       </c>
-      <c r="L125" s="96" t="s">
+      <c r="L125" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M125" s="96">
+      <c r="M125" s="14">
         <v>7000</v>
       </c>
-      <c r="N125" s="96" t="s">
+      <c r="N125" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O125" s="97">
+      <c r="O125" s="13">
         <v>14000</v>
       </c>
-      <c r="P125" s="97" t="s">
+      <c r="P125" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q125" s="97">
+      <c r="Q125" s="13">
         <v>28000</v>
       </c>
-      <c r="R125" s="97" t="s">
+      <c r="R125" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S125" s="89">
+      <c r="S125" s="11">
         <v>56000</v>
       </c>
-      <c r="T125" s="89" t="s">
+      <c r="T125" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U125" s="89">
+      <c r="U125" s="11">
         <v>84000</v>
       </c>
-      <c r="V125" s="89" t="s">
+      <c r="V125" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W125" s="98">
+      <c r="W125" s="9">
         <v>168000</v>
       </c>
-      <c r="X125" s="98" t="s">
+      <c r="X125" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y125" s="99">
+      <c r="Y125" s="8">
         <v>336000</v>
       </c>
-      <c r="Z125" s="99" t="s">
+      <c r="Z125" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA125" s="4"/>
@@ -8824,79 +8476,83 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B126" t="s">
         <v>54</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="14">
+        <v>150</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" s="47">
         <v>300</v>
       </c>
-      <c r="D126" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E126" s="16">
-        <v>750</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G126" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H126" s="16" t="s">
+      <c r="F126" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G126" s="15">
+        <v>700</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I126" s="15">
+        <v>1400</v>
+      </c>
+      <c r="J126" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I126" s="14">
+      <c r="K126" s="14">
         <v>3000</v>
       </c>
-      <c r="J126" s="14" t="s">
+      <c r="L126" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K126" s="14">
-        <v>6000</v>
-      </c>
-      <c r="L126" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="M126" s="14">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N126" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O126" s="13">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P126" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q126" s="13">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="R126" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S126" s="11">
-        <v>100000</v>
+        <v>56000</v>
       </c>
       <c r="T126" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U126" s="10">
-        <v>250000</v>
-      </c>
-      <c r="V126" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="U126" s="11">
+        <v>84000</v>
+      </c>
+      <c r="V126" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="W126" s="9">
-        <v>500000</v>
+        <v>168000</v>
       </c>
       <c r="X126" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="Y126" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z126" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA126" s="4"/>
       <c r="AB126" s="4"/>
       <c r="AC126" s="3"/>
@@ -8904,79 +8560,83 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B127" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="14">
+      <c r="C127" s="13">
+        <v>150</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E127" s="45">
         <v>300</v>
       </c>
-      <c r="D127" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" s="15">
-        <v>750</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G127" s="15">
-        <v>1500</v>
-      </c>
-      <c r="H127" s="15" t="s">
+      <c r="F127" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G127" s="17">
+        <v>700</v>
+      </c>
+      <c r="H127" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I127" s="17">
+        <v>1400</v>
+      </c>
+      <c r="J127" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I127" s="14">
+      <c r="K127" s="18">
         <v>3000</v>
       </c>
-      <c r="J127" s="14" t="s">
+      <c r="L127" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K127" s="14">
-        <v>6000</v>
-      </c>
-      <c r="L127" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M127" s="14">
-        <v>12000</v>
-      </c>
-      <c r="N127" s="14" t="s">
-        <v>65</v>
+      <c r="M127" s="18">
+        <v>7000</v>
+      </c>
+      <c r="N127" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="O127" s="13">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P127" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q127" s="13">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="R127" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S127" s="11">
-        <v>100000</v>
+        <v>56000</v>
       </c>
       <c r="T127" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U127" s="10">
-        <v>250000</v>
-      </c>
-      <c r="V127" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="U127" s="11">
+        <v>84000</v>
+      </c>
+      <c r="V127" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="W127" s="9">
-        <v>500000</v>
+        <v>168000</v>
       </c>
       <c r="X127" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="Y127" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z127" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA127" s="4"/>
       <c r="AB127" s="4"/>
       <c r="AC127" s="3"/>
@@ -8984,79 +8644,83 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B128" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="8">
+      <c r="C128" s="11">
+        <v>150</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128" s="39">
         <v>300</v>
       </c>
-      <c r="D128" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E128" s="48">
-        <v>750</v>
-      </c>
-      <c r="F128" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G128" s="48">
-        <v>1500</v>
-      </c>
-      <c r="H128" s="48" t="s">
+      <c r="F128" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128" s="40">
+        <v>700</v>
+      </c>
+      <c r="H128" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I128" s="40">
+        <v>1400</v>
+      </c>
+      <c r="J128" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I128" s="49">
+      <c r="K128" s="41">
         <v>3000</v>
       </c>
-      <c r="J128" s="49" t="s">
+      <c r="L128" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="K128" s="49">
-        <v>6000</v>
-      </c>
-      <c r="L128" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="M128" s="49">
-        <v>12000</v>
-      </c>
-      <c r="N128" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="O128" s="50">
-        <v>25000</v>
-      </c>
-      <c r="P128" s="50" t="s">
+      <c r="M128" s="41">
+        <v>7000</v>
+      </c>
+      <c r="N128" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="Q128" s="50">
-        <v>50000</v>
-      </c>
-      <c r="R128" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="S128" s="37">
-        <v>100000</v>
-      </c>
-      <c r="T128" s="37" t="s">
+      <c r="O128" s="42">
+        <v>14000</v>
+      </c>
+      <c r="P128" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="U128" s="51">
-        <v>250000</v>
-      </c>
-      <c r="V128" s="51" t="s">
+      <c r="Q128" s="42">
+        <v>28000</v>
+      </c>
+      <c r="R128" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="W128" s="52">
-        <v>500000</v>
-      </c>
-      <c r="X128" s="52" t="s">
+      <c r="S128" s="11">
+        <v>56000</v>
+      </c>
+      <c r="T128" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
+      <c r="U128" s="11">
+        <v>84000</v>
+      </c>
+      <c r="V128" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W128" s="9">
+        <v>168000</v>
+      </c>
+      <c r="X128" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y128" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z128" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA128" s="4"/>
       <c r="AB128" s="4"/>
       <c r="AC128" s="3"/>
@@ -9064,79 +8728,83 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B129" t="s">
         <v>54</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C129" s="10">
+        <v>150</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E129" s="58">
         <v>300</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E129" s="53">
-        <v>750</v>
-      </c>
-      <c r="F129" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G129" s="53">
-        <v>1500</v>
-      </c>
-      <c r="H129" s="53" t="s">
+      <c r="F129" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G129" s="59">
+        <v>700</v>
+      </c>
+      <c r="H129" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I129" s="59">
+        <v>1400</v>
+      </c>
+      <c r="J129" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I129" s="54">
+      <c r="K129" s="60">
         <v>3000</v>
       </c>
-      <c r="J129" s="54" t="s">
+      <c r="L129" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="K129" s="54">
-        <v>6000</v>
-      </c>
-      <c r="L129" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="M129" s="54">
-        <v>12000</v>
-      </c>
-      <c r="N129" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="O129" s="55">
-        <v>25000</v>
-      </c>
-      <c r="P129" s="55" t="s">
+      <c r="M129" s="60">
+        <v>7000</v>
+      </c>
+      <c r="N129" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q129" s="55">
-        <v>50000</v>
-      </c>
-      <c r="R129" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="S129" s="38">
-        <v>100000</v>
-      </c>
-      <c r="T129" s="38" t="s">
+      <c r="O129" s="61">
+        <v>14000</v>
+      </c>
+      <c r="P129" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="U129" s="56">
-        <v>250000</v>
-      </c>
-      <c r="V129" s="56" t="s">
+      <c r="Q129" s="61">
+        <v>28000</v>
+      </c>
+      <c r="R129" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="W129" s="57">
-        <v>500000</v>
-      </c>
-      <c r="X129" s="57" t="s">
+      <c r="S129" s="44">
+        <v>56000</v>
+      </c>
+      <c r="T129" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
+      <c r="U129" s="44">
+        <v>84000</v>
+      </c>
+      <c r="V129" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="W129" s="9">
+        <v>168000</v>
+      </c>
+      <c r="X129" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y129" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z129" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA129" s="4"/>
       <c r="AB129" s="4"/>
       <c r="AC129" s="3"/>
@@ -9144,81 +8812,81 @@
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" s="6">
+        <v>54</v>
+      </c>
+      <c r="C130" s="82">
         <v>150</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="96">
         <v>300</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="G130" s="16">
+      <c r="G130" s="97">
         <v>700</v>
       </c>
-      <c r="H130" s="16" t="s">
+      <c r="H130" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="I130" s="16">
+      <c r="I130" s="97">
         <v>1400</v>
       </c>
-      <c r="J130" s="16" t="s">
+      <c r="J130" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="K130" s="14">
-        <v>3500</v>
-      </c>
-      <c r="L130" s="14" t="s">
+      <c r="K130" s="98">
+        <v>3000</v>
+      </c>
+      <c r="L130" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="M130" s="14">
+      <c r="M130" s="98">
         <v>7000</v>
       </c>
-      <c r="N130" s="14" t="s">
+      <c r="N130" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="O130" s="13">
+      <c r="O130" s="99">
         <v>14000</v>
       </c>
-      <c r="P130" s="13" t="s">
+      <c r="P130" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="Q130" s="13">
+      <c r="Q130" s="99">
         <v>28000</v>
       </c>
-      <c r="R130" s="13" t="s">
+      <c r="R130" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="S130" s="11">
+      <c r="S130" s="91">
         <v>56000</v>
       </c>
-      <c r="T130" s="11" t="s">
+      <c r="T130" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="U130" s="11">
+      <c r="U130" s="91">
         <v>84000</v>
       </c>
-      <c r="V130" s="11" t="s">
+      <c r="V130" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="W130" s="9">
+      <c r="W130" s="100">
         <v>168000</v>
       </c>
-      <c r="X130" s="9" t="s">
+      <c r="X130" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="Y130" s="8">
+      <c r="Y130" s="101">
         <v>336000</v>
       </c>
-      <c r="Z130" s="8" t="s">
+      <c r="Z130" s="101" t="s">
         <v>57</v>
       </c>
       <c r="AA130" s="4"/>
@@ -9228,83 +8896,79 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C131" s="16">
-        <v>150</v>
-      </c>
-      <c r="D131" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="6">
+        <v>300</v>
+      </c>
+      <c r="D131" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E131" s="46">
-        <v>300</v>
-      </c>
-      <c r="F131" s="46" t="s">
-        <v>59</v>
+      <c r="E131" s="16">
+        <v>750</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="G131" s="16">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="H131" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I131" s="16">
-        <v>1400</v>
-      </c>
-      <c r="J131" s="16" t="s">
         <v>66</v>
       </c>
+      <c r="I131" s="14">
+        <v>3000</v>
+      </c>
+      <c r="J131" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K131" s="14">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L131" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M131" s="14">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N131" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O131" s="13">
+        <v>25000</v>
+      </c>
+      <c r="P131" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O131" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P131" s="13" t="s">
+      <c r="Q131" s="13">
+        <v>50000</v>
+      </c>
+      <c r="R131" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S131" s="11">
+        <v>100000</v>
+      </c>
+      <c r="T131" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q131" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R131" s="13" t="s">
+      <c r="U131" s="10">
+        <v>250000</v>
+      </c>
+      <c r="V131" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="S131" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T131" s="11" t="s">
+      <c r="W131" s="9">
+        <v>500000</v>
+      </c>
+      <c r="X131" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U131" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V131" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W131" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X131" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y131" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z131" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
       <c r="AC131" s="3"/>
@@ -9312,83 +8976,79 @@
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C132" s="14">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="47">
-        <v>300</v>
-      </c>
-      <c r="F132" s="47" t="s">
-        <v>59</v>
+      <c r="E132" s="15">
+        <v>750</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="G132" s="15">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I132" s="15">
-        <v>1400</v>
-      </c>
-      <c r="J132" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="I132" s="14">
+        <v>3000</v>
+      </c>
+      <c r="J132" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="K132" s="14">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="L132" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M132" s="14">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N132" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O132" s="13">
+        <v>25000</v>
+      </c>
+      <c r="P132" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O132" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P132" s="13" t="s">
+      <c r="Q132" s="13">
+        <v>50000</v>
+      </c>
+      <c r="R132" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S132" s="11">
+        <v>100000</v>
+      </c>
+      <c r="T132" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q132" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R132" s="13" t="s">
+      <c r="U132" s="10">
+        <v>250000</v>
+      </c>
+      <c r="V132" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="S132" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T132" s="11" t="s">
+      <c r="W132" s="9">
+        <v>500000</v>
+      </c>
+      <c r="X132" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U132" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V132" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W132" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X132" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y132" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z132" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
       <c r="AA132" s="4"/>
       <c r="AB132" s="4"/>
       <c r="AC132" s="3"/>
@@ -9396,83 +9056,79 @@
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>53</v>
-      </c>
-      <c r="C133" s="13">
-        <v>150</v>
-      </c>
-      <c r="D133" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="8">
+        <v>300</v>
+      </c>
+      <c r="D133" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E133" s="45">
-        <v>300</v>
-      </c>
-      <c r="F133" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G133" s="17">
-        <v>700</v>
-      </c>
-      <c r="H133" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I133" s="17">
-        <v>1400</v>
-      </c>
-      <c r="J133" s="17" t="s">
+      <c r="E133" s="48">
+        <v>750</v>
+      </c>
+      <c r="F133" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G133" s="48">
+        <v>1500</v>
+      </c>
+      <c r="H133" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="K133" s="18">
-        <v>3500</v>
-      </c>
-      <c r="L133" s="18" t="s">
+      <c r="I133" s="49">
+        <v>3000</v>
+      </c>
+      <c r="J133" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="M133" s="18">
-        <v>7000</v>
-      </c>
-      <c r="N133" s="18" t="s">
+      <c r="K133" s="49">
+        <v>6000</v>
+      </c>
+      <c r="L133" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M133" s="49">
+        <v>12000</v>
+      </c>
+      <c r="N133" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="O133" s="50">
+        <v>25000</v>
+      </c>
+      <c r="P133" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="O133" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P133" s="13" t="s">
+      <c r="Q133" s="50">
+        <v>50000</v>
+      </c>
+      <c r="R133" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="S133" s="37">
+        <v>100000</v>
+      </c>
+      <c r="T133" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="Q133" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R133" s="13" t="s">
+      <c r="U133" s="51">
+        <v>250000</v>
+      </c>
+      <c r="V133" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="S133" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T133" s="11" t="s">
+      <c r="W133" s="52">
+        <v>500000</v>
+      </c>
+      <c r="X133" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="U133" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V133" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W133" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X133" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y133" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z133" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
       <c r="AA133" s="4"/>
       <c r="AB133" s="4"/>
       <c r="AC133" s="3"/>
@@ -9480,83 +9136,79 @@
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" s="11">
-        <v>150</v>
-      </c>
-      <c r="D134" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="7">
+        <v>300</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E134" s="39">
-        <v>300</v>
-      </c>
-      <c r="F134" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G134" s="40">
-        <v>700</v>
-      </c>
-      <c r="H134" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I134" s="40">
-        <v>1400</v>
-      </c>
-      <c r="J134" s="40" t="s">
+      <c r="E134" s="53">
+        <v>750</v>
+      </c>
+      <c r="F134" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G134" s="53">
+        <v>1500</v>
+      </c>
+      <c r="H134" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="K134" s="41">
-        <v>3500</v>
-      </c>
-      <c r="L134" s="41" t="s">
+      <c r="I134" s="54">
+        <v>3000</v>
+      </c>
+      <c r="J134" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M134" s="41">
-        <v>7000</v>
-      </c>
-      <c r="N134" s="41" t="s">
+      <c r="K134" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L134" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="M134" s="54">
+        <v>12000</v>
+      </c>
+      <c r="N134" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O134" s="55">
+        <v>25000</v>
+      </c>
+      <c r="P134" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O134" s="42">
-        <v>14000</v>
-      </c>
-      <c r="P134" s="42" t="s">
+      <c r="Q134" s="55">
+        <v>50000</v>
+      </c>
+      <c r="R134" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="S134" s="38">
+        <v>100000</v>
+      </c>
+      <c r="T134" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="Q134" s="42">
-        <v>28000</v>
-      </c>
-      <c r="R134" s="42" t="s">
+      <c r="U134" s="56">
+        <v>250000</v>
+      </c>
+      <c r="V134" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="S134" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T134" s="11" t="s">
+      <c r="W134" s="57">
+        <v>500000</v>
+      </c>
+      <c r="X134" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="U134" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V134" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W134" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X134" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y134" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z134" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
       <c r="AA134" s="4"/>
       <c r="AB134" s="4"/>
       <c r="AC134" s="3"/>
@@ -9569,64 +9221,64 @@
       <c r="B135" t="s">
         <v>53</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="6">
         <v>150</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E135" s="58">
+      <c r="E135" s="6">
         <v>300</v>
       </c>
-      <c r="F135" s="58" t="s">
+      <c r="F135" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G135" s="59">
+      <c r="G135" s="16">
         <v>700</v>
       </c>
-      <c r="H135" s="59" t="s">
+      <c r="H135" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I135" s="59">
+      <c r="I135" s="16">
         <v>1400</v>
       </c>
-      <c r="J135" s="59" t="s">
+      <c r="J135" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K135" s="60">
+      <c r="K135" s="14">
         <v>3500</v>
       </c>
-      <c r="L135" s="60" t="s">
+      <c r="L135" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M135" s="60">
+      <c r="M135" s="14">
         <v>7000</v>
       </c>
-      <c r="N135" s="60" t="s">
+      <c r="N135" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O135" s="61">
+      <c r="O135" s="13">
         <v>14000</v>
       </c>
-      <c r="P135" s="61" t="s">
+      <c r="P135" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q135" s="61">
+      <c r="Q135" s="13">
         <v>28000</v>
       </c>
-      <c r="R135" s="61" t="s">
+      <c r="R135" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S135" s="44">
+      <c r="S135" s="11">
         <v>56000</v>
       </c>
-      <c r="T135" s="44" t="s">
+      <c r="T135" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U135" s="44">
+      <c r="U135" s="11">
         <v>84000</v>
       </c>
-      <c r="V135" s="44" t="s">
+      <c r="V135" s="11" t="s">
         <v>76</v>
       </c>
       <c r="W135" s="9">
@@ -9653,76 +9305,76 @@
       <c r="B136" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="83">
+      <c r="C136" s="16">
         <v>150</v>
       </c>
-      <c r="D136" s="83" t="s">
+      <c r="D136" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="93">
+      <c r="E136" s="46">
         <v>300</v>
       </c>
-      <c r="F136" s="93" t="s">
+      <c r="F136" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G136" s="86">
+      <c r="G136" s="16">
         <v>700</v>
       </c>
-      <c r="H136" s="86" t="s">
+      <c r="H136" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I136" s="86">
+      <c r="I136" s="16">
         <v>1400</v>
       </c>
-      <c r="J136" s="86" t="s">
+      <c r="J136" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K136" s="87">
+      <c r="K136" s="14">
         <v>3500</v>
       </c>
-      <c r="L136" s="87" t="s">
+      <c r="L136" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M136" s="87">
+      <c r="M136" s="14">
         <v>7000</v>
       </c>
-      <c r="N136" s="87" t="s">
+      <c r="N136" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O136" s="88">
+      <c r="O136" s="13">
         <v>14000</v>
       </c>
-      <c r="P136" s="88" t="s">
+      <c r="P136" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q136" s="88">
+      <c r="Q136" s="13">
         <v>28000</v>
       </c>
-      <c r="R136" s="88" t="s">
+      <c r="R136" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="S136" s="89">
+      <c r="S136" s="11">
         <v>56000</v>
       </c>
-      <c r="T136" s="89" t="s">
+      <c r="T136" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U136" s="89">
+      <c r="U136" s="11">
         <v>84000</v>
       </c>
-      <c r="V136" s="89" t="s">
+      <c r="V136" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="W136" s="91">
+      <c r="W136" s="9">
         <v>168000</v>
       </c>
-      <c r="X136" s="91" t="s">
+      <c r="X136" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y136" s="92">
+      <c r="Y136" s="8">
         <v>336000</v>
       </c>
-      <c r="Z136" s="92" t="s">
+      <c r="Z136" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA136" s="4"/>
@@ -9732,79 +9384,83 @@
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B137" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="14">
+        <v>150</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E137" s="47">
         <v>300</v>
       </c>
-      <c r="D137" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E137" s="16">
-        <v>750</v>
-      </c>
-      <c r="F137" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G137" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H137" s="16" t="s">
+      <c r="F137" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" s="15">
+        <v>700</v>
+      </c>
+      <c r="H137" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I137" s="15">
+        <v>1400</v>
+      </c>
+      <c r="J137" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I137" s="14">
-        <v>3000</v>
-      </c>
-      <c r="J137" s="14" t="s">
+      <c r="K137" s="14">
+        <v>3500</v>
+      </c>
+      <c r="L137" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K137" s="14">
-        <v>6000</v>
-      </c>
-      <c r="L137" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="M137" s="14">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N137" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O137" s="13">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P137" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q137" s="13">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="R137" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S137" s="11">
-        <v>100000</v>
+        <v>56000</v>
       </c>
       <c r="T137" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U137" s="10">
-        <v>250000</v>
-      </c>
-      <c r="V137" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="U137" s="11">
+        <v>84000</v>
+      </c>
+      <c r="V137" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="W137" s="9">
-        <v>500000</v>
+        <v>168000</v>
       </c>
       <c r="X137" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y137" s="4"/>
-      <c r="Z137" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="Y137" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z137" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA137" s="4"/>
       <c r="AB137" s="4"/>
       <c r="AC137" s="3"/>
@@ -9812,79 +9468,83 @@
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="14">
+      <c r="C138" s="13">
+        <v>150</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" s="45">
         <v>300</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E138" s="15">
-        <v>750</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G138" s="15">
-        <v>1500</v>
-      </c>
-      <c r="H138" s="15" t="s">
+      <c r="F138" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="G138" s="17">
+        <v>700</v>
+      </c>
+      <c r="H138" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I138" s="17">
+        <v>1400</v>
+      </c>
+      <c r="J138" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I138" s="14">
-        <v>3000</v>
-      </c>
-      <c r="J138" s="14" t="s">
+      <c r="K138" s="18">
+        <v>3500</v>
+      </c>
+      <c r="L138" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K138" s="14">
-        <v>6000</v>
-      </c>
-      <c r="L138" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M138" s="14">
-        <v>12000</v>
-      </c>
-      <c r="N138" s="14" t="s">
-        <v>65</v>
+      <c r="M138" s="18">
+        <v>7000</v>
+      </c>
+      <c r="N138" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="O138" s="13">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P138" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q138" s="13">
-        <v>50000</v>
+        <v>28000</v>
       </c>
       <c r="R138" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S138" s="11">
-        <v>100000</v>
+        <v>56000</v>
       </c>
       <c r="T138" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="U138" s="10">
-        <v>250000</v>
-      </c>
-      <c r="V138" s="10" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="U138" s="11">
+        <v>84000</v>
+      </c>
+      <c r="V138" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="W138" s="9">
-        <v>500000</v>
+        <v>168000</v>
       </c>
       <c r="X138" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="Y138" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z138" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA138" s="4"/>
       <c r="AB138" s="4"/>
       <c r="AC138" s="3"/>
@@ -9892,79 +9552,83 @@
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B139" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="8">
+      <c r="C139" s="11">
+        <v>150</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E139" s="39">
         <v>300</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E139" s="48">
-        <v>750</v>
-      </c>
-      <c r="F139" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G139" s="48">
-        <v>1500</v>
-      </c>
-      <c r="H139" s="48" t="s">
+      <c r="F139" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G139" s="40">
+        <v>700</v>
+      </c>
+      <c r="H139" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I139" s="40">
+        <v>1400</v>
+      </c>
+      <c r="J139" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="I139" s="49">
-        <v>3000</v>
-      </c>
-      <c r="J139" s="49" t="s">
+      <c r="K139" s="41">
+        <v>3500</v>
+      </c>
+      <c r="L139" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="K139" s="49">
-        <v>6000</v>
-      </c>
-      <c r="L139" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="M139" s="49">
-        <v>12000</v>
-      </c>
-      <c r="N139" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="O139" s="50">
-        <v>25000</v>
-      </c>
-      <c r="P139" s="50" t="s">
+      <c r="M139" s="41">
+        <v>7000</v>
+      </c>
+      <c r="N139" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="Q139" s="50">
-        <v>50000</v>
-      </c>
-      <c r="R139" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="S139" s="37">
-        <v>100000</v>
-      </c>
-      <c r="T139" s="37" t="s">
+      <c r="O139" s="42">
+        <v>14000</v>
+      </c>
+      <c r="P139" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="U139" s="51">
-        <v>250000</v>
-      </c>
-      <c r="V139" s="51" t="s">
+      <c r="Q139" s="42">
+        <v>28000</v>
+      </c>
+      <c r="R139" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="W139" s="52">
-        <v>500000</v>
-      </c>
-      <c r="X139" s="52" t="s">
+      <c r="S139" s="11">
+        <v>56000</v>
+      </c>
+      <c r="T139" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
+      <c r="U139" s="11">
+        <v>84000</v>
+      </c>
+      <c r="V139" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W139" s="9">
+        <v>168000</v>
+      </c>
+      <c r="X139" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y139" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z139" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA139" s="4"/>
       <c r="AB139" s="4"/>
       <c r="AC139" s="3"/>
@@ -9972,79 +9636,83 @@
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="10">
+        <v>150</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" s="58">
         <v>300</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E140" s="53">
-        <v>750</v>
-      </c>
-      <c r="F140" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G140" s="53">
-        <v>1500</v>
-      </c>
-      <c r="H140" s="53" t="s">
+      <c r="F140" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G140" s="59">
+        <v>700</v>
+      </c>
+      <c r="H140" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I140" s="59">
+        <v>1400</v>
+      </c>
+      <c r="J140" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="I140" s="54">
-        <v>3000</v>
-      </c>
-      <c r="J140" s="54" t="s">
+      <c r="K140" s="60">
+        <v>3500</v>
+      </c>
+      <c r="L140" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="K140" s="54">
-        <v>6000</v>
-      </c>
-      <c r="L140" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="M140" s="54">
-        <v>12000</v>
-      </c>
-      <c r="N140" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="O140" s="55">
-        <v>25000</v>
-      </c>
-      <c r="P140" s="55" t="s">
+      <c r="M140" s="60">
+        <v>7000</v>
+      </c>
+      <c r="N140" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="Q140" s="55">
-        <v>50000</v>
-      </c>
-      <c r="R140" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="S140" s="38">
-        <v>100000</v>
-      </c>
-      <c r="T140" s="38" t="s">
+      <c r="O140" s="61">
+        <v>14000</v>
+      </c>
+      <c r="P140" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="U140" s="56">
-        <v>250000</v>
-      </c>
-      <c r="V140" s="56" t="s">
+      <c r="Q140" s="61">
+        <v>28000</v>
+      </c>
+      <c r="R140" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="W140" s="57">
-        <v>500000</v>
-      </c>
-      <c r="X140" s="57" t="s">
+      <c r="S140" s="44">
+        <v>56000</v>
+      </c>
+      <c r="T140" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
+      <c r="U140" s="44">
+        <v>84000</v>
+      </c>
+      <c r="V140" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="W140" s="9">
+        <v>168000</v>
+      </c>
+      <c r="X140" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y140" s="8">
+        <v>336000</v>
+      </c>
+      <c r="Z140" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="AA140" s="4"/>
       <c r="AB140" s="4"/>
       <c r="AC140" s="3"/>
@@ -10052,59 +9720,83 @@
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D141" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="82">
+        <v>150</v>
+      </c>
+      <c r="D141" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E141" s="95">
+        <v>300</v>
+      </c>
+      <c r="F141" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" s="88">
+        <v>700</v>
+      </c>
+      <c r="H141" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="I141" s="88">
+        <v>1400</v>
+      </c>
+      <c r="J141" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="K141" s="89">
+        <v>3500</v>
+      </c>
+      <c r="L141" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="M141" s="89">
+        <v>7000</v>
+      </c>
+      <c r="N141" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="O141" s="90">
+        <v>14000</v>
+      </c>
+      <c r="P141" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q141" s="90">
+        <v>28000</v>
+      </c>
+      <c r="R141" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="E141" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="S141" s="91">
+        <v>56000</v>
+      </c>
+      <c r="T141" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="G141" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="H141" s="9" t="s">
+      <c r="U141" s="91">
+        <v>84000</v>
+      </c>
+      <c r="V141" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="I141" s="7">
-        <v>3000000</v>
-      </c>
-      <c r="J141" s="7" t="s">
+      <c r="W141" s="93">
+        <v>168000</v>
+      </c>
+      <c r="X141" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="K141" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="L141" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M141" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="N141" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
+      <c r="Y141" s="94">
+        <v>336000</v>
+      </c>
+      <c r="Z141" s="94" t="s">
+        <v>57</v>
+      </c>
       <c r="AA141" s="4"/>
       <c r="AB141" s="4"/>
       <c r="AC141" s="3"/>
@@ -10112,57 +9804,77 @@
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="D142" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="6">
+        <v>300</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E142" s="16">
+        <v>750</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G142" s="16">
+        <v>1500</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I142" s="14">
+        <v>3000</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K142" s="14">
+        <v>6000</v>
+      </c>
+      <c r="L142" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M142" s="14">
+        <v>12000</v>
+      </c>
+      <c r="N142" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O142" s="13">
+        <v>25000</v>
+      </c>
+      <c r="P142" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q142" s="13">
+        <v>50000</v>
+      </c>
+      <c r="R142" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S142" s="11">
+        <v>100000</v>
+      </c>
+      <c r="T142" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U142" s="10">
+        <v>250000</v>
+      </c>
+      <c r="V142" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E142" s="29">
-        <v>1500000</v>
-      </c>
-      <c r="F142" s="29" t="s">
+      <c r="W142" s="9">
+        <v>500000</v>
+      </c>
+      <c r="X142" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G142" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="H142" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I142" s="7">
-        <v>3000000</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K142" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="L142" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M142" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="N142" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4"/>
@@ -10172,57 +9884,77 @@
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B143" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="83">
-        <v>1000000</v>
-      </c>
-      <c r="D143" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="14">
+        <v>300</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" s="15">
+        <v>750</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G143" s="15">
+        <v>1500</v>
+      </c>
+      <c r="H143" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I143" s="14">
+        <v>3000</v>
+      </c>
+      <c r="J143" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K143" s="14">
+        <v>6000</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M143" s="14">
+        <v>12000</v>
+      </c>
+      <c r="N143" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O143" s="13">
+        <v>25000</v>
+      </c>
+      <c r="P143" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q143" s="13">
+        <v>50000</v>
+      </c>
+      <c r="R143" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S143" s="11">
+        <v>100000</v>
+      </c>
+      <c r="T143" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U143" s="10">
+        <v>250000</v>
+      </c>
+      <c r="V143" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E143" s="91">
-        <v>1500000</v>
-      </c>
-      <c r="F143" s="91" t="s">
+      <c r="W143" s="9">
+        <v>500000</v>
+      </c>
+      <c r="X143" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G143" s="91">
-        <v>2000000</v>
-      </c>
-      <c r="H143" s="91" t="s">
-        <v>76</v>
-      </c>
-      <c r="I143" s="85">
-        <v>3000000</v>
-      </c>
-      <c r="J143" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="K143" s="85">
-        <v>4000000</v>
-      </c>
-      <c r="L143" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="M143" s="85">
-        <v>5000000</v>
-      </c>
-      <c r="N143" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4"/>
@@ -10232,57 +9964,77 @@
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
-      </c>
-      <c r="C144" s="62">
-        <v>600000</v>
-      </c>
-      <c r="D144" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="8">
+        <v>300</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" s="48">
+        <v>750</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144" s="48">
+        <v>1500</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I144" s="49">
+        <v>3000</v>
+      </c>
+      <c r="J144" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K144" s="49">
+        <v>6000</v>
+      </c>
+      <c r="L144" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="M144" s="49">
+        <v>12000</v>
+      </c>
+      <c r="N144" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="O144" s="50">
+        <v>25000</v>
+      </c>
+      <c r="P144" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q144" s="50">
+        <v>50000</v>
+      </c>
+      <c r="R144" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="S144" s="37">
+        <v>100000</v>
+      </c>
+      <c r="T144" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="U144" s="51">
+        <v>250000</v>
+      </c>
+      <c r="V144" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E144" s="9">
-        <v>1200000</v>
-      </c>
-      <c r="F144" s="9" t="s">
+      <c r="W144" s="52">
+        <v>500000</v>
+      </c>
+      <c r="X144" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="G144" s="8">
-        <v>1800000</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I144" s="8">
-        <v>2400000</v>
-      </c>
-      <c r="J144" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K144" s="7">
-        <v>3000000</v>
-      </c>
-      <c r="L144" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M144" s="7">
-        <v>3600000</v>
-      </c>
-      <c r="N144" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4"/>
@@ -10290,29 +10042,79 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="3:30" x14ac:dyDescent="0.25">
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="4"/>
-      <c r="T145" s="4"/>
-      <c r="U145" s="4"/>
-      <c r="V145" s="4"/>
-      <c r="W145" s="4"/>
-      <c r="X145" s="4"/>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="7">
+        <v>300</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E145" s="53">
+        <v>750</v>
+      </c>
+      <c r="F145" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G145" s="53">
+        <v>1500</v>
+      </c>
+      <c r="H145" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I145" s="54">
+        <v>3000</v>
+      </c>
+      <c r="J145" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K145" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L145" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="M145" s="54">
+        <v>12000</v>
+      </c>
+      <c r="N145" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O145" s="55">
+        <v>25000</v>
+      </c>
+      <c r="P145" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q145" s="55">
+        <v>50000</v>
+      </c>
+      <c r="R145" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="S145" s="38">
+        <v>100000</v>
+      </c>
+      <c r="T145" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="U145" s="56">
+        <v>250000</v>
+      </c>
+      <c r="V145" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="W145" s="57">
+        <v>500000</v>
+      </c>
+      <c r="X145" s="57" t="s">
+        <v>69</v>
+      </c>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4"/>
@@ -10320,14 +10122,290 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="3:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>49</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E146" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G146" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K146" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="L146" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M146" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="N146" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
       <c r="AB146" s="4"/>
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>49</v>
+      </c>
+      <c r="B147" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E147" s="29">
+        <v>1500000</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G147" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="H147" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K147" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="L147" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M147" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="N147" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="3"/>
+      <c r="AD147" s="3"/>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="82">
+        <v>1000000</v>
+      </c>
+      <c r="D148" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E148" s="93">
+        <v>1500000</v>
+      </c>
+      <c r="F148" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G148" s="93">
+        <v>2000000</v>
+      </c>
+      <c r="H148" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148" s="87">
+        <v>3000000</v>
+      </c>
+      <c r="J148" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="K148" s="87">
+        <v>4000000</v>
+      </c>
+      <c r="L148" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="M148" s="87">
+        <v>5000000</v>
+      </c>
+      <c r="N148" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="3"/>
+      <c r="AD148" s="3"/>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="62">
+        <v>600000</v>
+      </c>
+      <c r="D149" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E149" s="9">
+        <v>1200000</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G149" s="8">
+        <v>1800000</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149" s="8">
+        <v>2400000</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K149" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M149" s="7">
+        <v>3600000</v>
+      </c>
+      <c r="N149" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
+      <c r="AA149" s="4"/>
+      <c r="AB149" s="4"/>
+      <c r="AC149" s="3"/>
+      <c r="AD149" s="3"/>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+      <c r="AA150" s="4"/>
+      <c r="AB150" s="4"/>
+      <c r="AC150" s="3"/>
+      <c r="AD150" s="3"/>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA151" s="4"/>
+      <c r="AB151" s="4"/>
+      <c r="AC151" s="3"/>
+      <c r="AD151" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10335,15 +10413,9 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="45" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="41" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CVersion 3.1</oddFooter>
   </headerFooter>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwiltberger\Documents\ClashOfClans\ClashOfClans_TechTree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l3g3nd/Gits/ClashOfClans_TechTree/ClashOfClans_TechTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1190,37 +1193,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -1277,7 +1280,7 @@
       </c>
       <c r="AB1" s="102"/>
     </row>
-    <row r="2" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1308,7 +1311,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1387,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1444,7 +1447,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1512,7 +1515,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1569,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1614,7 +1617,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1647,7 +1650,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1775,7 +1778,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1899,7 +1902,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1957,7 +1960,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2077,7 +2080,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2132,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2185,7 +2188,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2241,7 +2244,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2301,7 +2304,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -2357,7 +2360,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2407,7 +2410,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2463,7 +2466,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2507,7 +2510,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2555,12 +2558,12 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -2624,7 +2627,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2684,7 +2687,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2740,7 +2743,7 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2788,7 +2791,7 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2844,7 +2847,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2896,7 +2899,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2948,7 +2951,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -3000,7 +3003,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3035,7 +3038,7 @@
       </c>
       <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3252,7 +3255,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3320,7 +3323,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3387,7 +3390,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3455,7 +3458,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3528,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -3585,7 +3588,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -3645,7 +3648,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3733,7 +3736,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -3821,7 +3824,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -3909,7 +3912,7 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -3997,7 +4000,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4085,7 +4088,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4173,7 +4176,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4261,7 +4264,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -4349,7 +4352,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -4437,7 +4440,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -4525,7 +4528,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -4613,7 +4616,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -4701,7 +4704,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -4789,7 +4792,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4857,7 +4860,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4925,7 +4928,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -4993,7 +4996,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5061,7 +5064,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -5129,7 +5132,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -5197,7 +5200,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -5265,7 +5268,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -5333,7 +5336,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -5401,7 +5404,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -5469,7 +5472,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -5537,7 +5540,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -5605,7 +5608,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5660,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -5709,7 +5712,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -5761,7 +5764,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +5812,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5857,7 +5860,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -5937,7 +5940,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -5945,7 +5948,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -5953,7 +5956,7 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
@@ -5961,7 +5964,7 @@
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
@@ -5969,7 +5972,7 @@
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -5977,7 +5980,7 @@
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
     </row>
-    <row r="80" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C80" s="70"/>
       <c r="D80" s="70"/>
       <c r="E80" s="70"/>
@@ -6007,7 +6010,7 @@
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
     </row>
-    <row r="81" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>26</v>
       </c>
@@ -6040,7 +6043,7 @@
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
     </row>
-    <row r="82" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -6092,7 +6095,7 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -6144,7 +6147,7 @@
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -6196,7 +6199,7 @@
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -6248,7 +6251,7 @@
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -6300,7 +6303,7 @@
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -6360,7 +6363,7 @@
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -6420,7 +6423,7 @@
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -6480,7 +6483,7 @@
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -6540,7 +6543,7 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -6600,7 +6603,7 @@
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -6660,7 +6663,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -6712,7 +6715,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -6764,7 +6767,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -6816,7 +6819,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -6868,7 +6871,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -6920,7 +6923,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -6968,7 +6971,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -7016,7 +7019,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -7064,7 +7067,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -7112,7 +7115,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -7160,7 +7163,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -7179,10 +7182,10 @@
       <c r="F103" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G103" s="82">
+      <c r="G103" s="66">
         <v>1300000</v>
       </c>
-      <c r="H103" s="82" t="s">
+      <c r="H103" s="66" t="s">
         <v>85</v>
       </c>
       <c r="I103" s="4"/>
@@ -7208,7 +7211,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -7227,10 +7230,10 @@
       <c r="F104" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G104" s="82">
+      <c r="G104" s="66">
         <v>1300000</v>
       </c>
-      <c r="H104" s="82" t="s">
+      <c r="H104" s="66" t="s">
         <v>85</v>
       </c>
       <c r="I104" s="4"/>
@@ -7256,7 +7259,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -7304,7 +7307,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -7344,7 +7347,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -7384,7 +7387,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -7424,7 +7427,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -7464,7 +7467,7 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -7504,7 +7507,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7544,7 +7547,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>25</v>
       </c>
@@ -7577,7 +7580,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -7645,7 +7648,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -7713,7 +7716,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -7781,7 +7784,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -7849,7 +7852,7 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -7925,7 +7928,7 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>21</v>
       </c>
@@ -8001,7 +8004,7 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -8077,7 +8080,7 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -8153,7 +8156,7 @@
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -8213,7 +8216,7 @@
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -8273,7 +8276,7 @@
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" spans="1:30" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -8306,7 +8309,7 @@
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -8390,7 +8393,7 @@
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -8474,7 +8477,7 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -8558,7 +8561,7 @@
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -8642,7 +8645,7 @@
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -8726,7 +8729,7 @@
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -8810,7 +8813,7 @@
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -8894,7 +8897,7 @@
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>46</v>
       </c>
@@ -8974,7 +8977,7 @@
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -9054,7 +9057,7 @@
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>46</v>
       </c>
@@ -9134,7 +9137,7 @@
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>46</v>
       </c>
@@ -9214,7 +9217,7 @@
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>47</v>
       </c>
@@ -9298,7 +9301,7 @@
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -9382,7 +9385,7 @@
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>47</v>
       </c>
@@ -9466,7 +9469,7 @@
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>47</v>
       </c>
@@ -9550,7 +9553,7 @@
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>47</v>
       </c>
@@ -9634,7 +9637,7 @@
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -9718,7 +9721,7 @@
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>47</v>
       </c>
@@ -9802,7 +9805,7 @@
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>48</v>
       </c>
@@ -9882,7 +9885,7 @@
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>48</v>
       </c>
@@ -9962,7 +9965,7 @@
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>48</v>
       </c>
@@ -10042,7 +10045,7 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>48</v>
       </c>
@@ -10122,7 +10125,7 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -10182,7 +10185,7 @@
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -10242,7 +10245,7 @@
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>49</v>
       </c>
@@ -10302,7 +10305,7 @@
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -10362,7 +10365,7 @@
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -10392,7 +10395,7 @@
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="AA151" s="4"/>
       <c r="AB151" s="4"/>
       <c r="AC151" s="3"/>
@@ -10400,12 +10403,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10413,6 +10410,12 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l3g3nd/Gits/ClashOfClans_TechTree/ClashOfClans_TechTree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Work\FMX Docs\CoCSpread\ClashOfClans_TechTree\ClashOfClans_TechTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,18 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="106">
   <si>
     <t>Town Hall</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Level 31</t>
+  </si>
+  <si>
+    <t>New Hero</t>
   </si>
 </sst>
 </file>
@@ -1193,37 +1196,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD151"/>
+  <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="11.1640625" customWidth="1"/>
+    <col min="29" max="29" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>52</v>
       </c>
@@ -1280,7 +1283,7 @@
       </c>
       <c r="AB1" s="102"/>
     </row>
-    <row r="2" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1311,7 +1314,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1390,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1447,7 +1450,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1515,7 +1518,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1569,7 +1572,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -1617,7 +1620,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1650,7 +1653,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1714,7 +1717,7 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +1781,7 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1842,7 +1845,7 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1902,7 +1905,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1960,7 +1963,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2080,7 +2083,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2188,7 +2191,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2247,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2304,7 +2307,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2469,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2510,7 +2513,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2558,12 +2561,12 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +2630,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2687,7 +2690,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2743,7 +2746,7 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2791,7 +2794,7 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2847,7 +2850,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2899,7 +2902,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2951,7 +2954,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -3003,7 +3006,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3038,7 +3041,7 @@
       </c>
       <c r="AD34" s="4"/>
     </row>
-    <row r="35" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -3222,94 +3225,40 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="85">
+        <v>6000000</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-    </row>
-    <row r="38" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="13">
-        <v>22500</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="13">
-        <v>90000</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="11">
-        <v>270000</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" s="10">
-        <v>540000</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="9">
-        <v>1080000</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M38" s="8">
-        <v>2160000</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="O38" s="7">
-        <v>4320000</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q38" s="82">
-        <v>7560000</v>
-      </c>
-      <c r="R38" s="82" t="s">
-        <v>78</v>
-      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
@@ -3323,35 +3272,35 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="13">
         <v>22500</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="13">
         <v>90000</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="11">
         <v>270000</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="10">
         <v>540000</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="10" t="s">
         <v>57</v>
       </c>
       <c r="K39" s="9">
@@ -3379,6 +3328,7 @@
         <v>78</v>
       </c>
       <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -3390,41 +3340,41 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>22500</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <v>90000</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="9">
         <v>270000</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="9">
         <v>540000</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="9">
         <v>1080000</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="9" t="s">
         <v>71</v>
       </c>
       <c r="M40" s="8">
@@ -3446,7 +3396,6 @@
         <v>78</v>
       </c>
       <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -3458,47 +3407,47 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>22500</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>90000</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>270000</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="8">
         <v>540000</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="8">
         <v>1080000</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="8">
         <v>2160000</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" s="8" t="s">
         <v>72</v>
       </c>
       <c r="O41" s="7">
@@ -3522,59 +3471,65 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="63" t="s">
-        <v>72</v>
-      </c>
+      <c r="AB41" s="4"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="7">
+        <v>22500</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="7">
+        <v>90000</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="10">
-        <v>750000</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="7">
+        <v>270000</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="7">
+        <v>540000</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="8">
-        <v>2400000</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="K42" s="7">
-        <v>4800000</v>
+        <v>1080000</v>
       </c>
       <c r="L42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2160000</v>
+      </c>
+      <c r="N42" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M42" s="82">
-        <v>7200000</v>
-      </c>
-      <c r="N42" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
+      <c r="O42" s="7">
+        <v>4320000</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q42" s="82">
+        <v>7560000</v>
+      </c>
+      <c r="R42" s="82" t="s">
+        <v>78</v>
+      </c>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -3584,39 +3539,41 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="63"/>
+      <c r="AB42" s="63" t="s">
+        <v>72</v>
+      </c>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>89</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="10">
         <v>500000</v>
       </c>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="10">
         <v>750000</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="57">
+      <c r="G43" s="9">
         <v>1250000</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="69">
+      <c r="I43" s="8">
         <v>2400000</v>
       </c>
-      <c r="J43" s="69" t="s">
+      <c r="J43" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K43" s="7">
@@ -3648,117 +3605,89 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="16">
-        <v>2000</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="14">
-        <v>5000</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="13">
-        <v>20000</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="11">
-        <v>80000</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M44" s="11">
-        <v>180000</v>
-      </c>
-      <c r="N44" s="11" t="s">
+      <c r="C44" s="56">
+        <v>500000</v>
+      </c>
+      <c r="D44" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="O44" s="10">
-        <v>360000</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>720000</v>
-      </c>
-      <c r="R44" s="9" t="s">
+      <c r="E44" s="56">
+        <v>750000</v>
+      </c>
+      <c r="F44" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="S44" s="8">
-        <v>1500000</v>
-      </c>
-      <c r="T44" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="U44" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="V44" s="8" t="s">
+      <c r="G44" s="57">
+        <v>1250000</v>
+      </c>
+      <c r="H44" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="7">
-        <v>4500000</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y44" s="82">
-        <v>6500000</v>
-      </c>
-      <c r="Z44" s="82" t="s">
+      <c r="I44" s="69">
+        <v>2400000</v>
+      </c>
+      <c r="J44" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="AA44" s="82">
-        <v>7500000</v>
-      </c>
-      <c r="AB44" s="82" t="s">
+      <c r="K44" s="7">
+        <v>4800000</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="M44" s="82">
+        <v>7200000</v>
+      </c>
+      <c r="N44" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="63"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="16">
         <v>1000</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="16">
         <v>2000</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="14">
         <v>5000</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="14" t="s">
         <v>84</v>
       </c>
       <c r="I45" s="13">
@@ -3824,35 +3753,35 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="13">
         <v>1000</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>2000</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>5000</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="H46" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="13">
         <v>20000</v>
       </c>
-      <c r="J46" s="21" t="s">
+      <c r="J46" s="13" t="s">
         <v>65</v>
       </c>
       <c r="K46" s="11">
@@ -3912,53 +3841,53 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="11">
         <v>1000</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="19">
         <v>2000</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="20">
         <v>5000</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="21">
         <v>20000</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="11">
         <v>80000</v>
       </c>
-      <c r="L47" s="36" t="s">
+      <c r="L47" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M47" s="36">
+      <c r="M47" s="11">
         <v>180000</v>
       </c>
-      <c r="N47" s="36" t="s">
+      <c r="N47" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="O47" s="12">
+      <c r="O47" s="10">
         <v>360000</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="10" t="s">
         <v>69</v>
       </c>
       <c r="Q47" s="9">
@@ -4000,59 +3929,59 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>1000</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="22">
         <v>2000</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="23">
         <v>5000</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="24">
         <v>20000</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="36">
         <v>80000</v>
       </c>
-      <c r="L48" s="37" t="s">
+      <c r="L48" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="36">
         <v>180000</v>
       </c>
-      <c r="N48" s="37" t="s">
+      <c r="N48" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="O48" s="28">
+      <c r="O48" s="12">
         <v>360000</v>
       </c>
-      <c r="P48" s="28" t="s">
+      <c r="P48" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="Q48" s="9">
         <v>720000</v>
       </c>
-      <c r="R48" s="29" t="s">
+      <c r="R48" s="9" t="s">
         <v>76</v>
       </c>
       <c r="S48" s="8">
@@ -4088,71 +4017,71 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>1000</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="25">
         <v>2000</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="31">
+      <c r="G49" s="26">
         <v>5000</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I49" s="32">
+      <c r="I49" s="27">
         <v>20000</v>
       </c>
-      <c r="J49" s="32" t="s">
+      <c r="J49" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="37">
         <v>80000</v>
       </c>
-      <c r="L49" s="38" t="s">
+      <c r="L49" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="37">
         <v>180000</v>
       </c>
-      <c r="N49" s="38" t="s">
+      <c r="N49" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="28">
         <v>360000</v>
       </c>
-      <c r="P49" s="33" t="s">
+      <c r="P49" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Q49" s="34">
+      <c r="Q49" s="29">
         <v>720000</v>
       </c>
-      <c r="R49" s="34" t="s">
+      <c r="R49" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="S49" s="35">
+      <c r="S49" s="8">
         <v>1500000</v>
       </c>
-      <c r="T49" s="35" t="s">
+      <c r="T49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="U49" s="35">
+      <c r="U49" s="8">
         <v>2500000</v>
       </c>
-      <c r="V49" s="35" t="s">
+      <c r="V49" s="8" t="s">
         <v>57</v>
       </c>
       <c r="W49" s="7">
@@ -4176,77 +4105,77 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="82">
+      <c r="C50" s="7">
         <v>1000</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E50" s="88">
+      <c r="E50" s="30">
         <v>2000</v>
       </c>
-      <c r="F50" s="88" t="s">
+      <c r="F50" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G50" s="89">
+      <c r="G50" s="31">
         <v>5000</v>
       </c>
-      <c r="H50" s="89" t="s">
+      <c r="H50" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="I50" s="90">
+      <c r="I50" s="32">
         <v>20000</v>
       </c>
-      <c r="J50" s="90" t="s">
+      <c r="J50" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="K50" s="91">
+      <c r="K50" s="38">
         <v>80000</v>
       </c>
-      <c r="L50" s="91" t="s">
+      <c r="L50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="M50" s="91">
+      <c r="M50" s="38">
         <v>180000</v>
       </c>
-      <c r="N50" s="91" t="s">
+      <c r="N50" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="O50" s="92">
+      <c r="O50" s="33">
         <v>360000</v>
       </c>
-      <c r="P50" s="92" t="s">
+      <c r="P50" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="93">
+      <c r="Q50" s="34">
         <v>720000</v>
       </c>
-      <c r="R50" s="93" t="s">
+      <c r="R50" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="S50" s="94">
+      <c r="S50" s="35">
         <v>1500000</v>
       </c>
-      <c r="T50" s="94" t="s">
+      <c r="T50" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="94">
+      <c r="U50" s="35">
         <v>2500000</v>
       </c>
-      <c r="V50" s="94" t="s">
+      <c r="V50" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="87">
+      <c r="W50" s="7">
         <v>4500000</v>
       </c>
-      <c r="X50" s="87" t="s">
+      <c r="X50" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Y50" s="82">
@@ -4264,95 +4193,95 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6">
-        <v>250</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="C51" s="82">
         <v>1000</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="D51" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G51" s="16">
-        <v>4000</v>
-      </c>
-      <c r="H51" s="16" t="s">
+      <c r="E51" s="88">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="89">
+        <v>5000</v>
+      </c>
+      <c r="H51" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="I51" s="14">
-        <v>16000</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" s="13">
-        <v>50000</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M51" s="11">
-        <v>100000</v>
-      </c>
-      <c r="N51" s="11" t="s">
+      <c r="I51" s="90">
+        <v>20000</v>
+      </c>
+      <c r="J51" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="91">
+        <v>80000</v>
+      </c>
+      <c r="L51" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="10">
-        <v>200000</v>
-      </c>
-      <c r="P51" s="10" t="s">
+      <c r="M51" s="91">
+        <v>180000</v>
+      </c>
+      <c r="N51" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="Q51" s="9">
-        <v>400000</v>
-      </c>
-      <c r="R51" s="9" t="s">
+      <c r="O51" s="92">
+        <v>360000</v>
+      </c>
+      <c r="P51" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="S51" s="8">
-        <v>800000</v>
-      </c>
-      <c r="T51" s="8" t="s">
+      <c r="Q51" s="93">
+        <v>720000</v>
+      </c>
+      <c r="R51" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="U51" s="8">
-        <v>1600000</v>
-      </c>
-      <c r="V51" s="8" t="s">
+      <c r="S51" s="94">
+        <v>1500000</v>
+      </c>
+      <c r="T51" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="W51" s="7">
-        <v>3200000</v>
-      </c>
-      <c r="X51" s="7" t="s">
+      <c r="U51" s="94">
+        <v>2500000</v>
+      </c>
+      <c r="V51" s="94" t="s">
         <v>57</v>
       </c>
+      <c r="W51" s="87">
+        <v>4500000</v>
+      </c>
+      <c r="X51" s="87" t="s">
+        <v>71</v>
+      </c>
       <c r="Y51" s="82">
-        <v>6400000</v>
+        <v>6500000</v>
       </c>
       <c r="Z51" s="82" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AA51" s="82">
         <v>7500000</v>
       </c>
       <c r="AB51" s="82" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -4440,41 +4369,41 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="6">
         <v>250</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E53" s="6">
         <v>1000</v>
       </c>
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="16">
         <v>4000</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53" s="14">
         <v>16000</v>
       </c>
-      <c r="J53" s="41" t="s">
+      <c r="J53" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K53" s="42">
+      <c r="K53" s="13">
         <v>50000</v>
       </c>
-      <c r="L53" s="42" t="s">
+      <c r="L53" s="13" t="s">
         <v>62</v>
       </c>
       <c r="M53" s="11">
@@ -4517,7 +4446,7 @@
         <v>6400000</v>
       </c>
       <c r="Z53" s="82" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AA53" s="82">
         <v>7500000</v>
@@ -4528,53 +4457,53 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="11">
         <v>250</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="39">
         <v>1000</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="40">
         <v>4000</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="41">
         <v>16000</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="42">
         <v>50000</v>
       </c>
-      <c r="L54" s="24" t="s">
+      <c r="L54" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="M54" s="36">
+      <c r="M54" s="11">
         <v>100000</v>
       </c>
-      <c r="N54" s="36" t="s">
+      <c r="N54" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O54" s="12">
+      <c r="O54" s="10">
         <v>200000</v>
       </c>
-      <c r="P54" s="12" t="s">
+      <c r="P54" s="10" t="s">
         <v>85</v>
       </c>
       <c r="Q54" s="9">
@@ -4605,7 +4534,7 @@
         <v>6400000</v>
       </c>
       <c r="Z54" s="82" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA54" s="82">
         <v>7500000</v>
@@ -4616,7 +4545,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -4693,7 +4622,7 @@
         <v>6400000</v>
       </c>
       <c r="Z55" s="82" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AA55" s="82">
         <v>7500000</v>
@@ -4704,84 +4633,84 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="82">
+      <c r="C56" s="9">
         <v>250</v>
       </c>
-      <c r="D56" s="82" t="s">
+      <c r="D56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="95">
+      <c r="E56" s="5">
         <v>1000</v>
       </c>
-      <c r="F56" s="95" t="s">
+      <c r="F56" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G56" s="88">
+      <c r="G56" s="22">
         <v>4000</v>
       </c>
-      <c r="H56" s="88" t="s">
+      <c r="H56" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="89">
+      <c r="I56" s="23">
         <v>16000</v>
       </c>
-      <c r="J56" s="89" t="s">
+      <c r="J56" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K56" s="90">
+      <c r="K56" s="24">
         <v>50000</v>
       </c>
-      <c r="L56" s="90" t="s">
+      <c r="L56" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="M56" s="91">
+      <c r="M56" s="36">
         <v>100000</v>
       </c>
-      <c r="N56" s="91" t="s">
+      <c r="N56" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="O56" s="92">
+      <c r="O56" s="12">
         <v>200000</v>
       </c>
-      <c r="P56" s="92" t="s">
+      <c r="P56" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q56" s="93">
+      <c r="Q56" s="9">
         <v>400000</v>
       </c>
-      <c r="R56" s="93" t="s">
+      <c r="R56" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S56" s="94">
+      <c r="S56" s="8">
         <v>800000</v>
       </c>
-      <c r="T56" s="94" t="s">
+      <c r="T56" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U56" s="94">
+      <c r="U56" s="8">
         <v>1600000</v>
       </c>
-      <c r="V56" s="94" t="s">
+      <c r="V56" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W56" s="87">
+      <c r="W56" s="7">
         <v>3200000</v>
       </c>
-      <c r="X56" s="87" t="s">
+      <c r="X56" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Y56" s="82">
         <v>6400000</v>
       </c>
       <c r="Z56" s="82" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AA56" s="82">
         <v>7500000</v>
@@ -4792,97 +4721,117 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="14">
-        <v>8000</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="13">
-        <v>32000</v>
-      </c>
-      <c r="F57" s="13" t="s">
+      <c r="C57" s="82">
+        <v>250</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="95">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="88">
+        <v>4000</v>
+      </c>
+      <c r="H57" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" s="89">
+        <v>16000</v>
+      </c>
+      <c r="J57" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="90">
+        <v>50000</v>
+      </c>
+      <c r="L57" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="M57" s="91">
+        <v>100000</v>
+      </c>
+      <c r="N57" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="11">
-        <v>120000</v>
-      </c>
-      <c r="H57" s="11" t="s">
+      <c r="O57" s="92">
+        <v>200000</v>
+      </c>
+      <c r="P57" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="10">
+      <c r="Q57" s="93">
         <v>400000</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="R57" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="K57" s="9">
+      <c r="S57" s="94">
         <v>800000</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="T57" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="U57" s="94">
+        <v>1600000</v>
+      </c>
+      <c r="V57" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="M57" s="8">
-        <v>1600000</v>
-      </c>
-      <c r="N57" s="8" t="s">
+      <c r="W57" s="87">
+        <v>3200000</v>
+      </c>
+      <c r="X57" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="7">
-        <v>3200000</v>
-      </c>
-      <c r="P57" s="7" t="s">
+      <c r="Y57" s="82">
+        <v>6400000</v>
+      </c>
+      <c r="Z57" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA57" s="82">
+        <v>7500000</v>
+      </c>
+      <c r="AB57" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="Q57" s="82">
-        <v>6400000</v>
-      </c>
-      <c r="R57" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="14">
         <v>8000</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="13">
         <v>32000</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="44">
+      <c r="G58" s="11">
         <v>120000</v>
       </c>
-      <c r="H58" s="44" t="s">
+      <c r="H58" s="11" t="s">
         <v>85</v>
       </c>
       <c r="I58" s="10">
@@ -4928,35 +4877,35 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="10">
         <v>8000</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="43">
         <v>32000</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="44">
         <v>120000</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="10">
         <v>400000</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="10" t="s">
         <v>69</v>
       </c>
       <c r="K59" s="9">
@@ -4996,41 +4945,41 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="9">
         <v>8000</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="24">
         <v>32000</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G60" s="37">
+      <c r="G60" s="36">
         <v>120000</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="12">
         <v>400000</v>
       </c>
-      <c r="J60" s="28" t="s">
+      <c r="J60" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="9">
         <v>800000</v>
       </c>
-      <c r="L60" s="29" t="s">
+      <c r="L60" s="9" t="s">
         <v>70</v>
       </c>
       <c r="M60" s="8">
@@ -5064,57 +5013,57 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="11">
-        <v>180000</v>
-      </c>
-      <c r="D61" s="11" t="s">
+      <c r="C61" s="8">
+        <v>8000</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="27">
+        <v>32000</v>
+      </c>
+      <c r="F61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="11">
-        <v>360000</v>
-      </c>
-      <c r="F61" s="11" t="s">
+      <c r="G61" s="37">
+        <v>120000</v>
+      </c>
+      <c r="H61" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G61" s="10">
-        <v>720000</v>
-      </c>
-      <c r="H61" s="10" t="s">
+      <c r="I61" s="28">
+        <v>400000</v>
+      </c>
+      <c r="J61" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I61" s="9">
-        <v>1280000</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" s="8">
-        <v>1960000</v>
-      </c>
-      <c r="L61" s="8" t="s">
+      <c r="K61" s="29">
+        <v>800000</v>
+      </c>
+      <c r="L61" s="29" t="s">
         <v>70</v>
       </c>
       <c r="M61" s="8">
-        <v>2680000</v>
+        <v>1600000</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>57</v>
       </c>
       <c r="O61" s="7">
-        <v>5360000</v>
+        <v>3200000</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q61" s="82">
-        <v>6480000</v>
+        <v>6400000</v>
       </c>
       <c r="R61" s="82" t="s">
         <v>73</v>
@@ -5132,23 +5081,23 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="11">
         <v>180000</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="44">
+      <c r="E62" s="11">
         <v>360000</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="11" t="s">
         <v>85</v>
       </c>
       <c r="G62" s="10">
@@ -5166,7 +5115,7 @@
       <c r="K62" s="8">
         <v>1960000</v>
       </c>
-      <c r="L62" s="29" t="s">
+      <c r="L62" s="8" t="s">
         <v>70</v>
       </c>
       <c r="M62" s="8">
@@ -5200,41 +5149,41 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="10">
         <v>180000</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="44">
         <v>360000</v>
       </c>
-      <c r="F63" s="37" t="s">
+      <c r="F63" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="10">
         <v>720000</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="H63" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I63" s="29">
+      <c r="I63" s="9">
         <v>1280000</v>
       </c>
-      <c r="J63" s="29" t="s">
+      <c r="J63" s="9" t="s">
         <v>76</v>
       </c>
       <c r="K63" s="8">
         <v>1960000</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="29" t="s">
         <v>70</v>
       </c>
       <c r="M63" s="8">
@@ -5268,47 +5217,47 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>180000</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="37">
         <v>360000</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F64" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G64" s="28">
         <v>720000</v>
       </c>
-      <c r="H64" s="33" t="s">
+      <c r="H64" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="I64" s="34">
+      <c r="I64" s="29">
         <v>1280000</v>
       </c>
-      <c r="J64" s="34" t="s">
+      <c r="J64" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="K64" s="35">
+      <c r="K64" s="8">
         <v>1960000</v>
       </c>
-      <c r="L64" s="34" t="s">
+      <c r="L64" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M64" s="35">
+      <c r="M64" s="8">
         <v>2680000</v>
       </c>
-      <c r="N64" s="35" t="s">
+      <c r="N64" s="8" t="s">
         <v>57</v>
       </c>
       <c r="O64" s="7">
@@ -5336,60 +5285,60 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="7">
+        <v>180000</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="38">
+        <v>360000</v>
+      </c>
+      <c r="F65" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="F65" s="9" t="s">
+      <c r="G65" s="33">
+        <v>720000</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I65" s="34">
+        <v>1280000</v>
+      </c>
+      <c r="J65" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="G65" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="H65" s="9" t="s">
+      <c r="K65" s="35">
+        <v>1960000</v>
+      </c>
+      <c r="L65" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" s="35">
+        <v>2680000</v>
+      </c>
+      <c r="N65" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I65" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K65" s="8">
-        <v>2500000</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M65" s="8">
-        <v>3000000</v>
-      </c>
-      <c r="N65" s="8" t="s">
+      <c r="O65" s="7">
+        <v>5360000</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="82">
+        <v>6480000</v>
+      </c>
+      <c r="R65" s="82" t="s">
         <v>73</v>
-      </c>
-      <c r="O65" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q65" s="82">
-        <v>5000000</v>
-      </c>
-      <c r="R65" s="82" t="s">
-        <v>74</v>
       </c>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -5404,7 +5353,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -5472,29 +5421,29 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="9">
         <v>1000000</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="9">
         <v>1250000</v>
       </c>
-      <c r="F67" s="29" t="s">
+      <c r="F67" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="9">
         <v>1500000</v>
       </c>
-      <c r="H67" s="29" t="s">
+      <c r="H67" s="9" t="s">
         <v>57</v>
       </c>
       <c r="I67" s="8">
@@ -5540,53 +5489,53 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="82">
+      <c r="C68" s="8">
         <v>1000000</v>
       </c>
-      <c r="D68" s="82" t="s">
+      <c r="D68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="93">
+      <c r="E68" s="29">
         <v>1250000</v>
       </c>
-      <c r="F68" s="93" t="s">
+      <c r="F68" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="93">
+      <c r="G68" s="29">
         <v>1500000</v>
       </c>
-      <c r="H68" s="93" t="s">
+      <c r="H68" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I68" s="94">
+      <c r="I68" s="8">
         <v>2000000</v>
       </c>
-      <c r="J68" s="94" t="s">
+      <c r="J68" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K68" s="94">
+      <c r="K68" s="8">
         <v>2500000</v>
       </c>
-      <c r="L68" s="94" t="s">
+      <c r="L68" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M68" s="94">
+      <c r="M68" s="8">
         <v>3000000</v>
       </c>
-      <c r="N68" s="94" t="s">
+      <c r="N68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="O68" s="87">
+      <c r="O68" s="7">
         <v>3500000</v>
       </c>
-      <c r="P68" s="87" t="s">
+      <c r="P68" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Q68" s="82">
@@ -5608,45 +5557,61 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="82">
+        <v>1000000</v>
+      </c>
+      <c r="D69" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="93">
+        <v>1250000</v>
+      </c>
+      <c r="F69" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="93">
+        <v>1500000</v>
+      </c>
+      <c r="H69" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="94">
+        <v>2000000</v>
+      </c>
+      <c r="J69" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="K69" s="94">
+        <v>2500000</v>
+      </c>
+      <c r="L69" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="M69" s="94">
         <v>3000000</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E69" s="7">
+      <c r="N69" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="O69" s="87">
+        <v>3500000</v>
+      </c>
+      <c r="P69" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="82">
         <v>5000000</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="7">
-        <v>7000000</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="R69" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="82">
-        <v>8000000</v>
-      </c>
-      <c r="J69" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
@@ -5660,7 +5625,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -5712,29 +5677,29 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="82">
+      <c r="C71" s="7">
         <v>3000000</v>
       </c>
-      <c r="D71" s="82" t="s">
+      <c r="D71" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="87">
+      <c r="E71" s="7">
         <v>5000000</v>
       </c>
-      <c r="F71" s="87" t="s">
+      <c r="F71" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G71" s="87">
+      <c r="G71" s="7">
         <v>7000000</v>
       </c>
-      <c r="H71" s="87" t="s">
+      <c r="H71" s="7" t="s">
         <v>74</v>
       </c>
       <c r="I71" s="82">
@@ -5764,33 +5729,37 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>53</v>
       </c>
       <c r="C72" s="82">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="D72" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="82">
-        <v>6500000</v>
-      </c>
-      <c r="F72" s="82" t="s">
+      <c r="E72" s="87">
+        <v>5000000</v>
+      </c>
+      <c r="F72" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="87">
+        <v>7000000</v>
+      </c>
+      <c r="H72" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="I72" s="82">
         <v>8000000</v>
       </c>
-      <c r="H72" s="82" t="s">
+      <c r="J72" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
@@ -5812,7 +5781,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5860,79 +5829,47 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="16">
-        <v>200</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E74" s="16">
-        <v>1000</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" s="14">
-        <v>5000</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" s="13">
-        <v>10000</v>
-      </c>
-      <c r="J74" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K74" s="11">
-        <v>30000</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M74" s="10">
-        <v>75000</v>
-      </c>
-      <c r="N74" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O74" s="9">
-        <v>200000</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q74" s="8">
-        <v>500000</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S74" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="T74" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U74" s="7">
-        <v>3000000</v>
-      </c>
-      <c r="V74" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="W74" s="82">
-        <v>4000000</v>
-      </c>
-      <c r="X74" s="82" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C74" s="82">
+        <v>5000000</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" s="82">
+        <v>6500000</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="82">
+        <v>8000000</v>
+      </c>
+      <c r="H74" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
@@ -5940,7 +5877,79 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="16">
+        <v>200</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E75" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="14">
+        <v>5000</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I75" s="13">
+        <v>10000</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K75" s="11">
+        <v>30000</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M75" s="10">
+        <v>75000</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" s="9">
+        <v>200000</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>500000</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S75" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="T75" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U75" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="V75" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="W75" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="X75" s="82" t="s">
+        <v>61</v>
+      </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
@@ -5948,7 +5957,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
@@ -5956,7 +5965,7 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
@@ -5964,7 +5973,7 @@
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
@@ -5972,7 +5981,7 @@
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
@@ -5980,29 +5989,7 @@
       <c r="AC79" s="3"/>
       <c r="AD79" s="3"/>
     </row>
-    <row r="80" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="72"/>
-      <c r="K80" s="73"/>
-      <c r="L80" s="73"/>
-      <c r="M80" s="74"/>
-      <c r="N80" s="74"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="77"/>
-      <c r="T80" s="77"/>
-      <c r="U80" s="77"/>
-      <c r="V80" s="77"/>
-      <c r="W80" s="78"/>
-      <c r="X80" s="78"/>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
@@ -6010,32 +5997,29 @@
       <c r="AC80" s="3"/>
       <c r="AD80" s="3"/>
     </row>
-    <row r="81" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
+    <row r="81" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="70"/>
+      <c r="D81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="71"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
+      <c r="K81" s="73"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="75"/>
+      <c r="P81" s="75"/>
+      <c r="Q81" s="76"/>
+      <c r="R81" s="76"/>
+      <c r="S81" s="77"/>
+      <c r="T81" s="77"/>
+      <c r="U81" s="77"/>
+      <c r="V81" s="77"/>
+      <c r="W81" s="78"/>
+      <c r="X81" s="78"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
@@ -6043,37 +6027,18 @@
       <c r="AC81" s="3"/>
       <c r="AD81" s="3"/>
     </row>
-    <row r="82" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="11">
-        <v>4000</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E82" s="11">
-        <v>20000</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G82" s="9">
-        <v>200000</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I82" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>85</v>
-      </c>
+    <row r="82" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
@@ -6095,7 +6060,7 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -6147,29 +6112,29 @@
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="11">
         <v>4000</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E84" s="37">
+      <c r="E84" s="11">
         <v>20000</v>
       </c>
-      <c r="F84" s="37" t="s">
+      <c r="F84" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G84" s="29">
+      <c r="G84" s="9">
         <v>200000</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="9" t="s">
         <v>68</v>
       </c>
       <c r="I84" s="7">
@@ -6199,7 +6164,7 @@
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -6251,35 +6216,35 @@
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>53</v>
       </c>
-      <c r="C86" s="82">
+      <c r="C86" s="8">
         <v>4000</v>
       </c>
-      <c r="D86" s="82" t="s">
+      <c r="D86" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="91">
+      <c r="E86" s="37">
         <v>20000</v>
       </c>
-      <c r="F86" s="91" t="s">
+      <c r="F86" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G86" s="93">
+      <c r="G86" s="29">
         <v>200000</v>
       </c>
-      <c r="H86" s="93" t="s">
+      <c r="H86" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I86" s="87">
+      <c r="I86" s="7">
         <v>1500000</v>
       </c>
-      <c r="J86" s="87" t="s">
+      <c r="J86" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K86" s="4"/>
@@ -6303,49 +6268,41 @@
       <c r="AC86" s="3"/>
       <c r="AD86" s="3"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>53</v>
       </c>
-      <c r="C87" s="14">
-        <v>400</v>
-      </c>
-      <c r="D87" s="14" t="s">
+      <c r="C87" s="82">
+        <v>4000</v>
+      </c>
+      <c r="D87" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="14">
-        <v>1000</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I87" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K87" s="8">
-        <v>1000000</v>
-      </c>
-      <c r="L87" s="8" t="s">
+      <c r="E87" s="91">
+        <v>20000</v>
+      </c>
+      <c r="F87" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="93">
+        <v>200000</v>
+      </c>
+      <c r="H87" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87" s="87">
+        <v>1500000</v>
+      </c>
+      <c r="J87" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="M87" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="N87" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
@@ -6363,7 +6320,7 @@
       <c r="AC87" s="3"/>
       <c r="AD87" s="3"/>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -6423,23 +6380,23 @@
       <c r="AC88" s="3"/>
       <c r="AD88" s="3"/>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
       <c r="B89" t="s">
         <v>53</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="14">
         <v>400</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="14">
         <v>1000</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="14" t="s">
         <v>83</v>
       </c>
       <c r="G89" s="11">
@@ -6483,7 +6440,7 @@
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -6543,29 +6500,29 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>15</v>
       </c>
       <c r="B91" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="11">
         <v>400</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="41">
         <v>1000</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="G91" s="36">
+      <c r="G91" s="11">
         <v>10000</v>
       </c>
-      <c r="H91" s="36" t="s">
+      <c r="H91" s="11" t="s">
         <v>67</v>
       </c>
       <c r="I91" s="9">
@@ -6603,7 +6560,7 @@
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -6663,41 +6620,49 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="10">
-        <v>12500</v>
-      </c>
-      <c r="D93" s="10" t="s">
+      <c r="C93" s="9">
+        <v>400</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="10">
-        <v>75000</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G93" s="8">
-        <v>750000</v>
-      </c>
-      <c r="H93" s="8" t="s">
+      <c r="E93" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="36">
+        <v>10000</v>
+      </c>
+      <c r="H93" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="I93" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K93" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="L93" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I93" s="82">
-        <v>2500000</v>
-      </c>
-      <c r="J93" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
+      <c r="M93" s="7">
+        <v>1500000</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
@@ -6715,23 +6680,23 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>16</v>
       </c>
       <c r="B94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="10">
         <v>12500</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="10">
         <v>75000</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F94" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G94" s="8">
@@ -6767,23 +6732,23 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="9">
         <v>12500</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="12">
         <v>75000</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="12" t="s">
         <v>62</v>
       </c>
       <c r="G95" s="8">
@@ -6819,29 +6784,29 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
       <c r="B96" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="8">
         <v>12500</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E96" s="33">
+      <c r="E96" s="28">
         <v>75000</v>
       </c>
-      <c r="F96" s="33" t="s">
+      <c r="F96" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="8">
         <v>750000</v>
       </c>
-      <c r="H96" s="35" t="s">
+      <c r="H96" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I96" s="82">
@@ -6871,29 +6836,29 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>16</v>
       </c>
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="82">
+      <c r="C97" s="7">
         <v>12500</v>
       </c>
-      <c r="D97" s="82" t="s">
+      <c r="D97" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="92">
+      <c r="E97" s="33">
         <v>75000</v>
       </c>
-      <c r="F97" s="92" t="s">
+      <c r="F97" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G97" s="94">
+      <c r="G97" s="35">
         <v>750000</v>
       </c>
-      <c r="H97" s="94" t="s">
+      <c r="H97" s="35" t="s">
         <v>85</v>
       </c>
       <c r="I97" s="82">
@@ -6923,33 +6888,37 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="9">
-        <v>15000</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="C98" s="82">
+        <v>12500</v>
+      </c>
+      <c r="D98" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="F98" s="7" t="s">
+      <c r="E98" s="92">
+        <v>75000</v>
+      </c>
+      <c r="F98" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="G98" s="94">
+        <v>750000</v>
+      </c>
+      <c r="H98" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="G98" s="82">
-        <v>4000000</v>
-      </c>
-      <c r="H98" s="82" t="s">
+      <c r="I98" s="82">
+        <v>2500000</v>
+      </c>
+      <c r="J98" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -6971,17 +6940,17 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="9">
         <v>15000</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E99" s="7">
@@ -7019,17 +6988,17 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>17</v>
       </c>
       <c r="B100" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="8">
         <v>15000</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E100" s="7">
@@ -7067,7 +7036,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -7115,23 +7084,23 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>17</v>
       </c>
       <c r="B102" t="s">
         <v>53</v>
       </c>
-      <c r="C102" s="82">
+      <c r="C102" s="7">
         <v>15000</v>
       </c>
-      <c r="D102" s="82" t="s">
+      <c r="D102" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E102" s="87">
+      <c r="E102" s="7">
         <v>2000000</v>
       </c>
-      <c r="F102" s="87" t="s">
+      <c r="F102" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G102" s="82">
@@ -7163,30 +7132,30 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="8">
-        <v>6000</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="82">
+        <v>15000</v>
+      </c>
+      <c r="D103" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E103" s="8">
-        <v>600000</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G103" s="66">
-        <v>1300000</v>
-      </c>
-      <c r="H103" s="66" t="s">
+      <c r="E103" s="87">
+        <v>2000000</v>
+      </c>
+      <c r="F103" s="87" t="s">
         <v>85</v>
+      </c>
+      <c r="G103" s="82">
+        <v>4000000</v>
+      </c>
+      <c r="H103" s="82" t="s">
+        <v>76</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -7211,7 +7180,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -7259,29 +7228,29 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>18</v>
       </c>
       <c r="B105" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="82">
+      <c r="C105" s="8">
         <v>6000</v>
       </c>
-      <c r="D105" s="82" t="s">
+      <c r="D105" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="94">
+      <c r="E105" s="8">
         <v>600000</v>
       </c>
-      <c r="F105" s="94" t="s">
+      <c r="F105" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G105" s="82">
+      <c r="G105" s="66">
         <v>1300000</v>
       </c>
-      <c r="H105" s="82" t="s">
+      <c r="H105" s="66" t="s">
         <v>85</v>
       </c>
       <c r="I105" s="4"/>
@@ -7307,23 +7276,31 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
         <v>53</v>
       </c>
-      <c r="C106" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D106" s="13" t="s">
+      <c r="C106" s="82">
+        <v>6000</v>
+      </c>
+      <c r="D106" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="E106" s="94">
+        <v>600000</v>
+      </c>
+      <c r="F106" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="G106" s="82">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="82" t="s">
+        <v>85</v>
+      </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
@@ -7347,7 +7324,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -7387,17 +7364,17 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" t="s">
         <v>53</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="13">
         <v>2000</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E108" s="4"/>
@@ -7427,7 +7404,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -7467,17 +7444,17 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>19</v>
       </c>
       <c r="B110" t="s">
         <v>53</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="10">
         <v>2000</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E110" s="4"/>
@@ -7507,7 +7484,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7547,12 +7524,19 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+    <row r="112" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -7580,61 +7564,26 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" t="s">
-        <v>54</v>
-      </c>
-      <c r="C113" s="6">
-        <v>250</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E113" s="16">
-        <v>2500</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G113" s="14">
-        <v>10000</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I113" s="13">
-        <v>100000</v>
-      </c>
-      <c r="J113" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K113" s="11">
-        <v>250000</v>
-      </c>
-      <c r="L113" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M113" s="10">
-        <v>750000</v>
-      </c>
-      <c r="N113" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O113" s="7">
-        <v>2250000</v>
-      </c>
-      <c r="P113" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q113" s="82">
-        <v>6750000</v>
-      </c>
-      <c r="R113" s="82" t="s">
-        <v>73</v>
-      </c>
+    <row r="113" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
@@ -7648,23 +7597,23 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>20</v>
       </c>
       <c r="B114" t="s">
         <v>54</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="6">
         <v>250</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="15">
+      <c r="E114" s="16">
         <v>2500</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G114" s="14">
@@ -7716,35 +7665,35 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>20</v>
       </c>
       <c r="B115" t="s">
         <v>54</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C115" s="14">
         <v>250</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="40">
+      <c r="E115" s="15">
         <v>2500</v>
       </c>
-      <c r="F115" s="40" t="s">
+      <c r="F115" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G115" s="41">
+      <c r="G115" s="14">
         <v>10000</v>
       </c>
-      <c r="H115" s="41" t="s">
+      <c r="H115" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I115" s="42">
+      <c r="I115" s="13">
         <v>100000</v>
       </c>
-      <c r="J115" s="42" t="s">
+      <c r="J115" s="13" t="s">
         <v>86</v>
       </c>
       <c r="K115" s="11">
@@ -7784,47 +7733,47 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>20</v>
       </c>
       <c r="B116" t="s">
         <v>54</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="11">
         <v>250</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E116" s="22">
+      <c r="E116" s="40">
         <v>2500</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G116" s="23">
+      <c r="G116" s="41">
         <v>10000</v>
       </c>
-      <c r="H116" s="23" t="s">
+      <c r="H116" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I116" s="24">
+      <c r="I116" s="42">
         <v>100000</v>
       </c>
-      <c r="J116" s="24" t="s">
+      <c r="J116" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K116" s="36">
+      <c r="K116" s="11">
         <v>250000</v>
       </c>
-      <c r="L116" s="36" t="s">
+      <c r="L116" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M116" s="12">
+      <c r="M116" s="10">
         <v>750000</v>
       </c>
-      <c r="N116" s="12" t="s">
+      <c r="N116" s="10" t="s">
         <v>76</v>
       </c>
       <c r="O116" s="7">
@@ -7852,73 +7801,65 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
         <v>54</v>
       </c>
-      <c r="C117" s="6">
-        <v>200</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E117" s="6">
-        <v>1000</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G117" s="6">
+      <c r="C117" s="9">
+        <v>250</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" s="22">
         <v>2500</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I117" s="16">
-        <v>5000</v>
-      </c>
-      <c r="J117" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K117" s="14">
+      <c r="F117" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G117" s="23">
         <v>10000</v>
       </c>
-      <c r="L117" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M117" s="13">
-        <v>80000</v>
-      </c>
-      <c r="N117" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="O117" s="11">
-        <v>240000</v>
-      </c>
-      <c r="P117" s="11" t="s">
+      <c r="H117" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I117" s="24">
+        <v>100000</v>
+      </c>
+      <c r="J117" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K117" s="36">
+        <v>250000</v>
+      </c>
+      <c r="L117" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="Q117" s="10">
-        <v>700000</v>
-      </c>
-      <c r="R117" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="S117" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="T117" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="U117" s="8">
-        <v>2000000</v>
-      </c>
-      <c r="V117" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M117" s="12">
+        <v>750000</v>
+      </c>
+      <c r="N117" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O117" s="7">
+        <v>2250000</v>
+      </c>
+      <c r="P117" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q117" s="82">
+        <v>6750000</v>
+      </c>
+      <c r="R117" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
@@ -7928,29 +7869,29 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>21</v>
       </c>
       <c r="B118" t="s">
         <v>54</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C118" s="6">
         <v>200</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="D118" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E118" s="46">
+      <c r="E118" s="6">
         <v>1000</v>
       </c>
-      <c r="F118" s="46" t="s">
+      <c r="F118" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G118" s="46">
+      <c r="G118" s="6">
         <v>2500</v>
       </c>
-      <c r="H118" s="46" t="s">
+      <c r="H118" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I118" s="16">
@@ -8004,41 +7945,41 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>21</v>
       </c>
       <c r="B119" t="s">
         <v>54</v>
       </c>
-      <c r="C119" s="13">
+      <c r="C119" s="16">
         <v>200</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E119" s="45">
+      <c r="E119" s="46">
         <v>1000</v>
       </c>
-      <c r="F119" s="45" t="s">
+      <c r="F119" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="45">
+      <c r="G119" s="46">
         <v>2500</v>
       </c>
-      <c r="H119" s="45" t="s">
+      <c r="H119" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="I119" s="17">
+      <c r="I119" s="16">
         <v>5000</v>
       </c>
-      <c r="J119" s="17" t="s">
+      <c r="J119" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K119" s="18">
+      <c r="K119" s="14">
         <v>10000</v>
       </c>
-      <c r="L119" s="18" t="s">
+      <c r="L119" s="14" t="s">
         <v>87</v>
       </c>
       <c r="M119" s="13">
@@ -8080,59 +8021,59 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>21</v>
       </c>
       <c r="B120" t="s">
         <v>54</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C120" s="13">
         <v>200</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="45">
         <v>1000</v>
       </c>
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="45">
         <v>2500</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="I120" s="22">
+      <c r="I120" s="17">
         <v>5000</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="J120" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K120" s="23">
+      <c r="K120" s="18">
         <v>10000</v>
       </c>
-      <c r="L120" s="23" t="s">
+      <c r="L120" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M120" s="24">
+      <c r="M120" s="13">
         <v>80000</v>
       </c>
-      <c r="N120" s="24" t="s">
+      <c r="N120" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O120" s="36">
+      <c r="O120" s="11">
         <v>240000</v>
       </c>
-      <c r="P120" s="36" t="s">
+      <c r="P120" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="Q120" s="12">
+      <c r="Q120" s="10">
         <v>700000</v>
       </c>
-      <c r="R120" s="12" t="s">
+      <c r="R120" s="10" t="s">
         <v>69</v>
       </c>
       <c r="S120" s="9">
@@ -8156,57 +8097,73 @@
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B121" t="s">
         <v>54</v>
       </c>
       <c r="C121" s="9">
-        <v>750000</v>
+        <v>200</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E121" s="9">
-        <v>1250000</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G121" s="8">
-        <v>1750000</v>
-      </c>
-      <c r="H121" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G121" s="5">
+        <v>2500</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121" s="22">
+        <v>5000</v>
+      </c>
+      <c r="J121" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K121" s="23">
+        <v>10000</v>
+      </c>
+      <c r="L121" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M121" s="24">
+        <v>80000</v>
+      </c>
+      <c r="N121" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O121" s="36">
+        <v>240000</v>
+      </c>
+      <c r="P121" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q121" s="12">
+        <v>700000</v>
+      </c>
+      <c r="R121" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S121" s="9">
+        <v>1500000</v>
+      </c>
+      <c r="T121" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U121" s="8">
+        <v>2000000</v>
+      </c>
+      <c r="V121" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I121" s="8">
-        <v>2250000</v>
-      </c>
-      <c r="J121" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K121" s="7">
-        <v>2750000</v>
-      </c>
-      <c r="L121" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M121" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="N121" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
@@ -8216,23 +8173,23 @@
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>22</v>
       </c>
       <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="9">
         <v>750000</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D122" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E122" s="29">
+      <c r="E122" s="9">
         <v>1250000</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G122" s="8">
@@ -8276,22 +8233,49 @@
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
+    <row r="123" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="8">
+        <v>750000</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" s="29">
+        <v>1250000</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G123" s="8">
+        <v>1750000</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I123" s="8">
+        <v>2250000</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K123" s="7">
+        <v>2750000</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M123" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="4"/>
@@ -8309,107 +8293,56 @@
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" s="6">
-        <v>150</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E124" s="6">
-        <v>300</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G124" s="16">
-        <v>700</v>
-      </c>
-      <c r="H124" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I124" s="16">
-        <v>1400</v>
-      </c>
-      <c r="J124" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K124" s="14">
-        <v>3000</v>
-      </c>
-      <c r="L124" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M124" s="14">
-        <v>7000</v>
-      </c>
-      <c r="N124" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O124" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P124" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q124" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R124" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S124" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T124" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="U124" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V124" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W124" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X124" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y124" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z124" s="8" t="s">
-        <v>57</v>
-      </c>
+    <row r="124" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>23</v>
       </c>
       <c r="B125" t="s">
         <v>54</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="6">
         <v>150</v>
       </c>
-      <c r="D125" s="16" t="s">
+      <c r="D125" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E125" s="46">
+      <c r="E125" s="6">
         <v>300</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G125" s="16">
@@ -8477,35 +8410,35 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>23</v>
       </c>
       <c r="B126" t="s">
         <v>54</v>
       </c>
-      <c r="C126" s="14">
+      <c r="C126" s="16">
         <v>150</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="47">
+      <c r="E126" s="46">
         <v>300</v>
       </c>
-      <c r="F126" s="47" t="s">
+      <c r="F126" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G126" s="15">
+      <c r="G126" s="16">
         <v>700</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="H126" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I126" s="15">
+      <c r="I126" s="16">
         <v>1400</v>
       </c>
-      <c r="J126" s="15" t="s">
+      <c r="J126" s="16" t="s">
         <v>66</v>
       </c>
       <c r="K126" s="14">
@@ -8561,47 +8494,47 @@
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>23</v>
       </c>
       <c r="B127" t="s">
         <v>54</v>
       </c>
-      <c r="C127" s="13">
+      <c r="C127" s="14">
         <v>150</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E127" s="45">
+      <c r="E127" s="47">
         <v>300</v>
       </c>
-      <c r="F127" s="45" t="s">
+      <c r="F127" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G127" s="17">
+      <c r="G127" s="15">
         <v>700</v>
       </c>
-      <c r="H127" s="17" t="s">
+      <c r="H127" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I127" s="17">
+      <c r="I127" s="15">
         <v>1400</v>
       </c>
-      <c r="J127" s="17" t="s">
+      <c r="J127" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K127" s="18">
+      <c r="K127" s="14">
         <v>3000</v>
       </c>
-      <c r="L127" s="18" t="s">
+      <c r="L127" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M127" s="18">
+      <c r="M127" s="14">
         <v>7000</v>
       </c>
-      <c r="N127" s="18" t="s">
+      <c r="N127" s="14" t="s">
         <v>62</v>
       </c>
       <c r="O127" s="13">
@@ -8645,59 +8578,59 @@
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>23</v>
       </c>
       <c r="B128" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="11">
+      <c r="C128" s="13">
         <v>150</v>
       </c>
-      <c r="D128" s="11" t="s">
+      <c r="D128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E128" s="39">
+      <c r="E128" s="45">
         <v>300</v>
       </c>
-      <c r="F128" s="39" t="s">
+      <c r="F128" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G128" s="40">
+      <c r="G128" s="17">
         <v>700</v>
       </c>
-      <c r="H128" s="40" t="s">
+      <c r="H128" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I128" s="40">
+      <c r="I128" s="17">
         <v>1400</v>
       </c>
-      <c r="J128" s="40" t="s">
+      <c r="J128" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K128" s="41">
+      <c r="K128" s="18">
         <v>3000</v>
       </c>
-      <c r="L128" s="41" t="s">
+      <c r="L128" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M128" s="41">
+      <c r="M128" s="18">
         <v>7000</v>
       </c>
-      <c r="N128" s="41" t="s">
+      <c r="N128" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O128" s="42">
+      <c r="O128" s="13">
         <v>14000</v>
       </c>
-      <c r="P128" s="42" t="s">
+      <c r="P128" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q128" s="42">
+      <c r="Q128" s="13">
         <v>28000</v>
       </c>
-      <c r="R128" s="42" t="s">
+      <c r="R128" s="13" t="s">
         <v>85</v>
       </c>
       <c r="S128" s="11">
@@ -8729,71 +8662,71 @@
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
       <c r="B129" t="s">
         <v>54</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="11">
         <v>150</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E129" s="58">
+      <c r="E129" s="39">
         <v>300</v>
       </c>
-      <c r="F129" s="58" t="s">
+      <c r="F129" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G129" s="59">
+      <c r="G129" s="40">
         <v>700</v>
       </c>
-      <c r="H129" s="59" t="s">
+      <c r="H129" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I129" s="59">
+      <c r="I129" s="40">
         <v>1400</v>
       </c>
-      <c r="J129" s="59" t="s">
+      <c r="J129" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K129" s="60">
+      <c r="K129" s="41">
         <v>3000</v>
       </c>
-      <c r="L129" s="60" t="s">
+      <c r="L129" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="M129" s="60">
+      <c r="M129" s="41">
         <v>7000</v>
       </c>
-      <c r="N129" s="60" t="s">
+      <c r="N129" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O129" s="61">
+      <c r="O129" s="42">
         <v>14000</v>
       </c>
-      <c r="P129" s="61" t="s">
+      <c r="P129" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q129" s="61">
+      <c r="Q129" s="42">
         <v>28000</v>
       </c>
-      <c r="R129" s="61" t="s">
+      <c r="R129" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="S129" s="44">
+      <c r="S129" s="11">
         <v>56000</v>
       </c>
-      <c r="T129" s="44" t="s">
+      <c r="T129" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U129" s="44">
+      <c r="U129" s="11">
         <v>84000</v>
       </c>
-      <c r="V129" s="44" t="s">
+      <c r="V129" s="11" t="s">
         <v>76</v>
       </c>
       <c r="W129" s="9">
@@ -8813,83 +8746,83 @@
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
       <c r="B130" t="s">
         <v>54</v>
       </c>
-      <c r="C130" s="82">
+      <c r="C130" s="10">
         <v>150</v>
       </c>
-      <c r="D130" s="82" t="s">
+      <c r="D130" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E130" s="96">
+      <c r="E130" s="58">
         <v>300</v>
       </c>
-      <c r="F130" s="96" t="s">
+      <c r="F130" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G130" s="97">
+      <c r="G130" s="59">
         <v>700</v>
       </c>
-      <c r="H130" s="97" t="s">
+      <c r="H130" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I130" s="97">
+      <c r="I130" s="59">
         <v>1400</v>
       </c>
-      <c r="J130" s="97" t="s">
+      <c r="J130" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K130" s="98">
+      <c r="K130" s="60">
         <v>3000</v>
       </c>
-      <c r="L130" s="98" t="s">
+      <c r="L130" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="M130" s="98">
+      <c r="M130" s="60">
         <v>7000</v>
       </c>
-      <c r="N130" s="98" t="s">
+      <c r="N130" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O130" s="99">
+      <c r="O130" s="61">
         <v>14000</v>
       </c>
-      <c r="P130" s="99" t="s">
+      <c r="P130" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="Q130" s="99">
+      <c r="Q130" s="61">
         <v>28000</v>
       </c>
-      <c r="R130" s="99" t="s">
+      <c r="R130" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="S130" s="91">
+      <c r="S130" s="44">
         <v>56000</v>
       </c>
-      <c r="T130" s="91" t="s">
+      <c r="T130" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="U130" s="91">
+      <c r="U130" s="44">
         <v>84000</v>
       </c>
-      <c r="V130" s="91" t="s">
+      <c r="V130" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="W130" s="100">
+      <c r="W130" s="9">
         <v>168000</v>
       </c>
-      <c r="X130" s="100" t="s">
+      <c r="X130" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y130" s="101">
+      <c r="Y130" s="8">
         <v>336000</v>
       </c>
-      <c r="Z130" s="101" t="s">
+      <c r="Z130" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA130" s="4"/>
@@ -8897,109 +8830,113 @@
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B131" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="82">
+        <v>150</v>
+      </c>
+      <c r="D131" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" s="96">
         <v>300</v>
       </c>
-      <c r="D131" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E131" s="16">
-        <v>750</v>
-      </c>
-      <c r="F131" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G131" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H131" s="16" t="s">
+      <c r="F131" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="97">
+        <v>700</v>
+      </c>
+      <c r="H131" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="I131" s="97">
+        <v>1400</v>
+      </c>
+      <c r="J131" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="I131" s="14">
+      <c r="K131" s="98">
         <v>3000</v>
       </c>
-      <c r="J131" s="14" t="s">
+      <c r="L131" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="K131" s="14">
-        <v>6000</v>
-      </c>
-      <c r="L131" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M131" s="14">
-        <v>12000</v>
-      </c>
-      <c r="N131" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O131" s="13">
-        <v>25000</v>
-      </c>
-      <c r="P131" s="13" t="s">
+      <c r="M131" s="98">
+        <v>7000</v>
+      </c>
+      <c r="N131" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="Q131" s="13">
-        <v>50000</v>
-      </c>
-      <c r="R131" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="S131" s="11">
-        <v>100000</v>
-      </c>
-      <c r="T131" s="11" t="s">
+      <c r="O131" s="99">
+        <v>14000</v>
+      </c>
+      <c r="P131" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="U131" s="10">
-        <v>250000</v>
-      </c>
-      <c r="V131" s="10" t="s">
+      <c r="Q131" s="99">
+        <v>28000</v>
+      </c>
+      <c r="R131" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="W131" s="9">
-        <v>500000</v>
-      </c>
-      <c r="X131" s="9" t="s">
+      <c r="S131" s="91">
+        <v>56000</v>
+      </c>
+      <c r="T131" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
+      <c r="U131" s="91">
+        <v>84000</v>
+      </c>
+      <c r="V131" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="W131" s="100">
+        <v>168000</v>
+      </c>
+      <c r="X131" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y131" s="101">
+        <v>336000</v>
+      </c>
+      <c r="Z131" s="101" t="s">
+        <v>57</v>
+      </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>46</v>
       </c>
       <c r="B132" t="s">
         <v>54</v>
       </c>
-      <c r="C132" s="14">
+      <c r="C132" s="6">
         <v>300</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E132" s="16">
         <v>750</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="F132" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G132" s="15">
+      <c r="G132" s="16">
         <v>1500</v>
       </c>
-      <c r="H132" s="15" t="s">
+      <c r="H132" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I132" s="14">
@@ -9057,77 +8994,77 @@
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>46</v>
       </c>
       <c r="B133" t="s">
         <v>54</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="14">
         <v>300</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E133" s="48">
+      <c r="E133" s="15">
         <v>750</v>
       </c>
-      <c r="F133" s="48" t="s">
+      <c r="F133" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G133" s="48">
+      <c r="G133" s="15">
         <v>1500</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I133" s="49">
+      <c r="I133" s="14">
         <v>3000</v>
       </c>
-      <c r="J133" s="49" t="s">
+      <c r="J133" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K133" s="49">
+      <c r="K133" s="14">
         <v>6000</v>
       </c>
-      <c r="L133" s="49" t="s">
+      <c r="L133" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M133" s="49">
+      <c r="M133" s="14">
         <v>12000</v>
       </c>
-      <c r="N133" s="49" t="s">
+      <c r="N133" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O133" s="50">
+      <c r="O133" s="13">
         <v>25000</v>
       </c>
-      <c r="P133" s="50" t="s">
+      <c r="P133" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q133" s="50">
+      <c r="Q133" s="13">
         <v>50000</v>
       </c>
-      <c r="R133" s="50" t="s">
+      <c r="R133" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S133" s="37">
+      <c r="S133" s="11">
         <v>100000</v>
       </c>
-      <c r="T133" s="37" t="s">
+      <c r="T133" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U133" s="51">
+      <c r="U133" s="10">
         <v>250000</v>
       </c>
-      <c r="V133" s="51" t="s">
+      <c r="V133" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="W133" s="52">
+      <c r="W133" s="9">
         <v>500000</v>
       </c>
-      <c r="X133" s="52" t="s">
+      <c r="X133" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y133" s="4"/>
@@ -9137,77 +9074,77 @@
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>46</v>
       </c>
       <c r="B134" t="s">
         <v>54</v>
       </c>
-      <c r="C134" s="7">
+      <c r="C134" s="8">
         <v>300</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E134" s="53">
+      <c r="E134" s="48">
         <v>750</v>
       </c>
-      <c r="F134" s="53" t="s">
+      <c r="F134" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G134" s="53">
+      <c r="G134" s="48">
         <v>1500</v>
       </c>
-      <c r="H134" s="53" t="s">
+      <c r="H134" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I134" s="54">
+      <c r="I134" s="49">
         <v>3000</v>
       </c>
-      <c r="J134" s="54" t="s">
+      <c r="J134" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="K134" s="54">
+      <c r="K134" s="49">
         <v>6000</v>
       </c>
-      <c r="L134" s="54" t="s">
+      <c r="L134" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M134" s="54">
+      <c r="M134" s="49">
         <v>12000</v>
       </c>
-      <c r="N134" s="54" t="s">
+      <c r="N134" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O134" s="55">
+      <c r="O134" s="50">
         <v>25000</v>
       </c>
-      <c r="P134" s="55" t="s">
+      <c r="P134" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="Q134" s="55">
+      <c r="Q134" s="50">
         <v>50000</v>
       </c>
-      <c r="R134" s="55" t="s">
+      <c r="R134" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S134" s="38">
+      <c r="S134" s="37">
         <v>100000</v>
       </c>
-      <c r="T134" s="38" t="s">
+      <c r="T134" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="U134" s="56">
+      <c r="U134" s="51">
         <v>250000</v>
       </c>
-      <c r="V134" s="56" t="s">
+      <c r="V134" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="W134" s="57">
+      <c r="W134" s="52">
         <v>500000</v>
       </c>
-      <c r="X134" s="57" t="s">
+      <c r="X134" s="52" t="s">
         <v>69</v>
       </c>
       <c r="Y134" s="4"/>
@@ -9217,107 +9154,103 @@
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135" s="6">
-        <v>150</v>
-      </c>
-      <c r="D135" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="7">
+        <v>300</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E135" s="6">
-        <v>300</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G135" s="16">
-        <v>700</v>
-      </c>
-      <c r="H135" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I135" s="16">
-        <v>1400</v>
-      </c>
-      <c r="J135" s="16" t="s">
+      <c r="E135" s="53">
+        <v>750</v>
+      </c>
+      <c r="F135" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135" s="53">
+        <v>1500</v>
+      </c>
+      <c r="H135" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="K135" s="14">
-        <v>3500</v>
-      </c>
-      <c r="L135" s="14" t="s">
+      <c r="I135" s="54">
+        <v>3000</v>
+      </c>
+      <c r="J135" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M135" s="14">
-        <v>7000</v>
-      </c>
-      <c r="N135" s="14" t="s">
+      <c r="K135" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L135" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="M135" s="54">
+        <v>12000</v>
+      </c>
+      <c r="N135" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O135" s="55">
+        <v>25000</v>
+      </c>
+      <c r="P135" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="O135" s="13">
-        <v>14000</v>
-      </c>
-      <c r="P135" s="13" t="s">
+      <c r="Q135" s="55">
+        <v>50000</v>
+      </c>
+      <c r="R135" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="S135" s="38">
+        <v>100000</v>
+      </c>
+      <c r="T135" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="Q135" s="13">
-        <v>28000</v>
-      </c>
-      <c r="R135" s="13" t="s">
+      <c r="U135" s="56">
+        <v>250000</v>
+      </c>
+      <c r="V135" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="S135" s="11">
-        <v>56000</v>
-      </c>
-      <c r="T135" s="11" t="s">
+      <c r="W135" s="57">
+        <v>500000</v>
+      </c>
+      <c r="X135" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="U135" s="11">
-        <v>84000</v>
-      </c>
-      <c r="V135" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W135" s="9">
-        <v>168000</v>
-      </c>
-      <c r="X135" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y135" s="8">
-        <v>336000</v>
-      </c>
-      <c r="Z135" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
       <c r="AA135" s="4"/>
       <c r="AB135" s="4"/>
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>47</v>
       </c>
       <c r="B136" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="16">
+      <c r="C136" s="6">
         <v>150</v>
       </c>
-      <c r="D136" s="16" t="s">
+      <c r="D136" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E136" s="46">
+      <c r="E136" s="6">
         <v>300</v>
       </c>
-      <c r="F136" s="46" t="s">
+      <c r="F136" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G136" s="16">
@@ -9385,35 +9318,35 @@
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>47</v>
       </c>
       <c r="B137" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="16">
         <v>150</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E137" s="47">
+      <c r="E137" s="46">
         <v>300</v>
       </c>
-      <c r="F137" s="47" t="s">
+      <c r="F137" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G137" s="15">
+      <c r="G137" s="16">
         <v>700</v>
       </c>
-      <c r="H137" s="15" t="s">
+      <c r="H137" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I137" s="15">
+      <c r="I137" s="16">
         <v>1400</v>
       </c>
-      <c r="J137" s="15" t="s">
+      <c r="J137" s="16" t="s">
         <v>66</v>
       </c>
       <c r="K137" s="14">
@@ -9469,47 +9402,47 @@
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>47</v>
       </c>
       <c r="B138" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="13">
+      <c r="C138" s="14">
         <v>150</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E138" s="45">
+      <c r="E138" s="47">
         <v>300</v>
       </c>
-      <c r="F138" s="45" t="s">
+      <c r="F138" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G138" s="17">
+      <c r="G138" s="15">
         <v>700</v>
       </c>
-      <c r="H138" s="17" t="s">
+      <c r="H138" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I138" s="17">
+      <c r="I138" s="15">
         <v>1400</v>
       </c>
-      <c r="J138" s="17" t="s">
+      <c r="J138" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K138" s="18">
+      <c r="K138" s="14">
         <v>3500</v>
       </c>
-      <c r="L138" s="18" t="s">
+      <c r="L138" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M138" s="18">
+      <c r="M138" s="14">
         <v>7000</v>
       </c>
-      <c r="N138" s="18" t="s">
+      <c r="N138" s="14" t="s">
         <v>62</v>
       </c>
       <c r="O138" s="13">
@@ -9553,59 +9486,59 @@
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>47</v>
       </c>
       <c r="B139" t="s">
         <v>53</v>
       </c>
-      <c r="C139" s="11">
+      <c r="C139" s="13">
         <v>150</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E139" s="39">
+      <c r="E139" s="45">
         <v>300</v>
       </c>
-      <c r="F139" s="39" t="s">
+      <c r="F139" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G139" s="40">
+      <c r="G139" s="17">
         <v>700</v>
       </c>
-      <c r="H139" s="40" t="s">
+      <c r="H139" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="I139" s="40">
+      <c r="I139" s="17">
         <v>1400</v>
       </c>
-      <c r="J139" s="40" t="s">
+      <c r="J139" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K139" s="41">
+      <c r="K139" s="18">
         <v>3500</v>
       </c>
-      <c r="L139" s="41" t="s">
+      <c r="L139" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="M139" s="41">
+      <c r="M139" s="18">
         <v>7000</v>
       </c>
-      <c r="N139" s="41" t="s">
+      <c r="N139" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="O139" s="42">
+      <c r="O139" s="13">
         <v>14000</v>
       </c>
-      <c r="P139" s="42" t="s">
+      <c r="P139" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q139" s="42">
+      <c r="Q139" s="13">
         <v>28000</v>
       </c>
-      <c r="R139" s="42" t="s">
+      <c r="R139" s="13" t="s">
         <v>85</v>
       </c>
       <c r="S139" s="11">
@@ -9637,71 +9570,71 @@
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>47</v>
       </c>
       <c r="B140" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="11">
         <v>150</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E140" s="58">
+      <c r="E140" s="39">
         <v>300</v>
       </c>
-      <c r="F140" s="58" t="s">
+      <c r="F140" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G140" s="59">
+      <c r="G140" s="40">
         <v>700</v>
       </c>
-      <c r="H140" s="59" t="s">
+      <c r="H140" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I140" s="59">
+      <c r="I140" s="40">
         <v>1400</v>
       </c>
-      <c r="J140" s="59" t="s">
+      <c r="J140" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K140" s="60">
+      <c r="K140" s="41">
         <v>3500</v>
       </c>
-      <c r="L140" s="60" t="s">
+      <c r="L140" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="M140" s="60">
+      <c r="M140" s="41">
         <v>7000</v>
       </c>
-      <c r="N140" s="60" t="s">
+      <c r="N140" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="O140" s="61">
+      <c r="O140" s="42">
         <v>14000</v>
       </c>
-      <c r="P140" s="61" t="s">
+      <c r="P140" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q140" s="61">
+      <c r="Q140" s="42">
         <v>28000</v>
       </c>
-      <c r="R140" s="61" t="s">
+      <c r="R140" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="S140" s="44">
+      <c r="S140" s="11">
         <v>56000</v>
       </c>
-      <c r="T140" s="44" t="s">
+      <c r="T140" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U140" s="44">
+      <c r="U140" s="11">
         <v>84000</v>
       </c>
-      <c r="V140" s="44" t="s">
+      <c r="V140" s="11" t="s">
         <v>76</v>
       </c>
       <c r="W140" s="9">
@@ -9721,83 +9654,83 @@
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>47</v>
       </c>
       <c r="B141" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="82">
+      <c r="C141" s="10">
         <v>150</v>
       </c>
-      <c r="D141" s="82" t="s">
+      <c r="D141" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E141" s="95">
+      <c r="E141" s="58">
         <v>300</v>
       </c>
-      <c r="F141" s="95" t="s">
+      <c r="F141" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="G141" s="88">
+      <c r="G141" s="59">
         <v>700</v>
       </c>
-      <c r="H141" s="88" t="s">
+      <c r="H141" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="I141" s="88">
+      <c r="I141" s="59">
         <v>1400</v>
       </c>
-      <c r="J141" s="88" t="s">
+      <c r="J141" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K141" s="89">
+      <c r="K141" s="60">
         <v>3500</v>
       </c>
-      <c r="L141" s="89" t="s">
+      <c r="L141" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="M141" s="89">
+      <c r="M141" s="60">
         <v>7000</v>
       </c>
-      <c r="N141" s="89" t="s">
+      <c r="N141" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="O141" s="90">
+      <c r="O141" s="61">
         <v>14000</v>
       </c>
-      <c r="P141" s="90" t="s">
+      <c r="P141" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="Q141" s="90">
+      <c r="Q141" s="61">
         <v>28000</v>
       </c>
-      <c r="R141" s="90" t="s">
+      <c r="R141" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="S141" s="91">
+      <c r="S141" s="44">
         <v>56000</v>
       </c>
-      <c r="T141" s="91" t="s">
+      <c r="T141" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="U141" s="91">
+      <c r="U141" s="44">
         <v>84000</v>
       </c>
-      <c r="V141" s="91" t="s">
+      <c r="V141" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="W141" s="93">
+      <c r="W141" s="9">
         <v>168000</v>
       </c>
-      <c r="X141" s="93" t="s">
+      <c r="X141" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y141" s="94">
+      <c r="Y141" s="8">
         <v>336000</v>
       </c>
-      <c r="Z141" s="94" t="s">
+      <c r="Z141" s="8" t="s">
         <v>57</v>
       </c>
       <c r="AA141" s="4"/>
@@ -9805,109 +9738,113 @@
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
         <v>53</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="82">
+        <v>150</v>
+      </c>
+      <c r="D142" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E142" s="95">
         <v>300</v>
       </c>
-      <c r="D142" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" s="16">
-        <v>750</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G142" s="16">
-        <v>1500</v>
-      </c>
-      <c r="H142" s="16" t="s">
+      <c r="F142" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G142" s="88">
+        <v>700</v>
+      </c>
+      <c r="H142" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="I142" s="88">
+        <v>1400</v>
+      </c>
+      <c r="J142" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I142" s="14">
-        <v>3000</v>
-      </c>
-      <c r="J142" s="14" t="s">
+      <c r="K142" s="89">
+        <v>3500</v>
+      </c>
+      <c r="L142" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="K142" s="14">
-        <v>6000</v>
-      </c>
-      <c r="L142" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M142" s="14">
-        <v>12000</v>
-      </c>
-      <c r="N142" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="O142" s="13">
-        <v>25000</v>
-      </c>
-      <c r="P142" s="13" t="s">
+      <c r="M142" s="89">
+        <v>7000</v>
+      </c>
+      <c r="N142" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="Q142" s="13">
-        <v>50000</v>
-      </c>
-      <c r="R142" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="S142" s="11">
-        <v>100000</v>
-      </c>
-      <c r="T142" s="11" t="s">
+      <c r="O142" s="90">
+        <v>14000</v>
+      </c>
+      <c r="P142" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="U142" s="10">
-        <v>250000</v>
-      </c>
-      <c r="V142" s="10" t="s">
+      <c r="Q142" s="90">
+        <v>28000</v>
+      </c>
+      <c r="R142" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="W142" s="9">
-        <v>500000</v>
-      </c>
-      <c r="X142" s="9" t="s">
+      <c r="S142" s="91">
+        <v>56000</v>
+      </c>
+      <c r="T142" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
+      <c r="U142" s="91">
+        <v>84000</v>
+      </c>
+      <c r="V142" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="W142" s="93">
+        <v>168000</v>
+      </c>
+      <c r="X142" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y142" s="94">
+        <v>336000</v>
+      </c>
+      <c r="Z142" s="94" t="s">
+        <v>57</v>
+      </c>
       <c r="AA142" s="4"/>
       <c r="AB142" s="4"/>
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>48</v>
       </c>
       <c r="B143" t="s">
         <v>53</v>
       </c>
-      <c r="C143" s="14">
+      <c r="C143" s="6">
         <v>300</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="D143" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E143" s="16">
         <v>750</v>
       </c>
-      <c r="F143" s="15" t="s">
+      <c r="F143" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G143" s="15">
+      <c r="G143" s="16">
         <v>1500</v>
       </c>
-      <c r="H143" s="15" t="s">
+      <c r="H143" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I143" s="14">
@@ -9965,77 +9902,77 @@
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>48</v>
       </c>
       <c r="B144" t="s">
         <v>53</v>
       </c>
-      <c r="C144" s="8">
+      <c r="C144" s="14">
         <v>300</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="D144" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E144" s="48">
+      <c r="E144" s="15">
         <v>750</v>
       </c>
-      <c r="F144" s="48" t="s">
+      <c r="F144" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G144" s="48">
+      <c r="G144" s="15">
         <v>1500</v>
       </c>
-      <c r="H144" s="48" t="s">
+      <c r="H144" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I144" s="49">
+      <c r="I144" s="14">
         <v>3000</v>
       </c>
-      <c r="J144" s="49" t="s">
+      <c r="J144" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K144" s="49">
+      <c r="K144" s="14">
         <v>6000</v>
       </c>
-      <c r="L144" s="49" t="s">
+      <c r="L144" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="M144" s="49">
+      <c r="M144" s="14">
         <v>12000</v>
       </c>
-      <c r="N144" s="49" t="s">
+      <c r="N144" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O144" s="50">
+      <c r="O144" s="13">
         <v>25000</v>
       </c>
-      <c r="P144" s="50" t="s">
+      <c r="P144" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q144" s="50">
+      <c r="Q144" s="13">
         <v>50000</v>
       </c>
-      <c r="R144" s="50" t="s">
+      <c r="R144" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S144" s="37">
+      <c r="S144" s="11">
         <v>100000</v>
       </c>
-      <c r="T144" s="37" t="s">
+      <c r="T144" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U144" s="51">
+      <c r="U144" s="10">
         <v>250000</v>
       </c>
-      <c r="V144" s="51" t="s">
+      <c r="V144" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="W144" s="52">
+      <c r="W144" s="9">
         <v>500000</v>
       </c>
-      <c r="X144" s="52" t="s">
+      <c r="X144" s="9" t="s">
         <v>69</v>
       </c>
       <c r="Y144" s="4"/>
@@ -10045,77 +9982,77 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>48</v>
       </c>
       <c r="B145" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="8">
         <v>300</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E145" s="53">
+      <c r="E145" s="48">
         <v>750</v>
       </c>
-      <c r="F145" s="53" t="s">
+      <c r="F145" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="G145" s="53">
+      <c r="G145" s="48">
         <v>1500</v>
       </c>
-      <c r="H145" s="53" t="s">
+      <c r="H145" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="I145" s="54">
+      <c r="I145" s="49">
         <v>3000</v>
       </c>
-      <c r="J145" s="54" t="s">
+      <c r="J145" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="K145" s="54">
+      <c r="K145" s="49">
         <v>6000</v>
       </c>
-      <c r="L145" s="54" t="s">
+      <c r="L145" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="M145" s="54">
+      <c r="M145" s="49">
         <v>12000</v>
       </c>
-      <c r="N145" s="54" t="s">
+      <c r="N145" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="O145" s="55">
+      <c r="O145" s="50">
         <v>25000</v>
       </c>
-      <c r="P145" s="55" t="s">
+      <c r="P145" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="Q145" s="55">
+      <c r="Q145" s="50">
         <v>50000</v>
       </c>
-      <c r="R145" s="55" t="s">
+      <c r="R145" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="S145" s="38">
+      <c r="S145" s="37">
         <v>100000</v>
       </c>
-      <c r="T145" s="38" t="s">
+      <c r="T145" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="U145" s="56">
+      <c r="U145" s="51">
         <v>250000</v>
       </c>
-      <c r="V145" s="56" t="s">
+      <c r="V145" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="W145" s="57">
+      <c r="W145" s="52">
         <v>500000</v>
       </c>
-      <c r="X145" s="57" t="s">
+      <c r="X145" s="52" t="s">
         <v>69</v>
       </c>
       <c r="Y145" s="4"/>
@@ -10125,59 +10062,79 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="D146" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="7">
+        <v>300</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E146" s="53">
+        <v>750</v>
+      </c>
+      <c r="F146" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G146" s="53">
+        <v>1500</v>
+      </c>
+      <c r="H146" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="I146" s="54">
+        <v>3000</v>
+      </c>
+      <c r="J146" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K146" s="54">
+        <v>6000</v>
+      </c>
+      <c r="L146" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="M146" s="54">
+        <v>12000</v>
+      </c>
+      <c r="N146" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="O146" s="55">
+        <v>25000</v>
+      </c>
+      <c r="P146" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q146" s="55">
+        <v>50000</v>
+      </c>
+      <c r="R146" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="S146" s="38">
+        <v>100000</v>
+      </c>
+      <c r="T146" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="U146" s="56">
+        <v>250000</v>
+      </c>
+      <c r="V146" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E146" s="9">
-        <v>1500000</v>
-      </c>
-      <c r="F146" s="9" t="s">
+      <c r="W146" s="57">
+        <v>500000</v>
+      </c>
+      <c r="X146" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G146" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="H146" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I146" s="7">
-        <v>3000000</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K146" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="L146" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M146" s="7">
-        <v>5000000</v>
-      </c>
-      <c r="N146" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
@@ -10185,29 +10142,29 @@
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>49</v>
       </c>
       <c r="B147" t="s">
         <v>54</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="9">
         <v>1000000</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E147" s="29">
+      <c r="E147" s="9">
         <v>1500000</v>
       </c>
-      <c r="F147" s="29" t="s">
+      <c r="F147" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G147" s="29">
+      <c r="G147" s="9">
         <v>2000000</v>
       </c>
-      <c r="H147" s="29" t="s">
+      <c r="H147" s="9" t="s">
         <v>76</v>
       </c>
       <c r="I147" s="7">
@@ -10245,47 +10202,47 @@
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>49</v>
       </c>
       <c r="B148" t="s">
         <v>54</v>
       </c>
-      <c r="C148" s="82">
+      <c r="C148" s="8">
         <v>1000000</v>
       </c>
-      <c r="D148" s="82" t="s">
+      <c r="D148" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E148" s="93">
+      <c r="E148" s="29">
         <v>1500000</v>
       </c>
-      <c r="F148" s="93" t="s">
+      <c r="F148" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G148" s="93">
+      <c r="G148" s="29">
         <v>2000000</v>
       </c>
-      <c r="H148" s="93" t="s">
+      <c r="H148" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I148" s="87">
+      <c r="I148" s="7">
         <v>3000000</v>
       </c>
-      <c r="J148" s="87" t="s">
+      <c r="J148" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K148" s="87">
+      <c r="K148" s="7">
         <v>4000000</v>
       </c>
-      <c r="L148" s="87" t="s">
+      <c r="L148" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M148" s="87">
+      <c r="M148" s="7">
         <v>5000000</v>
       </c>
-      <c r="N148" s="87" t="s">
+      <c r="N148" s="7" t="s">
         <v>72</v>
       </c>
       <c r="O148" s="4"/>
@@ -10305,48 +10262,48 @@
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B149" t="s">
         <v>54</v>
       </c>
-      <c r="C149" s="62">
-        <v>600000</v>
-      </c>
-      <c r="D149" s="62" t="s">
+      <c r="C149" s="82">
+        <v>1000000</v>
+      </c>
+      <c r="D149" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E149" s="9">
-        <v>1200000</v>
-      </c>
-      <c r="F149" s="9" t="s">
+      <c r="E149" s="93">
+        <v>1500000</v>
+      </c>
+      <c r="F149" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="G149" s="8">
-        <v>1800000</v>
-      </c>
-      <c r="H149" s="8" t="s">
+      <c r="G149" s="93">
+        <v>2000000</v>
+      </c>
+      <c r="H149" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="I149" s="8">
-        <v>2400000</v>
-      </c>
-      <c r="J149" s="8" t="s">
+      <c r="I149" s="87">
+        <v>3000000</v>
+      </c>
+      <c r="J149" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="K149" s="7">
-        <v>3000000</v>
-      </c>
-      <c r="L149" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M149" s="7">
-        <v>3600000</v>
-      </c>
-      <c r="N149" s="7" t="s">
+      <c r="K149" s="87">
+        <v>4000000</v>
+      </c>
+      <c r="L149" s="87" t="s">
         <v>71</v>
+      </c>
+      <c r="M149" s="87">
+        <v>5000000</v>
+      </c>
+      <c r="N149" s="87" t="s">
+        <v>72</v>
       </c>
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
@@ -10365,19 +10322,49 @@
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="62">
+        <v>600000</v>
+      </c>
+      <c r="D150" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E150" s="9">
+        <v>1200000</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G150" s="8">
+        <v>1800000</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150" s="8">
+        <v>2400000</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K150" s="7">
+        <v>3000000</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M150" s="7">
+        <v>3600000</v>
+      </c>
+      <c r="N150" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
@@ -10395,14 +10382,50 @@
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
       <c r="AA151" s="4"/>
       <c r="AB151" s="4"/>
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
     </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AA152" s="4"/>
+      <c r="AB152" s="4"/>
+      <c r="AC152" s="3"/>
+      <c r="AD152" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
@@ -10410,12 +10433,6 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" fitToHeight="2" orientation="landscape" r:id="rId1"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Work\FMX Docs\CoCSpread\ClashOfClans_TechTree\ClashOfClans_TechTree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l3g3nd/Git/ClashOfClans_TechTree/ClashOfClans_TechTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15924"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Defense and Traps together" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,11 @@
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1018,32 +1018,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="23" width="10.109375" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="23" width="10.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" customWidth="1"/>
     <col min="27" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" customWidth="1"/>
-    <col min="33" max="33" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="25" t="s">
         <v>51</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="AD1" s="26"/>
     </row>
-    <row r="2" spans="1:34" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1135,7 +1135,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>98</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:34" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1475,7 +1475,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>114</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:34" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>30</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>35</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>36</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>37</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>38</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>39</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>40</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>100</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>42</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>43</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>44</v>
       </c>
@@ -2722,12 +2722,12 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>90</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>91</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>92</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>93</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>94</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>95</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>96</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>97</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>23</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>23</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>23</v>
       </c>
@@ -3442,7 +3442,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>23</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>23</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>23</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>23</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>46</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>46</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>46</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>46</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>47</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>47</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>47</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>47</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>47</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>47</v>
       </c>
@@ -4608,7 +4608,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>47</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>48</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>48</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>48</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>48</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>49</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>49</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>49</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>8</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>20</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>20</v>
       </c>
@@ -5438,7 +5438,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>20</v>
       </c>
@@ -5506,7 +5506,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
         <v>20</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>21</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>21</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
         <v>21</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>21</v>
       </c>
@@ -5876,7 +5876,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
         <v>22</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>22</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>1</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="25" t="s">
         <v>1</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>1</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
         <v>1</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>88</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
         <v>88</v>
       </c>
@@ -6381,7 +6381,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>2</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>2</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
         <v>2</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="25" t="s">
         <v>2</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>2</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>2</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="25" t="s">
         <v>2</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="25" t="s">
         <v>2</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>3</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>3</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
         <v>3</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>3</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>3</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
         <v>3</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>3</v>
       </c>
@@ -7566,7 +7566,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>55</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
         <v>55</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
         <v>55</v>
       </c>
@@ -7782,7 +7782,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
         <v>55</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
         <v>11</v>
       </c>
@@ -7934,7 +7934,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
         <v>11</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>11</v>
       </c>
@@ -8090,7 +8090,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>11</v>
       </c>
@@ -8168,7 +8168,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>11</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>5</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>5</v>
       </c>
@@ -8394,7 +8394,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
         <v>5</v>
       </c>
@@ -8468,53 +8468,53 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>52</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="22">
         <v>1000000</v>
       </c>
-      <c r="D110" s="23" t="s">
+      <c r="D110" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="22">
         <v>1250000</v>
       </c>
-      <c r="F110" s="23" t="s">
+      <c r="F110" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G110" s="23">
+      <c r="G110" s="22">
         <v>1500000</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="H110" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I110" s="23">
+      <c r="I110" s="22">
         <v>2000000</v>
       </c>
-      <c r="J110" s="23" t="s">
+      <c r="J110" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="K110" s="23">
+      <c r="K110" s="22">
         <v>2500000</v>
       </c>
-      <c r="L110" s="23" t="s">
+      <c r="L110" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="M110" s="23">
+      <c r="M110" s="22">
         <v>3000000</v>
       </c>
-      <c r="N110" s="23" t="s">
+      <c r="N110" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O110" s="23">
+      <c r="O110" s="22">
         <v>3500000</v>
       </c>
-      <c r="P110" s="23" t="s">
+      <c r="P110" s="22" t="s">
         <v>77</v>
       </c>
       <c r="Q110" s="23">
@@ -8542,7 +8542,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="25" t="s">
         <v>12</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
         <v>12</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>12</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>12</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="25" t="s">
         <v>13</v>
       </c>
@@ -8816,7 +8816,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="25" t="s">
         <v>13</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>113</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="25" t="s">
         <v>104</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
         <v>105</v>
       </c>
@@ -9066,7 +9066,7 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="25" t="s">
         <v>106</v>
       </c>
@@ -9146,7 +9146,7 @@
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>107</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>108</v>
       </c>
@@ -9306,7 +9306,7 @@
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>109</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>110</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>111</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>112</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" spans="1:30" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:30" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>26</v>
       </c>
@@ -9659,7 +9659,7 @@
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" spans="1:30" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>14</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
         <v>14</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
         <v>14</v>
       </c>
@@ -9815,7 +9815,7 @@
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
         <v>14</v>
       </c>
@@ -9867,7 +9867,7 @@
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
         <v>14</v>
       </c>
@@ -9919,7 +9919,7 @@
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="25" t="s">
         <v>15</v>
       </c>
@@ -9979,7 +9979,7 @@
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="25" t="s">
         <v>15</v>
       </c>
@@ -10039,7 +10039,7 @@
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="25" t="s">
         <v>15</v>
       </c>
@@ -10099,7 +10099,7 @@
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="25" t="s">
         <v>15</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="25" t="s">
         <v>15</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="25" t="s">
         <v>15</v>
       </c>
@@ -10279,7 +10279,7 @@
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
         <v>16</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="25" t="s">
         <v>16</v>
       </c>
@@ -10383,7 +10383,7 @@
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="25" t="s">
         <v>16</v>
       </c>
@@ -10435,7 +10435,7 @@
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="25" t="s">
         <v>16</v>
       </c>
@@ -10487,7 +10487,7 @@
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="25" t="s">
         <v>16</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="25" t="s">
         <v>17</v>
       </c>
@@ -10587,7 +10587,7 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="25" t="s">
         <v>17</v>
       </c>
@@ -10635,7 +10635,7 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="25" t="s">
         <v>17</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="25" t="s">
         <v>17</v>
       </c>
@@ -10731,7 +10731,7 @@
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="25" t="s">
         <v>17</v>
       </c>
@@ -10779,7 +10779,7 @@
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="25" t="s">
         <v>18</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="25" t="s">
         <v>18</v>
       </c>
@@ -10875,7 +10875,7 @@
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="25" t="s">
         <v>18</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="25" t="s">
         <v>19</v>
       </c>
@@ -10963,7 +10963,7 @@
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="25" t="s">
         <v>19</v>
       </c>
@@ -11003,7 +11003,7 @@
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="25" t="s">
         <v>19</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="25" t="s">
         <v>19</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="25" t="s">
         <v>19</v>
       </c>
@@ -11123,7 +11123,7 @@
       <c r="AC156" s="3"/>
       <c r="AD156" s="3"/>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="25" t="s">
         <v>19</v>
       </c>
@@ -11163,7 +11163,7 @@
       <c r="AC157" s="3"/>
       <c r="AD157" s="3"/>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -11193,119 +11193,119 @@
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
       <c r="AB159" s="4"/>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
     </row>
-    <row r="161" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
       <c r="AB161" s="4"/>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
     </row>
-    <row r="162" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
     </row>
-    <row r="163" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
       <c r="AB163" s="4"/>
       <c r="AC163" s="3"/>
       <c r="AD163" s="3"/>
     </row>
-    <row r="164" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
       <c r="AB164" s="4"/>
       <c r="AC164" s="3"/>
       <c r="AD164" s="3"/>
     </row>
-    <row r="165" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
       <c r="AC165" s="3"/>
       <c r="AD165" s="3"/>
     </row>
-    <row r="166" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
     </row>
-    <row r="167" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
     </row>
-    <row r="168" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
     </row>
-    <row r="169" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
     </row>
-    <row r="170" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
       <c r="AB170" s="4"/>
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
     </row>
-    <row r="171" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
       <c r="AB171" s="4"/>
       <c r="AC171" s="3"/>
       <c r="AD171" s="3"/>
     </row>
-    <row r="172" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
       <c r="AC172" s="3"/>
       <c r="AD172" s="3"/>
     </row>
-    <row r="173" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
     </row>
-    <row r="174" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="26:30" x14ac:dyDescent="0.2">
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
     </row>
-    <row r="175" spans="26:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="26:30" x14ac:dyDescent="0.2">
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="3"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Work\FMX Docs\CoCSpread\ClashOfClans_TechTree\ClashOfClans_TechTree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l3g3nd/Git/ClashOfClans_TechTree/ClashOfClans_TechTree/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="38400" windowHeight="23460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Defense and Traps together" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,13 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Defense and Traps together'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -383,7 +383,7 @@
     <t>500,000; 5</t>
   </si>
   <si>
-    <t>5,000; 5</t>
+    <t>+ 5,000 | .5</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -701,10 +701,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,97 +1023,97 @@
   <dimension ref="A1:AF175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.109375" customWidth="1"/>
-    <col min="23" max="23" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" customWidth="1"/>
     <col min="27" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" customWidth="1"/>
+    <col min="33" max="33" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="25">
+      <c r="C1" s="26">
         <v>1</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26">
         <v>2</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26">
         <v>4</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26">
         <v>5</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26">
         <v>6</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26">
         <v>7</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26">
         <v>8</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26">
         <v>9</v>
       </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26">
         <v>10</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26">
         <v>11</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26">
         <v>12</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26">
         <v>13</v>
       </c>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26">
         <v>14</v>
       </c>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26">
         <v>15</v>
       </c>
-      <c r="AF1" s="25"/>
-    </row>
-    <row r="2" spans="1:32" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF1" s="26"/>
+    </row>
+    <row r="2" spans="1:32" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1143,7 +1146,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1226,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1286,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1355,7 +1358,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1412,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>98</v>
       </c>
@@ -1457,7 +1460,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1490,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1563,7 @@
       <c r="X9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Y9" s="27" t="s">
         <v>117</v>
       </c>
       <c r="Z9" t="s">
@@ -1572,7 +1575,7 @@
       <c r="AB9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AC9" s="27" t="s">
         <v>117</v>
       </c>
       <c r="AD9" t="s">
@@ -1585,7 +1588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1661,7 @@
       <c r="X10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="27" t="s">
         <v>117</v>
       </c>
       <c r="Z10" t="s">
@@ -1670,7 +1673,7 @@
       <c r="AB10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="26" t="s">
+      <c r="AC10" s="27" t="s">
         <v>117</v>
       </c>
       <c r="AD10" t="s">
@@ -1683,7 +1686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>113</v>
       </c>
@@ -1702,7 +1705,7 @@
       <c r="F11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>116</v>
       </c>
       <c r="H11" t="s">
@@ -1757,7 +1760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1790,7 +1793,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:32" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
@@ -1854,7 +1857,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>31</v>
       </c>
@@ -1917,7 +1920,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>33</v>
       </c>
@@ -1981,7 +1984,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:32" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>34</v>
       </c>
@@ -2098,7 +2101,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2161,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>36</v>
       </c>
@@ -2218,7 +2221,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
@@ -2270,7 +2273,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>38</v>
       </c>
@@ -2326,7 +2329,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>39</v>
       </c>
@@ -2382,7 +2385,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>40</v>
       </c>
@@ -2446,7 +2449,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>100</v>
       </c>
@@ -2502,7 +2505,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>41</v>
       </c>
@@ -2552,7 +2555,7 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
     </row>
-    <row r="26" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
@@ -2608,7 +2611,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>43</v>
       </c>
@@ -2656,7 +2659,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>44</v>
       </c>
@@ -2704,12 +2707,12 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +2776,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>91</v>
       </c>
@@ -2833,7 +2836,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -2889,7 +2892,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
@@ -2937,7 +2940,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>94</v>
       </c>
@@ -2993,7 +2996,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>95</v>
       </c>
@@ -3043,7 +3046,7 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
     </row>
-    <row r="36" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>96</v>
       </c>
@@ -3095,7 +3098,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="1:30" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>97</v>
       </c>
@@ -3147,7 +3150,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -3178,7 +3181,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>23</v>
       </c>
@@ -3260,7 +3263,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
@@ -3342,7 +3345,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>23</v>
       </c>
@@ -3424,7 +3427,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>23</v>
       </c>
@@ -3506,7 +3509,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>23</v>
       </c>
@@ -3588,7 +3591,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>23</v>
       </c>
@@ -3670,7 +3673,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>23</v>
       </c>
@@ -3752,7 +3755,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>46</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>46</v>
       </c>
@@ -3918,7 +3921,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>46</v>
       </c>
@@ -4002,7 +4005,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
-    <row r="49" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
         <v>46</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
         <v>47</v>
       </c>
@@ -4170,7 +4173,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
         <v>47</v>
       </c>
@@ -4254,7 +4257,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4341,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
         <v>47</v>
       </c>
@@ -4422,7 +4425,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
         <v>47</v>
       </c>
@@ -4506,7 +4509,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
         <v>47</v>
       </c>
@@ -4590,7 +4593,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
-    <row r="56" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
         <v>47</v>
       </c>
@@ -4674,7 +4677,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
         <v>48</v>
       </c>
@@ -4758,7 +4761,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
         <v>48</v>
       </c>
@@ -4842,7 +4845,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24" t="s">
         <v>48</v>
       </c>
@@ -4926,7 +4929,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="24" t="s">
         <v>48</v>
       </c>
@@ -5010,7 +5013,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>49</v>
       </c>
@@ -5070,7 +5073,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
         <v>49</v>
       </c>
@@ -5130,7 +5133,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
         <v>49</v>
       </c>
@@ -5190,7 +5193,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>8</v>
       </c>
@@ -5250,7 +5253,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -5284,7 +5287,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
         <v>20</v>
       </c>
@@ -5352,7 +5355,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24" t="s">
         <v>20</v>
       </c>
@@ -5420,7 +5423,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24" t="s">
         <v>20</v>
       </c>
@@ -5488,7 +5491,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24" t="s">
         <v>20</v>
       </c>
@@ -5558,7 +5561,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24" t="s">
         <v>21</v>
       </c>
@@ -5634,7 +5637,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
-    <row r="71" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
         <v>21</v>
       </c>
@@ -5710,7 +5713,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
         <v>21</v>
       </c>
@@ -5784,7 +5787,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
         <v>21</v>
       </c>
@@ -5858,7 +5861,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
     </row>
-    <row r="74" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
         <v>22</v>
       </c>
@@ -5916,7 +5919,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:30" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
         <v>22</v>
       </c>
@@ -5974,7 +5977,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
@@ -6002,7 +6005,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24" t="s">
         <v>1</v>
       </c>
@@ -6065,7 +6068,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24" t="s">
         <v>1</v>
       </c>
@@ -6127,7 +6130,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24" t="s">
         <v>1</v>
       </c>
@@ -6190,7 +6193,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
         <v>1</v>
       </c>
@@ -6253,7 +6256,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
         <v>88</v>
       </c>
@@ -6308,7 +6311,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
         <v>88</v>
       </c>
@@ -6363,7 +6366,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
         <v>2</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
         <v>2</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24" t="s">
         <v>2</v>
       </c>
@@ -6621,7 +6624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24" t="s">
         <v>2</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>2</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>2</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>2</v>
       </c>
@@ -6965,7 +6968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
         <v>2</v>
       </c>
@@ -7051,7 +7054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
         <v>3</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
         <v>3</v>
       </c>
@@ -7225,7 +7228,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
         <v>3</v>
       </c>
@@ -7313,7 +7316,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
         <v>3</v>
       </c>
@@ -7401,7 +7404,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24" t="s">
         <v>3</v>
       </c>
@@ -7489,7 +7492,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="24" t="s">
         <v>3</v>
       </c>
@@ -7577,7 +7580,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24" t="s">
         <v>3</v>
       </c>
@@ -7665,7 +7668,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
         <v>55</v>
       </c>
@@ -7733,7 +7736,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
         <v>55</v>
       </c>
@@ -7798,7 +7801,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
         <v>55</v>
       </c>
@@ -7863,7 +7866,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
     </row>
-    <row r="101" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
         <v>55</v>
       </c>
@@ -7928,7 +7931,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
         <v>11</v>
       </c>
@@ -7997,7 +8000,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
     </row>
-    <row r="103" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24" t="s">
         <v>11</v>
       </c>
@@ -8066,7 +8069,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
     </row>
-    <row r="104" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="24" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8138,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
     </row>
-    <row r="105" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="24" t="s">
         <v>11</v>
       </c>
@@ -8204,7 +8207,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="24" t="s">
         <v>11</v>
       </c>
@@ -8273,7 +8276,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
         <v>5</v>
       </c>
@@ -8338,7 +8341,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
         <v>5</v>
       </c>
@@ -8403,7 +8406,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
     </row>
-    <row r="109" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
         <v>5</v>
       </c>
@@ -8468,7 +8471,7 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
         <v>5</v>
       </c>
@@ -8533,7 +8536,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
         <v>12</v>
       </c>
@@ -8582,7 +8585,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="24" t="s">
         <v>12</v>
       </c>
@@ -8631,7 +8634,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="24" t="s">
         <v>12</v>
       </c>
@@ -8680,7 +8683,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="24" t="s">
         <v>12</v>
       </c>
@@ -8732,7 +8735,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="24" t="s">
         <v>13</v>
       </c>
@@ -8780,7 +8783,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
@@ -8828,7 +8831,7 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="24" t="s">
         <v>112</v>
       </c>
@@ -8870,7 +8873,7 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="24" t="s">
         <v>103</v>
       </c>
@@ -8950,7 +8953,7 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="24" t="s">
         <v>104</v>
       </c>
@@ -9030,7 +9033,7 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
     </row>
-    <row r="120" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="24" t="s">
         <v>105</v>
       </c>
@@ -9110,7 +9113,7 @@
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
     </row>
-    <row r="121" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="24" t="s">
         <v>106</v>
       </c>
@@ -9190,7 +9193,7 @@
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="24" t="s">
         <v>107</v>
       </c>
@@ -9270,7 +9273,7 @@
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24" t="s">
         <v>108</v>
       </c>
@@ -9350,7 +9353,7 @@
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="24" t="s">
         <v>109</v>
       </c>
@@ -9430,7 +9433,7 @@
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="24" t="s">
         <v>110</v>
       </c>
@@ -9510,7 +9513,7 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" spans="1:30" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="24" t="s">
         <v>111</v>
       </c>
@@ -9590,7 +9593,7 @@
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>26</v>
       </c>
@@ -9623,7 +9626,7 @@
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" spans="1:30" ht="16.350000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A128" s="24" t="s">
         <v>14</v>
       </c>
@@ -9675,7 +9678,7 @@
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="24" t="s">
         <v>14</v>
       </c>
@@ -9727,7 +9730,7 @@
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
     </row>
-    <row r="130" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="24" t="s">
         <v>14</v>
       </c>
@@ -9779,7 +9782,7 @@
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="24" t="s">
         <v>14</v>
       </c>
@@ -9831,7 +9834,7 @@
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
     </row>
-    <row r="132" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="24" t="s">
         <v>14</v>
       </c>
@@ -9883,7 +9886,7 @@
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
     </row>
-    <row r="133" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="24" t="s">
         <v>15</v>
       </c>
@@ -9943,7 +9946,7 @@
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
     </row>
-    <row r="134" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="24" t="s">
         <v>15</v>
       </c>
@@ -10003,7 +10006,7 @@
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="24" t="s">
         <v>15</v>
       </c>
@@ -10063,7 +10066,7 @@
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
     </row>
-    <row r="136" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="24" t="s">
         <v>15</v>
       </c>
@@ -10123,7 +10126,7 @@
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="24" t="s">
         <v>15</v>
       </c>
@@ -10183,7 +10186,7 @@
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="24" t="s">
         <v>15</v>
       </c>
@@ -10243,7 +10246,7 @@
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="24" t="s">
         <v>16</v>
       </c>
@@ -10295,7 +10298,7 @@
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="24" t="s">
         <v>16</v>
       </c>
@@ -10347,7 +10350,7 @@
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="24" t="s">
         <v>16</v>
       </c>
@@ -10399,7 +10402,7 @@
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="24" t="s">
         <v>16</v>
       </c>
@@ -10451,7 +10454,7 @@
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="24" t="s">
         <v>16</v>
       </c>
@@ -10503,7 +10506,7 @@
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="24" t="s">
         <v>17</v>
       </c>
@@ -10551,7 +10554,7 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="24" t="s">
         <v>17</v>
       </c>
@@ -10599,7 +10602,7 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="24" t="s">
         <v>17</v>
       </c>
@@ -10647,7 +10650,7 @@
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="24" t="s">
         <v>17</v>
       </c>
@@ -10695,7 +10698,7 @@
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="24" t="s">
         <v>17</v>
       </c>
@@ -10743,7 +10746,7 @@
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="24" t="s">
         <v>18</v>
       </c>
@@ -10791,7 +10794,7 @@
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
     </row>
-    <row r="150" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="24" t="s">
         <v>18</v>
       </c>
@@ -10839,7 +10842,7 @@
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
     </row>
-    <row r="151" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="24" t="s">
         <v>18</v>
       </c>
@@ -10887,7 +10890,7 @@
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
     </row>
-    <row r="152" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="24" t="s">
         <v>19</v>
       </c>
@@ -10927,7 +10930,7 @@
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
     </row>
-    <row r="153" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="24" t="s">
         <v>19</v>
       </c>
@@ -10967,7 +10970,7 @@
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
     </row>
-    <row r="154" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="24" t="s">
         <v>19</v>
       </c>
@@ -11007,7 +11010,7 @@
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
     </row>
-    <row r="155" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="24" t="s">
         <v>19</v>
       </c>
@@ -11047,7 +11050,7 @@
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
     </row>
-    <row r="156" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="24" t="s">
         <v>19</v>
       </c>
@@ -11087,7 +11090,7 @@
       <c r="AC156" s="3"/>
       <c r="AD156" s="3"/>
     </row>
-    <row r="157" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="24" t="s">
         <v>19</v>
       </c>
@@ -11127,7 +11130,7 @@
       <c r="AC157" s="3"/>
       <c r="AD157" s="3"/>
     </row>
-    <row r="158" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -11157,119 +11160,119 @@
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
     </row>
-    <row r="159" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
       <c r="AB159" s="4"/>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
     </row>
-    <row r="160" spans="1:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
     </row>
-    <row r="161" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
       <c r="AB161" s="4"/>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
     </row>
-    <row r="162" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
     </row>
-    <row r="163" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
       <c r="AB163" s="4"/>
       <c r="AC163" s="3"/>
       <c r="AD163" s="3"/>
     </row>
-    <row r="164" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
       <c r="AB164" s="4"/>
       <c r="AC164" s="3"/>
       <c r="AD164" s="3"/>
     </row>
-    <row r="165" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
       <c r="AC165" s="3"/>
       <c r="AD165" s="3"/>
     </row>
-    <row r="166" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
     </row>
-    <row r="167" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
     </row>
-    <row r="168" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
     </row>
-    <row r="169" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
     </row>
-    <row r="170" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
       <c r="AB170" s="4"/>
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
     </row>
-    <row r="171" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
       <c r="AB171" s="4"/>
       <c r="AC171" s="3"/>
       <c r="AD171" s="3"/>
     </row>
-    <row r="172" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
       <c r="AC172" s="3"/>
       <c r="AD172" s="3"/>
     </row>
-    <row r="173" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
     </row>
-    <row r="174" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
     </row>
-    <row r="175" spans="26:30" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="3"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l3g3nd/Git/ClashOfClans_TechTree/ClashOfClans_TechTree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Work\FMX Docs\CoCSpread\ClashOfClans_TechTree\ClashOfClans_TechTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="Defense and Traps together" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,11 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -380,10 +380,10 @@
     <t>Level 13</t>
   </si>
   <si>
-    <t>500,000; 5</t>
-  </si>
-  <si>
     <t>+ 5,000 | .5</t>
+  </si>
+  <si>
+    <t>500,000 | .5</t>
   </si>
 </sst>
 </file>
@@ -704,10 +704,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,97 +1023,97 @@
   <dimension ref="A1:AF175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="11.1640625" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="27">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27">
         <v>3</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27">
         <v>4</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27">
         <v>5</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27">
         <v>6</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27">
         <v>7</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27">
         <v>8</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27">
         <v>9</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26">
+      <c r="T1" s="27"/>
+      <c r="U1" s="27">
         <v>10</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27">
         <v>11</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26">
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27">
         <v>12</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26">
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27">
         <v>13</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26">
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27">
         <v>14</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26">
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27">
         <v>15</v>
       </c>
-      <c r="AF1" s="26"/>
-    </row>
-    <row r="2" spans="1:32" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AF1" s="27"/>
+    </row>
+    <row r="2" spans="1:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
     </row>
-    <row r="4" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
     </row>
-    <row r="5" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1358,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
     </row>
-    <row r="7" spans="1:32" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>98</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:32" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="4"/>
     </row>
-    <row r="9" spans="1:32" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>9</v>
       </c>
@@ -1563,8 +1563,8 @@
       <c r="X9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="27" t="s">
-        <v>117</v>
+      <c r="Y9" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="Z9" t="s">
         <v>102</v>
@@ -1575,8 +1575,8 @@
       <c r="AB9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="27" t="s">
-        <v>117</v>
+      <c r="AC9" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="AD9" t="s">
         <v>101</v>
@@ -1588,7 +1588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>10</v>
       </c>
@@ -1661,8 +1661,8 @@
       <c r="X10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="27" t="s">
-        <v>117</v>
+      <c r="Y10" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="Z10" t="s">
         <v>102</v>
@@ -1673,8 +1673,8 @@
       <c r="AB10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="27" t="s">
-        <v>117</v>
+      <c r="AC10" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="AD10" t="s">
         <v>101</v>
@@ -1686,7 +1686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>113</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>67</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
         <v>115</v>
@@ -1760,7 +1760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
     </row>
-    <row r="13" spans="1:32" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>31</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>33</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
     </row>
-    <row r="16" spans="1:32" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
     </row>
-    <row r="17" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
     </row>
-    <row r="18" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>35</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
     </row>
-    <row r="19" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>36</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>37</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
     </row>
-    <row r="21" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>38</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
     </row>
-    <row r="22" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>39</v>
       </c>
@@ -2385,7 +2385,7 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
     </row>
-    <row r="23" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>40</v>
       </c>
@@ -2449,7 +2449,7 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
     </row>
-    <row r="24" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>100</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
     </row>
-    <row r="25" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>41</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
     </row>
-    <row r="26" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
     </row>
-    <row r="27" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>43</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
     </row>
-    <row r="28" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>44</v>
       </c>
@@ -2707,12 +2707,12 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
     </row>
-    <row r="29" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>90</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
     </row>
-    <row r="31" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>91</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
     </row>
-    <row r="32" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>92</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
     </row>
-    <row r="33" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>93</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
     </row>
-    <row r="34" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>94</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
     </row>
-    <row r="35" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>95</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
     </row>
-    <row r="36" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>96</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
     </row>
-    <row r="37" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
         <v>97</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
     </row>
-    <row r="38" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
     </row>
-    <row r="39" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
     </row>
-    <row r="40" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>23</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
     </row>
-    <row r="41" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>23</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
     </row>
-    <row r="42" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>23</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>23</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>23</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
     </row>
-    <row r="45" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>23</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
     </row>
-    <row r="46" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>46</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
     </row>
-    <row r="47" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
         <v>46</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
     </row>
-    <row r="48" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>46</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
     </row>
-    <row r="49" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>46</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
     </row>
-    <row r="50" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
     </row>
-    <row r="51" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>47</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
     </row>
-    <row r="52" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>47</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
     </row>
-    <row r="53" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>47</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
     </row>
-    <row r="54" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>47</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
     </row>
-    <row r="55" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
         <v>47</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
     </row>
-    <row r="56" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>47</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
     </row>
-    <row r="57" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>48</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
     </row>
-    <row r="58" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>48</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
     </row>
-    <row r="59" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>48</v>
       </c>
@@ -4929,7 +4929,7 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
     </row>
-    <row r="60" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>48</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
     </row>
-    <row r="61" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>49</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
     </row>
-    <row r="62" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
         <v>49</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
     </row>
-    <row r="63" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
         <v>49</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
     </row>
-    <row r="64" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="24" t="s">
         <v>8</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
     </row>
-    <row r="65" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="AC65" s="3"/>
       <c r="AD65" s="3"/>
     </row>
-    <row r="66" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>20</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
     </row>
-    <row r="67" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="24" t="s">
         <v>20</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
     </row>
-    <row r="68" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>20</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
     </row>
-    <row r="69" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="24" t="s">
         <v>20</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
     </row>
-    <row r="70" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>21</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
     </row>
-    <row r="71" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>21</v>
       </c>
@@ -5713,7 +5713,7 @@
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
     </row>
-    <row r="72" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>21</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="AC72" s="3"/>
       <c r="AD72" s="3"/>
     </row>
-    <row r="73" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +5861,7 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
     </row>
-    <row r="74" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
         <v>22</v>
       </c>
@@ -5919,7 +5919,7 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
     </row>
-    <row r="75" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
         <v>22</v>
       </c>
@@ -5977,7 +5977,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
     </row>
-    <row r="76" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>27</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
     </row>
-    <row r="77" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
         <v>1</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
     </row>
-    <row r="78" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
         <v>1</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
     </row>
-    <row r="79" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="24" t="s">
         <v>1</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
     </row>
-    <row r="80" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="24" t="s">
         <v>1</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
     </row>
-    <row r="81" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="24" t="s">
         <v>88</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
-    <row r="82" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="24" t="s">
         <v>88</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
     </row>
-    <row r="83" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>2</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>2</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>2</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
         <v>2</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="24" t="s">
         <v>2</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
         <v>2</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
         <v>2</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
         <v>2</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
         <v>3</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
         <v>3</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
     </row>
-    <row r="93" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
         <v>3</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="AC93" s="3"/>
       <c r="AD93" s="3"/>
     </row>
-    <row r="94" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
         <v>3</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="AC94" s="3"/>
       <c r="AD94" s="3"/>
     </row>
-    <row r="95" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
         <v>3</v>
       </c>
@@ -7492,7 +7492,7 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
     </row>
-    <row r="96" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
         <v>3</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
     </row>
-    <row r="97" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>3</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
     </row>
-    <row r="98" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>55</v>
       </c>
@@ -7736,7 +7736,7 @@
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
     </row>
-    <row r="99" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>55</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
     </row>
-    <row r="100" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>55</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="AC100" s="3"/>
       <c r="AD100" s="3"/>
     </row>
-    <row r="101" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
         <v>55</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="AC101" s="3"/>
       <c r="AD101" s="3"/>
     </row>
-    <row r="102" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>11</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="AC102" s="3"/>
       <c r="AD102" s="3"/>
     </row>
-    <row r="103" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>11</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
     </row>
-    <row r="104" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>11</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
     </row>
-    <row r="105" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>11</v>
       </c>
@@ -8207,7 +8207,7 @@
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
     </row>
-    <row r="106" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>11</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
     </row>
-    <row r="107" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>5</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
     </row>
-    <row r="108" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>5</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="AC108" s="3"/>
       <c r="AD108" s="3"/>
     </row>
-    <row r="109" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>5</v>
       </c>
@@ -8471,7 +8471,7 @@
       <c r="AC109" s="3"/>
       <c r="AD109" s="3"/>
     </row>
-    <row r="110" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>5</v>
       </c>
@@ -8536,7 +8536,7 @@
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
     </row>
-    <row r="111" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>12</v>
       </c>
@@ -8585,7 +8585,7 @@
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
     </row>
-    <row r="112" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>12</v>
       </c>
@@ -8634,7 +8634,7 @@
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
     </row>
-    <row r="113" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>12</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
     </row>
-    <row r="114" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>12</v>
       </c>
@@ -8735,7 +8735,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="24" t="s">
         <v>13</v>
       </c>
@@ -8783,7 +8783,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
@@ -8831,7 +8831,7 @@
       <c r="AC116" s="3"/>
       <c r="AD116" s="3"/>
     </row>
-    <row r="117" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="24" t="s">
         <v>112</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
     </row>
-    <row r="118" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="24" t="s">
         <v>103</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
     </row>
-    <row r="119" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="24" t="s">
         <v>104</v>
       </c>
@@ -9033,7 +9033,7 @@
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
     </row>
-    <row r="120" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="24" t="s">
         <v>105</v>
       </c>
@@ -9113,7 +9113,7 @@
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
     </row>
-    <row r="121" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="24" t="s">
         <v>106</v>
       </c>
@@ -9193,7 +9193,7 @@
       <c r="AC121" s="3"/>
       <c r="AD121" s="3"/>
     </row>
-    <row r="122" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="24" t="s">
         <v>107</v>
       </c>
@@ -9273,7 +9273,7 @@
       <c r="AC122" s="3"/>
       <c r="AD122" s="3"/>
     </row>
-    <row r="123" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="24" t="s">
         <v>108</v>
       </c>
@@ -9353,7 +9353,7 @@
       <c r="AC123" s="3"/>
       <c r="AD123" s="3"/>
     </row>
-    <row r="124" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="24" t="s">
         <v>109</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
     </row>
-    <row r="125" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="24" t="s">
         <v>110</v>
       </c>
@@ -9513,7 +9513,7 @@
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
     </row>
-    <row r="126" spans="1:30" ht="16.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="24" t="s">
         <v>111</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
     </row>
-    <row r="127" spans="1:30" ht="16.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
         <v>26</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
     </row>
-    <row r="128" spans="1:30" ht="16.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
         <v>14</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="AC128" s="3"/>
       <c r="AD128" s="3"/>
     </row>
-    <row r="129" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="24" t="s">
         <v>14</v>
       </c>
@@ -9730,7 +9730,7 @@
       <c r="AC129" s="3"/>
       <c r="AD129" s="3"/>
     </row>
-    <row r="130" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="24" t="s">
         <v>14</v>
       </c>
@@ -9782,7 +9782,7 @@
       <c r="AC130" s="3"/>
       <c r="AD130" s="3"/>
     </row>
-    <row r="131" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="24" t="s">
         <v>14</v>
       </c>
@@ -9834,7 +9834,7 @@
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
     </row>
-    <row r="132" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
         <v>14</v>
       </c>
@@ -9886,7 +9886,7 @@
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
     </row>
-    <row r="133" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="24" t="s">
         <v>15</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
     </row>
-    <row r="134" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
         <v>15</v>
       </c>
@@ -10006,7 +10006,7 @@
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
     </row>
-    <row r="135" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
         <v>15</v>
       </c>
@@ -10066,7 +10066,7 @@
       <c r="AC135" s="3"/>
       <c r="AD135" s="3"/>
     </row>
-    <row r="136" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="24" t="s">
         <v>15</v>
       </c>
@@ -10126,7 +10126,7 @@
       <c r="AC136" s="3"/>
       <c r="AD136" s="3"/>
     </row>
-    <row r="137" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
         <v>15</v>
       </c>
@@ -10186,7 +10186,7 @@
       <c r="AC137" s="3"/>
       <c r="AD137" s="3"/>
     </row>
-    <row r="138" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
         <v>15</v>
       </c>
@@ -10246,7 +10246,7 @@
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
     </row>
-    <row r="139" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="24" t="s">
         <v>16</v>
       </c>
@@ -10298,7 +10298,7 @@
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
     </row>
-    <row r="140" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="24" t="s">
         <v>16</v>
       </c>
@@ -10350,7 +10350,7 @@
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
     </row>
-    <row r="141" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
         <v>16</v>
       </c>
@@ -10402,7 +10402,7 @@
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
     </row>
-    <row r="142" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
         <v>16</v>
       </c>
@@ -10454,7 +10454,7 @@
       <c r="AC142" s="3"/>
       <c r="AD142" s="3"/>
     </row>
-    <row r="143" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
         <v>16</v>
       </c>
@@ -10506,7 +10506,7 @@
       <c r="AC143" s="3"/>
       <c r="AD143" s="3"/>
     </row>
-    <row r="144" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
         <v>17</v>
       </c>
@@ -10554,7 +10554,7 @@
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
     </row>
-    <row r="145" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
         <v>17</v>
       </c>
@@ -10602,7 +10602,7 @@
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
     </row>
-    <row r="146" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
         <v>17</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="24" t="s">
         <v>17</v>
       </c>
@@ -10698,7 +10698,7 @@
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
     </row>
-    <row r="148" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="24" t="s">
         <v>17</v>
       </c>
@@ -10746,7 +10746,7 @@
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
     </row>
-    <row r="149" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="24" t="s">
         <v>18</v>
       </c>
@@ -10794,7 +10794,7 @@
       <c r="AC149" s="3"/>
       <c r="AD149" s="3"/>
     </row>
-    <row r="150" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="24" t="s">
         <v>18</v>
       </c>
@@ -10842,7 +10842,7 @@
       <c r="AC150" s="3"/>
       <c r="AD150" s="3"/>
     </row>
-    <row r="151" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="24" t="s">
         <v>18</v>
       </c>
@@ -10890,7 +10890,7 @@
       <c r="AC151" s="3"/>
       <c r="AD151" s="3"/>
     </row>
-    <row r="152" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="24" t="s">
         <v>19</v>
       </c>
@@ -10930,7 +10930,7 @@
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
     </row>
-    <row r="153" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="24" t="s">
         <v>19</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
     </row>
-    <row r="154" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
         <v>19</v>
       </c>
@@ -11010,7 +11010,7 @@
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
     </row>
-    <row r="155" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="24" t="s">
         <v>19</v>
       </c>
@@ -11050,7 +11050,7 @@
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
     </row>
-    <row r="156" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
         <v>19</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="AC156" s="3"/>
       <c r="AD156" s="3"/>
     </row>
-    <row r="157" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="24" t="s">
         <v>19</v>
       </c>
@@ -11130,7 +11130,7 @@
       <c r="AC157" s="3"/>
       <c r="AD157" s="3"/>
     </row>
-    <row r="158" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -11160,119 +11160,119 @@
       <c r="AC158" s="3"/>
       <c r="AD158" s="3"/>
     </row>
-    <row r="159" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z159" s="4"/>
       <c r="AA159" s="4"/>
       <c r="AB159" s="4"/>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
     </row>
-    <row r="160" spans="1:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z160" s="4"/>
       <c r="AA160" s="4"/>
       <c r="AB160" s="4"/>
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
     </row>
-    <row r="161" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z161" s="4"/>
       <c r="AA161" s="4"/>
       <c r="AB161" s="4"/>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
     </row>
-    <row r="162" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z162" s="4"/>
       <c r="AA162" s="4"/>
       <c r="AB162" s="4"/>
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
     </row>
-    <row r="163" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z163" s="4"/>
       <c r="AA163" s="4"/>
       <c r="AB163" s="4"/>
       <c r="AC163" s="3"/>
       <c r="AD163" s="3"/>
     </row>
-    <row r="164" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z164" s="4"/>
       <c r="AA164" s="4"/>
       <c r="AB164" s="4"/>
       <c r="AC164" s="3"/>
       <c r="AD164" s="3"/>
     </row>
-    <row r="165" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z165" s="4"/>
       <c r="AA165" s="4"/>
       <c r="AB165" s="4"/>
       <c r="AC165" s="3"/>
       <c r="AD165" s="3"/>
     </row>
-    <row r="166" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
       <c r="AB166" s="4"/>
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
     </row>
-    <row r="167" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z167" s="4"/>
       <c r="AA167" s="4"/>
       <c r="AB167" s="4"/>
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
     </row>
-    <row r="168" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z168" s="4"/>
       <c r="AA168" s="4"/>
       <c r="AB168" s="4"/>
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
     </row>
-    <row r="169" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
       <c r="AB169" s="4"/>
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
     </row>
-    <row r="170" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z170" s="4"/>
       <c r="AA170" s="4"/>
       <c r="AB170" s="4"/>
       <c r="AC170" s="3"/>
       <c r="AD170" s="3"/>
     </row>
-    <row r="171" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z171" s="4"/>
       <c r="AA171" s="4"/>
       <c r="AB171" s="4"/>
       <c r="AC171" s="3"/>
       <c r="AD171" s="3"/>
     </row>
-    <row r="172" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z172" s="4"/>
       <c r="AA172" s="4"/>
       <c r="AB172" s="4"/>
       <c r="AC172" s="3"/>
       <c r="AD172" s="3"/>
     </row>
-    <row r="173" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z173" s="4"/>
       <c r="AA173" s="4"/>
       <c r="AB173" s="4"/>
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
     </row>
-    <row r="174" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Z174" s="4"/>
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
     </row>
-    <row r="175" spans="26:30" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="26:30" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
       <c r="AC175" s="3"/>

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -383,7 +383,7 @@
     <t>+ 5,000 | .5</t>
   </si>
   <si>
-    <t>500,000 | .5</t>
+    <t xml:space="preserve"> + 500,000 | .5</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -701,9 +701,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,7 +1020,7 @@
   <dimension ref="A1:AF175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1029,7 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" customWidth="1"/>
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" customWidth="1"/>
@@ -1052,66 +1049,66 @@
       <c r="B1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26">
         <v>2</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26">
         <v>3</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26">
         <v>4</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26">
         <v>5</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26">
         <v>6</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26">
         <v>7</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26">
         <v>8</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26">
         <v>9</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26">
         <v>10</v>
       </c>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26">
         <v>11</v>
       </c>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26">
         <v>12</v>
       </c>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26">
         <v>13</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26">
         <v>14</v>
       </c>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26">
         <v>15</v>
       </c>
-      <c r="AF1" s="27"/>
+      <c r="AF1" s="26"/>
     </row>
     <row r="2" spans="1:32" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1563,7 +1560,7 @@
       <c r="X9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Y9" s="25" t="s">
         <v>116</v>
       </c>
       <c r="Z9" t="s">
@@ -1575,7 +1572,7 @@
       <c r="AB9" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AC9" s="25" t="s">
         <v>116</v>
       </c>
       <c r="AD9" t="s">
@@ -1661,7 +1658,7 @@
       <c r="X10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="26" t="s">
+      <c r="Y10" s="25" t="s">
         <v>116</v>
       </c>
       <c r="Z10" t="s">
@@ -1673,7 +1670,7 @@
       <c r="AB10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="26" t="s">
+      <c r="AC10" s="25" t="s">
         <v>116</v>
       </c>
       <c r="AD10" t="s">

--- a/ClashOfClans_TechTree/CoC_Spread.xlsx
+++ b/ClashOfClans_TechTree/CoC_Spread.xlsx
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:AF175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2810,10 +2810,10 @@
       <c r="L31" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="21">
         <v>4800000</v>
       </c>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="21" t="s">
         <v>74</v>
       </c>
       <c r="O31" s="4"/>
